--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="356">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>AML.M0005</t>
   </si>
   <si>
+    <t>AML.M0019</t>
+  </si>
+  <si>
     <t>AML.M0012</t>
   </si>
   <si>
@@ -98,61 +101,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--825f21ab-f3c9-46ce-b539-28f295f519f8</t>
-  </si>
-  <si>
-    <t>course-of-action--c55ed072-eca7-41d6-b5e0-68c10753544d</t>
-  </si>
-  <si>
-    <t>course-of-action--da785068-ece5-4c52-b77d-39e1b24cb6d7</t>
-  </si>
-  <si>
-    <t>course-of-action--8bba19a7-fc6f-4381-8b34-2d43cdc14627</t>
-  </si>
-  <si>
-    <t>course-of-action--88aea80f-498f-403d-b82f-e76c44f9da94</t>
-  </si>
-  <si>
-    <t>course-of-action--c0f65fa8-8e05-4481-b934-ff2c452ae8c3</t>
-  </si>
-  <si>
-    <t>course-of-action--0b016f6f-2f61-493c-bf9d-02cad4c027df</t>
-  </si>
-  <si>
-    <t>course-of-action--79316871-3bf9-4a59-b517-b0156e84fcb4</t>
-  </si>
-  <si>
-    <t>course-of-action--04e9bb75-1b7e-4825-bc3f-774850d3c1ef</t>
-  </si>
-  <si>
-    <t>course-of-action--6b53cb14-eade-4760-8dae-75164e62cb7e</t>
-  </si>
-  <si>
-    <t>course-of-action--6cd8c9ca-bd46-489f-9ccb-5b76b8ef580e</t>
-  </si>
-  <si>
-    <t>course-of-action--4a048bfe-dab5-434b-86cc-f4586951ec0d</t>
-  </si>
-  <si>
-    <t>course-of-action--7e20b527-6299-4ee3-863e-59fee7cdaa9a</t>
-  </si>
-  <si>
-    <t>course-of-action--de7a696b-f688-454c-bf61-476a68b50e9f</t>
-  </si>
-  <si>
-    <t>course-of-action--532918ce-83cf-4f6f-86fa-8ad4024e91ab</t>
-  </si>
-  <si>
-    <t>course-of-action--8c2cb25a-46b0-4551-beeb-21e8425a48bd</t>
-  </si>
-  <si>
-    <t>course-of-action--32bd077a-90ce-4e97-ad40-8f130a1a7dab</t>
-  </si>
-  <si>
-    <t>course-of-action--a861f658-4203-48ba-bdca-fe068518eefb</t>
-  </si>
-  <si>
-    <t>course-of-action--e2cb599d-2714-4673-bc1a-976c471d7c58</t>
+    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
+  </si>
+  <si>
+    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
+  </si>
+  <si>
+    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
+  </si>
+  <si>
+    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
+  </si>
+  <si>
+    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
+  </si>
+  <si>
+    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
+  </si>
+  <si>
+    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
+  </si>
+  <si>
+    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
+  </si>
+  <si>
+    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
+  </si>
+  <si>
+    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
+  </si>
+  <si>
+    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
+  </si>
+  <si>
+    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
+  </si>
+  <si>
+    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
+  </si>
+  <si>
+    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
+  </si>
+  <si>
+    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
+  </si>
+  <si>
+    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
+  </si>
+  <si>
+    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
+  </si>
+  <si>
+    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
+  </si>
+  <si>
+    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
+  </si>
+  <si>
+    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>Control Access to ML Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to ML Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -225,6 +234,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Require users to verify their identities before accessing a production model.
+Require authentication for API endpoints and monitor production model queries to ensure compliance with usage policies and to prevent model misuse.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
 </t>
   </si>
@@ -241,7 +255,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system. Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
 </t>
   </si>
   <si>
@@ -280,6 +296,7 @@
   </si>
   <si>
     <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
 </t>
   </si>
   <si>
@@ -289,6 +306,7 @@
   <si>
     <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
 File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
 </t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
   </si>
   <si>
@@ -349,7 +370,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>31 October 2023</t>
+    <t>12 January 2024</t>
   </si>
   <si>
     <t>source ID</t>
@@ -427,6 +448,12 @@
     <t>AML.T0020</t>
   </si>
   <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
     <t>AML.T0007</t>
   </si>
   <si>
@@ -439,6 +466,12 @@
     <t>AML.T0002.001</t>
   </si>
   <si>
+    <t>AML.T0002</t>
+  </si>
+  <si>
+    <t>AML.T0004</t>
+  </si>
+  <si>
     <t>AML.T0003</t>
   </si>
   <si>
@@ -469,9 +502,6 @@
     <t>AML.T0034</t>
   </si>
   <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
     <t>AML.T0046</t>
   </si>
   <si>
@@ -487,6 +517,9 @@
     <t>AML.T0019</t>
   </si>
   <si>
+    <t>AML.T0018</t>
+  </si>
+  <si>
     <t>Black-Box Optimization</t>
   </si>
   <si>
@@ -526,6 +559,12 @@
     <t>Poison Training Data</t>
   </si>
   <si>
+    <t>Exfiltration via ML Inference API</t>
+  </si>
+  <si>
+    <t>ML Model Inference API Access</t>
+  </si>
+  <si>
     <t>Discover ML Artifacts</t>
   </si>
   <si>
@@ -538,6 +577,12 @@
     <t>Models</t>
   </si>
   <si>
+    <t>Acquire Public ML Artifacts</t>
+  </si>
+  <si>
+    <t>Search Application Repositories</t>
+  </si>
+  <si>
     <t>Search Victim-Owned Websites</t>
   </si>
   <si>
@@ -568,9 +613,6 @@
     <t>Cost Harvesting</t>
   </si>
   <si>
-    <t>Exfiltration via ML Inference API</t>
-  </si>
-  <si>
     <t>Spamming ML System with Chaff Data</t>
   </si>
   <si>
@@ -586,103 +628,118 @@
     <t>Publish Poisoned Datasets</t>
   </si>
   <si>
-    <t>attack-pattern--79cdc11c-2ca9-4a6a-96a0-18bd84943086</t>
-  </si>
-  <si>
-    <t>attack-pattern--1cc7f877-cb60-419a-bd1e-32b704b534d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bcf7648-2683-421d-b623-bc539de59cb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb747632-d988-45ff-9cb3-97d827b4d9db</t>
-  </si>
-  <si>
-    <t>attack-pattern--4627c4e6-fb06-4bfa-add5-dc46e0043aff</t>
-  </si>
-  <si>
-    <t>attack-pattern--2792e1f0-3132-4876-878d-a900b8a40e7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--d52b913b-808c-461d-8969-94cd5c9fe07b</t>
-  </si>
-  <si>
-    <t>attack-pattern--666f4d33-1a62-4ad7-9bf9-6387cd3f1fd7</t>
-  </si>
-  <si>
-    <t>attack-pattern--481486ed-846c-43ce-931b-86b8a18556b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--68034561-a079-4052-9b64-427bfcff76ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--0d002b6b-d006-4aab-a7f9-fa69f4a1e675</t>
-  </si>
-  <si>
-    <t>attack-pattern--822cb1e2-f35f-4b35-a650-59b7770d4abc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6945b742-f1d5-4a83-ba4a-d0e0de6620c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--529fac49-5f88-4a3c-829f-eb50cb90bcf1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b67fc223-fecf-4ee6-9de7-9392d9f04060</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7f4fc2-272b-4f86-b137-70fa3e239f58</t>
-  </si>
-  <si>
-    <t>attack-pattern--292ebe33-addc-4fe7-b2a9-4856293c4c96</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93b2175-90a8-4250-821f-dcc3bbbe194c</t>
-  </si>
-  <si>
-    <t>attack-pattern--229ead06-da1e-443c-8ff1-e57a3ae0eb61</t>
-  </si>
-  <si>
-    <t>attack-pattern--afcd723a-e5ff-4c09-8f72-fe16f7345af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--51c95da5-d7f1-4b57-9229-869b80305b37</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a115a02-2b88-4a3e-9212-a39dc086320b</t>
-  </si>
-  <si>
-    <t>attack-pattern--65c5e3b8-9296-46a2-ae7d-1b68a79cbe54</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5d1fd4f-861f-43e0-b1ca-ee8a3b47f7e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--83c5ba15-5312-4c7d-bbb4-f9c4f2c6ffca</t>
-  </si>
-  <si>
-    <t>attack-pattern--569d6edd-0140-4ab2-97b1-3635d62f40cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba5645e5-d1ab-4f1f-8b82-cb0792543fa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b829988-8bdb-4c4e-a4dd-500a3d3fd3e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--3247b43f-1888-4158-b3da-5b7c7dfaa4e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0958449-a880-4410-bbb1-fa102030a883</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e8e4108-beb6-479a-a617-323d425e5d03</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6697dbf-3e3f-41ce-a212-361d1c0ca0e9</t>
-  </si>
-  <si>
-    <t>attack-pattern--0799f2f2-1038-4391-ba1f-4117595db45a</t>
+    <t>Backdoor ML Model</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
+  </si>
+  <si>
+    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
+  </si>
+  <si>
+    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
+  </si>
+  <si>
+    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
+  </si>
+  <si>
+    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
+  </si>
+  <si>
+    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
+  </si>
+  <si>
+    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
+  </si>
+  <si>
+    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
+  </si>
+  <si>
+    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
+  </si>
+  <si>
+    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
   </si>
   <si>
     <t>technique</t>
@@ -728,6 +785,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Adversaries can use unrestricted API access to build a proxy training dataset and reveal private information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversaries can use unrestricted API access to gain information about a production system, stage attacks, and introduce malicious data to the system.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protect machine learning artifacts from adversaries who gather private information to target and improve attacks.
 </t>
   </si>
@@ -753,6 +818,10 @@
   </si>
   <si>
     <t xml:space="preserve">Published datasets can be a target for poisoning attacks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit the release of sensitive information in the metadata of deployed systems and publicly available applications.
 </t>
   </si>
   <si>
@@ -880,206 +949,225 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Techniques such as neural payload injection can make model artifacts vulnerable to adversarial queries. Scan model artifacts for signs of compromise.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scan ML artifacts for vulnerabilities before execution.
 </t>
   </si>
   <si>
-    <t>relationship--3fc4742d-7002-4250-8af4-7e73eff7f5cd</t>
-  </si>
-  <si>
-    <t>relationship--10eb804b-3b7d-4cb8-8b0e-2c482e0c710e</t>
-  </si>
-  <si>
-    <t>relationship--212ba9af-2ce5-4e9e-810e-a2cb3e5188f9</t>
-  </si>
-  <si>
-    <t>relationship--9bb8ded8-9ae7-4ff0-9205-622bc54766e3</t>
-  </si>
-  <si>
-    <t>relationship--92805fa2-39b0-4116-9e66-3ceea6b6aefa</t>
-  </si>
-  <si>
-    <t>relationship--bbbf70fd-61a4-4517-9f77-4b01f579e164</t>
-  </si>
-  <si>
-    <t>relationship--3215a3e5-2ef6-4ace-98fb-0feb24481fe9</t>
-  </si>
-  <si>
-    <t>relationship--1584d705-c71d-4d87-8ee4-5714ac85586c</t>
-  </si>
-  <si>
-    <t>relationship--f4520ca2-df4a-4921-aea3-651e4789b235</t>
-  </si>
-  <si>
-    <t>relationship--0cb81d07-3cd1-4ea4-8a14-004b5ea237a2</t>
-  </si>
-  <si>
-    <t>relationship--71848eba-b7d2-4623-b9af-188424da70d5</t>
-  </si>
-  <si>
-    <t>relationship--ec3ccfc9-c032-4983-87b2-4417e6f16191</t>
-  </si>
-  <si>
-    <t>relationship--d5c1790f-d168-45b8-920b-c3895b71c8f8</t>
-  </si>
-  <si>
-    <t>relationship--3f2e740f-fca4-4593-822d-383ae976518f</t>
-  </si>
-  <si>
-    <t>relationship--097b6f2c-1ce6-4d7b-9fa3-47f87cdf7463</t>
-  </si>
-  <si>
-    <t>relationship--b30a5ae0-b768-4c89-83d5-3d55fd88f347</t>
-  </si>
-  <si>
-    <t>relationship--938ab919-d333-4c5e-8c96-7603724bb304</t>
-  </si>
-  <si>
-    <t>relationship--e134c2b8-403d-4fbb-8da8-bb44a5403297</t>
-  </si>
-  <si>
-    <t>relationship--6b9e0fe0-2503-4e15-bc78-8d5051a33849</t>
-  </si>
-  <si>
-    <t>relationship--7a30074c-9c63-4eae-8e85-646ad8d0429c</t>
-  </si>
-  <si>
-    <t>relationship--ccfb7ef5-05ae-458b-bee5-db8801e96650</t>
-  </si>
-  <si>
-    <t>relationship--b4fdbd9a-9cc6-4aeb-95b0-6c708f92ca4f</t>
-  </si>
-  <si>
-    <t>relationship--0622851a-94e0-4902-b1d7-b3e08d634e51</t>
-  </si>
-  <si>
-    <t>relationship--e7ccce8f-188a-4282-a3c0-1965722c0e52</t>
-  </si>
-  <si>
-    <t>relationship--9481f612-990e-40d4-9e13-bdb9d30390a3</t>
-  </si>
-  <si>
-    <t>relationship--4d100ba1-3b4b-4c94-9fe3-b62561e1f639</t>
-  </si>
-  <si>
-    <t>relationship--1e9e9aff-bd46-42a8-80df-9dc25aeb10ac</t>
-  </si>
-  <si>
-    <t>relationship--6dd2478c-d171-4cb4-a77c-5a5859fd21a0</t>
-  </si>
-  <si>
-    <t>relationship--a6508e7d-7659-41af-b4cd-c51c727a4d5c</t>
-  </si>
-  <si>
-    <t>relationship--6ffb6589-ca5d-4a92-8176-b569489f3162</t>
-  </si>
-  <si>
-    <t>relationship--273cf6fc-a571-42f1-a360-0d5dac39dd3f</t>
-  </si>
-  <si>
-    <t>relationship--3705de55-eb57-4303-ba2e-985e2fbcd7b8</t>
-  </si>
-  <si>
-    <t>relationship--f5e4fdf8-e169-45e4-89ba-6e1fd97ddf69</t>
-  </si>
-  <si>
-    <t>relationship--e5c1ceba-4a9a-422e-acc3-f10cd68944f8</t>
-  </si>
-  <si>
-    <t>relationship--afbfc3e2-bd98-46df-86f4-ec3471c3e2f4</t>
-  </si>
-  <si>
-    <t>relationship--167acfb9-6535-4fe8-89a1-cd20b22163e6</t>
-  </si>
-  <si>
-    <t>relationship--da4b8771-3e0d-4698-ac26-40057be4fbf2</t>
-  </si>
-  <si>
-    <t>relationship--e4c8c36d-28e4-425c-b9d4-e11e0fa8a3d5</t>
-  </si>
-  <si>
-    <t>relationship--774b5a4a-f4a6-4319-b917-673e33de42e5</t>
-  </si>
-  <si>
-    <t>relationship--0cc64ff9-22f8-4f69-8013-be2b49069e06</t>
-  </si>
-  <si>
-    <t>relationship--b7e33e0e-cb4c-4270-89e9-4c80e2a05159</t>
-  </si>
-  <si>
-    <t>relationship--f480a896-9f89-40db-ab8c-1a796cfda381</t>
-  </si>
-  <si>
-    <t>relationship--53f472e3-ecca-4d76-8c40-ef6cc7b4c8ca</t>
-  </si>
-  <si>
-    <t>relationship--42327e33-e1b4-4d12-84ed-1e9a498fc1c9</t>
-  </si>
-  <si>
-    <t>relationship--1ee9cdd3-d249-442f-a68d-6b1e9a53bbb5</t>
-  </si>
-  <si>
-    <t>relationship--9e36773c-8d5d-4aa6-81ee-45efe0ad2d3c</t>
-  </si>
-  <si>
-    <t>relationship--5c201940-62fb-45fb-af94-b1c617b04094</t>
-  </si>
-  <si>
-    <t>relationship--446ee7d0-525e-4c0e-8bba-a5ba1c7673e7</t>
-  </si>
-  <si>
-    <t>relationship--8c4199e1-0a42-47eb-9a94-51306ec64d36</t>
-  </si>
-  <si>
-    <t>relationship--0552998f-3b18-4413-a914-c9333fc045b9</t>
-  </si>
-  <si>
-    <t>relationship--2b4b233a-b242-4e7a-931d-14419fda3c5b</t>
-  </si>
-  <si>
-    <t>relationship--1db899aa-ad3b-41f6-950f-b546aaef74bc</t>
-  </si>
-  <si>
-    <t>relationship--e2cb0916-94d1-4fa9-ae78-0470076d231c</t>
-  </si>
-  <si>
-    <t>relationship--8c4a003d-af46-46a5-90e5-9e74174df226</t>
-  </si>
-  <si>
-    <t>relationship--f1995705-a128-4976-9fe6-a6f255f11543</t>
-  </si>
-  <si>
-    <t>relationship--81a27728-9189-49dd-adf2-a2baeb5daa3e</t>
-  </si>
-  <si>
-    <t>relationship--15efcf7a-41b7-4b3f-951c-85739bdec15a</t>
-  </si>
-  <si>
-    <t>relationship--e5f75ac7-9b0a-4e8d-8fb6-335962831a8f</t>
-  </si>
-  <si>
-    <t>relationship--f12afb3e-1d7b-43d9-a0ee-ead6b8074e03</t>
-  </si>
-  <si>
-    <t>relationship--8fcd5516-b5c2-456c-8188-a54cf1c924eb</t>
-  </si>
-  <si>
-    <t>relationship--cc9d9b40-4443-4f0c-8804-a4d65381dcff</t>
-  </si>
-  <si>
-    <t>relationship--e6550923-48de-4a2d-b9bc-c9eff3417584</t>
-  </si>
-  <si>
-    <t>relationship--c9aa246f-8155-4425-a10b-f0661cc2c934</t>
-  </si>
-  <si>
-    <t>relationship--7ed526db-2c2b-4faa-a9c8-9a3a8f6709ef</t>
-  </si>
-  <si>
-    <t>relationship--cba7d954-f13e-44f9-b43a-54a9e348f494</t>
-  </si>
-  <si>
-    <t>relationship--84319376-7e07-4bfb-a033-e0415548158a</t>
+    <t>relationship--45d8a104-8d95-4d8a-b30d-6f60b8a4624d</t>
+  </si>
+  <si>
+    <t>relationship--485ea34d-43c5-4a69-bc72-fd324783630f</t>
+  </si>
+  <si>
+    <t>relationship--3a6b2dd2-f55b-4c45-9535-494816b69cf7</t>
+  </si>
+  <si>
+    <t>relationship--f56be693-09d7-4305-a17c-81dfce080d3f</t>
+  </si>
+  <si>
+    <t>relationship--75059a1b-2db3-4e52-a96c-1fc59fd8604e</t>
+  </si>
+  <si>
+    <t>relationship--a9bc68d2-749f-4ee8-8e65-2901311f4269</t>
+  </si>
+  <si>
+    <t>relationship--275350d2-bc6f-4ecc-aaf7-051f8a80e03e</t>
+  </si>
+  <si>
+    <t>relationship--d49e8b82-87ee-4bb2-a8b7-f9b47722fc5c</t>
+  </si>
+  <si>
+    <t>relationship--b1c30f07-9152-4fba-8718-1c9b0b8555bb</t>
+  </si>
+  <si>
+    <t>relationship--9c682177-2857-46f1-b284-f778c7e41bb1</t>
+  </si>
+  <si>
+    <t>relationship--9b105848-aeff-4e9f-9550-079ae1d94c98</t>
+  </si>
+  <si>
+    <t>relationship--080ecf88-043b-482f-91cf-7307864d86f8</t>
+  </si>
+  <si>
+    <t>relationship--2222eec9-46ac-4fbc-b78b-3a9cf10786ec</t>
+  </si>
+  <si>
+    <t>relationship--e0634ec1-c6fe-4e4a-b4ba-54b7f2c509b5</t>
+  </si>
+  <si>
+    <t>relationship--15858ff6-c58c-4259-a2db-49b59cad4b70</t>
+  </si>
+  <si>
+    <t>relationship--bec5ba94-3953-4ee5-85d1-b4e7f1ba9c8b</t>
+  </si>
+  <si>
+    <t>relationship--122896d2-f3d0-471c-8426-6719f25a29fb</t>
+  </si>
+  <si>
+    <t>relationship--3140f60b-52d5-42af-b49b-815ea982fd61</t>
+  </si>
+  <si>
+    <t>relationship--cfcbd4c5-949f-4523-9734-0cfa719bdc4a</t>
+  </si>
+  <si>
+    <t>relationship--dbffa265-59ed-4cd1-b357-594a153258db</t>
+  </si>
+  <si>
+    <t>relationship--3df30cde-81e4-40fe-9f75-ac98fb5ac670</t>
+  </si>
+  <si>
+    <t>relationship--079cd236-9778-40cf-82b2-08d2e1d852ed</t>
+  </si>
+  <si>
+    <t>relationship--a7515cfb-dde7-46a3-90d0-e70e058b2e24</t>
+  </si>
+  <si>
+    <t>relationship--7fddcc81-d44a-4afd-ae87-c55dd372cd2b</t>
+  </si>
+  <si>
+    <t>relationship--eac3b27a-7183-40b0-9883-4b55026ae23e</t>
+  </si>
+  <si>
+    <t>relationship--70bc91d9-d02d-4550-bd4f-d0a17028e884</t>
+  </si>
+  <si>
+    <t>relationship--15248543-08b6-4d25-9021-94e8a726f0af</t>
+  </si>
+  <si>
+    <t>relationship--4ccc836c-7e08-4536-b3cc-ccd4624956d9</t>
+  </si>
+  <si>
+    <t>relationship--97ee6efd-0f3d-4900-a063-cb2e2d0103a3</t>
+  </si>
+  <si>
+    <t>relationship--f6cd8f0e-a579-4cd0-8433-f2f8542e0895</t>
+  </si>
+  <si>
+    <t>relationship--170cdbcf-5fca-4962-a342-eb87e564230f</t>
+  </si>
+  <si>
+    <t>relationship--70a37abc-eda5-41fa-ad85-3b275d14c44e</t>
+  </si>
+  <si>
+    <t>relationship--f14a7079-2fc2-4014-8657-c6cae0ab46dd</t>
+  </si>
+  <si>
+    <t>relationship--21726d00-314d-488d-a701-37f3a7cad392</t>
+  </si>
+  <si>
+    <t>relationship--201e25e4-532a-498f-9b14-668f76d59b3a</t>
+  </si>
+  <si>
+    <t>relationship--dc5d285e-5380-410f-bac5-1d26e9a000bf</t>
+  </si>
+  <si>
+    <t>relationship--54d57d25-d17d-499b-8207-4b551856eee5</t>
+  </si>
+  <si>
+    <t>relationship--94b9cbe2-471b-4f74-83d5-b07e9b34e73c</t>
+  </si>
+  <si>
+    <t>relationship--81e91c65-8f80-4c08-9911-b18f5e73de30</t>
+  </si>
+  <si>
+    <t>relationship--08b37c27-8b43-41c4-baef-6f63686ed15b</t>
+  </si>
+  <si>
+    <t>relationship--cd08726b-d6ec-4d86-bcbc-b9febb579776</t>
+  </si>
+  <si>
+    <t>relationship--e8f19731-250f-4c7b-b875-d808a183db4f</t>
+  </si>
+  <si>
+    <t>relationship--98d7ef15-bfbd-4241-8bcd-4811d1ba4b0f</t>
+  </si>
+  <si>
+    <t>relationship--cef2f25a-2a1f-46e7-90f9-3fef76d47cd9</t>
+  </si>
+  <si>
+    <t>relationship--08c604c4-67f4-4cd9-9b1e-f2fe02fade78</t>
+  </si>
+  <si>
+    <t>relationship--d1a91693-f49d-4729-9b8c-ad729af76757</t>
+  </si>
+  <si>
+    <t>relationship--f2db5ba4-32bc-47b2-aa0b-d486aec56228</t>
+  </si>
+  <si>
+    <t>relationship--c9acb5b9-d119-4f29-98d5-f16c2104a585</t>
+  </si>
+  <si>
+    <t>relationship--0f6d2793-1649-4b26-a709-400f5df0b96a</t>
+  </si>
+  <si>
+    <t>relationship--cc3ef7e3-9314-4900-9f29-05f9604f95ff</t>
+  </si>
+  <si>
+    <t>relationship--cdfc8b8c-4975-42b4-bbe6-9bbf5b06cc41</t>
+  </si>
+  <si>
+    <t>relationship--9dbe1b38-dc7e-439f-9c4b-2aa81ee60099</t>
+  </si>
+  <si>
+    <t>relationship--7c3ec45f-3664-403e-a436-f419bde4e78f</t>
+  </si>
+  <si>
+    <t>relationship--5490e196-2349-4728-ad1b-833d9297944f</t>
+  </si>
+  <si>
+    <t>relationship--d474071e-8a20-4d44-9688-db0d263b65b5</t>
+  </si>
+  <si>
+    <t>relationship--5e999d74-77dd-4918-9e44-b3cc98ff9a5c</t>
+  </si>
+  <si>
+    <t>relationship--42e583c2-7691-48cf-8867-e17379176324</t>
+  </si>
+  <si>
+    <t>relationship--98bc942a-8688-429c-a8f6-016458812dde</t>
+  </si>
+  <si>
+    <t>relationship--335c5512-9a7f-4f75-acd6-cfd1c08672ae</t>
+  </si>
+  <si>
+    <t>relationship--b618c81e-8e49-4dd2-8fa9-82bdcaa660df</t>
+  </si>
+  <si>
+    <t>relationship--6abb1328-8539-4443-87ee-6ca169e5e5f3</t>
+  </si>
+  <si>
+    <t>relationship--d1ad589c-8f51-4409-996d-cb64e3faf69c</t>
+  </si>
+  <si>
+    <t>relationship--5ea7f354-6dc8-40da-bb82-9e0614aa6df2</t>
+  </si>
+  <si>
+    <t>relationship--c67a0932-1327-41b0-b053-9e3899252b36</t>
+  </si>
+  <si>
+    <t>relationship--a988d190-aee2-496d-8241-a900e5f8cb91</t>
+  </si>
+  <si>
+    <t>relationship--af68db01-f426-4c2a-95af-84c060699689</t>
+  </si>
+  <si>
+    <t>relationship--1fa939f4-a10f-4008-85cd-e32b2008439f</t>
+  </si>
+  <si>
+    <t>relationship--f2057dac-ef5c-449f-af81-26c39e482f8e</t>
+  </si>
+  <si>
+    <t>relationship--65888216-8771-4c81-afc3-30f7fd90f2c8</t>
+  </si>
+  <si>
+    <t>relationship--ff7cc99e-c143-4639-9748-a614cdd6f35c</t>
+  </si>
+  <si>
+    <t>relationship--042e344a-bf2d-4b15-a1d1-47e2b166fc43</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,22 +1575,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1510,22 +1598,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1533,22 +1621,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1556,22 +1644,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1579,22 +1667,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1602,22 +1690,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1625,22 +1713,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1648,22 +1736,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1671,22 +1759,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1694,22 +1782,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1717,22 +1805,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1740,22 +1828,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1763,22 +1851,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1786,22 +1874,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1809,22 +1897,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1832,22 +1920,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1855,22 +1943,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1878,22 +1966,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1901,22 +1989,45 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1940,6 +2051,7 @@
     <hyperlink ref="E18" r:id="rId17"/>
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1947,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1955,34 +2067,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -1999,40 +2111,40 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2040,40 +2152,40 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2081,40 +2193,40 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2122,40 +2234,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K5" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2163,40 +2275,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2204,40 +2316,40 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2245,40 +2357,40 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K8" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2286,40 +2398,40 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2327,40 +2439,40 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2368,40 +2480,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J11" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2409,40 +2521,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2450,40 +2562,40 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2491,40 +2603,40 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2532,40 +2644,40 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J15" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K15" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2573,40 +2685,40 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2614,81 +2726,81 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="K18" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2696,40 +2808,40 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J19" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K19" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2737,81 +2849,81 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K20" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2819,40 +2931,40 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
         <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2860,81 +2972,81 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
         <v>198</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2942,40 +3054,40 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2983,40 +3095,40 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3024,40 +3136,40 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3065,40 +3177,40 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3106,81 +3218,81 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3188,122 +3300,122 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3311,40 +3423,40 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3352,122 +3464,122 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3475,163 +3587,163 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K38" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J39" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3639,286 +3751,286 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H44" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I44" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="K45" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J46" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I48" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3926,40 +4038,40 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="I49" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K49" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3967,40 +4079,40 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="I50" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4008,81 +4120,81 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="L51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="I52" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4090,40 +4202,40 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J53" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="K53" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4131,40 +4243,40 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K54" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4172,81 +4284,81 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K55" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="K56" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="L56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4254,40 +4366,40 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I57" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4295,204 +4407,204 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G58" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J59" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K59" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="L59" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J60" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="K60" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="L60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I61" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K61" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="L61" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M61" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="I62" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K62" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="L62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4500,81 +4612,81 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
         <v>127</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I63" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J63" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K63" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="L63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G64" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K64" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="L64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4582,40 +4694,40 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K65" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M65" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4623,81 +4735,286 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K66" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="L66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" t="s">
+        <v>206</v>
+      </c>
+      <c r="I67" t="s">
+        <v>232</v>
+      </c>
+      <c r="J67" t="s">
+        <v>279</v>
+      </c>
+      <c r="K67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L67" t="s">
+        <v>108</v>
+      </c>
+      <c r="M67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
         <v>155</v>
       </c>
-      <c r="H67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I67" t="s">
-        <v>215</v>
-      </c>
-      <c r="J67" t="s">
-        <v>263</v>
-      </c>
-      <c r="K67" t="s">
-        <v>329</v>
-      </c>
-      <c r="L67" t="s">
-        <v>103</v>
-      </c>
-      <c r="M67" t="s">
-        <v>103</v>
+      <c r="G68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" t="s">
+        <v>280</v>
+      </c>
+      <c r="K68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" t="s">
+        <v>108</v>
+      </c>
+      <c r="M68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" t="s">
+        <v>281</v>
+      </c>
+      <c r="K69" t="s">
+        <v>352</v>
+      </c>
+      <c r="L69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" t="s">
+        <v>232</v>
+      </c>
+      <c r="J70" t="s">
+        <v>282</v>
+      </c>
+      <c r="K70" t="s">
+        <v>353</v>
+      </c>
+      <c r="L70" t="s">
+        <v>108</v>
+      </c>
+      <c r="M70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" t="s">
+        <v>231</v>
+      </c>
+      <c r="I71" t="s">
+        <v>232</v>
+      </c>
+      <c r="J71" t="s">
+        <v>283</v>
+      </c>
+      <c r="K71" t="s">
+        <v>354</v>
+      </c>
+      <c r="L71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" t="s">
+        <v>164</v>
+      </c>
+      <c r="H72" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" t="s">
+        <v>284</v>
+      </c>
+      <c r="K72" t="s">
+        <v>355</v>
+      </c>
+      <c r="L72" t="s">
+        <v>108</v>
+      </c>
+      <c r="M72" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -101,64 +101,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
-  </si>
-  <si>
-    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
-  </si>
-  <si>
-    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
-  </si>
-  <si>
-    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
-  </si>
-  <si>
-    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
-  </si>
-  <si>
-    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
-  </si>
-  <si>
-    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
-  </si>
-  <si>
-    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
-  </si>
-  <si>
-    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
-  </si>
-  <si>
-    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
-  </si>
-  <si>
-    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
-  </si>
-  <si>
-    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
-  </si>
-  <si>
-    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
-  </si>
-  <si>
-    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
-  </si>
-  <si>
-    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
-  </si>
-  <si>
-    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
-  </si>
-  <si>
-    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
-  </si>
-  <si>
-    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
-  </si>
-  <si>
-    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
-  </si>
-  <si>
-    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
+    <t>course-of-action--b7d1db40-dd7b-4b7d-b803-1283b7c4f55e</t>
+  </si>
+  <si>
+    <t>course-of-action--c48829c8-5581-45d6-a34a-112aa85d704c</t>
+  </si>
+  <si>
+    <t>course-of-action--374749c7-19c4-49ee-8267-f3ea862157a7</t>
+  </si>
+  <si>
+    <t>course-of-action--6b26a096-3222-48ec-bf45-c30f320cbd2a</t>
+  </si>
+  <si>
+    <t>course-of-action--55038247-dea1-4414-8d8d-2278818d0f7e</t>
+  </si>
+  <si>
+    <t>course-of-action--fa399546-7037-4e50-bd5b-3d41f3997812</t>
+  </si>
+  <si>
+    <t>course-of-action--b56f6da0-2051-401e-89e2-a63e156872d5</t>
+  </si>
+  <si>
+    <t>course-of-action--3686113d-731b-42b6-9d36-efcbca71c3b7</t>
+  </si>
+  <si>
+    <t>course-of-action--9994c985-080a-4652-bfc0-28b19059fac2</t>
+  </si>
+  <si>
+    <t>course-of-action--b4066cd9-3bb6-4a89-8f32-7f207168d086</t>
+  </si>
+  <si>
+    <t>course-of-action--df57183e-147b-4caf-bffc-ee6265aa99f2</t>
+  </si>
+  <si>
+    <t>course-of-action--836bd250-7e46-4c9c-801b-b2d82132d429</t>
+  </si>
+  <si>
+    <t>course-of-action--656b4297-4395-4efc-9396-cf08523518c2</t>
+  </si>
+  <si>
+    <t>course-of-action--5ab160b2-9de8-4ade-b5bb-aa516f04f9da</t>
+  </si>
+  <si>
+    <t>course-of-action--5a4a5a17-16a8-4a02-b1a3-6ad3c72c95e3</t>
+  </si>
+  <si>
+    <t>course-of-action--488b2d71-b7b9-403d-85d0-48aef040007d</t>
+  </si>
+  <si>
+    <t>course-of-action--0408cdf3-2274-4f06-be37-7724c34a0ac7</t>
+  </si>
+  <si>
+    <t>course-of-action--f32006de-3282-47c6-ae96-11e13d132283</t>
+  </si>
+  <si>
+    <t>course-of-action--1341b145-8eaf-471f-b090-b5bf24164b64</t>
+  </si>
+  <si>
+    <t>course-of-action--632e55d7-462b-44a8-a652-cbb7f64328d2</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -370,7 +370,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>12 January 2024</t>
+    <t>11 March 2024</t>
   </si>
   <si>
     <t>source ID</t>
@@ -631,115 +631,115 @@
     <t>Backdoor ML Model</t>
   </si>
   <si>
-    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
-  </si>
-  <si>
-    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
-  </si>
-  <si>
-    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
-  </si>
-  <si>
-    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
-  </si>
-  <si>
-    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
-  </si>
-  <si>
-    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
-  </si>
-  <si>
-    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
-  </si>
-  <si>
-    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
-  </si>
-  <si>
-    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
-  </si>
-  <si>
-    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
-  </si>
-  <si>
-    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
-  </si>
-  <si>
-    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
-  </si>
-  <si>
-    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
-  </si>
-  <si>
-    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
-  </si>
-  <si>
-    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
-  </si>
-  <si>
-    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
-  </si>
-  <si>
-    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
-  </si>
-  <si>
-    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
-  </si>
-  <si>
-    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
-  </si>
-  <si>
-    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
-  </si>
-  <si>
-    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
-  </si>
-  <si>
-    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
-  </si>
-  <si>
-    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
-  </si>
-  <si>
-    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
-  </si>
-  <si>
-    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
-  </si>
-  <si>
-    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
-  </si>
-  <si>
-    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
-  </si>
-  <si>
-    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
+    <t>attack-pattern--7a6a57da-bca7-4e44-8511-01cf1764cce8</t>
+  </si>
+  <si>
+    <t>attack-pattern--867688f9-2b19-4133-905f-d63cf65508b8</t>
+  </si>
+  <si>
+    <t>attack-pattern--2690a529-6cbe-43c0-b896-0485f57aaa38</t>
+  </si>
+  <si>
+    <t>attack-pattern--61d256af-5427-4295-83a8-d145574e4bc6</t>
+  </si>
+  <si>
+    <t>attack-pattern--0f64afba-ef9b-4d51-bae4-8d882948002c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b1504b5-f1c3-44ff-b8a4-8bee6da2decd</t>
+  </si>
+  <si>
+    <t>attack-pattern--2367d435-f615-4318-8a7e-1b57e43796f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d5216c2-7885-4070-a2ac-61ce9dc9add7</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e48042d-3216-41c4-a4b6-c6d05275fa58</t>
+  </si>
+  <si>
+    <t>attack-pattern--d999ea10-efdb-4c4e-aa21-99df5169e58c</t>
+  </si>
+  <si>
+    <t>attack-pattern--6f218799-67ae-4a31-8f66-893e1bbac1a9</t>
+  </si>
+  <si>
+    <t>attack-pattern--3db4bc83-6b83-42c4-8f6e-a6701669c4ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--990b6f83-2795-4b78-8177-e8edc6ec645f</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b9dbf0f-1740-401d-9cd2-42d84e63d4c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--df039ea9-d621-46fd-828a-f99b537b6dba</t>
+  </si>
+  <si>
+    <t>attack-pattern--2c65040c-4638-40a0-bac1-f6e77888a828</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d33022e-1df9-40ec-bb57-5bc4cd4ede97</t>
+  </si>
+  <si>
+    <t>attack-pattern--14d1c118-8f21-477d-ba59-40a37c8907fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf20a7b3-ab3a-46d3-b382-0051d04a52e3</t>
+  </si>
+  <si>
+    <t>attack-pattern--0e65f2b9-d758-4da7-8c85-b4a7db57e0ab</t>
+  </si>
+  <si>
+    <t>attack-pattern--e4835863-bd95-412a-8a90-9b46b2ba710d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7ccdc910-8651-44c1-b346-40ed08464065</t>
+  </si>
+  <si>
+    <t>attack-pattern--f3603313-1991-4c1d-bce9-e53e9f59098d</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac3ffe91-3ff5-485f-b22f-1a8c29c29905</t>
+  </si>
+  <si>
+    <t>attack-pattern--08f770d7-8260-43e4-98f7-0b15e1028f54</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3659e5f-430b-451c-8b16-4b54e5a6c4b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--c24bef4b-27f1-4a40-af66-f4ecbebb74cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6bac6fd-d491-4438-bde9-e1e0242533f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--c2f2e998-09ac-42bc-9c28-dbb94719fb64</t>
+  </si>
+  <si>
+    <t>attack-pattern--36e0d80a-31d3-4b5d-9948-7b01ce7a2597</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef60d8b9-25c4-4550-9ad4-9be85f7454c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--37b4d9da-15b0-4484-a5fe-2f2cadbe77f2</t>
+  </si>
+  <si>
+    <t>attack-pattern--196fa43b-b283-44d9-bf51-596b11823fdf</t>
+  </si>
+  <si>
+    <t>attack-pattern--d7f0ed90-f99e-41a3-95bf-c56d68a29969</t>
+  </si>
+  <si>
+    <t>attack-pattern--ec5266cd-b135-45c6-983d-c85bc4f47c22</t>
+  </si>
+  <si>
+    <t>attack-pattern--0024d2d7-eee5-40e2-b030-231de594deaa</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e2e892e-984b-4cbc-8b8a-e460889619a1</t>
   </si>
   <si>
     <t>technique</t>
@@ -957,217 +957,217 @@
 </t>
   </si>
   <si>
-    <t>relationship--45d8a104-8d95-4d8a-b30d-6f60b8a4624d</t>
-  </si>
-  <si>
-    <t>relationship--485ea34d-43c5-4a69-bc72-fd324783630f</t>
-  </si>
-  <si>
-    <t>relationship--3a6b2dd2-f55b-4c45-9535-494816b69cf7</t>
-  </si>
-  <si>
-    <t>relationship--f56be693-09d7-4305-a17c-81dfce080d3f</t>
-  </si>
-  <si>
-    <t>relationship--75059a1b-2db3-4e52-a96c-1fc59fd8604e</t>
-  </si>
-  <si>
-    <t>relationship--a9bc68d2-749f-4ee8-8e65-2901311f4269</t>
-  </si>
-  <si>
-    <t>relationship--275350d2-bc6f-4ecc-aaf7-051f8a80e03e</t>
-  </si>
-  <si>
-    <t>relationship--d49e8b82-87ee-4bb2-a8b7-f9b47722fc5c</t>
-  </si>
-  <si>
-    <t>relationship--b1c30f07-9152-4fba-8718-1c9b0b8555bb</t>
-  </si>
-  <si>
-    <t>relationship--9c682177-2857-46f1-b284-f778c7e41bb1</t>
-  </si>
-  <si>
-    <t>relationship--9b105848-aeff-4e9f-9550-079ae1d94c98</t>
-  </si>
-  <si>
-    <t>relationship--080ecf88-043b-482f-91cf-7307864d86f8</t>
-  </si>
-  <si>
-    <t>relationship--2222eec9-46ac-4fbc-b78b-3a9cf10786ec</t>
-  </si>
-  <si>
-    <t>relationship--e0634ec1-c6fe-4e4a-b4ba-54b7f2c509b5</t>
-  </si>
-  <si>
-    <t>relationship--15858ff6-c58c-4259-a2db-49b59cad4b70</t>
-  </si>
-  <si>
-    <t>relationship--bec5ba94-3953-4ee5-85d1-b4e7f1ba9c8b</t>
-  </si>
-  <si>
-    <t>relationship--122896d2-f3d0-471c-8426-6719f25a29fb</t>
-  </si>
-  <si>
-    <t>relationship--3140f60b-52d5-42af-b49b-815ea982fd61</t>
-  </si>
-  <si>
-    <t>relationship--cfcbd4c5-949f-4523-9734-0cfa719bdc4a</t>
-  </si>
-  <si>
-    <t>relationship--dbffa265-59ed-4cd1-b357-594a153258db</t>
-  </si>
-  <si>
-    <t>relationship--3df30cde-81e4-40fe-9f75-ac98fb5ac670</t>
-  </si>
-  <si>
-    <t>relationship--079cd236-9778-40cf-82b2-08d2e1d852ed</t>
-  </si>
-  <si>
-    <t>relationship--a7515cfb-dde7-46a3-90d0-e70e058b2e24</t>
-  </si>
-  <si>
-    <t>relationship--7fddcc81-d44a-4afd-ae87-c55dd372cd2b</t>
-  </si>
-  <si>
-    <t>relationship--eac3b27a-7183-40b0-9883-4b55026ae23e</t>
-  </si>
-  <si>
-    <t>relationship--70bc91d9-d02d-4550-bd4f-d0a17028e884</t>
-  </si>
-  <si>
-    <t>relationship--15248543-08b6-4d25-9021-94e8a726f0af</t>
-  </si>
-  <si>
-    <t>relationship--4ccc836c-7e08-4536-b3cc-ccd4624956d9</t>
-  </si>
-  <si>
-    <t>relationship--97ee6efd-0f3d-4900-a063-cb2e2d0103a3</t>
-  </si>
-  <si>
-    <t>relationship--f6cd8f0e-a579-4cd0-8433-f2f8542e0895</t>
-  </si>
-  <si>
-    <t>relationship--170cdbcf-5fca-4962-a342-eb87e564230f</t>
-  </si>
-  <si>
-    <t>relationship--70a37abc-eda5-41fa-ad85-3b275d14c44e</t>
-  </si>
-  <si>
-    <t>relationship--f14a7079-2fc2-4014-8657-c6cae0ab46dd</t>
-  </si>
-  <si>
-    <t>relationship--21726d00-314d-488d-a701-37f3a7cad392</t>
-  </si>
-  <si>
-    <t>relationship--201e25e4-532a-498f-9b14-668f76d59b3a</t>
-  </si>
-  <si>
-    <t>relationship--dc5d285e-5380-410f-bac5-1d26e9a000bf</t>
-  </si>
-  <si>
-    <t>relationship--54d57d25-d17d-499b-8207-4b551856eee5</t>
-  </si>
-  <si>
-    <t>relationship--94b9cbe2-471b-4f74-83d5-b07e9b34e73c</t>
-  </si>
-  <si>
-    <t>relationship--81e91c65-8f80-4c08-9911-b18f5e73de30</t>
-  </si>
-  <si>
-    <t>relationship--08b37c27-8b43-41c4-baef-6f63686ed15b</t>
-  </si>
-  <si>
-    <t>relationship--cd08726b-d6ec-4d86-bcbc-b9febb579776</t>
-  </si>
-  <si>
-    <t>relationship--e8f19731-250f-4c7b-b875-d808a183db4f</t>
-  </si>
-  <si>
-    <t>relationship--98d7ef15-bfbd-4241-8bcd-4811d1ba4b0f</t>
-  </si>
-  <si>
-    <t>relationship--cef2f25a-2a1f-46e7-90f9-3fef76d47cd9</t>
-  </si>
-  <si>
-    <t>relationship--08c604c4-67f4-4cd9-9b1e-f2fe02fade78</t>
-  </si>
-  <si>
-    <t>relationship--d1a91693-f49d-4729-9b8c-ad729af76757</t>
-  </si>
-  <si>
-    <t>relationship--f2db5ba4-32bc-47b2-aa0b-d486aec56228</t>
-  </si>
-  <si>
-    <t>relationship--c9acb5b9-d119-4f29-98d5-f16c2104a585</t>
-  </si>
-  <si>
-    <t>relationship--0f6d2793-1649-4b26-a709-400f5df0b96a</t>
-  </si>
-  <si>
-    <t>relationship--cc3ef7e3-9314-4900-9f29-05f9604f95ff</t>
-  </si>
-  <si>
-    <t>relationship--cdfc8b8c-4975-42b4-bbe6-9bbf5b06cc41</t>
-  </si>
-  <si>
-    <t>relationship--9dbe1b38-dc7e-439f-9c4b-2aa81ee60099</t>
-  </si>
-  <si>
-    <t>relationship--7c3ec45f-3664-403e-a436-f419bde4e78f</t>
-  </si>
-  <si>
-    <t>relationship--5490e196-2349-4728-ad1b-833d9297944f</t>
-  </si>
-  <si>
-    <t>relationship--d474071e-8a20-4d44-9688-db0d263b65b5</t>
-  </si>
-  <si>
-    <t>relationship--5e999d74-77dd-4918-9e44-b3cc98ff9a5c</t>
-  </si>
-  <si>
-    <t>relationship--42e583c2-7691-48cf-8867-e17379176324</t>
-  </si>
-  <si>
-    <t>relationship--98bc942a-8688-429c-a8f6-016458812dde</t>
-  </si>
-  <si>
-    <t>relationship--335c5512-9a7f-4f75-acd6-cfd1c08672ae</t>
-  </si>
-  <si>
-    <t>relationship--b618c81e-8e49-4dd2-8fa9-82bdcaa660df</t>
-  </si>
-  <si>
-    <t>relationship--6abb1328-8539-4443-87ee-6ca169e5e5f3</t>
-  </si>
-  <si>
-    <t>relationship--d1ad589c-8f51-4409-996d-cb64e3faf69c</t>
-  </si>
-  <si>
-    <t>relationship--5ea7f354-6dc8-40da-bb82-9e0614aa6df2</t>
-  </si>
-  <si>
-    <t>relationship--c67a0932-1327-41b0-b053-9e3899252b36</t>
-  </si>
-  <si>
-    <t>relationship--a988d190-aee2-496d-8241-a900e5f8cb91</t>
-  </si>
-  <si>
-    <t>relationship--af68db01-f426-4c2a-95af-84c060699689</t>
-  </si>
-  <si>
-    <t>relationship--1fa939f4-a10f-4008-85cd-e32b2008439f</t>
-  </si>
-  <si>
-    <t>relationship--f2057dac-ef5c-449f-af81-26c39e482f8e</t>
-  </si>
-  <si>
-    <t>relationship--65888216-8771-4c81-afc3-30f7fd90f2c8</t>
-  </si>
-  <si>
-    <t>relationship--ff7cc99e-c143-4639-9748-a614cdd6f35c</t>
-  </si>
-  <si>
-    <t>relationship--042e344a-bf2d-4b15-a1d1-47e2b166fc43</t>
+    <t>relationship--e7ead83f-7c41-4b4f-9e4d-2bd61aed688e</t>
+  </si>
+  <si>
+    <t>relationship--ba32b015-b0b0-42a9-a11b-6c44f067b06d</t>
+  </si>
+  <si>
+    <t>relationship--9ee9ad36-15b1-40f2-ae4e-2cfa6ef96f3f</t>
+  </si>
+  <si>
+    <t>relationship--3039db9c-e4eb-40ba-9fc2-3124ab520308</t>
+  </si>
+  <si>
+    <t>relationship--6ec9a024-116e-4516-9c2c-1af9131f87fa</t>
+  </si>
+  <si>
+    <t>relationship--188add34-8be6-4cdc-b24a-411aec611b6f</t>
+  </si>
+  <si>
+    <t>relationship--6c5f985e-9273-4b94-b708-5de04e71c35b</t>
+  </si>
+  <si>
+    <t>relationship--769a4aca-52e5-415d-979b-9dc62e449acf</t>
+  </si>
+  <si>
+    <t>relationship--5a42f8f7-f900-49f7-8dff-8fb0ae4e5839</t>
+  </si>
+  <si>
+    <t>relationship--72df418e-9143-4f1a-92d4-2033c073a3df</t>
+  </si>
+  <si>
+    <t>relationship--4980ee91-ff60-4aa5-8781-ae937cadeade</t>
+  </si>
+  <si>
+    <t>relationship--9f531cc2-a762-4b87-a880-4fed755c8f54</t>
+  </si>
+  <si>
+    <t>relationship--6a4ccbf8-ad28-4708-acc9-0f66546b035f</t>
+  </si>
+  <si>
+    <t>relationship--af29c40c-722a-4886-9ff6-a1b84bbd7db6</t>
+  </si>
+  <si>
+    <t>relationship--17d1683b-2539-4ed0-85a1-f1fe60ee65f5</t>
+  </si>
+  <si>
+    <t>relationship--d5be509b-41b6-4bbc-9c06-87ae7b033ca5</t>
+  </si>
+  <si>
+    <t>relationship--47580dae-eb9d-4777-b373-5ea978c419fa</t>
+  </si>
+  <si>
+    <t>relationship--6c74531b-96c1-4724-afaa-813f4376c2e2</t>
+  </si>
+  <si>
+    <t>relationship--18405d89-7a00-4013-aed9-b8694965b9f5</t>
+  </si>
+  <si>
+    <t>relationship--e0033448-a2c6-4938-8b7e-f526612f505f</t>
+  </si>
+  <si>
+    <t>relationship--d490c141-831b-4155-b29b-d7d1e036320e</t>
+  </si>
+  <si>
+    <t>relationship--7c002e0a-1e22-4cec-acd6-db961d986dfb</t>
+  </si>
+  <si>
+    <t>relationship--c6883c4e-d43e-4d7a-9252-a3fe30bc318d</t>
+  </si>
+  <si>
+    <t>relationship--592304cf-2bb8-483c-94fe-597f85871536</t>
+  </si>
+  <si>
+    <t>relationship--84be0bc6-ca01-4eaa-a322-8823eebdc9ba</t>
+  </si>
+  <si>
+    <t>relationship--fdb323fd-fc26-48d0-aae2-98cee474216f</t>
+  </si>
+  <si>
+    <t>relationship--5ac51b60-82f2-40b5-bb67-cbaea123eb02</t>
+  </si>
+  <si>
+    <t>relationship--6d8b9569-ad9e-4223-b858-3de5dc49b19a</t>
+  </si>
+  <si>
+    <t>relationship--f8e44f89-b7a4-456d-8644-3a07dedd9065</t>
+  </si>
+  <si>
+    <t>relationship--997184ce-ce7f-4cd2-b13a-a4083f22e55e</t>
+  </si>
+  <si>
+    <t>relationship--241c9026-c5b4-4ea2-aec9-a6314aa73c58</t>
+  </si>
+  <si>
+    <t>relationship--e0127fa5-c1f4-4a56-a5b2-77925ce4fee1</t>
+  </si>
+  <si>
+    <t>relationship--5040be79-f8e0-443f-aaed-fd51de077295</t>
+  </si>
+  <si>
+    <t>relationship--4453ec4a-64bc-4448-bf73-52941fdd585e</t>
+  </si>
+  <si>
+    <t>relationship--000e47b0-8b3b-48d6-a920-519571d40d34</t>
+  </si>
+  <si>
+    <t>relationship--84181ff5-5d00-4b1f-9e97-fed9d93804e6</t>
+  </si>
+  <si>
+    <t>relationship--b4fcc69e-2732-435e-b66c-b279809e1878</t>
+  </si>
+  <si>
+    <t>relationship--2b7be5ad-74de-4aad-899d-946cd139cbac</t>
+  </si>
+  <si>
+    <t>relationship--f354201d-2511-48b2-a879-46306aa01219</t>
+  </si>
+  <si>
+    <t>relationship--555a9d59-5328-4c11-ac73-c808054888ea</t>
+  </si>
+  <si>
+    <t>relationship--6bd9ec9b-a36b-4b6c-9319-9e27fbc1e3e7</t>
+  </si>
+  <si>
+    <t>relationship--f947b3cf-e9a1-4967-91ab-60a5c9d77bb2</t>
+  </si>
+  <si>
+    <t>relationship--c1a21d14-f4d1-4984-af3f-8bb8a48dacb1</t>
+  </si>
+  <si>
+    <t>relationship--d84f1a5f-04a4-40d0-b101-553bf0c5a1e9</t>
+  </si>
+  <si>
+    <t>relationship--ce9b9b60-72f4-481e-b7f5-b2e19eff7617</t>
+  </si>
+  <si>
+    <t>relationship--6cc01095-0c9c-44b5-b5a2-79de31afc0ab</t>
+  </si>
+  <si>
+    <t>relationship--e9d8568b-dcd2-426b-a8e4-31d03d91b767</t>
+  </si>
+  <si>
+    <t>relationship--ef2f6f63-9dba-4d29-973d-558e958d5b71</t>
+  </si>
+  <si>
+    <t>relationship--d5e4f6f2-3905-4e08-9768-192cc2b60d36</t>
+  </si>
+  <si>
+    <t>relationship--e27a7562-202c-4d6f-a1c6-f1e11c8710e5</t>
+  </si>
+  <si>
+    <t>relationship--b3764c7b-55b2-4e5d-95a1-0d59b23ce13b</t>
+  </si>
+  <si>
+    <t>relationship--8b31976d-2726-4c04-b8ea-2c89f47f0f28</t>
+  </si>
+  <si>
+    <t>relationship--37afcc55-feec-419e-bf31-54beb0597f82</t>
+  </si>
+  <si>
+    <t>relationship--2d7f06b6-6f4d-402e-9a61-3668787ff7ad</t>
+  </si>
+  <si>
+    <t>relationship--79c74b97-9a2c-46dd-9dc9-4d2c8bfdbd0b</t>
+  </si>
+  <si>
+    <t>relationship--71aa0d48-c03b-4c7f-979a-720b520a45fb</t>
+  </si>
+  <si>
+    <t>relationship--b3a2a290-178e-4965-b8a5-3184b6c78018</t>
+  </si>
+  <si>
+    <t>relationship--76521caf-c198-4975-af14-58139aee29fa</t>
+  </si>
+  <si>
+    <t>relationship--065b2ff5-8c40-43d3-87cf-d85917907a5c</t>
+  </si>
+  <si>
+    <t>relationship--1547fde2-84c1-4de8-b3c4-3ac26b08ed39</t>
+  </si>
+  <si>
+    <t>relationship--da6837c3-7beb-4d4c-a98a-5e81afb2006e</t>
+  </si>
+  <si>
+    <t>relationship--331ff2f4-01dc-437b-a817-c8b2145e41f0</t>
+  </si>
+  <si>
+    <t>relationship--06dd2adc-2cda-41e7-9fac-cf88a664e712</t>
+  </si>
+  <si>
+    <t>relationship--d96c71a6-3bf6-4105-b744-1c5716d287f1</t>
+  </si>
+  <si>
+    <t>relationship--34f63638-8a9c-4b4a-a579-7c657a6ee1b8</t>
+  </si>
+  <si>
+    <t>relationship--33568a69-752e-4f87-9e10-63ab37b9a6db</t>
+  </si>
+  <si>
+    <t>relationship--ce9a655e-e9c9-4280-a4ae-8411e5ff2fc1</t>
+  </si>
+  <si>
+    <t>relationship--fd521fda-8ec5-4b81-9bc9-9c89c6173a9f</t>
+  </si>
+  <si>
+    <t>relationship--bebdb2cf-de71-41e6-a1e5-bdd634870bb3</t>
+  </si>
+  <si>
+    <t>relationship--7d3e2b68-2bc4-449b-8128-f31a10be196c</t>
+  </si>
+  <si>
+    <t>relationship--1e0d817a-ee9a-4e97-84f0-f03eee4dd4e4</t>
   </si>
 </sst>
 </file>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="469">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
     <t>relationship citations</t>
   </si>
   <si>
+    <t>AML.M0023</t>
+  </si>
+  <si>
+    <t>AML.M0024</t>
+  </si>
+  <si>
     <t>AML.M0015</t>
   </si>
   <si>
@@ -56,6 +62,15 @@
     <t>AML.M0012</t>
   </si>
   <si>
+    <t>AML.M0020</t>
+  </si>
+  <si>
+    <t>AML.M0021</t>
+  </si>
+  <si>
+    <t>AML.M0022</t>
+  </si>
+  <si>
     <t>AML.M0010</t>
   </si>
   <si>
@@ -65,6 +80,9 @@
     <t>AML.M0000</t>
   </si>
   <si>
+    <t>AML.M0025</t>
+  </si>
+  <si>
     <t>AML.M0017</t>
   </si>
   <si>
@@ -101,64 +119,88 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--b7d1db40-dd7b-4b7d-b803-1283b7c4f55e</t>
-  </si>
-  <si>
-    <t>course-of-action--c48829c8-5581-45d6-a34a-112aa85d704c</t>
-  </si>
-  <si>
-    <t>course-of-action--374749c7-19c4-49ee-8267-f3ea862157a7</t>
-  </si>
-  <si>
-    <t>course-of-action--6b26a096-3222-48ec-bf45-c30f320cbd2a</t>
-  </si>
-  <si>
-    <t>course-of-action--55038247-dea1-4414-8d8d-2278818d0f7e</t>
-  </si>
-  <si>
-    <t>course-of-action--fa399546-7037-4e50-bd5b-3d41f3997812</t>
-  </si>
-  <si>
-    <t>course-of-action--b56f6da0-2051-401e-89e2-a63e156872d5</t>
-  </si>
-  <si>
-    <t>course-of-action--3686113d-731b-42b6-9d36-efcbca71c3b7</t>
-  </si>
-  <si>
-    <t>course-of-action--9994c985-080a-4652-bfc0-28b19059fac2</t>
-  </si>
-  <si>
-    <t>course-of-action--b4066cd9-3bb6-4a89-8f32-7f207168d086</t>
-  </si>
-  <si>
-    <t>course-of-action--df57183e-147b-4caf-bffc-ee6265aa99f2</t>
-  </si>
-  <si>
-    <t>course-of-action--836bd250-7e46-4c9c-801b-b2d82132d429</t>
-  </si>
-  <si>
-    <t>course-of-action--656b4297-4395-4efc-9396-cf08523518c2</t>
-  </si>
-  <si>
-    <t>course-of-action--5ab160b2-9de8-4ade-b5bb-aa516f04f9da</t>
-  </si>
-  <si>
-    <t>course-of-action--5a4a5a17-16a8-4a02-b1a3-6ad3c72c95e3</t>
-  </si>
-  <si>
-    <t>course-of-action--488b2d71-b7b9-403d-85d0-48aef040007d</t>
-  </si>
-  <si>
-    <t>course-of-action--0408cdf3-2274-4f06-be37-7724c34a0ac7</t>
-  </si>
-  <si>
-    <t>course-of-action--f32006de-3282-47c6-ae96-11e13d132283</t>
-  </si>
-  <si>
-    <t>course-of-action--1341b145-8eaf-471f-b090-b5bf24164b64</t>
-  </si>
-  <si>
-    <t>course-of-action--632e55d7-462b-44a8-a652-cbb7f64328d2</t>
+    <t>course-of-action--1f63b56d-034f-477d-ab49-399c1aa1a22a</t>
+  </si>
+  <si>
+    <t>course-of-action--fa5108b2-3dc8-42dc-93a3-902f1bf74521</t>
+  </si>
+  <si>
+    <t>course-of-action--0ed2ef71-cdc9-4eef-8432-1c3dadbdda20</t>
+  </si>
+  <si>
+    <t>course-of-action--88073b07-2fe9-41cb-8e76-6e244fbabc74</t>
+  </si>
+  <si>
+    <t>course-of-action--0025dadf-7900-497f-aa03-39f0e319f20e</t>
+  </si>
+  <si>
+    <t>course-of-action--7b00dd51-f719-433d-afd6-3d386f64386d</t>
+  </si>
+  <si>
+    <t>course-of-action--aad92d43-774b-4612-8437-8d6c7ee7e4af</t>
+  </si>
+  <si>
+    <t>course-of-action--b8511570-3320-4733-a0e1-134e376e7530</t>
+  </si>
+  <si>
+    <t>course-of-action--d55bd0c8-2db0-400b-9097-c7cec00e2b91</t>
+  </si>
+  <si>
+    <t>course-of-action--1fca595d-b140-4ce0-8fd8-c4c6bee87540</t>
+  </si>
+  <si>
+    <t>course-of-action--73a34f24-1ad1-4421-b9c8-c2cbd13e6f47</t>
+  </si>
+  <si>
+    <t>course-of-action--79c75215-ada9-4c22-bfed-7d13fb6e966e</t>
+  </si>
+  <si>
+    <t>course-of-action--40076545-e797-4508-a294-943096a12111</t>
+  </si>
+  <si>
+    <t>course-of-action--005a5427-4b1e-41c2-a7aa-eda9ae9a9815</t>
+  </si>
+  <si>
+    <t>course-of-action--432c3a44-3974-4b73-9eb9-fa5dd5298e47</t>
+  </si>
+  <si>
+    <t>course-of-action--216f862c-7f34-4676-a913-c4ec6cc4c2cd</t>
+  </si>
+  <si>
+    <t>course-of-action--9f92e876-e2c0-4def-afee-626a4a79c524</t>
+  </si>
+  <si>
+    <t>course-of-action--179e00cb-0948-4282-9132-f8a1f0ff6bd7</t>
+  </si>
+  <si>
+    <t>course-of-action--46b3e92d-600b-47c9-80f5-ed62a5db0377</t>
+  </si>
+  <si>
+    <t>course-of-action--9395d240-cc32-452a-911b-04feea01bcfb</t>
+  </si>
+  <si>
+    <t>course-of-action--dcb586a2-1135-4e2a-97bd-d4adbc79758b</t>
+  </si>
+  <si>
+    <t>course-of-action--1bb9d9a7-c05a-470f-a709-64bd240e2eb0</t>
+  </si>
+  <si>
+    <t>course-of-action--cce983e7-13a2-4545-8c39-ec6c8dff148d</t>
+  </si>
+  <si>
+    <t>course-of-action--01c2ec0a-e257-4a75-9e59-f71aa6362b6e</t>
+  </si>
+  <si>
+    <t>course-of-action--cdccb3ab-2dde-41a9-a988-783a25b7bd00</t>
+  </si>
+  <si>
+    <t>course-of-action--79752061-aac1-4ed9-b7f3-3b4dc5e81280</t>
+  </si>
+  <si>
+    <t>AI Bill of Materials</t>
+  </si>
+  <si>
+    <t>AI Telemetry Logging</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -176,13 +218,25 @@
     <t>Encrypt Sensitive Information</t>
   </si>
   <si>
+    <t>Generative AI Guardrails</t>
+  </si>
+  <si>
+    <t>Generative AI Guidelines</t>
+  </si>
+  <si>
+    <t>Generative AI Model Alignment</t>
+  </si>
+  <si>
     <t>Input Restoration</t>
   </si>
   <si>
     <t>Limit Model Artifact Release</t>
   </si>
   <si>
-    <t>Limit Release of Public Information</t>
+    <t>Limit Public Release of Information</t>
+  </si>
+  <si>
+    <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
     <t>Model Distribution Methods</t>
@@ -219,6 +273,13 @@
   </si>
   <si>
     <t>Vulnerability Scanning</t>
+  </si>
+  <si>
+    <t>An AI Bill of Materials (AI BOM) contains a full listing of artifacts and resources that were used in building the AI. The AI BOM can help mitigate supply chain risks and enable rapid response to reported vulnerabilities.
+This can include maintaining dataset provenance, i.e. a detailed history of datasets used for AI applications. The history can include information about the dataset source as well as well as a complete record of any modifications.</t>
+  </si>
+  <si>
+    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.</t>
   </si>
   <si>
     <t xml:space="preserve">Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
@@ -243,6 +304,18 @@
 </t>
   </si>
   <si>
+    <t>Guardrails are safety controls that are placed between a generative AI model and the output shared with the user to prevent undesired inputs and outputs.
+Guardrails can take the form of validators such as filters, rule-based logic, or regular expressions, as well as AI-based approaches, such as classifiers and utilizing LLMs, or named entity recognition (NER) to evaluate the safety of the prompt or response. Domain specific methods can be employed to reduce risks in a variety of areas such as etiquette, brand damage, jailbreaking, false information, code exploits, SQL injections, and data leakage.</t>
+  </si>
+  <si>
+    <t>Guidelines are safety controls that are placed between user-provided input and a generative AI model to help direct the model to produce desired outputs and prevent undesired outputs.
+Guidelines can be implemented as instructions appended to all user prompts or as part of the instructions in the system prompt. They can define the goal(s), role, and voice of the system, as well as outline safety and security parameters.</t>
+  </si>
+  <si>
+    <t>When training or fine-tuning a generative AI model it is important to utilize techniques that improve model alignment with safety, security, and content policies.
+The fine-tuning process can potentially remove built-in safety mechanisms in a generative AI model, but utilizing techniques such as Supervised Fine-Tuning, Reinforcement Learning from Human Feedback or AI Feedback, and Targeted Safety Context Distillation can improve the safety and alignment of the model.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preprocess all inference data to nullify or reverse potential adversarial perturbations.
 </t>
   </si>
@@ -251,8 +324,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.
-</t>
+    <t>Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.</t>
+  </si>
+  <si>
+    <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
     <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
@@ -310,6 +385,12 @@
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0024</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0015</t>
   </si>
   <si>
@@ -325,6 +406,15 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0020</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0021</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
   </si>
   <si>
@@ -334,6 +424,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
   </si>
   <si>
@@ -370,7 +463,16 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>11 March 2024</t>
+    <t>01 October 2024</t>
+  </si>
+  <si>
+    <t>12 April 2023</t>
+  </si>
+  <si>
+    <t>12 January 2024</t>
+  </si>
+  <si>
+    <t>12 October 2023</t>
   </si>
   <si>
     <t>source ID</t>
@@ -409,6 +511,48 @@
     <t>mitigates</t>
   </si>
   <si>
+    <t>AML.T0020</t>
+  </si>
+  <si>
+    <t>AML.T0019</t>
+  </si>
+  <si>
+    <t>AML.T0058</t>
+  </si>
+  <si>
+    <t>AML.T0011.000</t>
+  </si>
+  <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
+    <t>AML.T0051.000</t>
+  </si>
+  <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0024.002</t>
+  </si>
+  <si>
+    <t>AML.T0051.001</t>
+  </si>
+  <si>
+    <t>AML.T0024.000</t>
+  </si>
+  <si>
+    <t>AML.T0024.001</t>
+  </si>
+  <si>
+    <t>AML.T0051</t>
+  </si>
+  <si>
+    <t>AML.T0047</t>
+  </si>
+  <si>
+    <t>AML.T0005.001</t>
+  </si>
+  <si>
     <t>AML.T0043.001</t>
   </si>
   <si>
@@ -427,9 +571,6 @@
     <t>AML.T0010.003</t>
   </si>
   <si>
-    <t>AML.T0011.000</t>
-  </si>
-  <si>
     <t>AML.T0010.002</t>
   </si>
   <si>
@@ -445,21 +586,27 @@
     <t>AML.T0018.000</t>
   </si>
   <si>
-    <t>AML.T0020</t>
-  </si>
-  <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
-    <t>AML.T0040</t>
-  </si>
-  <si>
     <t>AML.T0007</t>
   </si>
   <si>
     <t>AML.T0035</t>
   </si>
   <si>
+    <t>AML.T0057</t>
+  </si>
+  <si>
+    <t>AML.T0054</t>
+  </si>
+  <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
+    <t>AML.T0010</t>
+  </si>
+  <si>
     <t>AML.T0002.000</t>
   </si>
   <si>
@@ -490,15 +637,6 @@
     <t>AML.T0013</t>
   </si>
   <si>
-    <t>AML.T0024.002</t>
-  </si>
-  <si>
-    <t>AML.T0024.000</t>
-  </si>
-  <si>
-    <t>AML.T0024.001</t>
-  </si>
-  <si>
     <t>AML.T0034</t>
   </si>
   <si>
@@ -511,15 +649,51 @@
     <t>AML.T0011</t>
   </si>
   <si>
-    <t>AML.T0010</t>
-  </si>
-  <si>
-    <t>AML.T0019</t>
-  </si>
-  <si>
     <t>AML.T0018</t>
   </si>
   <si>
+    <t>Poison Training Data</t>
+  </si>
+  <si>
+    <t>Publish Poisoned Datasets</t>
+  </si>
+  <si>
+    <t>Publish Poisoned Models</t>
+  </si>
+  <si>
+    <t>Unsafe ML Artifacts</t>
+  </si>
+  <si>
+    <t>AI Model Inference API Access</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Exfiltration via ML Inference API</t>
+  </si>
+  <si>
+    <t>Extract ML Model</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Infer Training Data Membership</t>
+  </si>
+  <si>
+    <t>Invert ML Model</t>
+  </si>
+  <si>
+    <t>LLM Prompt Injection</t>
+  </si>
+  <si>
+    <t>ML-Enabled Product or Service</t>
+  </si>
+  <si>
+    <t>Train Proxy via Replication</t>
+  </si>
+  <si>
     <t>Black-Box Optimization</t>
   </si>
   <si>
@@ -538,9 +712,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Unsafe ML Artifacts</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -556,21 +727,27 @@
     <t>Poison ML Model</t>
   </si>
   <si>
-    <t>Poison Training Data</t>
-  </si>
-  <si>
-    <t>Exfiltration via ML Inference API</t>
-  </si>
-  <si>
-    <t>ML Model Inference API Access</t>
-  </si>
-  <si>
     <t>Discover ML Artifacts</t>
   </si>
   <si>
     <t>ML Artifact Collection</t>
   </si>
   <si>
+    <t>LLM Data Leakage</t>
+  </si>
+  <si>
+    <t>LLM Jailbreak</t>
+  </si>
+  <si>
+    <t>LLM Meta Prompt Extraction</t>
+  </si>
+  <si>
+    <t>LLM Plugin Compromise</t>
+  </si>
+  <si>
+    <t>ML Supply Chain Compromise</t>
+  </si>
+  <si>
     <t>Datasets</t>
   </si>
   <si>
@@ -601,15 +778,6 @@
     <t>Discover ML Model Ontology</t>
   </si>
   <si>
-    <t>Extract ML Model</t>
-  </si>
-  <si>
-    <t>Infer Training Data Membership</t>
-  </si>
-  <si>
-    <t>Invert ML Model</t>
-  </si>
-  <si>
     <t>Cost Harvesting</t>
   </si>
   <si>
@@ -622,129 +790,171 @@
     <t>User Execution</t>
   </si>
   <si>
-    <t>ML Supply Chain Compromise</t>
-  </si>
-  <si>
-    <t>Publish Poisoned Datasets</t>
-  </si>
-  <si>
     <t>Backdoor ML Model</t>
   </si>
   <si>
-    <t>attack-pattern--7a6a57da-bca7-4e44-8511-01cf1764cce8</t>
-  </si>
-  <si>
-    <t>attack-pattern--867688f9-2b19-4133-905f-d63cf65508b8</t>
-  </si>
-  <si>
-    <t>attack-pattern--2690a529-6cbe-43c0-b896-0485f57aaa38</t>
-  </si>
-  <si>
-    <t>attack-pattern--61d256af-5427-4295-83a8-d145574e4bc6</t>
-  </si>
-  <si>
-    <t>attack-pattern--0f64afba-ef9b-4d51-bae4-8d882948002c</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b1504b5-f1c3-44ff-b8a4-8bee6da2decd</t>
-  </si>
-  <si>
-    <t>attack-pattern--2367d435-f615-4318-8a7e-1b57e43796f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d5216c2-7885-4070-a2ac-61ce9dc9add7</t>
-  </si>
-  <si>
-    <t>attack-pattern--3e48042d-3216-41c4-a4b6-c6d05275fa58</t>
-  </si>
-  <si>
-    <t>attack-pattern--d999ea10-efdb-4c4e-aa21-99df5169e58c</t>
-  </si>
-  <si>
-    <t>attack-pattern--6f218799-67ae-4a31-8f66-893e1bbac1a9</t>
-  </si>
-  <si>
-    <t>attack-pattern--3db4bc83-6b83-42c4-8f6e-a6701669c4ea</t>
-  </si>
-  <si>
-    <t>attack-pattern--990b6f83-2795-4b78-8177-e8edc6ec645f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b9dbf0f-1740-401d-9cd2-42d84e63d4c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--df039ea9-d621-46fd-828a-f99b537b6dba</t>
-  </si>
-  <si>
-    <t>attack-pattern--2c65040c-4638-40a0-bac1-f6e77888a828</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d33022e-1df9-40ec-bb57-5bc4cd4ede97</t>
-  </si>
-  <si>
-    <t>attack-pattern--14d1c118-8f21-477d-ba59-40a37c8907fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--cf20a7b3-ab3a-46d3-b382-0051d04a52e3</t>
-  </si>
-  <si>
-    <t>attack-pattern--0e65f2b9-d758-4da7-8c85-b4a7db57e0ab</t>
-  </si>
-  <si>
-    <t>attack-pattern--e4835863-bd95-412a-8a90-9b46b2ba710d</t>
-  </si>
-  <si>
-    <t>attack-pattern--7ccdc910-8651-44c1-b346-40ed08464065</t>
-  </si>
-  <si>
-    <t>attack-pattern--f3603313-1991-4c1d-bce9-e53e9f59098d</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac3ffe91-3ff5-485f-b22f-1a8c29c29905</t>
-  </si>
-  <si>
-    <t>attack-pattern--08f770d7-8260-43e4-98f7-0b15e1028f54</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3659e5f-430b-451c-8b16-4b54e5a6c4b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--c24bef4b-27f1-4a40-af66-f4ecbebb74cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6bac6fd-d491-4438-bde9-e1e0242533f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2f2e998-09ac-42bc-9c28-dbb94719fb64</t>
-  </si>
-  <si>
-    <t>attack-pattern--36e0d80a-31d3-4b5d-9948-7b01ce7a2597</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef60d8b9-25c4-4550-9ad4-9be85f7454c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--37b4d9da-15b0-4484-a5fe-2f2cadbe77f2</t>
-  </si>
-  <si>
-    <t>attack-pattern--196fa43b-b283-44d9-bf51-596b11823fdf</t>
-  </si>
-  <si>
-    <t>attack-pattern--d7f0ed90-f99e-41a3-95bf-c56d68a29969</t>
-  </si>
-  <si>
-    <t>attack-pattern--ec5266cd-b135-45c6-983d-c85bc4f47c22</t>
-  </si>
-  <si>
-    <t>attack-pattern--0024d2d7-eee5-40e2-b030-231de594deaa</t>
-  </si>
-  <si>
-    <t>attack-pattern--2e2e892e-984b-4cbc-8b8a-e460889619a1</t>
+    <t>attack-pattern--0ec538ca-589b-4e42-bcaa-06097a0d679f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4fc2abd-71a4-401a-a742-18fc5aeb4bc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3b9d41a-d2f9-4825-942f-1c4a30b4d2f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--be6ef5c5-1ecb-486d-9743-42085bd2c256</t>
+  </si>
+  <si>
+    <t>attack-pattern--90a420d4-3f03-4800-86c0-223c4376804a</t>
+  </si>
+  <si>
+    <t>attack-pattern--d911e8cb-0601-42f1-90de-7ce0b21cd578</t>
+  </si>
+  <si>
+    <t>attack-pattern--b07d147f-51c8-4eb6-9a05-09c86762a9c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--f78e0ac3-6d72-42ed-b20a-e10d8c752cf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--a4a55526-2f1f-403b-9691-609e46381e17</t>
+  </si>
+  <si>
+    <t>attack-pattern--86b5f486-afb8-4aa9-991f-0e24d5737f0c</t>
+  </si>
+  <si>
+    <t>attack-pattern--e19c6f8a-f1e2-46cc-9387-03a3092f01ed</t>
+  </si>
+  <si>
+    <t>attack-pattern--19cd2d12-66ff-487c-a05c-e058b027efc9</t>
+  </si>
+  <si>
+    <t>attack-pattern--b5626410-b33d-4487-9c0f-2b7d844b8e95</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3660a2d-f6e5-4f1b-9618-332cceb389c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--c4e52005-7416-45c4-9feb-8cd5fd34f70a</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f644f37-e2e6-468e-b720-f395b8c27fbc</t>
+  </si>
+  <si>
+    <t>attack-pattern--8735735d-c09d-4298-8e64-9a2b6168a74c</t>
+  </si>
+  <si>
+    <t>attack-pattern--071df654-813a-4708-85dc-f715f785d37f</t>
+  </si>
+  <si>
+    <t>attack-pattern--d8292a1c-21e7-4b45-b110-0e05feb30a9a</t>
+  </si>
+  <si>
+    <t>attack-pattern--452b8fdf-8679-4013-bb38-4d16f65430bc</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d644240-ad99-4410-a7f8-3ef8f53a463e</t>
+  </si>
+  <si>
+    <t>attack-pattern--2680aa95-5620-4677-9c62-b0c3d15d9450</t>
+  </si>
+  <si>
+    <t>attack-pattern--a50f02df-1130-4945-94bb-7857952da585</t>
+  </si>
+  <si>
+    <t>attack-pattern--d1f013a8-11f3-4560-831c-8ed5e39247c9</t>
+  </si>
+  <si>
+    <t>attack-pattern--e0eb2b64-aebd-4412-80f3-b71d7805a65f</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a88dccb-fb37-4f11-a5ad-42908aaee1d0</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2ebc190-9ff6-496e-afeb-ac868df2361e</t>
+  </si>
+  <si>
+    <t>attack-pattern--45d378aa-20ae-401d-bf61-7f00104eeaca</t>
+  </si>
+  <si>
+    <t>attack-pattern--172427e3-9ecc-49a3-b628-96b824cc4131</t>
+  </si>
+  <si>
+    <t>attack-pattern--e98acce8-ed69-4ebe-845b-1bcb662836ba</t>
+  </si>
+  <si>
+    <t>attack-pattern--adbb0dd5-ff66-4b2f-869f-bfb3fdb45fc8</t>
+  </si>
+  <si>
+    <t>attack-pattern--d2cf31e0-a550-4fe0-8fdb-8941b3ac00d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3baff3d-7228-4ab7-ae00-ffe150e7ef8a</t>
+  </si>
+  <si>
+    <t>attack-pattern--c086784e-1494-4f75-a4a0-d3ad054b9428</t>
+  </si>
+  <si>
+    <t>attack-pattern--aa17fe8d-62f8-4c4c-b7a2-6858c82dd84b</t>
+  </si>
+  <si>
+    <t>attack-pattern--8c26f51a-c403-4c4d-852a-a1c56fe9e7cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--b23cda85-3457-406d-b043-24d2cf9e6fcf</t>
+  </si>
+  <si>
+    <t>attack-pattern--65d21e6b-7abe-4623-8f5c-88011cb362cb</t>
+  </si>
+  <si>
+    <t>attack-pattern--3de90963-bc9f-4ae1-b780-7d05e46eacdd</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab01ba21-1438-4cd9-a588-92eb271086bc</t>
+  </si>
+  <si>
+    <t>attack-pattern--c552f0b5-2e2c-4f8f-badc-0876ecca7255</t>
+  </si>
+  <si>
+    <t>attack-pattern--943303ef-846b-49d6-b53f-b0b9341ac1ca</t>
+  </si>
+  <si>
+    <t>attack-pattern--ae71ca3a-8ca4-40d2-bdba-4276b29ac8f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--6c1fca80-3ba9-41c9-8f7b-9824310a94f1</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d5c6974-0307-4535-bf37-7bb4c6a2ef47</t>
+  </si>
+  <si>
+    <t>attack-pattern--8c849dd4-5d15-45aa-b5b2-59c96a3ab939</t>
+  </si>
+  <si>
+    <t>attack-pattern--c704a49c-abf0-4258-9919-a862b1865469</t>
   </si>
   <si>
     <t>technique</t>
   </si>
   <si>
+    <t>An AI BOM can help users identify untrustworthy model artifacts.</t>
+  </si>
+  <si>
+    <t>Telemetry logging can help audit API usage of the model.</t>
+  </si>
+  <si>
+    <t>Telemetry logging can help identify if unsafe prompts have been submitted to the LLM.</t>
+  </si>
+  <si>
+    <t>Telemetry logging can help identify if sensitive data has been exfiltrated.</t>
+  </si>
+  <si>
+    <t>Telemetry logging can help identify if sensitive model information has been sent to an attacker.</t>
+  </si>
+  <si>
+    <t>Telemetry logging can help identify if a proxy training dataset has been exfiltrated.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monitor queries and query patterns to the target model, block access if suspicious queries are detected.
 </t>
   </si>
@@ -785,14 +995,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Adversaries can use unrestricted API access to gain information about a production system, stage attacks, and introduce malicious data to the system.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries can use unrestricted API access to build a proxy training dataset and reveal private information.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries can use unrestricted API access to gain information about a production system, stage attacks, and introduce malicious data to the system.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protect machine learning artifacts from adversaries who gather private information to target and improve attacks.
 </t>
   </si>
@@ -801,6 +1011,30 @@
 </t>
   </si>
   <si>
+    <t>Guardrails can detect sensitive data and PII in model outputs.</t>
+  </si>
+  <si>
+    <t>Guardrails can prevent harmful inputs that can lead to a jailbreak.</t>
+  </si>
+  <si>
+    <t>Guardrails can prevent harmful inputs that can lead to meta prompt extraction.</t>
+  </si>
+  <si>
+    <t>Guardrails can prevent harmful inputs that can lead to plugin compromise, and they can detect PII in model outputs.</t>
+  </si>
+  <si>
+    <t>Guardrails can prevent harmful inputs that can lead to prompt injection.</t>
+  </si>
+  <si>
+    <t>Guardrails can detect harmful code in model outputs.</t>
+  </si>
+  <si>
+    <t>Model guidelines can instruct the model to refuse a response to unsafe inputs.</t>
+  </si>
+  <si>
+    <t>Model alignment can improve the parametric safety of a model by guiding it away from unsafe prompts and responses.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input restoration adds an extra layer of unknowns and randomness when an adversary evaluates the input-output relationship.
 </t>
   </si>
@@ -831,6 +1065,15 @@
   <si>
     <t xml:space="preserve">Limit the connection between publicly disclosed approaches and the data, models, and algorithms used in production.
 </t>
+  </si>
+  <si>
+    <t>Dataset provenance can protect against supply chain compromise of data.</t>
+  </si>
+  <si>
+    <t>Dataset provenance can protect against poisoning of models.</t>
+  </si>
+  <si>
+    <t>Dataset provenance can protect against poisoning of training data</t>
   </si>
   <si>
     <t xml:space="preserve">Not distributing the model in software to edge devices, can limit an adversary's ability to gain full access to the model.
@@ -957,217 +1200,316 @@
 </t>
   </si>
   <si>
-    <t>relationship--e7ead83f-7c41-4b4f-9e4d-2bd61aed688e</t>
-  </si>
-  <si>
-    <t>relationship--ba32b015-b0b0-42a9-a11b-6c44f067b06d</t>
-  </si>
-  <si>
-    <t>relationship--9ee9ad36-15b1-40f2-ae4e-2cfa6ef96f3f</t>
-  </si>
-  <si>
-    <t>relationship--3039db9c-e4eb-40ba-9fc2-3124ab520308</t>
-  </si>
-  <si>
-    <t>relationship--6ec9a024-116e-4516-9c2c-1af9131f87fa</t>
-  </si>
-  <si>
-    <t>relationship--188add34-8be6-4cdc-b24a-411aec611b6f</t>
-  </si>
-  <si>
-    <t>relationship--6c5f985e-9273-4b94-b708-5de04e71c35b</t>
-  </si>
-  <si>
-    <t>relationship--769a4aca-52e5-415d-979b-9dc62e449acf</t>
-  </si>
-  <si>
-    <t>relationship--5a42f8f7-f900-49f7-8dff-8fb0ae4e5839</t>
-  </si>
-  <si>
-    <t>relationship--72df418e-9143-4f1a-92d4-2033c073a3df</t>
-  </si>
-  <si>
-    <t>relationship--4980ee91-ff60-4aa5-8781-ae937cadeade</t>
-  </si>
-  <si>
-    <t>relationship--9f531cc2-a762-4b87-a880-4fed755c8f54</t>
-  </si>
-  <si>
-    <t>relationship--6a4ccbf8-ad28-4708-acc9-0f66546b035f</t>
-  </si>
-  <si>
-    <t>relationship--af29c40c-722a-4886-9ff6-a1b84bbd7db6</t>
-  </si>
-  <si>
-    <t>relationship--17d1683b-2539-4ed0-85a1-f1fe60ee65f5</t>
-  </si>
-  <si>
-    <t>relationship--d5be509b-41b6-4bbc-9c06-87ae7b033ca5</t>
-  </si>
-  <si>
-    <t>relationship--47580dae-eb9d-4777-b373-5ea978c419fa</t>
-  </si>
-  <si>
-    <t>relationship--6c74531b-96c1-4724-afaa-813f4376c2e2</t>
-  </si>
-  <si>
-    <t>relationship--18405d89-7a00-4013-aed9-b8694965b9f5</t>
-  </si>
-  <si>
-    <t>relationship--e0033448-a2c6-4938-8b7e-f526612f505f</t>
-  </si>
-  <si>
-    <t>relationship--d490c141-831b-4155-b29b-d7d1e036320e</t>
-  </si>
-  <si>
-    <t>relationship--7c002e0a-1e22-4cec-acd6-db961d986dfb</t>
-  </si>
-  <si>
-    <t>relationship--c6883c4e-d43e-4d7a-9252-a3fe30bc318d</t>
-  </si>
-  <si>
-    <t>relationship--592304cf-2bb8-483c-94fe-597f85871536</t>
-  </si>
-  <si>
-    <t>relationship--84be0bc6-ca01-4eaa-a322-8823eebdc9ba</t>
-  </si>
-  <si>
-    <t>relationship--fdb323fd-fc26-48d0-aae2-98cee474216f</t>
-  </si>
-  <si>
-    <t>relationship--5ac51b60-82f2-40b5-bb67-cbaea123eb02</t>
-  </si>
-  <si>
-    <t>relationship--6d8b9569-ad9e-4223-b858-3de5dc49b19a</t>
-  </si>
-  <si>
-    <t>relationship--f8e44f89-b7a4-456d-8644-3a07dedd9065</t>
-  </si>
-  <si>
-    <t>relationship--997184ce-ce7f-4cd2-b13a-a4083f22e55e</t>
-  </si>
-  <si>
-    <t>relationship--241c9026-c5b4-4ea2-aec9-a6314aa73c58</t>
-  </si>
-  <si>
-    <t>relationship--e0127fa5-c1f4-4a56-a5b2-77925ce4fee1</t>
-  </si>
-  <si>
-    <t>relationship--5040be79-f8e0-443f-aaed-fd51de077295</t>
-  </si>
-  <si>
-    <t>relationship--4453ec4a-64bc-4448-bf73-52941fdd585e</t>
-  </si>
-  <si>
-    <t>relationship--000e47b0-8b3b-48d6-a920-519571d40d34</t>
-  </si>
-  <si>
-    <t>relationship--84181ff5-5d00-4b1f-9e97-fed9d93804e6</t>
-  </si>
-  <si>
-    <t>relationship--b4fcc69e-2732-435e-b66c-b279809e1878</t>
-  </si>
-  <si>
-    <t>relationship--2b7be5ad-74de-4aad-899d-946cd139cbac</t>
-  </si>
-  <si>
-    <t>relationship--f354201d-2511-48b2-a879-46306aa01219</t>
-  </si>
-  <si>
-    <t>relationship--555a9d59-5328-4c11-ac73-c808054888ea</t>
-  </si>
-  <si>
-    <t>relationship--6bd9ec9b-a36b-4b6c-9319-9e27fbc1e3e7</t>
-  </si>
-  <si>
-    <t>relationship--f947b3cf-e9a1-4967-91ab-60a5c9d77bb2</t>
-  </si>
-  <si>
-    <t>relationship--c1a21d14-f4d1-4984-af3f-8bb8a48dacb1</t>
-  </si>
-  <si>
-    <t>relationship--d84f1a5f-04a4-40d0-b101-553bf0c5a1e9</t>
-  </si>
-  <si>
-    <t>relationship--ce9b9b60-72f4-481e-b7f5-b2e19eff7617</t>
-  </si>
-  <si>
-    <t>relationship--6cc01095-0c9c-44b5-b5a2-79de31afc0ab</t>
-  </si>
-  <si>
-    <t>relationship--e9d8568b-dcd2-426b-a8e4-31d03d91b767</t>
-  </si>
-  <si>
-    <t>relationship--ef2f6f63-9dba-4d29-973d-558e958d5b71</t>
-  </si>
-  <si>
-    <t>relationship--d5e4f6f2-3905-4e08-9768-192cc2b60d36</t>
-  </si>
-  <si>
-    <t>relationship--e27a7562-202c-4d6f-a1c6-f1e11c8710e5</t>
-  </si>
-  <si>
-    <t>relationship--b3764c7b-55b2-4e5d-95a1-0d59b23ce13b</t>
-  </si>
-  <si>
-    <t>relationship--8b31976d-2726-4c04-b8ea-2c89f47f0f28</t>
-  </si>
-  <si>
-    <t>relationship--37afcc55-feec-419e-bf31-54beb0597f82</t>
-  </si>
-  <si>
-    <t>relationship--2d7f06b6-6f4d-402e-9a61-3668787ff7ad</t>
-  </si>
-  <si>
-    <t>relationship--79c74b97-9a2c-46dd-9dc9-4d2c8bfdbd0b</t>
-  </si>
-  <si>
-    <t>relationship--71aa0d48-c03b-4c7f-979a-720b520a45fb</t>
-  </si>
-  <si>
-    <t>relationship--b3a2a290-178e-4965-b8a5-3184b6c78018</t>
-  </si>
-  <si>
-    <t>relationship--76521caf-c198-4975-af14-58139aee29fa</t>
-  </si>
-  <si>
-    <t>relationship--065b2ff5-8c40-43d3-87cf-d85917907a5c</t>
-  </si>
-  <si>
-    <t>relationship--1547fde2-84c1-4de8-b3c4-3ac26b08ed39</t>
-  </si>
-  <si>
-    <t>relationship--da6837c3-7beb-4d4c-a98a-5e81afb2006e</t>
-  </si>
-  <si>
-    <t>relationship--331ff2f4-01dc-437b-a817-c8b2145e41f0</t>
-  </si>
-  <si>
-    <t>relationship--06dd2adc-2cda-41e7-9fac-cf88a664e712</t>
-  </si>
-  <si>
-    <t>relationship--d96c71a6-3bf6-4105-b744-1c5716d287f1</t>
-  </si>
-  <si>
-    <t>relationship--34f63638-8a9c-4b4a-a579-7c657a6ee1b8</t>
-  </si>
-  <si>
-    <t>relationship--33568a69-752e-4f87-9e10-63ab37b9a6db</t>
-  </si>
-  <si>
-    <t>relationship--ce9a655e-e9c9-4280-a4ae-8411e5ff2fc1</t>
-  </si>
-  <si>
-    <t>relationship--fd521fda-8ec5-4b81-9bc9-9c89c6173a9f</t>
-  </si>
-  <si>
-    <t>relationship--bebdb2cf-de71-41e6-a1e5-bdd634870bb3</t>
-  </si>
-  <si>
-    <t>relationship--7d3e2b68-2bc4-449b-8128-f31a10be196c</t>
-  </si>
-  <si>
-    <t>relationship--1e0d817a-ee9a-4e97-84f0-f03eee4dd4e4</t>
+    <t>relationship--505db5cc-8d11-4811-8e90-006612c440d0</t>
+  </si>
+  <si>
+    <t>relationship--9f6e8c64-bd4d-42cc-9a5e-9fc13646c437</t>
+  </si>
+  <si>
+    <t>relationship--f49686fb-e313-4b3a-8217-e389b6553316</t>
+  </si>
+  <si>
+    <t>relationship--49a027cf-833c-4f17-9b4c-0fdd04274e48</t>
+  </si>
+  <si>
+    <t>relationship--6dbfe2fe-3636-4656-aaa3-1f6f985f751a</t>
+  </si>
+  <si>
+    <t>relationship--e2ec223a-c3ca-4bf7-a167-f13e6645aae6</t>
+  </si>
+  <si>
+    <t>relationship--0189dc45-3210-491f-8099-11fa3447740b</t>
+  </si>
+  <si>
+    <t>relationship--34b01208-4b99-4099-bf6a-61f172bcf048</t>
+  </si>
+  <si>
+    <t>relationship--767ad4ac-4061-4dc7-a179-4f983c9e3582</t>
+  </si>
+  <si>
+    <t>relationship--58bb8cef-12fc-4b51-ba19-308805a65015</t>
+  </si>
+  <si>
+    <t>relationship--61bf5a36-058b-4c1f-9717-73cd06ee702d</t>
+  </si>
+  <si>
+    <t>relationship--7350b9b9-0754-4b6a-a1b6-961abb7b65cd</t>
+  </si>
+  <si>
+    <t>relationship--d221f109-20ae-4067-8dee-982f89fc01d6</t>
+  </si>
+  <si>
+    <t>relationship--f1398de1-0015-438b-9771-fc0945cdd2c8</t>
+  </si>
+  <si>
+    <t>relationship--51024f40-3973-45e7-9e4b-0d44b96494a6</t>
+  </si>
+  <si>
+    <t>relationship--5b01cc8b-0726-40cd-9236-64a0861b9ced</t>
+  </si>
+  <si>
+    <t>relationship--6779bab3-aa88-40cd-8da3-43dbf5775f94</t>
+  </si>
+  <si>
+    <t>relationship--7da0d729-7305-4768-a378-c67e085b7266</t>
+  </si>
+  <si>
+    <t>relationship--b3b1d2a9-e13d-44dc-b089-3796550a80ce</t>
+  </si>
+  <si>
+    <t>relationship--ce00abe6-d133-404d-b3a8-ff7469897397</t>
+  </si>
+  <si>
+    <t>relationship--5a263177-67a7-4d06-9939-85c51711c3be</t>
+  </si>
+  <si>
+    <t>relationship--1bf1eb9c-25ea-4114-b044-5ad99526ce35</t>
+  </si>
+  <si>
+    <t>relationship--59cd016a-ff20-44d6-8997-b98c4c9f23e3</t>
+  </si>
+  <si>
+    <t>relationship--07a09112-35b6-4acd-ab4c-b1b40283b67d</t>
+  </si>
+  <si>
+    <t>relationship--3d041f61-1f41-4d92-a871-0204d00b88d5</t>
+  </si>
+  <si>
+    <t>relationship--2077df23-3928-4527-ba1c-3ff12ec506d0</t>
+  </si>
+  <si>
+    <t>relationship--b1eced87-94e4-41f1-8b3c-84f6fe1e6b1f</t>
+  </si>
+  <si>
+    <t>relationship--1560458c-50af-460f-9b93-ec048ae440a9</t>
+  </si>
+  <si>
+    <t>relationship--1e7c2309-9d9d-47f9-9a01-afdacbbff726</t>
+  </si>
+  <si>
+    <t>relationship--2085409e-80d1-4208-9a33-10f29c0674cf</t>
+  </si>
+  <si>
+    <t>relationship--8ee2f4d3-7ca9-429b-98a6-9846e7bce04a</t>
+  </si>
+  <si>
+    <t>relationship--b3f929e4-e875-4c18-8534-804190dc61fc</t>
+  </si>
+  <si>
+    <t>relationship--4f3f445c-d094-456c-9a12-7ee310f97bd7</t>
+  </si>
+  <si>
+    <t>relationship--ed1773d0-00a6-4df5-9b28-8404a2c18694</t>
+  </si>
+  <si>
+    <t>relationship--10ddba73-06cf-4842-9d8a-619e32320d58</t>
+  </si>
+  <si>
+    <t>relationship--0f347c93-ea71-48b0-a2c2-412eb839d9aa</t>
+  </si>
+  <si>
+    <t>relationship--e6e258c3-5df6-4a53-8cf2-d49b66c3c168</t>
+  </si>
+  <si>
+    <t>relationship--4c2f0582-0c11-42c1-9f3c-57c3ae6678f5</t>
+  </si>
+  <si>
+    <t>relationship--7fe1328a-4daf-4784-84af-00de83163fbe</t>
+  </si>
+  <si>
+    <t>relationship--7511dfe2-5d1e-44e3-8cf1-cf1791affc6c</t>
+  </si>
+  <si>
+    <t>relationship--696185ad-91d8-478a-9810-41f6ff4b34ac</t>
+  </si>
+  <si>
+    <t>relationship--80c30f25-c88c-4697-892a-ec032eec2a76</t>
+  </si>
+  <si>
+    <t>relationship--6bf89225-c0c3-4abd-84cd-07d19a46cc88</t>
+  </si>
+  <si>
+    <t>relationship--87a2b66d-386a-4a41-97d7-cef879dc9dbc</t>
+  </si>
+  <si>
+    <t>relationship--df267ca5-9e7f-48f9-ae49-c00d7c2f03eb</t>
+  </si>
+  <si>
+    <t>relationship--af332762-577c-4785-8ed3-a4cd5e76b016</t>
+  </si>
+  <si>
+    <t>relationship--c685aac1-12c7-4b33-b57d-63d39620cf37</t>
+  </si>
+  <si>
+    <t>relationship--19c6714e-d0fb-44b2-974c-c3d9d5dda4a7</t>
+  </si>
+  <si>
+    <t>relationship--ef7d221b-4628-49c8-9f02-78f3bc74ec43</t>
+  </si>
+  <si>
+    <t>relationship--87ec7587-d0ba-4414-944e-19926ae67d54</t>
+  </si>
+  <si>
+    <t>relationship--8724c1c4-9d16-406e-bdbe-f043878fba96</t>
+  </si>
+  <si>
+    <t>relationship--84daf1fa-1912-489e-ba02-03000ba1dfb6</t>
+  </si>
+  <si>
+    <t>relationship--a7ce7eed-1966-46c9-b1f5-698b130b14ae</t>
+  </si>
+  <si>
+    <t>relationship--ded2770e-ec93-43d6-a402-17b719f06f64</t>
+  </si>
+  <si>
+    <t>relationship--860a4243-92cc-455f-bc92-0a3f380f5cf8</t>
+  </si>
+  <si>
+    <t>relationship--fa2e9798-70d3-47bc-8d02-0adce4b8f4a9</t>
+  </si>
+  <si>
+    <t>relationship--d30ca2d6-bb30-4aa5-adeb-050a01bbbec1</t>
+  </si>
+  <si>
+    <t>relationship--e87ad122-14fe-4c8f-9fa4-19c8ef795c7c</t>
+  </si>
+  <si>
+    <t>relationship--460fe1f6-b88d-415d-8433-ef4ccb40afd6</t>
+  </si>
+  <si>
+    <t>relationship--0889f025-d000-4362-8f7e-1672a0c5804c</t>
+  </si>
+  <si>
+    <t>relationship--6f10f315-4dbf-48b1-a207-8765c5b76f20</t>
+  </si>
+  <si>
+    <t>relationship--eeb0c2dd-a563-492b-92ec-2ff10e303d4f</t>
+  </si>
+  <si>
+    <t>relationship--95f0e6ee-d274-4437-8edf-0d6b9f051eaf</t>
+  </si>
+  <si>
+    <t>relationship--f0224ef6-ac3f-426e-9d06-688675926474</t>
+  </si>
+  <si>
+    <t>relationship--c18aaae0-8f5f-4ed2-afde-fa402b7c9058</t>
+  </si>
+  <si>
+    <t>relationship--e78e2603-8851-4cb1-afa9-26757d56f190</t>
+  </si>
+  <si>
+    <t>relationship--35d555be-2b23-45fb-a52b-295ccce6c07d</t>
+  </si>
+  <si>
+    <t>relationship--d1c35359-fab8-419c-916e-2dc2d887df06</t>
+  </si>
+  <si>
+    <t>relationship--22e31c31-c4c8-42b3-8fd8-86b984d5dd4a</t>
+  </si>
+  <si>
+    <t>relationship--68b0f4e1-03d8-49ea-b1c5-8cdb58105d18</t>
+  </si>
+  <si>
+    <t>relationship--9a09a00c-e920-4aff-827c-316dabdd8085</t>
+  </si>
+  <si>
+    <t>relationship--247dae90-cbb7-4514-a371-24cee2982dcd</t>
+  </si>
+  <si>
+    <t>relationship--2cac8184-822b-4ae0-b0a5-9b23f1fa7c6e</t>
+  </si>
+  <si>
+    <t>relationship--ab438913-b3c0-4672-9cbc-3e2e59bf3608</t>
+  </si>
+  <si>
+    <t>relationship--6698cae1-2d23-45ab-9e07-e9c6bdfc78e9</t>
+  </si>
+  <si>
+    <t>relationship--5e4ea92d-e283-4234-860b-999203123162</t>
+  </si>
+  <si>
+    <t>relationship--bf9c8885-92cd-4ab8-a549-646ee1694c61</t>
+  </si>
+  <si>
+    <t>relationship--e20ae5d0-8412-4e6e-9958-75b5b3623b5d</t>
+  </si>
+  <si>
+    <t>relationship--89213c4a-bccd-4461-8898-b4b7b2a3b899</t>
+  </si>
+  <si>
+    <t>relationship--f08cf33c-ac94-4000-b1c8-390fb912bfab</t>
+  </si>
+  <si>
+    <t>relationship--add8aacd-1581-44dd-80c7-380c9b0dac06</t>
+  </si>
+  <si>
+    <t>relationship--d6992ef8-e0b8-4a20-a663-a59d1794c1cf</t>
+  </si>
+  <si>
+    <t>relationship--46856582-fec6-4063-9a05-e769d0f5e6e3</t>
+  </si>
+  <si>
+    <t>relationship--c8e7f861-0992-4589-a1c0-c70a603c957b</t>
+  </si>
+  <si>
+    <t>relationship--c444e7de-83cc-4a6e-99bd-8509f923cb3d</t>
+  </si>
+  <si>
+    <t>relationship--29b6aa3b-fecb-4d1c-bdb2-58f90788123e</t>
+  </si>
+  <si>
+    <t>relationship--0f06ec3d-4343-4363-96a0-fa9492dc8edf</t>
+  </si>
+  <si>
+    <t>relationship--3a3cab15-6b39-4d41-8e03-23a15a5cba42</t>
+  </si>
+  <si>
+    <t>relationship--bc86c7f4-d989-4a2c-9ff8-fb21038e0287</t>
+  </si>
+  <si>
+    <t>relationship--f739f509-651f-4fac-9342-a4b189d4a82f</t>
+  </si>
+  <si>
+    <t>relationship--c8bf0bed-9028-48a4-97d8-57d5e9387dd5</t>
+  </si>
+  <si>
+    <t>relationship--f3f9ba2a-b6d3-4171-b776-4c0fd425d1dd</t>
+  </si>
+  <si>
+    <t>relationship--e5396756-390d-43b9-b3d3-c998869b9498</t>
+  </si>
+  <si>
+    <t>relationship--10720f12-fe1a-4b30-93a8-2f69f33729b7</t>
+  </si>
+  <si>
+    <t>relationship--5e634baa-bdb1-4ea3-bdc7-4fbfa88f1fac</t>
+  </si>
+  <si>
+    <t>relationship--40424d8a-5de5-4658-87a0-85568fde2e4e</t>
+  </si>
+  <si>
+    <t>relationship--041e524f-ce40-44fb-be10-9ba2292ee7b2</t>
+  </si>
+  <si>
+    <t>relationship--28a7467d-ed66-4b74-b5cc-5e7b14d26f1c</t>
+  </si>
+  <si>
+    <t>relationship--7cefef5d-aa19-4170-b415-e9ca2db8e062</t>
+  </si>
+  <si>
+    <t>relationship--6299066e-0ff9-4d89-bb8f-cb1b0f04b9b3</t>
+  </si>
+  <si>
+    <t>relationship--ba2f59be-65ed-4f71-8b25-c40c0316b4cc</t>
+  </si>
+  <si>
+    <t>relationship--29f0ff78-37c3-4eee-b43d-d7b6ad221922</t>
+  </si>
+  <si>
+    <t>relationship--71ad3705-8153-4733-b9e8-771bf4963b6e</t>
+  </si>
+  <si>
+    <t>relationship--8355c7ce-abbe-44b9-bd2e-b83f91160b1f</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,22 +1917,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1598,22 +1940,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1621,22 +1963,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1644,22 +1986,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1667,22 +2009,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1690,22 +2032,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1713,22 +2055,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1736,22 +2078,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1759,22 +2101,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1782,22 +2124,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1805,22 +2147,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1828,22 +2170,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1851,22 +2193,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1874,22 +2216,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1897,22 +2239,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1920,22 +2262,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1943,22 +2285,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1966,22 +2308,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1989,22 +2331,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2012,22 +2354,160 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
-        <v>108</v>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2052,6 +2532,12 @@
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
     <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2059,7 +2545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2067,34 +2553,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2111,40 +2597,40 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2152,40 +2638,40 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="K3" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2193,40 +2679,40 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2234,40 +2720,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="K5" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2275,40 +2761,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2316,40 +2802,40 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="K7" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2357,2664 +2843,4017 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="K8" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="K9" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="K10" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J11" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="K11" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J13" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="K13" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="K15" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J16" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="K16" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="K17" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J18" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="L18" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="K19" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J20" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="K20" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="L20" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J21" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="K22" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="K23" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="K24" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="H25" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="K25" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="L25" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="K26" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="L26" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="H27" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="K27" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="L27" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="L29" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="L32" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="L34" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="L35" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="L36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="L37" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M37" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J38" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="L38" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="L39" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J40" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J41" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J42" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M42" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M43" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J44" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M44" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J45" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M45" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="H46" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M46" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="H48" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J48" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M48" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J49" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M49" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H50" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J50" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="I51" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J51" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="K51" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J52" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="H53" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J53" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="K53" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H54" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J54" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J55" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="K55" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J56" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="K56" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J57" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="K57" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J58" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J59" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="K59" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J60" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="K60" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M60" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="H61" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J61" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M61" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J62" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="L62" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M62" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J63" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="M63" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="G64" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J64" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="K64" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M64" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J65" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="K65" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M65" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J66" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="K66" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="L66" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M66" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="I67" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J67" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="K67" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M67" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G68" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="H68" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J68" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J69" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="L69" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M69" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="I70" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J70" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="K70" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M70" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="I71" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="J71" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" t="s">
+        <v>295</v>
+      </c>
+      <c r="J72" t="s">
+        <v>340</v>
+      </c>
+      <c r="K72" t="s">
+        <v>435</v>
+      </c>
+      <c r="L72" t="s">
+        <v>139</v>
+      </c>
+      <c r="M72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" t="s">
+        <v>257</v>
+      </c>
+      <c r="I73" t="s">
+        <v>295</v>
+      </c>
+      <c r="J73" t="s">
+        <v>340</v>
+      </c>
+      <c r="K73" t="s">
+        <v>436</v>
+      </c>
+      <c r="L73" t="s">
+        <v>139</v>
+      </c>
+      <c r="M73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" t="s">
+        <v>211</v>
+      </c>
+      <c r="H74" t="s">
+        <v>258</v>
+      </c>
+      <c r="I74" t="s">
+        <v>295</v>
+      </c>
+      <c r="J74" t="s">
+        <v>340</v>
+      </c>
+      <c r="K74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" t="s">
+        <v>204</v>
+      </c>
+      <c r="H75" t="s">
+        <v>251</v>
+      </c>
+      <c r="I75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J75" t="s">
+        <v>341</v>
+      </c>
+      <c r="K75" t="s">
+        <v>438</v>
+      </c>
+      <c r="L75" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" t="s">
+        <v>215</v>
+      </c>
+      <c r="H76" t="s">
+        <v>262</v>
+      </c>
+      <c r="I76" t="s">
+        <v>295</v>
+      </c>
+      <c r="J76" t="s">
+        <v>342</v>
+      </c>
+      <c r="K76" t="s">
+        <v>439</v>
+      </c>
+      <c r="L76" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" t="s">
+        <v>243</v>
+      </c>
+      <c r="H77" t="s">
+        <v>290</v>
+      </c>
+      <c r="I77" t="s">
+        <v>295</v>
+      </c>
+      <c r="J77" t="s">
+        <v>343</v>
+      </c>
+      <c r="K77" t="s">
+        <v>440</v>
+      </c>
+      <c r="L77" t="s">
+        <v>139</v>
+      </c>
+      <c r="M77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" t="s">
+        <v>216</v>
+      </c>
+      <c r="H78" t="s">
+        <v>263</v>
+      </c>
+      <c r="I78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J78" t="s">
+        <v>344</v>
+      </c>
+      <c r="K78" t="s">
+        <v>441</v>
+      </c>
+      <c r="L78" t="s">
+        <v>139</v>
+      </c>
+      <c r="M78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" t="s">
+        <v>241</v>
+      </c>
+      <c r="H79" t="s">
+        <v>288</v>
+      </c>
+      <c r="I79" t="s">
+        <v>295</v>
+      </c>
+      <c r="J79" t="s">
+        <v>345</v>
+      </c>
+      <c r="K79" t="s">
+        <v>442</v>
+      </c>
+      <c r="L79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" t="s">
+        <v>289</v>
+      </c>
+      <c r="I80" t="s">
+        <v>295</v>
+      </c>
+      <c r="J80" t="s">
+        <v>345</v>
+      </c>
+      <c r="K80" t="s">
+        <v>443</v>
+      </c>
+      <c r="L80" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" t="s">
+        <v>254</v>
+      </c>
+      <c r="I81" t="s">
+        <v>295</v>
+      </c>
+      <c r="J81" t="s">
+        <v>346</v>
+      </c>
+      <c r="K81" t="s">
+        <v>444</v>
+      </c>
+      <c r="L81" t="s">
+        <v>139</v>
+      </c>
+      <c r="M81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" t="s">
+        <v>255</v>
+      </c>
+      <c r="I82" t="s">
+        <v>295</v>
+      </c>
+      <c r="J82" t="s">
+        <v>346</v>
+      </c>
+      <c r="K82" t="s">
+        <v>445</v>
+      </c>
+      <c r="L82" t="s">
+        <v>139</v>
+      </c>
+      <c r="M82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" t="s">
+        <v>257</v>
+      </c>
+      <c r="I83" t="s">
+        <v>295</v>
+      </c>
+      <c r="J83" t="s">
+        <v>346</v>
+      </c>
+      <c r="K83" t="s">
+        <v>446</v>
+      </c>
+      <c r="L83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" t="s">
+        <v>211</v>
+      </c>
+      <c r="H84" t="s">
+        <v>258</v>
+      </c>
+      <c r="I84" t="s">
+        <v>295</v>
+      </c>
+      <c r="J84" t="s">
+        <v>346</v>
+      </c>
+      <c r="K84" t="s">
+        <v>447</v>
+      </c>
+      <c r="L84" t="s">
+        <v>139</v>
+      </c>
+      <c r="M84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>291</v>
+      </c>
+      <c r="I85" t="s">
+        <v>295</v>
+      </c>
+      <c r="J85" t="s">
+        <v>347</v>
+      </c>
+      <c r="K85" t="s">
+        <v>448</v>
+      </c>
+      <c r="L85" t="s">
+        <v>139</v>
+      </c>
+      <c r="M85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
         <v>27</v>
       </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" t="s">
-        <v>164</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86" t="s">
+        <v>221</v>
+      </c>
+      <c r="H86" t="s">
+        <v>268</v>
+      </c>
+      <c r="I86" t="s">
+        <v>295</v>
+      </c>
+      <c r="J86" t="s">
+        <v>348</v>
+      </c>
+      <c r="K86" t="s">
+        <v>449</v>
+      </c>
+      <c r="L86" t="s">
+        <v>139</v>
+      </c>
+      <c r="M86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" t="s">
+        <v>225</v>
+      </c>
+      <c r="H87" t="s">
+        <v>272</v>
+      </c>
+      <c r="I87" t="s">
+        <v>295</v>
+      </c>
+      <c r="J87" t="s">
+        <v>349</v>
+      </c>
+      <c r="K87" t="s">
+        <v>450</v>
+      </c>
+      <c r="L87" t="s">
+        <v>139</v>
+      </c>
+      <c r="M87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" t="s">
         <v>201</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88" t="s">
+        <v>295</v>
+      </c>
+      <c r="J88" t="s">
+        <v>350</v>
+      </c>
+      <c r="K88" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" t="s">
+        <v>139</v>
+      </c>
+      <c r="M88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" t="s">
+        <v>241</v>
+      </c>
+      <c r="H89" t="s">
+        <v>288</v>
+      </c>
+      <c r="I89" t="s">
+        <v>295</v>
+      </c>
+      <c r="J89" t="s">
+        <v>351</v>
+      </c>
+      <c r="K89" t="s">
+        <v>452</v>
+      </c>
+      <c r="L89" t="s">
+        <v>139</v>
+      </c>
+      <c r="M89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" t="s">
+        <v>170</v>
+      </c>
+      <c r="G90" t="s">
+        <v>217</v>
+      </c>
+      <c r="H90" t="s">
+        <v>264</v>
+      </c>
+      <c r="I90" t="s">
+        <v>295</v>
+      </c>
+      <c r="J90" t="s">
+        <v>352</v>
+      </c>
+      <c r="K90" t="s">
+        <v>453</v>
+      </c>
+      <c r="L90" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" t="s">
+        <v>265</v>
+      </c>
+      <c r="I91" t="s">
+        <v>295</v>
+      </c>
+      <c r="J91" t="s">
+        <v>352</v>
+      </c>
+      <c r="K91" t="s">
+        <v>454</v>
+      </c>
+      <c r="L91" t="s">
+        <v>139</v>
+      </c>
+      <c r="M91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G92" t="s">
+        <v>219</v>
+      </c>
+      <c r="H92" t="s">
+        <v>266</v>
+      </c>
+      <c r="I92" t="s">
+        <v>295</v>
+      </c>
+      <c r="J92" t="s">
+        <v>353</v>
+      </c>
+      <c r="K92" t="s">
+        <v>455</v>
+      </c>
+      <c r="L92" t="s">
+        <v>139</v>
+      </c>
+      <c r="M92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" t="s">
+        <v>267</v>
+      </c>
+      <c r="I93" t="s">
+        <v>295</v>
+      </c>
+      <c r="J93" t="s">
+        <v>353</v>
+      </c>
+      <c r="K93" t="s">
+        <v>456</v>
+      </c>
+      <c r="L93" t="s">
+        <v>139</v>
+      </c>
+      <c r="M93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" t="s">
+        <v>265</v>
+      </c>
+      <c r="I94" t="s">
+        <v>295</v>
+      </c>
+      <c r="J94" t="s">
+        <v>354</v>
+      </c>
+      <c r="K94" t="s">
+        <v>457</v>
+      </c>
+      <c r="L94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" t="s">
+        <v>198</v>
+      </c>
+      <c r="G95" t="s">
+        <v>245</v>
+      </c>
+      <c r="H95" t="s">
+        <v>292</v>
+      </c>
+      <c r="I95" t="s">
+        <v>295</v>
+      </c>
+      <c r="J95" t="s">
+        <v>355</v>
+      </c>
+      <c r="K95" t="s">
+        <v>458</v>
+      </c>
+      <c r="L95" t="s">
+        <v>139</v>
+      </c>
+      <c r="M95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" t="s">
+        <v>204</v>
+      </c>
+      <c r="H96" t="s">
+        <v>251</v>
+      </c>
+      <c r="I96" t="s">
+        <v>295</v>
+      </c>
+      <c r="J96" t="s">
+        <v>356</v>
+      </c>
+      <c r="K96" t="s">
+        <v>459</v>
+      </c>
+      <c r="L96" t="s">
+        <v>139</v>
+      </c>
+      <c r="M96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" t="s">
+        <v>199</v>
+      </c>
+      <c r="G97" t="s">
+        <v>246</v>
+      </c>
+      <c r="H97" t="s">
+        <v>293</v>
+      </c>
+      <c r="I97" t="s">
+        <v>295</v>
+      </c>
+      <c r="J97" t="s">
+        <v>357</v>
+      </c>
+      <c r="K97" t="s">
+        <v>460</v>
+      </c>
+      <c r="L97" t="s">
+        <v>139</v>
+      </c>
+      <c r="M97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" t="s">
+        <v>153</v>
+      </c>
+      <c r="F98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H98" t="s">
+        <v>270</v>
+      </c>
+      <c r="I98" t="s">
+        <v>295</v>
+      </c>
+      <c r="J98" t="s">
+        <v>358</v>
+      </c>
+      <c r="K98" t="s">
+        <v>461</v>
+      </c>
+      <c r="L98" t="s">
+        <v>139</v>
+      </c>
+      <c r="M98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" t="s">
+        <v>220</v>
+      </c>
+      <c r="H99" t="s">
+        <v>267</v>
+      </c>
+      <c r="I99" t="s">
+        <v>295</v>
+      </c>
+      <c r="J99" t="s">
+        <v>358</v>
+      </c>
+      <c r="K99" t="s">
+        <v>462</v>
+      </c>
+      <c r="L99" t="s">
+        <v>139</v>
+      </c>
+      <c r="M99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>153</v>
+      </c>
+      <c r="F100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" t="s">
+        <v>225</v>
+      </c>
+      <c r="H100" t="s">
+        <v>272</v>
+      </c>
+      <c r="I100" t="s">
+        <v>295</v>
+      </c>
+      <c r="J100" t="s">
+        <v>359</v>
+      </c>
+      <c r="K100" t="s">
+        <v>463</v>
+      </c>
+      <c r="L100" t="s">
+        <v>139</v>
+      </c>
+      <c r="M100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" t="s">
         <v>232</v>
       </c>
-      <c r="J72" t="s">
-        <v>284</v>
-      </c>
-      <c r="K72" t="s">
-        <v>355</v>
-      </c>
-      <c r="L72" t="s">
-        <v>108</v>
-      </c>
-      <c r="M72" t="s">
-        <v>108</v>
+      <c r="H101" t="s">
+        <v>279</v>
+      </c>
+      <c r="I101" t="s">
+        <v>295</v>
+      </c>
+      <c r="J101" t="s">
+        <v>360</v>
+      </c>
+      <c r="K101" t="s">
+        <v>464</v>
+      </c>
+      <c r="L101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" t="s">
+        <v>202</v>
+      </c>
+      <c r="H102" t="s">
+        <v>249</v>
+      </c>
+      <c r="I102" t="s">
+        <v>295</v>
+      </c>
+      <c r="J102" t="s">
+        <v>361</v>
+      </c>
+      <c r="K102" t="s">
+        <v>465</v>
+      </c>
+      <c r="L102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" t="s">
+        <v>204</v>
+      </c>
+      <c r="H103" t="s">
+        <v>251</v>
+      </c>
+      <c r="I103" t="s">
+        <v>295</v>
+      </c>
+      <c r="J103" t="s">
+        <v>362</v>
+      </c>
+      <c r="K103" t="s">
+        <v>466</v>
+      </c>
+      <c r="L103" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" t="s">
+        <v>153</v>
+      </c>
+      <c r="F104" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>247</v>
+      </c>
+      <c r="H104" t="s">
+        <v>294</v>
+      </c>
+      <c r="I104" t="s">
+        <v>295</v>
+      </c>
+      <c r="J104" t="s">
+        <v>363</v>
+      </c>
+      <c r="K104" t="s">
+        <v>467</v>
+      </c>
+      <c r="L104" t="s">
+        <v>139</v>
+      </c>
+      <c r="M104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" t="s">
+        <v>153</v>
+      </c>
+      <c r="F105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" t="s">
+        <v>204</v>
+      </c>
+      <c r="H105" t="s">
+        <v>251</v>
+      </c>
+      <c r="I105" t="s">
+        <v>295</v>
+      </c>
+      <c r="J105" t="s">
+        <v>364</v>
+      </c>
+      <c r="K105" t="s">
+        <v>468</v>
+      </c>
+      <c r="L105" t="s">
+        <v>139</v>
+      </c>
+      <c r="M105" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="466">
   <si>
     <t>ID</t>
   </si>
@@ -119,82 +119,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--1f63b56d-034f-477d-ab49-399c1aa1a22a</t>
-  </si>
-  <si>
-    <t>course-of-action--fa5108b2-3dc8-42dc-93a3-902f1bf74521</t>
-  </si>
-  <si>
-    <t>course-of-action--0ed2ef71-cdc9-4eef-8432-1c3dadbdda20</t>
-  </si>
-  <si>
-    <t>course-of-action--88073b07-2fe9-41cb-8e76-6e244fbabc74</t>
-  </si>
-  <si>
-    <t>course-of-action--0025dadf-7900-497f-aa03-39f0e319f20e</t>
-  </si>
-  <si>
-    <t>course-of-action--7b00dd51-f719-433d-afd6-3d386f64386d</t>
-  </si>
-  <si>
-    <t>course-of-action--aad92d43-774b-4612-8437-8d6c7ee7e4af</t>
-  </si>
-  <si>
-    <t>course-of-action--b8511570-3320-4733-a0e1-134e376e7530</t>
-  </si>
-  <si>
-    <t>course-of-action--d55bd0c8-2db0-400b-9097-c7cec00e2b91</t>
-  </si>
-  <si>
-    <t>course-of-action--1fca595d-b140-4ce0-8fd8-c4c6bee87540</t>
-  </si>
-  <si>
-    <t>course-of-action--73a34f24-1ad1-4421-b9c8-c2cbd13e6f47</t>
-  </si>
-  <si>
-    <t>course-of-action--79c75215-ada9-4c22-bfed-7d13fb6e966e</t>
-  </si>
-  <si>
-    <t>course-of-action--40076545-e797-4508-a294-943096a12111</t>
-  </si>
-  <si>
-    <t>course-of-action--005a5427-4b1e-41c2-a7aa-eda9ae9a9815</t>
-  </si>
-  <si>
-    <t>course-of-action--432c3a44-3974-4b73-9eb9-fa5dd5298e47</t>
-  </si>
-  <si>
-    <t>course-of-action--216f862c-7f34-4676-a913-c4ec6cc4c2cd</t>
-  </si>
-  <si>
-    <t>course-of-action--9f92e876-e2c0-4def-afee-626a4a79c524</t>
-  </si>
-  <si>
-    <t>course-of-action--179e00cb-0948-4282-9132-f8a1f0ff6bd7</t>
-  </si>
-  <si>
-    <t>course-of-action--46b3e92d-600b-47c9-80f5-ed62a5db0377</t>
-  </si>
-  <si>
-    <t>course-of-action--9395d240-cc32-452a-911b-04feea01bcfb</t>
-  </si>
-  <si>
-    <t>course-of-action--dcb586a2-1135-4e2a-97bd-d4adbc79758b</t>
-  </si>
-  <si>
-    <t>course-of-action--1bb9d9a7-c05a-470f-a709-64bd240e2eb0</t>
-  </si>
-  <si>
-    <t>course-of-action--cce983e7-13a2-4545-8c39-ec6c8dff148d</t>
-  </si>
-  <si>
-    <t>course-of-action--01c2ec0a-e257-4a75-9e59-f71aa6362b6e</t>
-  </si>
-  <si>
-    <t>course-of-action--cdccb3ab-2dde-41a9-a988-783a25b7bd00</t>
-  </si>
-  <si>
-    <t>course-of-action--79752061-aac1-4ed9-b7f3-3b4dc5e81280</t>
+    <t>course-of-action--62d0ba49-7343-48de-a756-ac5fdaf98c8f</t>
+  </si>
+  <si>
+    <t>course-of-action--e89d6eec-150c-4308-bd3e-fc51e5efdfa6</t>
+  </si>
+  <si>
+    <t>course-of-action--caf6e938-cf87-4a2c-a752-206b930f3c01</t>
+  </si>
+  <si>
+    <t>course-of-action--1a62c89b-d515-4e98-bbcd-c5e6ef78fe42</t>
+  </si>
+  <si>
+    <t>course-of-action--0fc686a3-466f-45bf-a95e-65304bc43666</t>
+  </si>
+  <si>
+    <t>course-of-action--5ec3bfe0-f7be-4286-bce1-ae762a23e79f</t>
+  </si>
+  <si>
+    <t>course-of-action--e0beab85-34fd-4915-a477-ed5efeaf9e0d</t>
+  </si>
+  <si>
+    <t>course-of-action--e2be373b-c7b9-449f-8c50-1e516d162969</t>
+  </si>
+  <si>
+    <t>course-of-action--b385f3b5-725c-45a8-b7e6-f56b35f75a4a</t>
+  </si>
+  <si>
+    <t>course-of-action--10c68f9d-a736-4d85-93bc-b0e36084cc9f</t>
+  </si>
+  <si>
+    <t>course-of-action--504b48c4-05c1-4b29-912a-2ba8db9631a9</t>
+  </si>
+  <si>
+    <t>course-of-action--6a041684-03a2-4874-9577-67749bf98de0</t>
+  </si>
+  <si>
+    <t>course-of-action--0e73d209-afa9-4540-a8c4-244bc9f604ea</t>
+  </si>
+  <si>
+    <t>course-of-action--ed176010-c43b-4055-b421-2a6f92b95504</t>
+  </si>
+  <si>
+    <t>course-of-action--dd73141b-4e51-4f90-8120-45b4d113f420</t>
+  </si>
+  <si>
+    <t>course-of-action--fbc6f93a-a8fd-4097-80e4-9b9da41cef4b</t>
+  </si>
+  <si>
+    <t>course-of-action--e54bb18b-c1a7-4700-baac-3de8a51c1097</t>
+  </si>
+  <si>
+    <t>course-of-action--954d9fe9-e75a-4a72-9db1-091ad28d23f8</t>
+  </si>
+  <si>
+    <t>course-of-action--ead3a51b-6ed6-420a-9953-fe2f6b8816dd</t>
+  </si>
+  <si>
+    <t>course-of-action--5fd900ac-6e6a-4ee7-9a11-ef58129cea5c</t>
+  </si>
+  <si>
+    <t>course-of-action--317157f6-b4a4-4887-99cc-7e900fb7e35a</t>
+  </si>
+  <si>
+    <t>course-of-action--08c232f3-a786-4fdb-89cd-bbd76943fd10</t>
+  </si>
+  <si>
+    <t>course-of-action--80c18af0-9956-4f37-b1fd-49c3785d2243</t>
+  </si>
+  <si>
+    <t>course-of-action--9f8223a7-4fd2-44de-8854-d512dfc7fb09</t>
+  </si>
+  <si>
+    <t>course-of-action--8d8c433c-2b16-438c-b3cc-7a91b2f24ef9</t>
+  </si>
+  <si>
+    <t>course-of-action--698b729b-7703-4fd2-85a2-219386f1c37f</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -463,16 +463,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>01 October 2024</t>
-  </si>
-  <si>
-    <t>12 April 2023</t>
-  </si>
-  <si>
-    <t>12 January 2024</t>
-  </si>
-  <si>
-    <t>12 October 2023</t>
+    <t>14 March 2025</t>
   </si>
   <si>
     <t>source ID</t>
@@ -592,15 +583,15 @@
     <t>AML.T0035</t>
   </si>
   <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
     <t>AML.T0057</t>
   </si>
   <si>
     <t>AML.T0054</t>
   </si>
   <si>
-    <t>AML.T0056</t>
-  </si>
-  <si>
     <t>AML.T0053</t>
   </si>
   <si>
@@ -733,15 +724,15 @@
     <t>ML Artifact Collection</t>
   </si>
   <si>
+    <t>Extract LLM System Prompt</t>
+  </si>
+  <si>
     <t>LLM Data Leakage</t>
   </si>
   <si>
     <t>LLM Jailbreak</t>
   </si>
   <si>
-    <t>LLM Meta Prompt Extraction</t>
-  </si>
-  <si>
     <t>LLM Plugin Compromise</t>
   </si>
   <si>
@@ -793,145 +784,145 @@
     <t>Backdoor ML Model</t>
   </si>
   <si>
-    <t>attack-pattern--0ec538ca-589b-4e42-bcaa-06097a0d679f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f4fc2abd-71a4-401a-a742-18fc5aeb4bc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3b9d41a-d2f9-4825-942f-1c4a30b4d2f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--be6ef5c5-1ecb-486d-9743-42085bd2c256</t>
-  </si>
-  <si>
-    <t>attack-pattern--90a420d4-3f03-4800-86c0-223c4376804a</t>
-  </si>
-  <si>
-    <t>attack-pattern--d911e8cb-0601-42f1-90de-7ce0b21cd578</t>
-  </si>
-  <si>
-    <t>attack-pattern--b07d147f-51c8-4eb6-9a05-09c86762a9c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--f78e0ac3-6d72-42ed-b20a-e10d8c752cf6</t>
-  </si>
-  <si>
-    <t>attack-pattern--a4a55526-2f1f-403b-9691-609e46381e17</t>
-  </si>
-  <si>
-    <t>attack-pattern--86b5f486-afb8-4aa9-991f-0e24d5737f0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--e19c6f8a-f1e2-46cc-9387-03a3092f01ed</t>
-  </si>
-  <si>
-    <t>attack-pattern--19cd2d12-66ff-487c-a05c-e058b027efc9</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5626410-b33d-4487-9c0f-2b7d844b8e95</t>
-  </si>
-  <si>
-    <t>attack-pattern--a3660a2d-f6e5-4f1b-9618-332cceb389c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--c4e52005-7416-45c4-9feb-8cd5fd34f70a</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f644f37-e2e6-468e-b720-f395b8c27fbc</t>
-  </si>
-  <si>
-    <t>attack-pattern--8735735d-c09d-4298-8e64-9a2b6168a74c</t>
-  </si>
-  <si>
-    <t>attack-pattern--071df654-813a-4708-85dc-f715f785d37f</t>
-  </si>
-  <si>
-    <t>attack-pattern--d8292a1c-21e7-4b45-b110-0e05feb30a9a</t>
-  </si>
-  <si>
-    <t>attack-pattern--452b8fdf-8679-4013-bb38-4d16f65430bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d644240-ad99-4410-a7f8-3ef8f53a463e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2680aa95-5620-4677-9c62-b0c3d15d9450</t>
-  </si>
-  <si>
-    <t>attack-pattern--a50f02df-1130-4945-94bb-7857952da585</t>
-  </si>
-  <si>
-    <t>attack-pattern--d1f013a8-11f3-4560-831c-8ed5e39247c9</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0eb2b64-aebd-4412-80f3-b71d7805a65f</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a88dccb-fb37-4f11-a5ad-42908aaee1d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--e2ebc190-9ff6-496e-afeb-ac868df2361e</t>
-  </si>
-  <si>
-    <t>attack-pattern--45d378aa-20ae-401d-bf61-7f00104eeaca</t>
-  </si>
-  <si>
-    <t>attack-pattern--172427e3-9ecc-49a3-b628-96b824cc4131</t>
-  </si>
-  <si>
-    <t>attack-pattern--e98acce8-ed69-4ebe-845b-1bcb662836ba</t>
-  </si>
-  <si>
-    <t>attack-pattern--adbb0dd5-ff66-4b2f-869f-bfb3fdb45fc8</t>
-  </si>
-  <si>
-    <t>attack-pattern--d2cf31e0-a550-4fe0-8fdb-8941b3ac00d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--a3baff3d-7228-4ab7-ae00-ffe150e7ef8a</t>
-  </si>
-  <si>
-    <t>attack-pattern--c086784e-1494-4f75-a4a0-d3ad054b9428</t>
-  </si>
-  <si>
-    <t>attack-pattern--aa17fe8d-62f8-4c4c-b7a2-6858c82dd84b</t>
-  </si>
-  <si>
-    <t>attack-pattern--8c26f51a-c403-4c4d-852a-a1c56fe9e7cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--b23cda85-3457-406d-b043-24d2cf9e6fcf</t>
-  </si>
-  <si>
-    <t>attack-pattern--65d21e6b-7abe-4623-8f5c-88011cb362cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--3de90963-bc9f-4ae1-b780-7d05e46eacdd</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab01ba21-1438-4cd9-a588-92eb271086bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--c552f0b5-2e2c-4f8f-badc-0876ecca7255</t>
-  </si>
-  <si>
-    <t>attack-pattern--943303ef-846b-49d6-b53f-b0b9341ac1ca</t>
-  </si>
-  <si>
-    <t>attack-pattern--ae71ca3a-8ca4-40d2-bdba-4276b29ac8f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--6c1fca80-3ba9-41c9-8f7b-9824310a94f1</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d5c6974-0307-4535-bf37-7bb4c6a2ef47</t>
-  </si>
-  <si>
-    <t>attack-pattern--8c849dd4-5d15-45aa-b5b2-59c96a3ab939</t>
-  </si>
-  <si>
-    <t>attack-pattern--c704a49c-abf0-4258-9919-a862b1865469</t>
+    <t>attack-pattern--d63c873b-7e01-437d-98ef-d681099c3377</t>
+  </si>
+  <si>
+    <t>attack-pattern--89461ddf-4d27-40e7-ba53-8221012fe9c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--97fe9577-c7ed-466d-817d-697f815db7b0</t>
+  </si>
+  <si>
+    <t>attack-pattern--df46bcf0-0231-413c-9661-7f7d0e39b63e</t>
+  </si>
+  <si>
+    <t>attack-pattern--da8fff4a-bfff-4fe2-9d45-1c01fd9d3b73</t>
+  </si>
+  <si>
+    <t>attack-pattern--dcce6e07-56ea-416a-a15b-7693f0f0d631</t>
+  </si>
+  <si>
+    <t>attack-pattern--3f333baa-31b3-4196-966c-5298a8b106c5</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ab0c79a-4dcf-4270-a272-af080402402d</t>
+  </si>
+  <si>
+    <t>attack-pattern--3897f551-0533-4714-b8de-47e3879e42ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--02c2f3c6-678a-40f7-997b-a3faa54a5760</t>
+  </si>
+  <si>
+    <t>attack-pattern--93c93189-92f6-4485-8ddf-6c5e501f416f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9eddd08-a29a-4598-80a4-171d456be7c7</t>
+  </si>
+  <si>
+    <t>attack-pattern--e4653a0a-5832-4c26-ab98-e31a31936085</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9408f13-6211-4259-85e1-794dc96a6100</t>
+  </si>
+  <si>
+    <t>attack-pattern--fb1d969f-a88b-4404-a1a5-36fc7eab7c41</t>
+  </si>
+  <si>
+    <t>attack-pattern--861e7c2c-3f39-4131-b657-d9d9149189d0</t>
+  </si>
+  <si>
+    <t>attack-pattern--4b0d8468-e00f-4ba2-9e18-1a2f527f08b2</t>
+  </si>
+  <si>
+    <t>attack-pattern--ccf27b22-48bf-4219-a668-fa60eb0d94a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9590f8d-cb5f-47ba-a25d-76a237dd8904</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3301bd5-0f28-4604-a167-15aa4f17160d</t>
+  </si>
+  <si>
+    <t>attack-pattern--4c34c31f-5157-48ad-acb8-4344cadd93cf</t>
+  </si>
+  <si>
+    <t>attack-pattern--55a17dc0-be82-40b8-80e7-f97e1e867b58</t>
+  </si>
+  <si>
+    <t>attack-pattern--294fe4dc-ac27-4b40-ae40-8148b9876f25</t>
+  </si>
+  <si>
+    <t>attack-pattern--7360aac5-ab15-4d95-ab5e-bef1af305788</t>
+  </si>
+  <si>
+    <t>attack-pattern--c44decce-8b70-4f42-a5e0-db0bb105d0b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--8a47d00f-77c8-4144-8452-facca3096fa3</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a67aef8-329e-4669-84bd-c1aa0a67ac68</t>
+  </si>
+  <si>
+    <t>attack-pattern--b68a2222-7aba-4a03-9f64-20e89faf4ec6</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab05c807-8854-40d8-a20e-28edae445c80</t>
+  </si>
+  <si>
+    <t>attack-pattern--8bc3f855-f8ba-46c1-85a7-a036679ed8b6</t>
+  </si>
+  <si>
+    <t>attack-pattern--151bebab-0e27-442b-838e-bb0d9a36c32f</t>
+  </si>
+  <si>
+    <t>attack-pattern--a4783291-4917-4ea8-8f34-b9b6180ae332</t>
+  </si>
+  <si>
+    <t>attack-pattern--f85d3313-5de8-4d27-9d23-bf3fa79946e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--784cbb90-b5f0-47d1-af8c-d299c5b3c551</t>
+  </si>
+  <si>
+    <t>attack-pattern--c652f980-4fff-47ae-8119-d6a927255ebc</t>
+  </si>
+  <si>
+    <t>attack-pattern--6f3e625e-3157-4b30-bb7f-f8f25b21c8dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--d886ab0c-9c92-40f6-aad8-930476504be8</t>
+  </si>
+  <si>
+    <t>attack-pattern--0e9e22e3-9b1e-4a9d-8ff6-da7ba7b9018f</t>
+  </si>
+  <si>
+    <t>attack-pattern--07ebffc5-e98e-4330-bf94-7f0c56b16345</t>
+  </si>
+  <si>
+    <t>attack-pattern--4a040cc9-d53d-4fa3-948d-a1ff8f02e0eb</t>
+  </si>
+  <si>
+    <t>attack-pattern--9115a9b6-855a-4acf-802c-aad9eeedc310</t>
+  </si>
+  <si>
+    <t>attack-pattern--b99c824b-c87f-4e39-ba72-7b8b299f0039</t>
+  </si>
+  <si>
+    <t>attack-pattern--71236163-a6a2-48d2-aee5-df2c480df0d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--5d68a5e9-942d-4213-9c6c-ac27d9fb786c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2693de2c-725f-4d66-abb2-a940efcff1b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe45ad62-1ed6-45fb-a6ba-19140fed8cda</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ea7686d-a65f-4e06-b962-02495a8f1cdb</t>
   </si>
   <si>
     <t>technique</t>
@@ -1011,13 +1002,13 @@
 </t>
   </si>
   <si>
+    <t>Guardrails can prevent harmful inputs that can lead to meta prompt extraction.</t>
+  </si>
+  <si>
     <t>Guardrails can detect sensitive data and PII in model outputs.</t>
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to a jailbreak.</t>
-  </si>
-  <si>
-    <t>Guardrails can prevent harmful inputs that can lead to meta prompt extraction.</t>
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to plugin compromise, and they can detect PII in model outputs.</t>
@@ -1200,316 +1191,316 @@
 </t>
   </si>
   <si>
-    <t>relationship--505db5cc-8d11-4811-8e90-006612c440d0</t>
-  </si>
-  <si>
-    <t>relationship--9f6e8c64-bd4d-42cc-9a5e-9fc13646c437</t>
-  </si>
-  <si>
-    <t>relationship--f49686fb-e313-4b3a-8217-e389b6553316</t>
-  </si>
-  <si>
-    <t>relationship--49a027cf-833c-4f17-9b4c-0fdd04274e48</t>
-  </si>
-  <si>
-    <t>relationship--6dbfe2fe-3636-4656-aaa3-1f6f985f751a</t>
-  </si>
-  <si>
-    <t>relationship--e2ec223a-c3ca-4bf7-a167-f13e6645aae6</t>
-  </si>
-  <si>
-    <t>relationship--0189dc45-3210-491f-8099-11fa3447740b</t>
-  </si>
-  <si>
-    <t>relationship--34b01208-4b99-4099-bf6a-61f172bcf048</t>
-  </si>
-  <si>
-    <t>relationship--767ad4ac-4061-4dc7-a179-4f983c9e3582</t>
-  </si>
-  <si>
-    <t>relationship--58bb8cef-12fc-4b51-ba19-308805a65015</t>
-  </si>
-  <si>
-    <t>relationship--61bf5a36-058b-4c1f-9717-73cd06ee702d</t>
-  </si>
-  <si>
-    <t>relationship--7350b9b9-0754-4b6a-a1b6-961abb7b65cd</t>
-  </si>
-  <si>
-    <t>relationship--d221f109-20ae-4067-8dee-982f89fc01d6</t>
-  </si>
-  <si>
-    <t>relationship--f1398de1-0015-438b-9771-fc0945cdd2c8</t>
-  </si>
-  <si>
-    <t>relationship--51024f40-3973-45e7-9e4b-0d44b96494a6</t>
-  </si>
-  <si>
-    <t>relationship--5b01cc8b-0726-40cd-9236-64a0861b9ced</t>
-  </si>
-  <si>
-    <t>relationship--6779bab3-aa88-40cd-8da3-43dbf5775f94</t>
-  </si>
-  <si>
-    <t>relationship--7da0d729-7305-4768-a378-c67e085b7266</t>
-  </si>
-  <si>
-    <t>relationship--b3b1d2a9-e13d-44dc-b089-3796550a80ce</t>
-  </si>
-  <si>
-    <t>relationship--ce00abe6-d133-404d-b3a8-ff7469897397</t>
-  </si>
-  <si>
-    <t>relationship--5a263177-67a7-4d06-9939-85c51711c3be</t>
-  </si>
-  <si>
-    <t>relationship--1bf1eb9c-25ea-4114-b044-5ad99526ce35</t>
-  </si>
-  <si>
-    <t>relationship--59cd016a-ff20-44d6-8997-b98c4c9f23e3</t>
-  </si>
-  <si>
-    <t>relationship--07a09112-35b6-4acd-ab4c-b1b40283b67d</t>
-  </si>
-  <si>
-    <t>relationship--3d041f61-1f41-4d92-a871-0204d00b88d5</t>
-  </si>
-  <si>
-    <t>relationship--2077df23-3928-4527-ba1c-3ff12ec506d0</t>
-  </si>
-  <si>
-    <t>relationship--b1eced87-94e4-41f1-8b3c-84f6fe1e6b1f</t>
-  </si>
-  <si>
-    <t>relationship--1560458c-50af-460f-9b93-ec048ae440a9</t>
-  </si>
-  <si>
-    <t>relationship--1e7c2309-9d9d-47f9-9a01-afdacbbff726</t>
-  </si>
-  <si>
-    <t>relationship--2085409e-80d1-4208-9a33-10f29c0674cf</t>
-  </si>
-  <si>
-    <t>relationship--8ee2f4d3-7ca9-429b-98a6-9846e7bce04a</t>
-  </si>
-  <si>
-    <t>relationship--b3f929e4-e875-4c18-8534-804190dc61fc</t>
-  </si>
-  <si>
-    <t>relationship--4f3f445c-d094-456c-9a12-7ee310f97bd7</t>
-  </si>
-  <si>
-    <t>relationship--ed1773d0-00a6-4df5-9b28-8404a2c18694</t>
-  </si>
-  <si>
-    <t>relationship--10ddba73-06cf-4842-9d8a-619e32320d58</t>
-  </si>
-  <si>
-    <t>relationship--0f347c93-ea71-48b0-a2c2-412eb839d9aa</t>
-  </si>
-  <si>
-    <t>relationship--e6e258c3-5df6-4a53-8cf2-d49b66c3c168</t>
-  </si>
-  <si>
-    <t>relationship--4c2f0582-0c11-42c1-9f3c-57c3ae6678f5</t>
-  </si>
-  <si>
-    <t>relationship--7fe1328a-4daf-4784-84af-00de83163fbe</t>
-  </si>
-  <si>
-    <t>relationship--7511dfe2-5d1e-44e3-8cf1-cf1791affc6c</t>
-  </si>
-  <si>
-    <t>relationship--696185ad-91d8-478a-9810-41f6ff4b34ac</t>
-  </si>
-  <si>
-    <t>relationship--80c30f25-c88c-4697-892a-ec032eec2a76</t>
-  </si>
-  <si>
-    <t>relationship--6bf89225-c0c3-4abd-84cd-07d19a46cc88</t>
-  </si>
-  <si>
-    <t>relationship--87a2b66d-386a-4a41-97d7-cef879dc9dbc</t>
-  </si>
-  <si>
-    <t>relationship--df267ca5-9e7f-48f9-ae49-c00d7c2f03eb</t>
-  </si>
-  <si>
-    <t>relationship--af332762-577c-4785-8ed3-a4cd5e76b016</t>
-  </si>
-  <si>
-    <t>relationship--c685aac1-12c7-4b33-b57d-63d39620cf37</t>
-  </si>
-  <si>
-    <t>relationship--19c6714e-d0fb-44b2-974c-c3d9d5dda4a7</t>
-  </si>
-  <si>
-    <t>relationship--ef7d221b-4628-49c8-9f02-78f3bc74ec43</t>
-  </si>
-  <si>
-    <t>relationship--87ec7587-d0ba-4414-944e-19926ae67d54</t>
-  </si>
-  <si>
-    <t>relationship--8724c1c4-9d16-406e-bdbe-f043878fba96</t>
-  </si>
-  <si>
-    <t>relationship--84daf1fa-1912-489e-ba02-03000ba1dfb6</t>
-  </si>
-  <si>
-    <t>relationship--a7ce7eed-1966-46c9-b1f5-698b130b14ae</t>
-  </si>
-  <si>
-    <t>relationship--ded2770e-ec93-43d6-a402-17b719f06f64</t>
-  </si>
-  <si>
-    <t>relationship--860a4243-92cc-455f-bc92-0a3f380f5cf8</t>
-  </si>
-  <si>
-    <t>relationship--fa2e9798-70d3-47bc-8d02-0adce4b8f4a9</t>
-  </si>
-  <si>
-    <t>relationship--d30ca2d6-bb30-4aa5-adeb-050a01bbbec1</t>
-  </si>
-  <si>
-    <t>relationship--e87ad122-14fe-4c8f-9fa4-19c8ef795c7c</t>
-  </si>
-  <si>
-    <t>relationship--460fe1f6-b88d-415d-8433-ef4ccb40afd6</t>
-  </si>
-  <si>
-    <t>relationship--0889f025-d000-4362-8f7e-1672a0c5804c</t>
-  </si>
-  <si>
-    <t>relationship--6f10f315-4dbf-48b1-a207-8765c5b76f20</t>
-  </si>
-  <si>
-    <t>relationship--eeb0c2dd-a563-492b-92ec-2ff10e303d4f</t>
-  </si>
-  <si>
-    <t>relationship--95f0e6ee-d274-4437-8edf-0d6b9f051eaf</t>
-  </si>
-  <si>
-    <t>relationship--f0224ef6-ac3f-426e-9d06-688675926474</t>
-  </si>
-  <si>
-    <t>relationship--c18aaae0-8f5f-4ed2-afde-fa402b7c9058</t>
-  </si>
-  <si>
-    <t>relationship--e78e2603-8851-4cb1-afa9-26757d56f190</t>
-  </si>
-  <si>
-    <t>relationship--35d555be-2b23-45fb-a52b-295ccce6c07d</t>
-  </si>
-  <si>
-    <t>relationship--d1c35359-fab8-419c-916e-2dc2d887df06</t>
-  </si>
-  <si>
-    <t>relationship--22e31c31-c4c8-42b3-8fd8-86b984d5dd4a</t>
-  </si>
-  <si>
-    <t>relationship--68b0f4e1-03d8-49ea-b1c5-8cdb58105d18</t>
-  </si>
-  <si>
-    <t>relationship--9a09a00c-e920-4aff-827c-316dabdd8085</t>
-  </si>
-  <si>
-    <t>relationship--247dae90-cbb7-4514-a371-24cee2982dcd</t>
-  </si>
-  <si>
-    <t>relationship--2cac8184-822b-4ae0-b0a5-9b23f1fa7c6e</t>
-  </si>
-  <si>
-    <t>relationship--ab438913-b3c0-4672-9cbc-3e2e59bf3608</t>
-  </si>
-  <si>
-    <t>relationship--6698cae1-2d23-45ab-9e07-e9c6bdfc78e9</t>
-  </si>
-  <si>
-    <t>relationship--5e4ea92d-e283-4234-860b-999203123162</t>
-  </si>
-  <si>
-    <t>relationship--bf9c8885-92cd-4ab8-a549-646ee1694c61</t>
-  </si>
-  <si>
-    <t>relationship--e20ae5d0-8412-4e6e-9958-75b5b3623b5d</t>
-  </si>
-  <si>
-    <t>relationship--89213c4a-bccd-4461-8898-b4b7b2a3b899</t>
-  </si>
-  <si>
-    <t>relationship--f08cf33c-ac94-4000-b1c8-390fb912bfab</t>
-  </si>
-  <si>
-    <t>relationship--add8aacd-1581-44dd-80c7-380c9b0dac06</t>
-  </si>
-  <si>
-    <t>relationship--d6992ef8-e0b8-4a20-a663-a59d1794c1cf</t>
-  </si>
-  <si>
-    <t>relationship--46856582-fec6-4063-9a05-e769d0f5e6e3</t>
-  </si>
-  <si>
-    <t>relationship--c8e7f861-0992-4589-a1c0-c70a603c957b</t>
-  </si>
-  <si>
-    <t>relationship--c444e7de-83cc-4a6e-99bd-8509f923cb3d</t>
-  </si>
-  <si>
-    <t>relationship--29b6aa3b-fecb-4d1c-bdb2-58f90788123e</t>
-  </si>
-  <si>
-    <t>relationship--0f06ec3d-4343-4363-96a0-fa9492dc8edf</t>
-  </si>
-  <si>
-    <t>relationship--3a3cab15-6b39-4d41-8e03-23a15a5cba42</t>
-  </si>
-  <si>
-    <t>relationship--bc86c7f4-d989-4a2c-9ff8-fb21038e0287</t>
-  </si>
-  <si>
-    <t>relationship--f739f509-651f-4fac-9342-a4b189d4a82f</t>
-  </si>
-  <si>
-    <t>relationship--c8bf0bed-9028-48a4-97d8-57d5e9387dd5</t>
-  </si>
-  <si>
-    <t>relationship--f3f9ba2a-b6d3-4171-b776-4c0fd425d1dd</t>
-  </si>
-  <si>
-    <t>relationship--e5396756-390d-43b9-b3d3-c998869b9498</t>
-  </si>
-  <si>
-    <t>relationship--10720f12-fe1a-4b30-93a8-2f69f33729b7</t>
-  </si>
-  <si>
-    <t>relationship--5e634baa-bdb1-4ea3-bdc7-4fbfa88f1fac</t>
-  </si>
-  <si>
-    <t>relationship--40424d8a-5de5-4658-87a0-85568fde2e4e</t>
-  </si>
-  <si>
-    <t>relationship--041e524f-ce40-44fb-be10-9ba2292ee7b2</t>
-  </si>
-  <si>
-    <t>relationship--28a7467d-ed66-4b74-b5cc-5e7b14d26f1c</t>
-  </si>
-  <si>
-    <t>relationship--7cefef5d-aa19-4170-b415-e9ca2db8e062</t>
-  </si>
-  <si>
-    <t>relationship--6299066e-0ff9-4d89-bb8f-cb1b0f04b9b3</t>
-  </si>
-  <si>
-    <t>relationship--ba2f59be-65ed-4f71-8b25-c40c0316b4cc</t>
-  </si>
-  <si>
-    <t>relationship--29f0ff78-37c3-4eee-b43d-d7b6ad221922</t>
-  </si>
-  <si>
-    <t>relationship--71ad3705-8153-4733-b9e8-771bf4963b6e</t>
-  </si>
-  <si>
-    <t>relationship--8355c7ce-abbe-44b9-bd2e-b83f91160b1f</t>
+    <t>relationship--1f764d81-78ee-424c-8f95-edf125726977</t>
+  </si>
+  <si>
+    <t>relationship--e068cb9b-04df-4934-8171-bd7254057c9b</t>
+  </si>
+  <si>
+    <t>relationship--3c8a99a5-b227-490d-aefe-c688fd42688b</t>
+  </si>
+  <si>
+    <t>relationship--46704524-e837-4d3a-a8b1-b1f00293e2d1</t>
+  </si>
+  <si>
+    <t>relationship--34dcff49-0eb8-4125-b1a7-ee83bd4ae706</t>
+  </si>
+  <si>
+    <t>relationship--ad092bd4-1b38-45b7-a085-ef19987add45</t>
+  </si>
+  <si>
+    <t>relationship--79ee56d3-8cc3-42d4-adee-f4729aeef8d8</t>
+  </si>
+  <si>
+    <t>relationship--07a90eee-f5ba-4f53-90ca-abcc27779b68</t>
+  </si>
+  <si>
+    <t>relationship--2ca4045b-c0b9-4c7e-b6c6-acf651c25665</t>
+  </si>
+  <si>
+    <t>relationship--0e64f681-3d86-4788-abe3-62d4e663e053</t>
+  </si>
+  <si>
+    <t>relationship--17f10300-6776-4310-9ca8-0013a7c85d0e</t>
+  </si>
+  <si>
+    <t>relationship--cea7502f-c78e-427a-bbce-b72ebf243c6a</t>
+  </si>
+  <si>
+    <t>relationship--5df7971f-5414-41ac-86df-b307ac2c0a41</t>
+  </si>
+  <si>
+    <t>relationship--35f9b678-56ec-437e-b39d-30ff82740645</t>
+  </si>
+  <si>
+    <t>relationship--b4c63ae8-2117-4e48-88ab-98ca853c759b</t>
+  </si>
+  <si>
+    <t>relationship--fb2c272d-01f9-4e06-ab1b-e1939c56bb26</t>
+  </si>
+  <si>
+    <t>relationship--c361f85a-ab7f-4a99-9214-3c5b79f1f313</t>
+  </si>
+  <si>
+    <t>relationship--575ce8b4-f991-4323-ab40-eb42c9b1781a</t>
+  </si>
+  <si>
+    <t>relationship--66af969d-9ec4-4d2b-b812-019e77876c65</t>
+  </si>
+  <si>
+    <t>relationship--fc2fe650-8f45-4759-a853-cc6d05361d03</t>
+  </si>
+  <si>
+    <t>relationship--9e5ff7b8-1001-495a-977f-3969e1711033</t>
+  </si>
+  <si>
+    <t>relationship--e06c1dc3-bb0d-468f-b1b3-c5217ff38a16</t>
+  </si>
+  <si>
+    <t>relationship--3a37fc01-6cd1-4b75-95d0-f2ef6e1f7634</t>
+  </si>
+  <si>
+    <t>relationship--70e1ce0a-1cc7-4d02-9d78-12b748317814</t>
+  </si>
+  <si>
+    <t>relationship--e92f61ff-5c7a-402f-968a-1f1f83552b3d</t>
+  </si>
+  <si>
+    <t>relationship--ebafa6bf-99c4-4d76-96d5-3ced4c465aff</t>
+  </si>
+  <si>
+    <t>relationship--b3e2e2c9-dd58-486f-9e07-15613a68fa5b</t>
+  </si>
+  <si>
+    <t>relationship--47a0d703-3a56-48e2-9a17-17cb5feeb101</t>
+  </si>
+  <si>
+    <t>relationship--d5586f84-0a24-4255-ab11-2b3c2d030ad3</t>
+  </si>
+  <si>
+    <t>relationship--6c87ff72-1bec-4568-a6d6-dc136184b94f</t>
+  </si>
+  <si>
+    <t>relationship--51b3907b-2159-467c-b5f2-1f33613328b0</t>
+  </si>
+  <si>
+    <t>relationship--a988ea28-0460-462b-a35d-bdc0dc94b54e</t>
+  </si>
+  <si>
+    <t>relationship--7d49eb4c-b77e-4f47-bc7a-59af0e31864b</t>
+  </si>
+  <si>
+    <t>relationship--7203616f-fa15-4396-9168-e74884efe6c3</t>
+  </si>
+  <si>
+    <t>relationship--ebdcf5e1-640a-49b2-8d9c-ff481ae0c762</t>
+  </si>
+  <si>
+    <t>relationship--cb64404a-a94e-45aa-9844-41516e176ccf</t>
+  </si>
+  <si>
+    <t>relationship--dea3168d-6d6d-40fe-a0d6-fb1a8dff457d</t>
+  </si>
+  <si>
+    <t>relationship--346ace8e-2073-4f46-a9aa-6ccfe4597a00</t>
+  </si>
+  <si>
+    <t>relationship--f7d536f9-7ef8-42eb-8530-6a6abd04ea84</t>
+  </si>
+  <si>
+    <t>relationship--262e0945-d6a9-40eb-8e1a-d403fbd09321</t>
+  </si>
+  <si>
+    <t>relationship--6a7df184-1bb3-4bac-b0f1-5d56f90c2c03</t>
+  </si>
+  <si>
+    <t>relationship--db369d9d-312f-4908-baa0-20da4eda3d1e</t>
+  </si>
+  <si>
+    <t>relationship--6ea55808-3458-40f9-bf1f-7a52585c4a0d</t>
+  </si>
+  <si>
+    <t>relationship--ac79ea96-4b12-4be8-ac5a-14ed59cf7848</t>
+  </si>
+  <si>
+    <t>relationship--c457e00f-e482-4ced-8493-d96bfd1f03f7</t>
+  </si>
+  <si>
+    <t>relationship--c90d7475-4418-4ff7-848c-e26a2fc0a7ee</t>
+  </si>
+  <si>
+    <t>relationship--903bc191-94c6-41b9-b83c-e78ce546b8fb</t>
+  </si>
+  <si>
+    <t>relationship--10717fe4-7c9d-4b36-a47a-d0e2c7851891</t>
+  </si>
+  <si>
+    <t>relationship--222b5c47-808d-4518-9326-2194c19ea4af</t>
+  </si>
+  <si>
+    <t>relationship--e61a6368-b1e1-4ba2-9dba-478ca91d4086</t>
+  </si>
+  <si>
+    <t>relationship--a599b8fe-65d8-4a22-9a9c-bf898bd89d3f</t>
+  </si>
+  <si>
+    <t>relationship--abcf855e-7bd6-4abf-9f2a-367b2a8ba763</t>
+  </si>
+  <si>
+    <t>relationship--85df9bc5-4603-4eb0-88cb-b48b5b249a84</t>
+  </si>
+  <si>
+    <t>relationship--47423e5e-770b-449e-8def-0f7cac9f20c9</t>
+  </si>
+  <si>
+    <t>relationship--3ece35bf-b45a-4026-a1e4-2789398cd270</t>
+  </si>
+  <si>
+    <t>relationship--47b5c96f-7049-4847-b0f6-15d6a40f4bf2</t>
+  </si>
+  <si>
+    <t>relationship--b0068642-3cd4-4754-8c3c-a5dfe6c4b31d</t>
+  </si>
+  <si>
+    <t>relationship--5d8bbbaa-3d9c-4ae1-b17e-e53cc80fada0</t>
+  </si>
+  <si>
+    <t>relationship--6757034e-fcae-411c-aa16-fba965c097ed</t>
+  </si>
+  <si>
+    <t>relationship--7cf4f2b4-d7e6-4635-b460-c1eb6c0ff519</t>
+  </si>
+  <si>
+    <t>relationship--0ab4eefb-7ff8-4ad0-8acf-4048f0a74bd5</t>
+  </si>
+  <si>
+    <t>relationship--8dd9d95c-120f-474d-8b21-f764dba2e9d5</t>
+  </si>
+  <si>
+    <t>relationship--e92352f1-d0dc-4fa7-b8d7-8fea852cb748</t>
+  </si>
+  <si>
+    <t>relationship--9e010855-b7e8-4e48-ae2f-280dcfe3117f</t>
+  </si>
+  <si>
+    <t>relationship--b7711511-12c3-4913-b5b4-2b459cc3fe10</t>
+  </si>
+  <si>
+    <t>relationship--4220af7d-26f9-452c-809d-f26cee4b7399</t>
+  </si>
+  <si>
+    <t>relationship--1c6ecbe2-303a-44f0-96e1-2dcce99851fb</t>
+  </si>
+  <si>
+    <t>relationship--5439ad81-4902-41c5-835b-2b504ec8c513</t>
+  </si>
+  <si>
+    <t>relationship--547ccfef-4673-41d5-9c7d-4b59af557c9b</t>
+  </si>
+  <si>
+    <t>relationship--e26ae04d-9ab5-4164-be39-72ede30c6752</t>
+  </si>
+  <si>
+    <t>relationship--333b4e2e-d3df-46af-82d6-7aedd83b403c</t>
+  </si>
+  <si>
+    <t>relationship--a1ade9f1-975a-4bde-ba0b-73165f36b083</t>
+  </si>
+  <si>
+    <t>relationship--7a5c400d-a093-4f86-9a9b-3cae9be3ad06</t>
+  </si>
+  <si>
+    <t>relationship--3de926bc-b737-44de-a590-841b96e988a0</t>
+  </si>
+  <si>
+    <t>relationship--880d2cb0-2813-43dd-834c-068cf8506fa0</t>
+  </si>
+  <si>
+    <t>relationship--4e517c8b-6071-4eaf-b5da-ca36e9aebc80</t>
+  </si>
+  <si>
+    <t>relationship--2617515a-7029-47a0-8d34-e22a0523fe1e</t>
+  </si>
+  <si>
+    <t>relationship--56109525-bff1-4463-9c7e-e3e8b2acafbb</t>
+  </si>
+  <si>
+    <t>relationship--1bb9ea10-4af8-441d-8c85-4569f170e7f6</t>
+  </si>
+  <si>
+    <t>relationship--81bc0f2e-66e5-4106-bcfb-cebdeca65586</t>
+  </si>
+  <si>
+    <t>relationship--4498f139-0b3b-4467-b6e3-08583d9c3100</t>
+  </si>
+  <si>
+    <t>relationship--272fc2d9-01cf-44ea-ae3b-1ff3ed99d5a3</t>
+  </si>
+  <si>
+    <t>relationship--8ce7f695-04ce-4299-867e-927a4f551669</t>
+  </si>
+  <si>
+    <t>relationship--5157511f-5f55-424c-8e44-c40d9825c675</t>
+  </si>
+  <si>
+    <t>relationship--236683fa-21bc-415f-94c2-a6db41a0d668</t>
+  </si>
+  <si>
+    <t>relationship--e0006a55-916d-449b-97f7-4227c959b2b6</t>
+  </si>
+  <si>
+    <t>relationship--9bc0a804-cc97-4326-b88e-b01724ad1dbc</t>
+  </si>
+  <si>
+    <t>relationship--9f6e0260-fe8f-4f50-a24b-6386caf5a3f6</t>
+  </si>
+  <si>
+    <t>relationship--f6ac01a3-44cb-4933-9a70-8b1cb8e6b4cc</t>
+  </si>
+  <si>
+    <t>relationship--622c0c4f-7436-4844-b542-2a6bf7b0666d</t>
+  </si>
+  <si>
+    <t>relationship--c6e25f4f-7a96-4761-aed2-5f6f1297eeb0</t>
+  </si>
+  <si>
+    <t>relationship--51ae1969-35c2-4e25-8431-d0f52a7f7521</t>
+  </si>
+  <si>
+    <t>relationship--97054f58-922e-49df-a40a-392464243447</t>
+  </si>
+  <si>
+    <t>relationship--3820d758-0635-468a-a066-69f49006b4ab</t>
+  </si>
+  <si>
+    <t>relationship--cab39c70-1373-4924-b6fa-1f7990c67790</t>
+  </si>
+  <si>
+    <t>relationship--fe3e46ce-4893-49e5-9d6a-035f80ffe931</t>
+  </si>
+  <si>
+    <t>relationship--d0768bbd-a4f8-40f0-9131-14f0f452e54a</t>
+  </si>
+  <si>
+    <t>relationship--cd424d51-a694-4022-9a56-86509356e7e7</t>
+  </si>
+  <si>
+    <t>relationship--a29e4015-dce4-4870-b50f-0b2e6fd0157f</t>
+  </si>
+  <si>
+    <t>relationship--b1cce42d-382b-4d20-a144-9d2aaf056ff6</t>
+  </si>
+  <si>
+    <t>relationship--1bced3cf-0ca8-47f0-ba4d-9ce0285cc991</t>
+  </si>
+  <si>
+    <t>relationship--d0ca58f0-d22c-4ba6-b924-8f6eab12944d</t>
+  </si>
+  <si>
+    <t>relationship--98bbd9d6-a3fe-4fb5-b2ec-d146e6b40079</t>
+  </si>
+  <si>
+    <t>relationship--f524afb9-119a-4650-9f2d-9ff2c1e39422</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1966,10 @@
         <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1998,10 +1989,10 @@
         <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2021,10 +2012,10 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2044,10 +2035,10 @@
         <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2067,10 +2058,10 @@
         <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2159,10 +2150,10 @@
         <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2182,10 +2173,10 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2205,7 +2196,7 @@
         <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>138</v>
@@ -2251,10 +2242,10 @@
         <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2274,10 +2265,10 @@
         <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2297,10 +2288,10 @@
         <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2320,10 +2311,10 @@
         <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2343,10 +2334,10 @@
         <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2366,10 +2357,10 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2389,10 +2380,10 @@
         <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2412,10 +2403,10 @@
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2435,10 +2426,10 @@
         <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2458,10 +2449,10 @@
         <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2481,10 +2472,10 @@
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2504,10 +2495,10 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2553,34 +2544,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2603,28 +2594,28 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L2" t="s">
         <v>138</v>
@@ -2644,28 +2635,28 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>155</v>
-      </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L3" t="s">
         <v>138</v>
@@ -2685,28 +2676,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L4" t="s">
         <v>138</v>
@@ -2726,28 +2717,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L5" t="s">
         <v>138</v>
@@ -2767,28 +2758,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L6" t="s">
         <v>138</v>
@@ -2808,28 +2799,28 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" t="s">
         <v>295</v>
       </c>
-      <c r="J7" t="s">
-        <v>298</v>
-      </c>
       <c r="K7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L7" t="s">
         <v>138</v>
@@ -2849,28 +2840,28 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L8" t="s">
         <v>138</v>
@@ -2890,28 +2881,28 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L9" t="s">
         <v>138</v>
@@ -2931,28 +2922,28 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" t="s">
         <v>295</v>
       </c>
-      <c r="J10" t="s">
-        <v>298</v>
-      </c>
       <c r="K10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L10" t="s">
         <v>138</v>
@@ -2972,28 +2963,28 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L11" t="s">
         <v>138</v>
@@ -3013,28 +3004,28 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L12" t="s">
         <v>138</v>
@@ -3054,28 +3045,28 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" t="s">
         <v>295</v>
       </c>
-      <c r="J13" t="s">
-        <v>298</v>
-      </c>
       <c r="K13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L13" t="s">
         <v>138</v>
@@ -3095,28 +3086,28 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L14" t="s">
         <v>138</v>
@@ -3136,28 +3127,28 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L15" t="s">
         <v>138</v>
@@ -3177,34 +3168,34 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3218,34 +3209,34 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3259,34 +3250,34 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3300,34 +3291,34 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3341,34 +3332,34 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3382,34 +3373,34 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3423,34 +3414,34 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3464,34 +3455,34 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3505,34 +3496,34 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3546,34 +3537,34 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3587,34 +3578,34 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3628,34 +3619,34 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K27" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3669,34 +3660,34 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3710,34 +3701,34 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3751,34 +3742,34 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3792,34 +3783,34 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -3833,34 +3824,34 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3874,34 +3865,34 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3915,34 +3906,34 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3956,28 +3947,28 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L35" t="s">
         <v>138</v>
@@ -3997,28 +3988,28 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L36" t="s">
         <v>138</v>
@@ -4038,28 +4029,28 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L37" t="s">
         <v>138</v>
@@ -4079,28 +4070,28 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L38" t="s">
         <v>138</v>
@@ -4120,28 +4111,28 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s">
         <v>138</v>
@@ -4161,28 +4152,28 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
         <v>138</v>
@@ -4202,28 +4193,28 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L41" t="s">
         <v>138</v>
@@ -4243,28 +4234,28 @@
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s">
         <v>138</v>
@@ -4284,28 +4275,28 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s">
         <v>138</v>
@@ -4325,28 +4316,28 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
         <v>138</v>
@@ -4366,28 +4357,28 @@
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
         <v>138</v>
@@ -4407,28 +4398,28 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s">
         <v>138</v>
@@ -4448,28 +4439,28 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s">
         <v>138</v>
@@ -4489,28 +4480,28 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J48" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
         <v>138</v>
@@ -4530,28 +4521,28 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
         <v>138</v>
@@ -4571,28 +4562,28 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K50" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s">
         <v>138</v>
@@ -4612,34 +4603,34 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J51" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K51" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4653,34 +4644,34 @@
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I52" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4694,34 +4685,34 @@
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4735,34 +4726,34 @@
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I54" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J54" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K54" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4776,34 +4767,34 @@
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4817,34 +4808,34 @@
         <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4858,31 +4849,31 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M57" t="s">
         <v>138</v>
@@ -4899,31 +4890,31 @@
         <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H58" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I58" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J58" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M58" t="s">
         <v>138</v>
@@ -4940,31 +4931,31 @@
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H59" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M59" t="s">
         <v>138</v>
@@ -4981,31 +4972,31 @@
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J60" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M60" t="s">
         <v>138</v>
@@ -5022,28 +5013,28 @@
         <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K61" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s">
         <v>138</v>
@@ -5063,28 +5054,28 @@
         <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J62" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K62" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s">
         <v>138</v>
@@ -5104,28 +5095,28 @@
         <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J63" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K63" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s">
         <v>138</v>
@@ -5145,34 +5136,34 @@
         <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I64" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J64" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -5186,34 +5177,34 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -5227,34 +5218,34 @@
         <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J66" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K66" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -5268,34 +5259,34 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J67" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -5309,34 +5300,34 @@
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J68" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K68" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5350,34 +5341,34 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H69" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5391,34 +5382,34 @@
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J70" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K70" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5432,34 +5423,34 @@
         <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H71" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J71" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5473,34 +5464,34 @@
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I72" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K72" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5514,34 +5505,34 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I73" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5555,34 +5546,34 @@
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I74" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J74" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5596,34 +5587,34 @@
         <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G75" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K75" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5637,34 +5628,34 @@
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I76" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J76" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K76" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5678,34 +5669,34 @@
         <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J77" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K77" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5719,34 +5710,34 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I78" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J78" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K78" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5760,34 +5751,34 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J79" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -5801,34 +5792,34 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J80" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K80" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -5842,34 +5833,34 @@
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I81" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J81" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K81" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -5883,34 +5874,34 @@
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I82" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J82" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -5924,34 +5915,34 @@
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J83" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K83" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -5965,34 +5956,34 @@
         <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H84" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I84" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J84" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K84" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -6006,34 +5997,34 @@
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K85" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -6047,34 +6038,34 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J86" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K86" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -6088,34 +6079,34 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J87" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K87" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -6129,34 +6120,34 @@
         <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I88" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J88" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K88" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -6170,34 +6161,34 @@
         <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I89" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J89" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K89" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -6211,34 +6202,34 @@
         <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I90" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J90" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K90" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -6252,34 +6243,34 @@
         <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I91" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J91" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K91" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M91" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -6293,34 +6284,34 @@
         <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J92" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K92" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -6334,34 +6325,34 @@
         <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H93" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I93" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J93" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K93" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -6375,34 +6366,34 @@
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F94" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G94" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I94" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J94" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K94" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M94" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -6416,34 +6407,34 @@
         <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J95" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K95" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -6457,34 +6448,34 @@
         <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G96" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J96" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K96" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -6498,34 +6489,34 @@
         <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I97" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J97" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K97" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M97" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -6539,34 +6530,34 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I98" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J98" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K98" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -6580,34 +6571,34 @@
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F99" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G99" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I99" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J99" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K99" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -6621,34 +6612,34 @@
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G100" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J100" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K100" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -6662,34 +6653,34 @@
         <v>58</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G101" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I101" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J101" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K101" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -6703,34 +6694,34 @@
         <v>58</v>
       </c>
       <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" t="s">
         <v>152</v>
       </c>
-      <c r="E102" t="s">
-        <v>153</v>
-      </c>
-      <c r="F102" t="s">
-        <v>155</v>
-      </c>
       <c r="G102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I102" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J102" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K102" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M102" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -6744,34 +6735,34 @@
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J103" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K103" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -6785,34 +6776,34 @@
         <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H104" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I104" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J104" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K104" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -6826,34 +6817,34 @@
         <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I105" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J105" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="461">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>AML.M0023</t>
   </si>
   <si>
+    <t>AML.M0017</t>
+  </si>
+  <si>
     <t>AML.M0024</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
     <t>AML.M0025</t>
   </si>
   <si>
-    <t>AML.M0017</t>
-  </si>
-  <si>
     <t>AML.M0003</t>
   </si>
   <si>
@@ -119,87 +119,90 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--62d0ba49-7343-48de-a756-ac5fdaf98c8f</t>
-  </si>
-  <si>
-    <t>course-of-action--e89d6eec-150c-4308-bd3e-fc51e5efdfa6</t>
-  </si>
-  <si>
-    <t>course-of-action--caf6e938-cf87-4a2c-a752-206b930f3c01</t>
-  </si>
-  <si>
-    <t>course-of-action--1a62c89b-d515-4e98-bbcd-c5e6ef78fe42</t>
-  </si>
-  <si>
-    <t>course-of-action--0fc686a3-466f-45bf-a95e-65304bc43666</t>
-  </si>
-  <si>
-    <t>course-of-action--5ec3bfe0-f7be-4286-bce1-ae762a23e79f</t>
-  </si>
-  <si>
-    <t>course-of-action--e0beab85-34fd-4915-a477-ed5efeaf9e0d</t>
-  </si>
-  <si>
-    <t>course-of-action--e2be373b-c7b9-449f-8c50-1e516d162969</t>
-  </si>
-  <si>
-    <t>course-of-action--b385f3b5-725c-45a8-b7e6-f56b35f75a4a</t>
-  </si>
-  <si>
-    <t>course-of-action--10c68f9d-a736-4d85-93bc-b0e36084cc9f</t>
-  </si>
-  <si>
-    <t>course-of-action--504b48c4-05c1-4b29-912a-2ba8db9631a9</t>
-  </si>
-  <si>
-    <t>course-of-action--6a041684-03a2-4874-9577-67749bf98de0</t>
-  </si>
-  <si>
-    <t>course-of-action--0e73d209-afa9-4540-a8c4-244bc9f604ea</t>
-  </si>
-  <si>
-    <t>course-of-action--ed176010-c43b-4055-b421-2a6f92b95504</t>
-  </si>
-  <si>
-    <t>course-of-action--dd73141b-4e51-4f90-8120-45b4d113f420</t>
-  </si>
-  <si>
-    <t>course-of-action--fbc6f93a-a8fd-4097-80e4-9b9da41cef4b</t>
-  </si>
-  <si>
-    <t>course-of-action--e54bb18b-c1a7-4700-baac-3de8a51c1097</t>
-  </si>
-  <si>
-    <t>course-of-action--954d9fe9-e75a-4a72-9db1-091ad28d23f8</t>
-  </si>
-  <si>
-    <t>course-of-action--ead3a51b-6ed6-420a-9953-fe2f6b8816dd</t>
-  </si>
-  <si>
-    <t>course-of-action--5fd900ac-6e6a-4ee7-9a11-ef58129cea5c</t>
-  </si>
-  <si>
-    <t>course-of-action--317157f6-b4a4-4887-99cc-7e900fb7e35a</t>
-  </si>
-  <si>
-    <t>course-of-action--08c232f3-a786-4fdb-89cd-bbd76943fd10</t>
-  </si>
-  <si>
-    <t>course-of-action--80c18af0-9956-4f37-b1fd-49c3785d2243</t>
-  </si>
-  <si>
-    <t>course-of-action--9f8223a7-4fd2-44de-8854-d512dfc7fb09</t>
-  </si>
-  <si>
-    <t>course-of-action--8d8c433c-2b16-438c-b3cc-7a91b2f24ef9</t>
-  </si>
-  <si>
-    <t>course-of-action--698b729b-7703-4fd2-85a2-219386f1c37f</t>
+    <t>course-of-action--d28fd806-c567-4cce-bcef-4981908f8dbc</t>
+  </si>
+  <si>
+    <t>course-of-action--0ecbe6e0-865e-439c-925b-da558632bda6</t>
+  </si>
+  <si>
+    <t>course-of-action--c887ee08-5448-41bb-a94a-e53bfedfa8b7</t>
+  </si>
+  <si>
+    <t>course-of-action--99b7b032-7353-436b-a200-f52fca92cb11</t>
+  </si>
+  <si>
+    <t>course-of-action--73e8d31a-5f48-4415-8f74-4f443a853050</t>
+  </si>
+  <si>
+    <t>course-of-action--35a8cc31-c63d-4fb9-90c0-1dbba7bc724a</t>
+  </si>
+  <si>
+    <t>course-of-action--8ec8b9e0-1934-4298-a1b3-f7c90bd9d864</t>
+  </si>
+  <si>
+    <t>course-of-action--633d5427-a2a6-4453-8675-7378e1b870e2</t>
+  </si>
+  <si>
+    <t>course-of-action--ed266799-ad60-4515-a112-fb668d12cc07</t>
+  </si>
+  <si>
+    <t>course-of-action--e0135277-437f-4b2f-a2bd-66eee71c15e5</t>
+  </si>
+  <si>
+    <t>course-of-action--b45ca9a8-2fe5-467b-b431-b9214c4f3e9b</t>
+  </si>
+  <si>
+    <t>course-of-action--2310ea30-59c9-425c-8ca7-826d267555df</t>
+  </si>
+  <si>
+    <t>course-of-action--d9f92e31-bd25-4e24-8e09-a6dadcfd8020</t>
+  </si>
+  <si>
+    <t>course-of-action--c2885145-a7d5-4100-983d-4d6de9f26425</t>
+  </si>
+  <si>
+    <t>course-of-action--56c77b01-667d-4f45-83f6-8c25e23b7e4c</t>
+  </si>
+  <si>
+    <t>course-of-action--d7a6bd67-982c-4fc0-91ec-8bf86b156055</t>
+  </si>
+  <si>
+    <t>course-of-action--4981d26b-37c3-42be-83ff-298b1fb7710f</t>
+  </si>
+  <si>
+    <t>course-of-action--564257e2-a859-4a6b-b01a-0a997fe06590</t>
+  </si>
+  <si>
+    <t>course-of-action--6b033c58-3eb4-4afb-97d1-f4ea00ae2849</t>
+  </si>
+  <si>
+    <t>course-of-action--de16f78e-92bc-427d-92da-6f71bf0a4418</t>
+  </si>
+  <si>
+    <t>course-of-action--cf12cfaa-408e-4bd0-85fb-9e068dc8699a</t>
+  </si>
+  <si>
+    <t>course-of-action--7de8e8c2-de8d-4000-b87f-385d36e1bf81</t>
+  </si>
+  <si>
+    <t>course-of-action--4237c0ff-cea4-42bd-8419-9f05ea23798b</t>
+  </si>
+  <si>
+    <t>course-of-action--50791788-7055-4498-9b8e-24737141921f</t>
+  </si>
+  <si>
+    <t>course-of-action--7ae9540a-f380-495a-8a5a-5413378defd5</t>
+  </si>
+  <si>
+    <t>course-of-action--ff8b3c2e-aeab-4d66-a7bf-86058bb77ed3</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
   </si>
   <si>
+    <t>AI Model Distribution Methods</t>
+  </si>
+  <si>
     <t>AI Telemetry Logging</t>
   </si>
   <si>
@@ -209,10 +212,10 @@
     <t>Code Signing</t>
   </si>
   <si>
-    <t>Control Access to ML Models and Data at Rest</t>
-  </si>
-  <si>
-    <t>Control Access to ML Models and Data in Production</t>
+    <t>Control Access to AI Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to AI Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -239,19 +242,16 @@
     <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
-    <t>Model Distribution Methods</t>
-  </si>
-  <si>
     <t>Model Hardening</t>
   </si>
   <si>
-    <t>Passive ML Output Obfuscation</t>
+    <t>Passive AI Output Obfuscation</t>
   </si>
   <si>
     <t>Restrict Library Loading</t>
   </si>
   <si>
-    <t>Restrict Number of ML Model Queries</t>
+    <t>Restrict Number of AI Model Queries</t>
   </si>
   <si>
     <t>Sanitize Training Data</t>
@@ -266,10 +266,10 @@
     <t>User Training</t>
   </si>
   <si>
-    <t>Validate ML Model</t>
-  </si>
-  <si>
-    <t>Verify ML Artifacts</t>
+    <t>Validate AI Model</t>
+  </si>
+  <si>
+    <t>Verify AI Artifacts</t>
   </si>
   <si>
     <t>Vulnerability Scanning</t>
@@ -279,16 +279,20 @@
 This can include maintaining dataset provenance, i.e. a detailed history of datasets used for AI applications. The history can include information about the dataset source as well as well as a complete record of any modifications.</t>
   </si>
   <si>
-    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
-Incorporate adversarial detection algorithms into the ML system prior to the ML model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce binary and application integrity with digital signature verification to prevent untrusted code from executing. Adversaries can embed malicious code in ML software or models. Enforcement of code signing can prevent the compromise of the machine learning supply chain and prevent execution of malicious code.
-</t>
+    <t>Deploying AI models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.</t>
+  </si>
+  <si>
+    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.
+Additionally, having logging enabled can discourage adversaries who want to remain undetected from utilizing AI resources.</t>
+  </si>
+  <si>
+    <t>Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
+Incorporate adversarial detection algorithms into the AI system prior to the AI model.</t>
+  </si>
+  <si>
+    <t>Enforce binary and application integrity with digital signature verification to prevent untrusted code from executing. Adversaries can embed malicious code in AI software or models. Enforcement of code signing can prevent the compromise of the AI supply chain and prevent execution of malicious code.</t>
   </si>
   <si>
     <t xml:space="preserve">Establish access controls on internal model registries and limit internal access to production models. Limit access to training data only to approved users.
@@ -300,8 +304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
-</t>
+    <t>Encrypt sensitive data such as AI models to protect against adversaries attempting to access sensitive data.</t>
   </si>
   <si>
     <t>Guardrails are safety controls that are placed between a generative AI model and the output shared with the user to prevent undesired inputs and outputs.
@@ -324,29 +327,21 @@
 </t>
   </si>
   <si>
-    <t>Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.</t>
+    <t>Limit the public release of technical information about the AI stack used in an organization's products or services. Technical knowledge of how AI is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as AI techniques, model architectures, or datasets may be inferred.</t>
   </si>
   <si>
     <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
-Consider serving models in the cloud to reduce the level of access the adversary has to the model.
-Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use techniques to make machine learning models robust to adversarial inputs such as adversarial training or network distillation.
-</t>
+    <t>Use techniques to make AI models robust to adversarial inputs such as adversarial training or network distillation.</t>
   </si>
   <si>
     <t xml:space="preserve">Decreasing the fidelity of model outputs provided to the end user can reduce an adversaries ability to extract information about the model and optimize attacks for the model.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
-File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for loading of malicious libraries.
-</t>
+    <t>Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
+File formats such as pickle files that are commonly used to store AI models can contain exploits that allow for loading of malicious libraries.</t>
   </si>
   <si>
     <t xml:space="preserve">Limit the total number and rate of queries a user can perform.
@@ -366,581 +361,582 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Educate ML model developers on secure coding practices and ML vulnerabilities.
+    <t>Educate AI model developers on secure coding practices and AI vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
+  </si>
+  <si>
+    <t>Verify the cryptographic checksum of all AI artifacts to verify that the file was not modified by an attacker.</t>
+  </si>
+  <si>
+    <t>Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
+File formats such as pickle files that are commonly used to store AI models can contain exploits that allow for arbitrary code execution.
+These files should be scanned for potentially unsafe calls, which could be used to execute code, create new processes, or establish networking capabilities.
+Adversaries may embed malicious code in model corrupt model files, so scanners should be capable of working with models that cannot be fully de-serialized.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0024</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0015</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0013</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0020</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0021</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0003</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0011</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0004</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0007</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0006</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0009</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0018</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0008</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0014</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
+  </si>
+  <si>
+    <t>22 April 2025</t>
+  </si>
+  <si>
+    <t>source ID</t>
+  </si>
+  <si>
+    <t>source name</t>
+  </si>
+  <si>
+    <t>source ref</t>
+  </si>
+  <si>
+    <t>source type</t>
+  </si>
+  <si>
+    <t>mapping type</t>
+  </si>
+  <si>
+    <t>target ID</t>
+  </si>
+  <si>
+    <t>target name</t>
+  </si>
+  <si>
+    <t>target ref</t>
+  </si>
+  <si>
+    <t>target type</t>
+  </si>
+  <si>
+    <t>mapping description</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t>mitigates</t>
+  </si>
+  <si>
+    <t>AML.T0020</t>
+  </si>
+  <si>
+    <t>AML.T0019</t>
+  </si>
+  <si>
+    <t>AML.T0058</t>
+  </si>
+  <si>
+    <t>AML.T0011.000</t>
+  </si>
+  <si>
+    <t>AML.T0044</t>
+  </si>
+  <si>
+    <t>AML.T0010.003</t>
+  </si>
+  <si>
+    <t>AML.T0043.000</t>
+  </si>
+  <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
+    <t>AML.T0047</t>
+  </si>
+  <si>
+    <t>AML.T0051.000</t>
+  </si>
+  <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0024.002</t>
+  </si>
+  <si>
+    <t>AML.T0051.001</t>
+  </si>
+  <si>
+    <t>AML.T0024.000</t>
+  </si>
+  <si>
+    <t>AML.T0024.001</t>
+  </si>
+  <si>
+    <t>AML.T0051</t>
+  </si>
+  <si>
+    <t>AML.T0005.001</t>
+  </si>
+  <si>
+    <t>AML.T0043.001</t>
+  </si>
+  <si>
+    <t>AML.T0029</t>
+  </si>
+  <si>
+    <t>AML.T0031</t>
+  </si>
+  <si>
+    <t>AML.T0015</t>
+  </si>
+  <si>
+    <t>AML.T0010.001</t>
+  </si>
+  <si>
+    <t>AML.T0048.004</t>
+  </si>
+  <si>
+    <t>AML.T0010.002</t>
+  </si>
+  <si>
+    <t>AML.T0025</t>
+  </si>
+  <si>
+    <t>AML.T0018.001</t>
+  </si>
+  <si>
+    <t>AML.T0018.000</t>
+  </si>
+  <si>
+    <t>AML.T0035</t>
+  </si>
+  <si>
+    <t>AML.T0007</t>
+  </si>
+  <si>
+    <t>AML.T0010</t>
+  </si>
+  <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
+    <t>AML.T0057</t>
+  </si>
+  <si>
+    <t>AML.T0054</t>
+  </si>
+  <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
+    <t>AML.T0002.000</t>
+  </si>
+  <si>
+    <t>AML.T0002.001</t>
+  </si>
+  <si>
+    <t>AML.T0002</t>
+  </si>
+  <si>
+    <t>AML.T0004</t>
+  </si>
+  <si>
+    <t>AML.T0000</t>
+  </si>
+  <si>
+    <t>AML.T0003</t>
+  </si>
+  <si>
+    <t>AML.T0014</t>
+  </si>
+  <si>
+    <t>AML.T0013</t>
+  </si>
+  <si>
+    <t>AML.T0034</t>
+  </si>
+  <si>
+    <t>AML.T0046</t>
+  </si>
+  <si>
+    <t>AML.T0041</t>
+  </si>
+  <si>
+    <t>AML.T0011</t>
+  </si>
+  <si>
+    <t>Poison Training Data</t>
+  </si>
+  <si>
+    <t>Publish Poisoned Datasets</t>
+  </si>
+  <si>
+    <t>Publish Poisoned Models</t>
+  </si>
+  <si>
+    <t>Unsafe AI Artifacts</t>
+  </si>
+  <si>
+    <t>Full AI Model Access</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>White-Box Optimization</t>
+  </si>
+  <si>
+    <t>AI Model Inference API Access</t>
+  </si>
+  <si>
+    <t>AI-Enabled Product or Service</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Exfiltration via AI Inference API</t>
+  </si>
+  <si>
+    <t>Extract AI Model</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Infer Training Data Membership</t>
+  </si>
+  <si>
+    <t>Invert AI Model</t>
+  </si>
+  <si>
+    <t>LLM Prompt Injection</t>
+  </si>
+  <si>
+    <t>Train Proxy via Replication</t>
+  </si>
+  <si>
+    <t>Black-Box Optimization</t>
+  </si>
+  <si>
+    <t>Denial of AI Service</t>
+  </si>
+  <si>
+    <t>Erode AI Model Integrity</t>
+  </si>
+  <si>
+    <t>Evade AI Model</t>
+  </si>
+  <si>
+    <t>AI Software</t>
+  </si>
+  <si>
+    <t>AI Intellectual Property Theft</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Exfiltration via Cyber Means</t>
+  </si>
+  <si>
+    <t>Modify AI Model Architecture</t>
+  </si>
+  <si>
+    <t>Poison AI Model</t>
+  </si>
+  <si>
+    <t>AI Artifact Collection</t>
+  </si>
+  <si>
+    <t>Discover AI Artifacts</t>
+  </si>
+  <si>
+    <t>AI Supply Chain Compromise</t>
+  </si>
+  <si>
+    <t>Extract LLM System Prompt</t>
+  </si>
+  <si>
+    <t>LLM Data Leakage</t>
+  </si>
+  <si>
+    <t>LLM Jailbreak</t>
+  </si>
+  <si>
+    <t>LLM Plugin Compromise</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Acquire Public AI Artifacts</t>
+  </si>
+  <si>
+    <t>Search Application Repositories</t>
+  </si>
+  <si>
+    <t>Search Open Technical Databases</t>
+  </si>
+  <si>
+    <t>Search Victim-Owned Websites</t>
+  </si>
+  <si>
+    <t>Discover AI Model Family</t>
+  </si>
+  <si>
+    <t>Discover AI Model Ontology</t>
+  </si>
+  <si>
+    <t>Cost Harvesting</t>
+  </si>
+  <si>
+    <t>Spamming AI System with Chaff Data</t>
+  </si>
+  <si>
+    <t>Physical Environment Access</t>
+  </si>
+  <si>
+    <t>User Execution</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b88e298-97d5-451d-bbf5-1b13f5a2ade2</t>
+  </si>
+  <si>
+    <t>attack-pattern--2de4e5ad-3cd3-4e53-beb8-1809a5aad790</t>
+  </si>
+  <si>
+    <t>attack-pattern--e8053731-4b16-4dbc-89e7-90accdffc0fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9bc20bd-9f88-4794-8ff3-cfd86a2bc2ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--84295c1b-dfa5-44a8-bb1f-47dcd0915635</t>
+  </si>
+  <si>
+    <t>attack-pattern--2dff830e-5644-41e7-93ff-fd0552da77fe</t>
+  </si>
+  <si>
+    <t>attack-pattern--e7df1199-39d9-4d35-bee7-5f7f8ef8f9cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--fd10d38b-4428-4701-aa6b-39bcf961ac6d</t>
+  </si>
+  <si>
+    <t>attack-pattern--eea9d0bf-847c-4120-bcfd-dc178b4c6649</t>
+  </si>
+  <si>
+    <t>attack-pattern--2096e516-cb52-4131-a73d-0ef139258e4c</t>
+  </si>
+  <si>
+    <t>attack-pattern--c606cfab-fa3d-4608-b01e-5f20ba14be1b</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a1d7e16-bb89-46dd-aa36-e65c9047bf28</t>
+  </si>
+  <si>
+    <t>attack-pattern--83120ec7-b57c-49c5-a595-95a6982dfce0</t>
+  </si>
+  <si>
+    <t>attack-pattern--5aa7eba8-9cd1-4d20-b6e6-81b1ec780c9c</t>
+  </si>
+  <si>
+    <t>attack-pattern--bf0aa41d-6932-48a8-a357-346ce7f15eef</t>
+  </si>
+  <si>
+    <t>attack-pattern--a920c087-f6ce-4d6f-b7b8-6b4bafc1c351</t>
+  </si>
+  <si>
+    <t>attack-pattern--ec881f8c-1b0f-466d-abef-5e56521fcd93</t>
+  </si>
+  <si>
+    <t>attack-pattern--056578e2-7e26-496a-9dcd-0c1d05084da7</t>
+  </si>
+  <si>
+    <t>attack-pattern--1038acd6-a2d0-4fb5-93e8-e1702964182d</t>
+  </si>
+  <si>
+    <t>attack-pattern--0691cb6f-ab52-4219-bb75-88c7ef77f02e</t>
+  </si>
+  <si>
+    <t>attack-pattern--6e6da90a-2d48-40cf-b27d-614360d96a1e</t>
+  </si>
+  <si>
+    <t>attack-pattern--cdf60b67-5511-42ba-b459-3aed5c3343f2</t>
+  </si>
+  <si>
+    <t>attack-pattern--4bd0628d-3cdd-4411-9192-2af6c0f02287</t>
+  </si>
+  <si>
+    <t>attack-pattern--ed8d9393-d6b3-4df8-8a27-c9d97f64cbf5</t>
+  </si>
+  <si>
+    <t>attack-pattern--e5f71e81-5f3e-4a82-8e99-d911d3e912f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--291f82aa-907f-4ff9-a984-f04c1ab369bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--985c6a6f-cad4-4c6a-bf32-0c3c58d57519</t>
+  </si>
+  <si>
+    <t>attack-pattern--c7d79f0f-1c80-41d5-b6ef-3c1c53c34a06</t>
+  </si>
+  <si>
+    <t>attack-pattern--726a5898-ac81-4c62-b828-9f105556a907</t>
+  </si>
+  <si>
+    <t>attack-pattern--911b49e8-556c-4ca9-9dad-39040ec216db</t>
+  </si>
+  <si>
+    <t>attack-pattern--2243a101-6295-4b82-8075-0c287d602a0e</t>
+  </si>
+  <si>
+    <t>attack-pattern--d6c070bc-ed05-4f84-8ebc-48b2df8d1fac</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef74d856-323e-47d9-ad54-1f2a9a91fcf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--dea40e9d-00d1-48fd-b26e-1d307490596c</t>
+  </si>
+  <si>
+    <t>attack-pattern--c05491e8-0c47-490d-8df3-26f7d4fdc629</t>
+  </si>
+  <si>
+    <t>attack-pattern--d9135863-13f5-4d54-9434-c24c29b75b15</t>
+  </si>
+  <si>
+    <t>attack-pattern--4eb73819-e06c-46b1-8fe0-692be6af794d</t>
+  </si>
+  <si>
+    <t>attack-pattern--382d0462-947d-4d13-94a9-8dccc130fbc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf106628-da5b-47b7-950f-9658391857af</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fd7ca0a-8ca1-44fa-852f-f68db00b756d</t>
+  </si>
+  <si>
+    <t>attack-pattern--9923b6b4-84f1-4ab4-8ccf-4d597db61a57</t>
+  </si>
+  <si>
+    <t>attack-pattern--adf16819-dc11-46a7-b23a-0ea57ccc093c</t>
+  </si>
+  <si>
+    <t>attack-pattern--70660fc0-a4ba-4500-ac74-557fed97b06b</t>
+  </si>
+  <si>
+    <t>attack-pattern--92eb716e-f0e3-47de-8693-107bbd9d6554</t>
+  </si>
+  <si>
+    <t>attack-pattern--68ec4fb6-15df-4841-abdd-8e0cd8534520</t>
+  </si>
+  <si>
+    <t>attack-pattern--67487920-42fd-43d6-86d9-52e683e64c19</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>An AI BOM can help users identify untrustworthy model artifacts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not distributing the model in software to edge devices, can limit an adversary's ability to gain full access to the model.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
-Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
+    <t xml:space="preserve">An adversary could repackage the application with a malicious version of the model.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the cryptographic checksum of all machine learning artifacts to verify that the file was not modified by an attacker.
+    <t xml:space="preserve">With full access to the model, an adversary could perform white-box attacks.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
-File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
-Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
-</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0024</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0015</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0013</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0020</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0021</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0003</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0011</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0004</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0007</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0006</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0009</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0018</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0008</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0014</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
-  </si>
-  <si>
-    <t>14 March 2025</t>
-  </si>
-  <si>
-    <t>source ID</t>
-  </si>
-  <si>
-    <t>source name</t>
-  </si>
-  <si>
-    <t>source ref</t>
-  </si>
-  <si>
-    <t>source type</t>
-  </si>
-  <si>
-    <t>mapping type</t>
-  </si>
-  <si>
-    <t>target ID</t>
-  </si>
-  <si>
-    <t>target name</t>
-  </si>
-  <si>
-    <t>target ref</t>
-  </si>
-  <si>
-    <t>target type</t>
-  </si>
-  <si>
-    <t>mapping description</t>
-  </si>
-  <si>
-    <t>mitigation</t>
-  </si>
-  <si>
-    <t>mitigates</t>
-  </si>
-  <si>
-    <t>AML.T0020</t>
-  </si>
-  <si>
-    <t>AML.T0019</t>
-  </si>
-  <si>
-    <t>AML.T0058</t>
-  </si>
-  <si>
-    <t>AML.T0011.000</t>
-  </si>
-  <si>
-    <t>AML.T0040</t>
-  </si>
-  <si>
-    <t>AML.T0051.000</t>
-  </si>
-  <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
-    <t>AML.T0024.002</t>
-  </si>
-  <si>
-    <t>AML.T0051.001</t>
-  </si>
-  <si>
-    <t>AML.T0024.000</t>
-  </si>
-  <si>
-    <t>AML.T0024.001</t>
-  </si>
-  <si>
-    <t>AML.T0051</t>
-  </si>
-  <si>
-    <t>AML.T0047</t>
-  </si>
-  <si>
-    <t>AML.T0005.001</t>
-  </si>
-  <si>
-    <t>AML.T0043.001</t>
-  </si>
-  <si>
-    <t>AML.T0029</t>
-  </si>
-  <si>
-    <t>AML.T0031</t>
-  </si>
-  <si>
-    <t>AML.T0015</t>
-  </si>
-  <si>
-    <t>AML.T0010.001</t>
-  </si>
-  <si>
-    <t>AML.T0010.003</t>
-  </si>
-  <si>
-    <t>AML.T0010.002</t>
-  </si>
-  <si>
-    <t>AML.T0025</t>
-  </si>
-  <si>
-    <t>AML.T0018.001</t>
-  </si>
-  <si>
-    <t>AML.T0048.004</t>
-  </si>
-  <si>
-    <t>AML.T0018.000</t>
-  </si>
-  <si>
-    <t>AML.T0007</t>
-  </si>
-  <si>
-    <t>AML.T0035</t>
-  </si>
-  <si>
-    <t>AML.T0056</t>
-  </si>
-  <si>
-    <t>AML.T0057</t>
-  </si>
-  <si>
-    <t>AML.T0054</t>
-  </si>
-  <si>
-    <t>AML.T0053</t>
-  </si>
-  <si>
-    <t>AML.T0010</t>
-  </si>
-  <si>
-    <t>AML.T0002.000</t>
-  </si>
-  <si>
-    <t>AML.T0002.001</t>
-  </si>
-  <si>
-    <t>AML.T0002</t>
-  </si>
-  <si>
-    <t>AML.T0004</t>
-  </si>
-  <si>
-    <t>AML.T0003</t>
-  </si>
-  <si>
-    <t>AML.T0000</t>
-  </si>
-  <si>
-    <t>AML.T0044</t>
-  </si>
-  <si>
-    <t>AML.T0043.000</t>
-  </si>
-  <si>
-    <t>AML.T0014</t>
-  </si>
-  <si>
-    <t>AML.T0013</t>
-  </si>
-  <si>
-    <t>AML.T0034</t>
-  </si>
-  <si>
-    <t>AML.T0046</t>
-  </si>
-  <si>
-    <t>AML.T0041</t>
-  </si>
-  <si>
-    <t>AML.T0011</t>
-  </si>
-  <si>
-    <t>AML.T0018</t>
-  </si>
-  <si>
-    <t>Poison Training Data</t>
-  </si>
-  <si>
-    <t>Publish Poisoned Datasets</t>
-  </si>
-  <si>
-    <t>Publish Poisoned Models</t>
-  </si>
-  <si>
-    <t>Unsafe ML Artifacts</t>
-  </si>
-  <si>
-    <t>AI Model Inference API Access</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>Exfiltration via ML Inference API</t>
-  </si>
-  <si>
-    <t>Extract ML Model</t>
-  </si>
-  <si>
-    <t>Indirect</t>
-  </si>
-  <si>
-    <t>Infer Training Data Membership</t>
-  </si>
-  <si>
-    <t>Invert ML Model</t>
-  </si>
-  <si>
-    <t>LLM Prompt Injection</t>
-  </si>
-  <si>
-    <t>ML-Enabled Product or Service</t>
-  </si>
-  <si>
-    <t>Train Proxy via Replication</t>
-  </si>
-  <si>
-    <t>Black-Box Optimization</t>
-  </si>
-  <si>
-    <t>Denial of ML Service</t>
-  </si>
-  <si>
-    <t>Erode ML Model Integrity</t>
-  </si>
-  <si>
-    <t>Evade ML Model</t>
-  </si>
-  <si>
-    <t>ML Software</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Exfiltration via Cyber Means</t>
-  </si>
-  <si>
-    <t>Inject Payload</t>
-  </si>
-  <si>
-    <t>ML Intellectual Property Theft</t>
-  </si>
-  <si>
-    <t>Poison ML Model</t>
-  </si>
-  <si>
-    <t>Discover ML Artifacts</t>
-  </si>
-  <si>
-    <t>ML Artifact Collection</t>
-  </si>
-  <si>
-    <t>Extract LLM System Prompt</t>
-  </si>
-  <si>
-    <t>LLM Data Leakage</t>
-  </si>
-  <si>
-    <t>LLM Jailbreak</t>
-  </si>
-  <si>
-    <t>LLM Plugin Compromise</t>
-  </si>
-  <si>
-    <t>ML Supply Chain Compromise</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Acquire Public ML Artifacts</t>
-  </si>
-  <si>
-    <t>Search Application Repositories</t>
-  </si>
-  <si>
-    <t>Search Victim-Owned Websites</t>
-  </si>
-  <si>
-    <t>Search for Victim's Publicly Available Research Materials</t>
-  </si>
-  <si>
-    <t>Full ML Model Access</t>
-  </si>
-  <si>
-    <t>White-Box Optimization</t>
-  </si>
-  <si>
-    <t>Discover ML Model Family</t>
-  </si>
-  <si>
-    <t>Discover ML Model Ontology</t>
-  </si>
-  <si>
-    <t>Cost Harvesting</t>
-  </si>
-  <si>
-    <t>Spamming ML System with Chaff Data</t>
-  </si>
-  <si>
-    <t>Physical Environment Access</t>
-  </si>
-  <si>
-    <t>User Execution</t>
-  </si>
-  <si>
-    <t>Backdoor ML Model</t>
-  </si>
-  <si>
-    <t>attack-pattern--d63c873b-7e01-437d-98ef-d681099c3377</t>
-  </si>
-  <si>
-    <t>attack-pattern--89461ddf-4d27-40e7-ba53-8221012fe9c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--97fe9577-c7ed-466d-817d-697f815db7b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--df46bcf0-0231-413c-9661-7f7d0e39b63e</t>
-  </si>
-  <si>
-    <t>attack-pattern--da8fff4a-bfff-4fe2-9d45-1c01fd9d3b73</t>
-  </si>
-  <si>
-    <t>attack-pattern--dcce6e07-56ea-416a-a15b-7693f0f0d631</t>
-  </si>
-  <si>
-    <t>attack-pattern--3f333baa-31b3-4196-966c-5298a8b106c5</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ab0c79a-4dcf-4270-a272-af080402402d</t>
-  </si>
-  <si>
-    <t>attack-pattern--3897f551-0533-4714-b8de-47e3879e42ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--02c2f3c6-678a-40f7-997b-a3faa54a5760</t>
-  </si>
-  <si>
-    <t>attack-pattern--93c93189-92f6-4485-8ddf-6c5e501f416f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9eddd08-a29a-4598-80a4-171d456be7c7</t>
-  </si>
-  <si>
-    <t>attack-pattern--e4653a0a-5832-4c26-ab98-e31a31936085</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9408f13-6211-4259-85e1-794dc96a6100</t>
-  </si>
-  <si>
-    <t>attack-pattern--fb1d969f-a88b-4404-a1a5-36fc7eab7c41</t>
-  </si>
-  <si>
-    <t>attack-pattern--861e7c2c-3f39-4131-b657-d9d9149189d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b0d8468-e00f-4ba2-9e18-1a2f527f08b2</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccf27b22-48bf-4219-a668-fa60eb0d94a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9590f8d-cb5f-47ba-a25d-76a237dd8904</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3301bd5-0f28-4604-a167-15aa4f17160d</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c34c31f-5157-48ad-acb8-4344cadd93cf</t>
-  </si>
-  <si>
-    <t>attack-pattern--55a17dc0-be82-40b8-80e7-f97e1e867b58</t>
-  </si>
-  <si>
-    <t>attack-pattern--294fe4dc-ac27-4b40-ae40-8148b9876f25</t>
-  </si>
-  <si>
-    <t>attack-pattern--7360aac5-ab15-4d95-ab5e-bef1af305788</t>
-  </si>
-  <si>
-    <t>attack-pattern--c44decce-8b70-4f42-a5e0-db0bb105d0b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a47d00f-77c8-4144-8452-facca3096fa3</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a67aef8-329e-4669-84bd-c1aa0a67ac68</t>
-  </si>
-  <si>
-    <t>attack-pattern--b68a2222-7aba-4a03-9f64-20e89faf4ec6</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab05c807-8854-40d8-a20e-28edae445c80</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bc3f855-f8ba-46c1-85a7-a036679ed8b6</t>
-  </si>
-  <si>
-    <t>attack-pattern--151bebab-0e27-442b-838e-bb0d9a36c32f</t>
-  </si>
-  <si>
-    <t>attack-pattern--a4783291-4917-4ea8-8f34-b9b6180ae332</t>
-  </si>
-  <si>
-    <t>attack-pattern--f85d3313-5de8-4d27-9d23-bf3fa79946e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--784cbb90-b5f0-47d1-af8c-d299c5b3c551</t>
-  </si>
-  <si>
-    <t>attack-pattern--c652f980-4fff-47ae-8119-d6a927255ebc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6f3e625e-3157-4b30-bb7f-f8f25b21c8dc</t>
-  </si>
-  <si>
-    <t>attack-pattern--d886ab0c-9c92-40f6-aad8-930476504be8</t>
-  </si>
-  <si>
-    <t>attack-pattern--0e9e22e3-9b1e-4a9d-8ff6-da7ba7b9018f</t>
-  </si>
-  <si>
-    <t>attack-pattern--07ebffc5-e98e-4330-bf94-7f0c56b16345</t>
-  </si>
-  <si>
-    <t>attack-pattern--4a040cc9-d53d-4fa3-948d-a1ff8f02e0eb</t>
-  </si>
-  <si>
-    <t>attack-pattern--9115a9b6-855a-4acf-802c-aad9eeedc310</t>
-  </si>
-  <si>
-    <t>attack-pattern--b99c824b-c87f-4e39-ba72-7b8b299f0039</t>
-  </si>
-  <si>
-    <t>attack-pattern--71236163-a6a2-48d2-aee5-df2c480df0d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--5d68a5e9-942d-4213-9c6c-ac27d9fb786c</t>
-  </si>
-  <si>
-    <t>attack-pattern--2693de2c-725f-4d66-abb2-a940efcff1b5</t>
-  </si>
-  <si>
-    <t>attack-pattern--fe45ad62-1ed6-45fb-a6ba-19140fed8cda</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ea7686d-a65f-4e06-b962-02495a8f1cdb</t>
-  </si>
-  <si>
-    <t>technique</t>
-  </si>
-  <si>
-    <t>An AI BOM can help users identify untrustworthy model artifacts.</t>
-  </si>
-  <si>
     <t>Telemetry logging can help audit API usage of the model.</t>
   </si>
   <si>
+    <t>Telemetry logging can help identify if sensitive model information has been sent to an attacker.</t>
+  </si>
+  <si>
     <t>Telemetry logging can help identify if unsafe prompts have been submitted to the LLM.</t>
   </si>
   <si>
     <t>Telemetry logging can help identify if sensitive data has been exfiltrated.</t>
-  </si>
-  <si>
-    <t>Telemetry logging can help identify if sensitive model information has been sent to an attacker.</t>
   </si>
   <si>
     <t>Telemetry logging can help identify if a proxy training dataset has been exfiltrated.</t>
@@ -974,6 +970,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Access controls can prevent theft of intellectual property.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Access controls can prevent tampering with ML artifacts and prevent unauthorized copying.
 </t>
   </si>
@@ -982,10 +982,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Access controls can prevent theft of intellectual property.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adversaries can use unrestricted API access to gain information about a production system, stage attacks, and introduce malicious data to the system.
 </t>
   </si>
@@ -994,12 +990,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Protect machine learning artifacts with encryption.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protect machine learning artifacts from adversaries who gather private information to target and improve attacks.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Protect machine learning artifacts with encryption.
-</t>
+    <t>Guardrails can detect harmful code in model outputs.</t>
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to meta prompt extraction.</t>
@@ -1015,9 +1014,6 @@
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to prompt injection.</t>
-  </si>
-  <si>
-    <t>Guardrails can detect harmful code in model outputs.</t>
   </si>
   <si>
     <t>Model guidelines can instruct the model to refuse a response to unsafe inputs.</t>
@@ -1050,14 +1046,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Limit the connection between publicly disclosed approaches and the data, models, and algorithms used in production.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restrict release of technical information on ML-enabled products and organizational information on the teams supporting ML-enabled products.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Limit the connection between publicly disclosed approaches and the data, models, and algorithms used in production.
-</t>
-  </si>
-  <si>
     <t>Dataset provenance can protect against supply chain compromise of data.</t>
   </si>
   <si>
@@ -1065,18 +1061,6 @@
   </si>
   <si>
     <t>Dataset provenance can protect against poisoning of training data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not distributing the model in software to edge devices, can limit an adversary's ability to gain full access to the model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adversary could repackage the application with a malicious version of the model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With full access to the model, an adversary could perform white-box attacks.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Hardened models are less susceptible to integrity attacks.
@@ -1135,6 +1119,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Using multiple different models ensures minimal performance loss if security flaw is found in tool for one model or family.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Use multiple different models to fool adversaries of which type of model is used and how the model used.
 </t>
   </si>
@@ -1143,10 +1131,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using multiple different models ensures minimal performance loss if security flaw is found in tool for one model or family.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using a variety of sensors can make it more difficult for an attacker to compromise and produce malicious results.
 </t>
   </si>
@@ -1183,324 +1167,317 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Techniques such as neural payload injection can make model artifacts vulnerable to adversarial queries. Scan model artifacts for signs of compromise.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scan ML artifacts for vulnerabilities before execution.
 </t>
   </si>
   <si>
-    <t>relationship--1f764d81-78ee-424c-8f95-edf125726977</t>
-  </si>
-  <si>
-    <t>relationship--e068cb9b-04df-4934-8171-bd7254057c9b</t>
-  </si>
-  <si>
-    <t>relationship--3c8a99a5-b227-490d-aefe-c688fd42688b</t>
-  </si>
-  <si>
-    <t>relationship--46704524-e837-4d3a-a8b1-b1f00293e2d1</t>
-  </si>
-  <si>
-    <t>relationship--34dcff49-0eb8-4125-b1a7-ee83bd4ae706</t>
-  </si>
-  <si>
-    <t>relationship--ad092bd4-1b38-45b7-a085-ef19987add45</t>
-  </si>
-  <si>
-    <t>relationship--79ee56d3-8cc3-42d4-adee-f4729aeef8d8</t>
-  </si>
-  <si>
-    <t>relationship--07a90eee-f5ba-4f53-90ca-abcc27779b68</t>
-  </si>
-  <si>
-    <t>relationship--2ca4045b-c0b9-4c7e-b6c6-acf651c25665</t>
-  </si>
-  <si>
-    <t>relationship--0e64f681-3d86-4788-abe3-62d4e663e053</t>
-  </si>
-  <si>
-    <t>relationship--17f10300-6776-4310-9ca8-0013a7c85d0e</t>
-  </si>
-  <si>
-    <t>relationship--cea7502f-c78e-427a-bbce-b72ebf243c6a</t>
-  </si>
-  <si>
-    <t>relationship--5df7971f-5414-41ac-86df-b307ac2c0a41</t>
-  </si>
-  <si>
-    <t>relationship--35f9b678-56ec-437e-b39d-30ff82740645</t>
-  </si>
-  <si>
-    <t>relationship--b4c63ae8-2117-4e48-88ab-98ca853c759b</t>
-  </si>
-  <si>
-    <t>relationship--fb2c272d-01f9-4e06-ab1b-e1939c56bb26</t>
-  </si>
-  <si>
-    <t>relationship--c361f85a-ab7f-4a99-9214-3c5b79f1f313</t>
-  </si>
-  <si>
-    <t>relationship--575ce8b4-f991-4323-ab40-eb42c9b1781a</t>
-  </si>
-  <si>
-    <t>relationship--66af969d-9ec4-4d2b-b812-019e77876c65</t>
-  </si>
-  <si>
-    <t>relationship--fc2fe650-8f45-4759-a853-cc6d05361d03</t>
-  </si>
-  <si>
-    <t>relationship--9e5ff7b8-1001-495a-977f-3969e1711033</t>
-  </si>
-  <si>
-    <t>relationship--e06c1dc3-bb0d-468f-b1b3-c5217ff38a16</t>
-  </si>
-  <si>
-    <t>relationship--3a37fc01-6cd1-4b75-95d0-f2ef6e1f7634</t>
-  </si>
-  <si>
-    <t>relationship--70e1ce0a-1cc7-4d02-9d78-12b748317814</t>
-  </si>
-  <si>
-    <t>relationship--e92f61ff-5c7a-402f-968a-1f1f83552b3d</t>
-  </si>
-  <si>
-    <t>relationship--ebafa6bf-99c4-4d76-96d5-3ced4c465aff</t>
-  </si>
-  <si>
-    <t>relationship--b3e2e2c9-dd58-486f-9e07-15613a68fa5b</t>
-  </si>
-  <si>
-    <t>relationship--47a0d703-3a56-48e2-9a17-17cb5feeb101</t>
-  </si>
-  <si>
-    <t>relationship--d5586f84-0a24-4255-ab11-2b3c2d030ad3</t>
-  </si>
-  <si>
-    <t>relationship--6c87ff72-1bec-4568-a6d6-dc136184b94f</t>
-  </si>
-  <si>
-    <t>relationship--51b3907b-2159-467c-b5f2-1f33613328b0</t>
-  </si>
-  <si>
-    <t>relationship--a988ea28-0460-462b-a35d-bdc0dc94b54e</t>
-  </si>
-  <si>
-    <t>relationship--7d49eb4c-b77e-4f47-bc7a-59af0e31864b</t>
-  </si>
-  <si>
-    <t>relationship--7203616f-fa15-4396-9168-e74884efe6c3</t>
-  </si>
-  <si>
-    <t>relationship--ebdcf5e1-640a-49b2-8d9c-ff481ae0c762</t>
-  </si>
-  <si>
-    <t>relationship--cb64404a-a94e-45aa-9844-41516e176ccf</t>
-  </si>
-  <si>
-    <t>relationship--dea3168d-6d6d-40fe-a0d6-fb1a8dff457d</t>
-  </si>
-  <si>
-    <t>relationship--346ace8e-2073-4f46-a9aa-6ccfe4597a00</t>
-  </si>
-  <si>
-    <t>relationship--f7d536f9-7ef8-42eb-8530-6a6abd04ea84</t>
-  </si>
-  <si>
-    <t>relationship--262e0945-d6a9-40eb-8e1a-d403fbd09321</t>
-  </si>
-  <si>
-    <t>relationship--6a7df184-1bb3-4bac-b0f1-5d56f90c2c03</t>
-  </si>
-  <si>
-    <t>relationship--db369d9d-312f-4908-baa0-20da4eda3d1e</t>
-  </si>
-  <si>
-    <t>relationship--6ea55808-3458-40f9-bf1f-7a52585c4a0d</t>
-  </si>
-  <si>
-    <t>relationship--ac79ea96-4b12-4be8-ac5a-14ed59cf7848</t>
-  </si>
-  <si>
-    <t>relationship--c457e00f-e482-4ced-8493-d96bfd1f03f7</t>
-  </si>
-  <si>
-    <t>relationship--c90d7475-4418-4ff7-848c-e26a2fc0a7ee</t>
-  </si>
-  <si>
-    <t>relationship--903bc191-94c6-41b9-b83c-e78ce546b8fb</t>
-  </si>
-  <si>
-    <t>relationship--10717fe4-7c9d-4b36-a47a-d0e2c7851891</t>
-  </si>
-  <si>
-    <t>relationship--222b5c47-808d-4518-9326-2194c19ea4af</t>
-  </si>
-  <si>
-    <t>relationship--e61a6368-b1e1-4ba2-9dba-478ca91d4086</t>
-  </si>
-  <si>
-    <t>relationship--a599b8fe-65d8-4a22-9a9c-bf898bd89d3f</t>
-  </si>
-  <si>
-    <t>relationship--abcf855e-7bd6-4abf-9f2a-367b2a8ba763</t>
-  </si>
-  <si>
-    <t>relationship--85df9bc5-4603-4eb0-88cb-b48b5b249a84</t>
-  </si>
-  <si>
-    <t>relationship--47423e5e-770b-449e-8def-0f7cac9f20c9</t>
-  </si>
-  <si>
-    <t>relationship--3ece35bf-b45a-4026-a1e4-2789398cd270</t>
-  </si>
-  <si>
-    <t>relationship--47b5c96f-7049-4847-b0f6-15d6a40f4bf2</t>
-  </si>
-  <si>
-    <t>relationship--b0068642-3cd4-4754-8c3c-a5dfe6c4b31d</t>
-  </si>
-  <si>
-    <t>relationship--5d8bbbaa-3d9c-4ae1-b17e-e53cc80fada0</t>
-  </si>
-  <si>
-    <t>relationship--6757034e-fcae-411c-aa16-fba965c097ed</t>
-  </si>
-  <si>
-    <t>relationship--7cf4f2b4-d7e6-4635-b460-c1eb6c0ff519</t>
-  </si>
-  <si>
-    <t>relationship--0ab4eefb-7ff8-4ad0-8acf-4048f0a74bd5</t>
-  </si>
-  <si>
-    <t>relationship--8dd9d95c-120f-474d-8b21-f764dba2e9d5</t>
-  </si>
-  <si>
-    <t>relationship--e92352f1-d0dc-4fa7-b8d7-8fea852cb748</t>
-  </si>
-  <si>
-    <t>relationship--9e010855-b7e8-4e48-ae2f-280dcfe3117f</t>
-  </si>
-  <si>
-    <t>relationship--b7711511-12c3-4913-b5b4-2b459cc3fe10</t>
-  </si>
-  <si>
-    <t>relationship--4220af7d-26f9-452c-809d-f26cee4b7399</t>
-  </si>
-  <si>
-    <t>relationship--1c6ecbe2-303a-44f0-96e1-2dcce99851fb</t>
-  </si>
-  <si>
-    <t>relationship--5439ad81-4902-41c5-835b-2b504ec8c513</t>
-  </si>
-  <si>
-    <t>relationship--547ccfef-4673-41d5-9c7d-4b59af557c9b</t>
-  </si>
-  <si>
-    <t>relationship--e26ae04d-9ab5-4164-be39-72ede30c6752</t>
-  </si>
-  <si>
-    <t>relationship--333b4e2e-d3df-46af-82d6-7aedd83b403c</t>
-  </si>
-  <si>
-    <t>relationship--a1ade9f1-975a-4bde-ba0b-73165f36b083</t>
-  </si>
-  <si>
-    <t>relationship--7a5c400d-a093-4f86-9a9b-3cae9be3ad06</t>
-  </si>
-  <si>
-    <t>relationship--3de926bc-b737-44de-a590-841b96e988a0</t>
-  </si>
-  <si>
-    <t>relationship--880d2cb0-2813-43dd-834c-068cf8506fa0</t>
-  </si>
-  <si>
-    <t>relationship--4e517c8b-6071-4eaf-b5da-ca36e9aebc80</t>
-  </si>
-  <si>
-    <t>relationship--2617515a-7029-47a0-8d34-e22a0523fe1e</t>
-  </si>
-  <si>
-    <t>relationship--56109525-bff1-4463-9c7e-e3e8b2acafbb</t>
-  </si>
-  <si>
-    <t>relationship--1bb9ea10-4af8-441d-8c85-4569f170e7f6</t>
-  </si>
-  <si>
-    <t>relationship--81bc0f2e-66e5-4106-bcfb-cebdeca65586</t>
-  </si>
-  <si>
-    <t>relationship--4498f139-0b3b-4467-b6e3-08583d9c3100</t>
-  </si>
-  <si>
-    <t>relationship--272fc2d9-01cf-44ea-ae3b-1ff3ed99d5a3</t>
-  </si>
-  <si>
-    <t>relationship--8ce7f695-04ce-4299-867e-927a4f551669</t>
-  </si>
-  <si>
-    <t>relationship--5157511f-5f55-424c-8e44-c40d9825c675</t>
-  </si>
-  <si>
-    <t>relationship--236683fa-21bc-415f-94c2-a6db41a0d668</t>
-  </si>
-  <si>
-    <t>relationship--e0006a55-916d-449b-97f7-4227c959b2b6</t>
-  </si>
-  <si>
-    <t>relationship--9bc0a804-cc97-4326-b88e-b01724ad1dbc</t>
-  </si>
-  <si>
-    <t>relationship--9f6e0260-fe8f-4f50-a24b-6386caf5a3f6</t>
-  </si>
-  <si>
-    <t>relationship--f6ac01a3-44cb-4933-9a70-8b1cb8e6b4cc</t>
-  </si>
-  <si>
-    <t>relationship--622c0c4f-7436-4844-b542-2a6bf7b0666d</t>
-  </si>
-  <si>
-    <t>relationship--c6e25f4f-7a96-4761-aed2-5f6f1297eeb0</t>
-  </si>
-  <si>
-    <t>relationship--51ae1969-35c2-4e25-8431-d0f52a7f7521</t>
-  </si>
-  <si>
-    <t>relationship--97054f58-922e-49df-a40a-392464243447</t>
-  </si>
-  <si>
-    <t>relationship--3820d758-0635-468a-a066-69f49006b4ab</t>
-  </si>
-  <si>
-    <t>relationship--cab39c70-1373-4924-b6fa-1f7990c67790</t>
-  </si>
-  <si>
-    <t>relationship--fe3e46ce-4893-49e5-9d6a-035f80ffe931</t>
-  </si>
-  <si>
-    <t>relationship--d0768bbd-a4f8-40f0-9131-14f0f452e54a</t>
-  </si>
-  <si>
-    <t>relationship--cd424d51-a694-4022-9a56-86509356e7e7</t>
-  </si>
-  <si>
-    <t>relationship--a29e4015-dce4-4870-b50f-0b2e6fd0157f</t>
-  </si>
-  <si>
-    <t>relationship--b1cce42d-382b-4d20-a144-9d2aaf056ff6</t>
-  </si>
-  <si>
-    <t>relationship--1bced3cf-0ca8-47f0-ba4d-9ce0285cc991</t>
-  </si>
-  <si>
-    <t>relationship--d0ca58f0-d22c-4ba6-b924-8f6eab12944d</t>
-  </si>
-  <si>
-    <t>relationship--98bbd9d6-a3fe-4fb5-b2ec-d146e6b40079</t>
-  </si>
-  <si>
-    <t>relationship--f524afb9-119a-4650-9f2d-9ff2c1e39422</t>
+    <t>relationship--4c794d66-d125-4b7b-b196-6ee071f82930</t>
+  </si>
+  <si>
+    <t>relationship--7188bdc2-b384-4443-932d-db79b1fef103</t>
+  </si>
+  <si>
+    <t>relationship--80d6115c-703a-497b-8441-cc2864da89d9</t>
+  </si>
+  <si>
+    <t>relationship--89830187-e5aa-445b-808e-0be4d3d60ee5</t>
+  </si>
+  <si>
+    <t>relationship--1ac84ff0-2833-4739-a8af-8305354e1f36</t>
+  </si>
+  <si>
+    <t>relationship--fe7a172c-8d66-48aa-b4c9-dee49cce406a</t>
+  </si>
+  <si>
+    <t>relationship--4584ce30-d9f1-4852-bc32-13b589353ec8</t>
+  </si>
+  <si>
+    <t>relationship--7c0a60f1-cd43-425e-95ad-9596459f98fb</t>
+  </si>
+  <si>
+    <t>relationship--74255de0-85f3-4c77-a15b-a4bec71fbaf6</t>
+  </si>
+  <si>
+    <t>relationship--713190b0-ec5c-453d-b2e9-a3665a0d4c53</t>
+  </si>
+  <si>
+    <t>relationship--188cc12b-f1d7-46d2-97ee-1f804e12378d</t>
+  </si>
+  <si>
+    <t>relationship--f11f3e8d-bcff-432a-9a3a-0f62a6d0725a</t>
+  </si>
+  <si>
+    <t>relationship--5dc3436e-6dae-41c1-92fb-20fd788a5b01</t>
+  </si>
+  <si>
+    <t>relationship--ec6ae09c-2491-45dc-8f44-eabd3ebbd0af</t>
+  </si>
+  <si>
+    <t>relationship--5eb9e65d-d204-44fd-85d9-6140a4e02f9c</t>
+  </si>
+  <si>
+    <t>relationship--7a5bc8bc-0349-4c47-8aaa-3cb90c06e1c9</t>
+  </si>
+  <si>
+    <t>relationship--53a99ce4-d84c-4dd7-9483-decee259070e</t>
+  </si>
+  <si>
+    <t>relationship--76efbecc-6b0e-420e-a951-2aab19a0ceb5</t>
+  </si>
+  <si>
+    <t>relationship--26f9b833-d2c9-4e48-887a-af255e5a897f</t>
+  </si>
+  <si>
+    <t>relationship--1ff1fb02-0273-428c-bd12-807b2c10c35a</t>
+  </si>
+  <si>
+    <t>relationship--d6850c87-bb30-4fe5-b77c-635694770bf9</t>
+  </si>
+  <si>
+    <t>relationship--33c16c12-7132-486c-9107-20c63f7af102</t>
+  </si>
+  <si>
+    <t>relationship--77f5c7ed-4c19-468b-b555-d34b0e801a4b</t>
+  </si>
+  <si>
+    <t>relationship--c652c8a0-4dce-4eee-a718-72c7a8454771</t>
+  </si>
+  <si>
+    <t>relationship--9d44604f-f5e4-4383-922c-e26b8c2d9e92</t>
+  </si>
+  <si>
+    <t>relationship--c1c26ff9-49ee-45d7-8b3e-4c97300642fc</t>
+  </si>
+  <si>
+    <t>relationship--71a5c0f7-36a0-4b12-8527-fab036370629</t>
+  </si>
+  <si>
+    <t>relationship--f87046dc-572c-43a7-bbad-28fafdbe153c</t>
+  </si>
+  <si>
+    <t>relationship--e64ef8ad-1cb5-448f-a91e-1fdea4e4a764</t>
+  </si>
+  <si>
+    <t>relationship--6539cfe2-f4ab-41f8-ba52-2c5c80470356</t>
+  </si>
+  <si>
+    <t>relationship--0036a126-713b-473f-b6f2-1b89d3739aa0</t>
+  </si>
+  <si>
+    <t>relationship--35c7d20b-5eab-4857-a101-09cd00cd2ffa</t>
+  </si>
+  <si>
+    <t>relationship--720defa1-2c91-4122-b268-6b1ba62519ce</t>
+  </si>
+  <si>
+    <t>relationship--9b0b0626-8627-4e62-ba5e-445a606942bb</t>
+  </si>
+  <si>
+    <t>relationship--75fe0792-7efc-4f87-80c5-6cdf20a7c406</t>
+  </si>
+  <si>
+    <t>relationship--7b209f5a-5a57-4d88-af55-233fc8c7fe98</t>
+  </si>
+  <si>
+    <t>relationship--9bc35627-d57e-42fb-abb1-c29e1f3000d2</t>
+  </si>
+  <si>
+    <t>relationship--1a99eba0-29c7-4822-a93d-dac9ea9b1d6c</t>
+  </si>
+  <si>
+    <t>relationship--4056f5db-def5-45c5-8946-ce1d10a29b88</t>
+  </si>
+  <si>
+    <t>relationship--9ad9bd35-ecfe-4408-b4bd-289459b01b01</t>
+  </si>
+  <si>
+    <t>relationship--0ef5020e-b56a-4636-9685-2b07cc2273e3</t>
+  </si>
+  <si>
+    <t>relationship--fb0abaca-6d6d-438e-adc0-ecae6f3b43af</t>
+  </si>
+  <si>
+    <t>relationship--3f42a75a-c3b8-41c9-95fc-098642ebd33f</t>
+  </si>
+  <si>
+    <t>relationship--677336e8-c698-4f55-9d65-b9f92dd4b9f7</t>
+  </si>
+  <si>
+    <t>relationship--354f3d62-a299-4c87-933b-50a99564fda3</t>
+  </si>
+  <si>
+    <t>relationship--ba9b54bf-3ca6-41e7-a338-7626bb1b620c</t>
+  </si>
+  <si>
+    <t>relationship--5e2073b9-6b67-4b80-8027-82854a44a775</t>
+  </si>
+  <si>
+    <t>relationship--f971a8c4-0fe1-48c5-a2f7-9f2f93255bf8</t>
+  </si>
+  <si>
+    <t>relationship--a8126b77-5c18-46ee-aca0-0131efd4a5b8</t>
+  </si>
+  <si>
+    <t>relationship--b4a81057-1f4c-43c5-82b4-e2af37e49eef</t>
+  </si>
+  <si>
+    <t>relationship--e2201ec7-0898-4bee-8605-c47cf94c6091</t>
+  </si>
+  <si>
+    <t>relationship--fff0c280-9530-409c-8fbb-18bb9c059cc8</t>
+  </si>
+  <si>
+    <t>relationship--b6a8b081-00b1-4986-8a2e-7d7cad6a5900</t>
+  </si>
+  <si>
+    <t>relationship--a619b60f-a17d-4f84-ab6a-2af3a13240cf</t>
+  </si>
+  <si>
+    <t>relationship--f065de2b-6629-4d70-a8b8-80d5bb3296a7</t>
+  </si>
+  <si>
+    <t>relationship--1ccc1e1f-9ddd-47cf-9a5f-983769c80dd7</t>
+  </si>
+  <si>
+    <t>relationship--f934561d-da75-4fec-9200-a424e8a63fd5</t>
+  </si>
+  <si>
+    <t>relationship--cfa30c11-894c-49cb-b3a3-43b6323da98c</t>
+  </si>
+  <si>
+    <t>relationship--be748c3c-b49a-499d-a3ad-afe4c4589212</t>
+  </si>
+  <si>
+    <t>relationship--42bc9da3-eb2c-4325-8ecf-a6f39ed6b49f</t>
+  </si>
+  <si>
+    <t>relationship--463e1597-591a-4adc-aa3a-42fe37fa7ad9</t>
+  </si>
+  <si>
+    <t>relationship--4c11a650-8268-4172-88df-bb8fae791c5a</t>
+  </si>
+  <si>
+    <t>relationship--4bc941ad-200e-4752-82e0-4424fffcc273</t>
+  </si>
+  <si>
+    <t>relationship--de010865-40a6-4835-a883-dcee1f0411fe</t>
+  </si>
+  <si>
+    <t>relationship--94f339f6-7e83-451e-9a21-53c5fd9b785a</t>
+  </si>
+  <si>
+    <t>relationship--6d0c9534-d58d-4274-9d13-7fa6a32551e1</t>
+  </si>
+  <si>
+    <t>relationship--4ff6ae53-e707-4deb-bd92-3d70dfb1dab6</t>
+  </si>
+  <si>
+    <t>relationship--2e9dbaa5-6399-44dd-b972-0919f557a1fe</t>
+  </si>
+  <si>
+    <t>relationship--aa84dfd0-718d-4b6f-beb5-225687a1ddaa</t>
+  </si>
+  <si>
+    <t>relationship--f40b4c61-8687-4264-9ea2-6f73a36512cb</t>
+  </si>
+  <si>
+    <t>relationship--72c3bd62-6129-432b-b235-af916fc35b62</t>
+  </si>
+  <si>
+    <t>relationship--ec23e9fa-8921-4e48-bc57-c0b1c753a780</t>
+  </si>
+  <si>
+    <t>relationship--b70747a8-5960-4b55-9815-b9b4f5295c9f</t>
+  </si>
+  <si>
+    <t>relationship--0a845e8f-d668-4723-aba2-1567158dbbb5</t>
+  </si>
+  <si>
+    <t>relationship--4f6058f7-cb09-4d8c-8763-870e842a8948</t>
+  </si>
+  <si>
+    <t>relationship--eb69f1ab-ad28-4e37-bb84-f48b50f38773</t>
+  </si>
+  <si>
+    <t>relationship--b3f01457-ec6d-4414-b37c-4b20aac0d555</t>
+  </si>
+  <si>
+    <t>relationship--a6ed084f-0b0b-4d5b-bac1-5eec4c3c5298</t>
+  </si>
+  <si>
+    <t>relationship--3fe02801-32ba-459c-8331-60dab5e3f904</t>
+  </si>
+  <si>
+    <t>relationship--6c8a80ed-5c60-4e5e-86f5-30621b26b5a5</t>
+  </si>
+  <si>
+    <t>relationship--25b35eb4-0985-4f87-9786-ae1c97a66851</t>
+  </si>
+  <si>
+    <t>relationship--587c8dbf-f060-43ee-880d-19285dedc00b</t>
+  </si>
+  <si>
+    <t>relationship--4a9bf13b-95cb-4d26-b7fd-d3c3a1a6bb09</t>
+  </si>
+  <si>
+    <t>relationship--b3a3715d-034b-4b82-a1a8-97c918f20000</t>
+  </si>
+  <si>
+    <t>relationship--be3774a5-f0a3-43f9-aafa-767f7bd9addd</t>
+  </si>
+  <si>
+    <t>relationship--e1c0da34-aed5-40d2-a80a-da7158409a03</t>
+  </si>
+  <si>
+    <t>relationship--2ae2be70-5d8a-453a-9a23-64475377cf85</t>
+  </si>
+  <si>
+    <t>relationship--13326fee-6b36-46a9-9632-ca3746b1e8b7</t>
+  </si>
+  <si>
+    <t>relationship--b2ca9245-c2bf-4ed7-95f1-f93a928d0d17</t>
+  </si>
+  <si>
+    <t>relationship--c94652fc-e432-4238-be3b-c2aa4c6ef498</t>
+  </si>
+  <si>
+    <t>relationship--b450d919-6ea8-4a31-8f68-780228e012e7</t>
+  </si>
+  <si>
+    <t>relationship--85fb44d8-0f64-431f-a236-1beb0aa3218f</t>
+  </si>
+  <si>
+    <t>relationship--6480983f-4f2f-4848-8194-09b630702c56</t>
+  </si>
+  <si>
+    <t>relationship--147abe7f-a959-4837-ab99-4f75b5af9d16</t>
+  </si>
+  <si>
+    <t>relationship--e10548b0-f1c3-420b-805c-2d86b8ec7530</t>
+  </si>
+  <si>
+    <t>relationship--e851883f-74b8-4af7-b9ed-d3b940e4d578</t>
+  </si>
+  <si>
+    <t>relationship--6e4e8143-66f8-4d2e-a5ab-11ad5dbbc0d0</t>
+  </si>
+  <si>
+    <t>relationship--df34a439-05c2-454b-81b5-50d799b18424</t>
+  </si>
+  <si>
+    <t>relationship--016eb7fc-bcd6-4318-a467-f08ec777fad1</t>
+  </si>
+  <si>
+    <t>relationship--e1fe198d-8995-4af0-a926-9ca303d1a952</t>
+  </si>
+  <si>
+    <t>relationship--569ef4b5-e12e-40bc-bf43-8353ce91bea9</t>
+  </si>
+  <si>
+    <t>relationship--b2908b4c-e0af-4286-ae24-eb3dca3978a6</t>
+  </si>
+  <si>
+    <t>relationship--fdec23a2-8b7d-4f84-83b2-81bca6392d61</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2603,19 +2580,19 @@
         <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L2" t="s">
         <v>138</v>
@@ -2644,19 +2621,19 @@
         <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L3" t="s">
         <v>138</v>
@@ -2685,19 +2662,19 @@
         <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L4" t="s">
         <v>138</v>
@@ -2726,19 +2703,19 @@
         <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L5" t="s">
         <v>138</v>
@@ -2767,19 +2744,19 @@
         <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L6" t="s">
         <v>138</v>
@@ -2808,19 +2785,19 @@
         <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" t="s">
         <v>292</v>
       </c>
-      <c r="J7" t="s">
-        <v>295</v>
-      </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L7" t="s">
         <v>138</v>
@@ -2849,19 +2826,19 @@
         <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L8" t="s">
         <v>138</v>
@@ -2872,13 +2849,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
@@ -2890,19 +2867,19 @@
         <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L9" t="s">
         <v>138</v>
@@ -2913,13 +2890,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
@@ -2931,19 +2908,19 @@
         <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J10" t="s">
         <v>295</v>
       </c>
       <c r="K10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L10" t="s">
         <v>138</v>
@@ -2954,13 +2931,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
@@ -2972,19 +2949,19 @@
         <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J11" t="s">
         <v>296</v>
       </c>
       <c r="K11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" t="s">
         <v>138</v>
@@ -2995,13 +2972,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
@@ -3013,19 +2990,19 @@
         <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L12" t="s">
         <v>138</v>
@@ -3036,13 +3013,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
@@ -3054,19 +3031,19 @@
         <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L13" t="s">
         <v>138</v>
@@ -3077,13 +3054,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
@@ -3095,19 +3072,19 @@
         <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L14" t="s">
         <v>138</v>
@@ -3118,13 +3095,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -3136,19 +3113,19 @@
         <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L15" t="s">
         <v>138</v>
@@ -3177,19 +3154,19 @@
         <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L16" t="s">
         <v>138</v>
@@ -3218,19 +3195,19 @@
         <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L17" t="s">
         <v>138</v>
@@ -3259,19 +3236,19 @@
         <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K18" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L18" t="s">
         <v>138</v>
@@ -3282,13 +3259,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>149</v>
@@ -3300,19 +3277,19 @@
         <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L19" t="s">
         <v>138</v>
@@ -3341,19 +3318,19 @@
         <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L20" t="s">
         <v>138</v>
@@ -3382,19 +3359,19 @@
         <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L21" t="s">
         <v>138</v>
@@ -3420,22 +3397,22 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L22" t="s">
         <v>138</v>
@@ -3461,22 +3438,22 @@
         <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>218</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
         <v>138</v>
@@ -3502,22 +3479,22 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K24" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L24" t="s">
         <v>138</v>
@@ -3543,22 +3520,22 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L25" t="s">
         <v>138</v>
@@ -3569,13 +3546,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>149</v>
@@ -3584,22 +3561,22 @@
         <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L26" t="s">
         <v>138</v>
@@ -3610,13 +3587,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -3625,22 +3602,22 @@
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L27" t="s">
         <v>138</v>
@@ -3651,13 +3628,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>149</v>
@@ -3669,19 +3646,19 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L28" t="s">
         <v>138</v>
@@ -3692,13 +3669,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>149</v>
@@ -3707,22 +3684,22 @@
         <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L29" t="s">
         <v>138</v>
@@ -3748,22 +3725,22 @@
         <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L30" t="s">
         <v>138</v>
@@ -3789,22 +3766,22 @@
         <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L31" t="s">
         <v>138</v>
@@ -3815,13 +3792,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>149</v>
@@ -3830,22 +3807,22 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L32" t="s">
         <v>138</v>
@@ -3871,22 +3848,22 @@
         <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L33" t="s">
         <v>138</v>
@@ -3912,22 +3889,22 @@
         <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L34" t="s">
         <v>138</v>
@@ -3956,19 +3933,19 @@
         <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L35" t="s">
         <v>138</v>
@@ -3994,22 +3971,22 @@
         <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L36" t="s">
         <v>138</v>
@@ -4035,22 +4012,22 @@
         <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L37" t="s">
         <v>138</v>
@@ -4061,13 +4038,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
@@ -4076,22 +4053,22 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L38" t="s">
         <v>138</v>
@@ -4102,13 +4079,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>149</v>
@@ -4117,22 +4094,22 @@
         <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
         <v>138</v>
@@ -4143,13 +4120,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>149</v>
@@ -4161,19 +4138,19 @@
         <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L40" t="s">
         <v>138</v>
@@ -4199,22 +4176,22 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
         <v>138</v>
@@ -4240,22 +4217,22 @@
         <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s">
         <v>138</v>
@@ -4281,22 +4258,22 @@
         <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H43" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L43" t="s">
         <v>138</v>
@@ -4307,13 +4284,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>149</v>
@@ -4325,19 +4302,19 @@
         <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I44" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J44" t="s">
         <v>319</v>
       </c>
       <c r="K44" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
         <v>138</v>
@@ -4348,13 +4325,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>149</v>
@@ -4363,22 +4340,22 @@
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="I45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J45" t="s">
         <v>319</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s">
         <v>138</v>
@@ -4404,22 +4381,22 @@
         <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
         <v>138</v>
@@ -4445,22 +4422,22 @@
         <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
         <v>138</v>
@@ -4486,22 +4463,22 @@
         <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H48" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I48" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
         <v>138</v>
@@ -4512,13 +4489,13 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>149</v>
@@ -4530,19 +4507,19 @@
         <v>181</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J49" t="s">
         <v>320</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s">
         <v>138</v>
@@ -4553,13 +4530,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
         <v>149</v>
@@ -4568,22 +4545,22 @@
         <v>150</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="I50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J50" t="s">
         <v>320</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s">
         <v>138</v>
@@ -4609,22 +4586,22 @@
         <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
         <v>138</v>
@@ -4650,22 +4627,22 @@
         <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
         <v>138</v>
@@ -4691,22 +4668,22 @@
         <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I53" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K53" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s">
         <v>138</v>
@@ -4732,22 +4709,22 @@
         <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H54" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s">
         <v>138</v>
@@ -4773,22 +4750,22 @@
         <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K55" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s">
         <v>138</v>
@@ -4814,22 +4791,22 @@
         <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J56" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s">
         <v>138</v>
@@ -4858,19 +4835,19 @@
         <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s">
         <v>138</v>
@@ -4899,19 +4876,19 @@
         <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J58" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K58" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s">
         <v>138</v>
@@ -4937,22 +4914,22 @@
         <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H59" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K59" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s">
         <v>138</v>
@@ -4963,13 +4940,13 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>149</v>
@@ -4978,22 +4955,22 @@
         <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L60" t="s">
         <v>138</v>
@@ -5019,22 +4996,22 @@
         <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K61" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s">
         <v>138</v>
@@ -5060,22 +5037,22 @@
         <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="I62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J62" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K62" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s">
         <v>138</v>
@@ -5101,22 +5078,22 @@
         <v>150</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="I63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K63" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
         <v>138</v>
@@ -5142,22 +5119,22 @@
         <v>150</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="I64" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L64" t="s">
         <v>138</v>
@@ -5183,22 +5160,22 @@
         <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G65" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I65" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K65" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L65" t="s">
         <v>138</v>
@@ -5224,22 +5201,22 @@
         <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="H66" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="I66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K66" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s">
         <v>138</v>
@@ -5265,22 +5242,22 @@
         <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K67" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s">
         <v>138</v>
@@ -5306,22 +5283,22 @@
         <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I68" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s">
         <v>138</v>
@@ -5347,22 +5324,22 @@
         <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J69" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s">
         <v>138</v>
@@ -5391,19 +5368,19 @@
         <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I70" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L70" t="s">
         <v>138</v>
@@ -5432,19 +5409,19 @@
         <v>192</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I71" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K71" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s">
         <v>138</v>
@@ -5470,22 +5447,22 @@
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I72" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J72" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K72" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L72" t="s">
         <v>138</v>
@@ -5511,22 +5488,22 @@
         <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I73" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J73" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K73" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L73" t="s">
         <v>138</v>
@@ -5552,22 +5529,22 @@
         <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J74" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K74" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L74" t="s">
         <v>138</v>
@@ -5596,19 +5573,19 @@
         <v>154</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J75" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K75" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s">
         <v>138</v>
@@ -5634,22 +5611,22 @@
         <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I76" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J76" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K76" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L76" t="s">
         <v>138</v>
@@ -5678,19 +5655,19 @@
         <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K77" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L77" t="s">
         <v>138</v>
@@ -5716,22 +5693,22 @@
         <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J78" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K78" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s">
         <v>138</v>
@@ -5760,19 +5737,19 @@
         <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I79" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J79" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K79" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s">
         <v>138</v>
@@ -5801,19 +5778,19 @@
         <v>192</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I80" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J80" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K80" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L80" t="s">
         <v>138</v>
@@ -5839,22 +5816,22 @@
         <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I81" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J81" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K81" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L81" t="s">
         <v>138</v>
@@ -5880,22 +5857,22 @@
         <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I82" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J82" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K82" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L82" t="s">
         <v>138</v>
@@ -5921,22 +5898,22 @@
         <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K83" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L83" t="s">
         <v>138</v>
@@ -5962,22 +5939,22 @@
         <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L84" t="s">
         <v>138</v>
@@ -6006,19 +5983,19 @@
         <v>194</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J85" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s">
         <v>138</v>
@@ -6044,22 +6021,22 @@
         <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J86" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K86" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L86" t="s">
         <v>138</v>
@@ -6085,22 +6062,22 @@
         <v>150</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H87" t="s">
         <v>269</v>
       </c>
       <c r="I87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J87" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K87" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L87" t="s">
         <v>138</v>
@@ -6129,19 +6106,19 @@
         <v>151</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K88" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L88" t="s">
         <v>138</v>
@@ -6167,22 +6144,22 @@
         <v>150</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="I89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J89" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K89" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L89" t="s">
         <v>138</v>
@@ -6208,22 +6185,22 @@
         <v>150</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G90" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="H90" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="I90" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J90" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K90" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L90" t="s">
         <v>138</v>
@@ -6249,22 +6226,22 @@
         <v>150</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H91" t="s">
         <v>262</v>
       </c>
       <c r="I91" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K91" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L91" t="s">
         <v>138</v>
@@ -6290,22 +6267,22 @@
         <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
         <v>263</v>
       </c>
       <c r="I92" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K92" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L92" t="s">
         <v>138</v>
@@ -6331,22 +6308,22 @@
         <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G93" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H93" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I93" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J93" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K93" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L93" t="s">
         <v>138</v>
@@ -6372,22 +6349,22 @@
         <v>150</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J94" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K94" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L94" t="s">
         <v>138</v>
@@ -6416,19 +6393,19 @@
         <v>195</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K95" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L95" t="s">
         <v>138</v>
@@ -6457,19 +6434,19 @@
         <v>154</v>
       </c>
       <c r="G96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I96" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J96" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K96" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L96" t="s">
         <v>138</v>
@@ -6498,19 +6475,19 @@
         <v>196</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I97" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J97" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K97" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L97" t="s">
         <v>138</v>
@@ -6536,22 +6513,22 @@
         <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G98" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J98" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K98" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L98" t="s">
         <v>138</v>
@@ -6577,22 +6554,22 @@
         <v>150</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G99" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H99" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J99" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K99" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L99" t="s">
         <v>138</v>
@@ -6618,22 +6595,22 @@
         <v>150</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H100" t="s">
         <v>269</v>
       </c>
       <c r="I100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J100" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K100" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L100" t="s">
         <v>138</v>
@@ -6659,22 +6636,22 @@
         <v>150</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H101" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I101" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J101" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K101" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L101" t="s">
         <v>138</v>
@@ -6703,19 +6680,19 @@
         <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J102" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K102" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L102" t="s">
         <v>138</v>
@@ -6744,19 +6721,19 @@
         <v>154</v>
       </c>
       <c r="G103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J103" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K103" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L103" t="s">
         <v>138</v>
@@ -6782,68 +6759,27 @@
         <v>150</v>
       </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="H104" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="I104" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J104" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K104" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L104" t="s">
         <v>138</v>
       </c>
       <c r="M104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="F105" t="s">
-        <v>154</v>
-      </c>
-      <c r="G105" t="s">
-        <v>201</v>
-      </c>
-      <c r="H105" t="s">
-        <v>248</v>
-      </c>
-      <c r="I105" t="s">
-        <v>292</v>
-      </c>
-      <c r="J105" t="s">
-        <v>361</v>
-      </c>
-      <c r="K105" t="s">
-        <v>465</v>
-      </c>
-      <c r="L105" t="s">
-        <v>138</v>
-      </c>
-      <c r="M105" t="s">
         <v>138</v>
       </c>
     </row>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -119,82 +119,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--d28fd806-c567-4cce-bcef-4981908f8dbc</t>
-  </si>
-  <si>
-    <t>course-of-action--0ecbe6e0-865e-439c-925b-da558632bda6</t>
-  </si>
-  <si>
-    <t>course-of-action--c887ee08-5448-41bb-a94a-e53bfedfa8b7</t>
-  </si>
-  <si>
-    <t>course-of-action--99b7b032-7353-436b-a200-f52fca92cb11</t>
-  </si>
-  <si>
-    <t>course-of-action--73e8d31a-5f48-4415-8f74-4f443a853050</t>
-  </si>
-  <si>
-    <t>course-of-action--35a8cc31-c63d-4fb9-90c0-1dbba7bc724a</t>
-  </si>
-  <si>
-    <t>course-of-action--8ec8b9e0-1934-4298-a1b3-f7c90bd9d864</t>
-  </si>
-  <si>
-    <t>course-of-action--633d5427-a2a6-4453-8675-7378e1b870e2</t>
-  </si>
-  <si>
-    <t>course-of-action--ed266799-ad60-4515-a112-fb668d12cc07</t>
-  </si>
-  <si>
-    <t>course-of-action--e0135277-437f-4b2f-a2bd-66eee71c15e5</t>
-  </si>
-  <si>
-    <t>course-of-action--b45ca9a8-2fe5-467b-b431-b9214c4f3e9b</t>
-  </si>
-  <si>
-    <t>course-of-action--2310ea30-59c9-425c-8ca7-826d267555df</t>
-  </si>
-  <si>
-    <t>course-of-action--d9f92e31-bd25-4e24-8e09-a6dadcfd8020</t>
-  </si>
-  <si>
-    <t>course-of-action--c2885145-a7d5-4100-983d-4d6de9f26425</t>
-  </si>
-  <si>
-    <t>course-of-action--56c77b01-667d-4f45-83f6-8c25e23b7e4c</t>
-  </si>
-  <si>
-    <t>course-of-action--d7a6bd67-982c-4fc0-91ec-8bf86b156055</t>
-  </si>
-  <si>
-    <t>course-of-action--4981d26b-37c3-42be-83ff-298b1fb7710f</t>
-  </si>
-  <si>
-    <t>course-of-action--564257e2-a859-4a6b-b01a-0a997fe06590</t>
-  </si>
-  <si>
-    <t>course-of-action--6b033c58-3eb4-4afb-97d1-f4ea00ae2849</t>
-  </si>
-  <si>
-    <t>course-of-action--de16f78e-92bc-427d-92da-6f71bf0a4418</t>
-  </si>
-  <si>
-    <t>course-of-action--cf12cfaa-408e-4bd0-85fb-9e068dc8699a</t>
-  </si>
-  <si>
-    <t>course-of-action--7de8e8c2-de8d-4000-b87f-385d36e1bf81</t>
-  </si>
-  <si>
-    <t>course-of-action--4237c0ff-cea4-42bd-8419-9f05ea23798b</t>
-  </si>
-  <si>
-    <t>course-of-action--50791788-7055-4498-9b8e-24737141921f</t>
-  </si>
-  <si>
-    <t>course-of-action--7ae9540a-f380-495a-8a5a-5413378defd5</t>
-  </si>
-  <si>
-    <t>course-of-action--ff8b3c2e-aeab-4d66-a7bf-86058bb77ed3</t>
+    <t>course-of-action--51df827f-516e-4c39-b145-76b81299ec52</t>
+  </si>
+  <si>
+    <t>course-of-action--b5ef966a-63d6-42dd-ad9f-815517a04e8f</t>
+  </si>
+  <si>
+    <t>course-of-action--65d103b8-03fa-486e-a763-ee0166095508</t>
+  </si>
+  <si>
+    <t>course-of-action--c2fed5ee-3e46-4465-a124-bce368826b7e</t>
+  </si>
+  <si>
+    <t>course-of-action--716c79ec-309d-46f6-a8ec-0d8361e34e58</t>
+  </si>
+  <si>
+    <t>course-of-action--784c2fb0-5a3d-43b3-b881-d56fb24ad51c</t>
+  </si>
+  <si>
+    <t>course-of-action--cf7a9fd6-f23d-4f9b-9a98-1c047aada908</t>
+  </si>
+  <si>
+    <t>course-of-action--08498ebf-daea-4c8f-be90-f976b408fc88</t>
+  </si>
+  <si>
+    <t>course-of-action--fbb1e321-c0b8-402a-a911-ea456ce99b34</t>
+  </si>
+  <si>
+    <t>course-of-action--bdc27f02-8925-46b5-b602-a3fd288c8e68</t>
+  </si>
+  <si>
+    <t>course-of-action--b304e8ce-46d3-4d1b-b849-9e9252cd7ad4</t>
+  </si>
+  <si>
+    <t>course-of-action--e8c1e0e9-833a-4d82-ab1d-c85571d6700e</t>
+  </si>
+  <si>
+    <t>course-of-action--41790108-f5a6-4a4c-960e-6aad7c6400ad</t>
+  </si>
+  <si>
+    <t>course-of-action--77b0693c-f61f-434e-9a9d-95c7b0ecea6f</t>
+  </si>
+  <si>
+    <t>course-of-action--f4ff76ff-2534-40a2-b787-b6b1b29a0273</t>
+  </si>
+  <si>
+    <t>course-of-action--b401966e-0f8d-47fa-a9c8-b3e203bb9b3c</t>
+  </si>
+  <si>
+    <t>course-of-action--c72d54b4-ece7-4043-b515-391145836b68</t>
+  </si>
+  <si>
+    <t>course-of-action--ab49fe8d-a63c-49ef-b8eb-e670a3d1e98e</t>
+  </si>
+  <si>
+    <t>course-of-action--664c2d35-9090-4322-b8d6-e056e8325573</t>
+  </si>
+  <si>
+    <t>course-of-action--05f1c700-7468-4398-82a4-30e2a9913c3f</t>
+  </si>
+  <si>
+    <t>course-of-action--b6235cea-ce60-41da-827f-fcb75aa006b0</t>
+  </si>
+  <si>
+    <t>course-of-action--60684533-200a-44a8-926b-69f304b25bc4</t>
+  </si>
+  <si>
+    <t>course-of-action--6e25b8c1-c7f9-44de-977b-c37568d83e02</t>
+  </si>
+  <si>
+    <t>course-of-action--2a7461ae-c975-46a4-bfe1-42bc8719510a</t>
+  </si>
+  <si>
+    <t>course-of-action--0b60e7b4-e979-41ca-b10d-7e732b58f472</t>
+  </si>
+  <si>
+    <t>course-of-action--47dd59e6-a681-4899-b308-a1e20ea60d81</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -364,7 +364,7 @@
     <t>Educate AI model developers on secure coding practices and AI vulnerabilities.</t>
   </si>
   <si>
-    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial bias.
+    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial influence.
 Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>22 April 2025</t>
+    <t>29 September 2025</t>
   </si>
   <si>
     <t>source ID</t>
@@ -582,6 +582,9 @@
     <t>AML.T0007</t>
   </si>
   <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
     <t>AML.T0010</t>
   </si>
   <si>
@@ -594,9 +597,6 @@
     <t>AML.T0054</t>
   </si>
   <si>
-    <t>AML.T0053</t>
-  </si>
-  <si>
     <t>AML.T0002.000</t>
   </si>
   <si>
@@ -720,6 +720,9 @@
     <t>Discover AI Artifacts</t>
   </si>
   <si>
+    <t>AI Agent Tool Invocation</t>
+  </si>
+  <si>
     <t>AI Supply Chain Compromise</t>
   </si>
   <si>
@@ -732,9 +735,6 @@
     <t>LLM Jailbreak</t>
   </si>
   <si>
-    <t>LLM Plugin Compromise</t>
-  </si>
-  <si>
     <t>Datasets</t>
   </si>
   <si>
@@ -771,142 +771,142 @@
     <t>User Execution</t>
   </si>
   <si>
-    <t>attack-pattern--3b88e298-97d5-451d-bbf5-1b13f5a2ade2</t>
-  </si>
-  <si>
-    <t>attack-pattern--2de4e5ad-3cd3-4e53-beb8-1809a5aad790</t>
-  </si>
-  <si>
-    <t>attack-pattern--e8053731-4b16-4dbc-89e7-90accdffc0fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9bc20bd-9f88-4794-8ff3-cfd86a2bc2ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--84295c1b-dfa5-44a8-bb1f-47dcd0915635</t>
-  </si>
-  <si>
-    <t>attack-pattern--2dff830e-5644-41e7-93ff-fd0552da77fe</t>
-  </si>
-  <si>
-    <t>attack-pattern--e7df1199-39d9-4d35-bee7-5f7f8ef8f9cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--fd10d38b-4428-4701-aa6b-39bcf961ac6d</t>
-  </si>
-  <si>
-    <t>attack-pattern--eea9d0bf-847c-4120-bcfd-dc178b4c6649</t>
-  </si>
-  <si>
-    <t>attack-pattern--2096e516-cb52-4131-a73d-0ef139258e4c</t>
-  </si>
-  <si>
-    <t>attack-pattern--c606cfab-fa3d-4608-b01e-5f20ba14be1b</t>
-  </si>
-  <si>
-    <t>attack-pattern--1a1d7e16-bb89-46dd-aa36-e65c9047bf28</t>
-  </si>
-  <si>
-    <t>attack-pattern--83120ec7-b57c-49c5-a595-95a6982dfce0</t>
-  </si>
-  <si>
-    <t>attack-pattern--5aa7eba8-9cd1-4d20-b6e6-81b1ec780c9c</t>
-  </si>
-  <si>
-    <t>attack-pattern--bf0aa41d-6932-48a8-a357-346ce7f15eef</t>
-  </si>
-  <si>
-    <t>attack-pattern--a920c087-f6ce-4d6f-b7b8-6b4bafc1c351</t>
-  </si>
-  <si>
-    <t>attack-pattern--ec881f8c-1b0f-466d-abef-5e56521fcd93</t>
-  </si>
-  <si>
-    <t>attack-pattern--056578e2-7e26-496a-9dcd-0c1d05084da7</t>
-  </si>
-  <si>
-    <t>attack-pattern--1038acd6-a2d0-4fb5-93e8-e1702964182d</t>
-  </si>
-  <si>
-    <t>attack-pattern--0691cb6f-ab52-4219-bb75-88c7ef77f02e</t>
-  </si>
-  <si>
-    <t>attack-pattern--6e6da90a-2d48-40cf-b27d-614360d96a1e</t>
-  </si>
-  <si>
-    <t>attack-pattern--cdf60b67-5511-42ba-b459-3aed5c3343f2</t>
-  </si>
-  <si>
-    <t>attack-pattern--4bd0628d-3cdd-4411-9192-2af6c0f02287</t>
-  </si>
-  <si>
-    <t>attack-pattern--ed8d9393-d6b3-4df8-8a27-c9d97f64cbf5</t>
-  </si>
-  <si>
-    <t>attack-pattern--e5f71e81-5f3e-4a82-8e99-d911d3e912f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--291f82aa-907f-4ff9-a984-f04c1ab369bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--985c6a6f-cad4-4c6a-bf32-0c3c58d57519</t>
-  </si>
-  <si>
-    <t>attack-pattern--c7d79f0f-1c80-41d5-b6ef-3c1c53c34a06</t>
-  </si>
-  <si>
-    <t>attack-pattern--726a5898-ac81-4c62-b828-9f105556a907</t>
-  </si>
-  <si>
-    <t>attack-pattern--911b49e8-556c-4ca9-9dad-39040ec216db</t>
-  </si>
-  <si>
-    <t>attack-pattern--2243a101-6295-4b82-8075-0c287d602a0e</t>
-  </si>
-  <si>
-    <t>attack-pattern--d6c070bc-ed05-4f84-8ebc-48b2df8d1fac</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef74d856-323e-47d9-ad54-1f2a9a91fcf6</t>
-  </si>
-  <si>
-    <t>attack-pattern--dea40e9d-00d1-48fd-b26e-1d307490596c</t>
-  </si>
-  <si>
-    <t>attack-pattern--c05491e8-0c47-490d-8df3-26f7d4fdc629</t>
-  </si>
-  <si>
-    <t>attack-pattern--d9135863-13f5-4d54-9434-c24c29b75b15</t>
-  </si>
-  <si>
-    <t>attack-pattern--4eb73819-e06c-46b1-8fe0-692be6af794d</t>
-  </si>
-  <si>
-    <t>attack-pattern--382d0462-947d-4d13-94a9-8dccc130fbc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--cf106628-da5b-47b7-950f-9658391857af</t>
-  </si>
-  <si>
-    <t>attack-pattern--2fd7ca0a-8ca1-44fa-852f-f68db00b756d</t>
-  </si>
-  <si>
-    <t>attack-pattern--9923b6b4-84f1-4ab4-8ccf-4d597db61a57</t>
-  </si>
-  <si>
-    <t>attack-pattern--adf16819-dc11-46a7-b23a-0ea57ccc093c</t>
-  </si>
-  <si>
-    <t>attack-pattern--70660fc0-a4ba-4500-ac74-557fed97b06b</t>
-  </si>
-  <si>
-    <t>attack-pattern--92eb716e-f0e3-47de-8693-107bbd9d6554</t>
-  </si>
-  <si>
-    <t>attack-pattern--68ec4fb6-15df-4841-abdd-8e0cd8534520</t>
-  </si>
-  <si>
-    <t>attack-pattern--67487920-42fd-43d6-86d9-52e683e64c19</t>
+    <t>attack-pattern--c231b0b5-73e4-40b2-bf23-5a99f7a8433b</t>
+  </si>
+  <si>
+    <t>attack-pattern--c03c1cc3-0e57-4dcb-94d4-833fe159975a</t>
+  </si>
+  <si>
+    <t>attack-pattern--fbd4dc77-b6a7-409a-bd43-39c62be957e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6e9b7bc-f37b-4dea-a135-7bae180a616d</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a8bd016-e00c-490e-8c3f-c8622bf58457</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ca400f1-e1f1-4aca-af63-d8899a40fbbc</t>
+  </si>
+  <si>
+    <t>attack-pattern--5e3ede18-fa15-41f6-b900-c70befd558f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--bf14e573-22d9-4468-9356-79f9191487fc</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac579bcf-77d6-4ea4-8349-93eb05a5f405</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd0d8a61-4897-497d-ba4b-2ef008b4ae9b</t>
+  </si>
+  <si>
+    <t>attack-pattern--eceb6948-b30c-4c5d-b9f9-8219bfd61120</t>
+  </si>
+  <si>
+    <t>attack-pattern--d5d86a7f-0cc9-4963-b8b2-8f4fbf8dda91</t>
+  </si>
+  <si>
+    <t>attack-pattern--b9ff7676-0331-495a-a241-3d196fa04c76</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd8c946a-e156-4721-b7b3-57193260a22d</t>
+  </si>
+  <si>
+    <t>attack-pattern--72bcf68e-5ea9-4f40-a690-b8b952b623b8</t>
+  </si>
+  <si>
+    <t>attack-pattern--01786a2e-ae41-4076-8ce9-5e7b11ef8d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d87dff5-d7ed-46d2-be6e-1a917d1a7f9b</t>
+  </si>
+  <si>
+    <t>attack-pattern--c1ecb552-faa2-40d8-8b39-8fc7d21c4777</t>
+  </si>
+  <si>
+    <t>attack-pattern--6c776227-c20d-4038-8226-7dd9f474eeb3</t>
+  </si>
+  <si>
+    <t>attack-pattern--90842bc1-4bae-4e91-ba40-08b1450ab4ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--8df3e434-a1b6-4e92-aca0-2d8b728073f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--63d80df5-c87c-424d-98bb-43792372b830</t>
+  </si>
+  <si>
+    <t>attack-pattern--c07b4911-2be0-427c-9334-c76f3947bd7d</t>
+  </si>
+  <si>
+    <t>attack-pattern--992f2f8d-278f-4a6c-863c-b11c70810773</t>
+  </si>
+  <si>
+    <t>attack-pattern--64f0bd2a-284b-4f60-a23f-a0647511c675</t>
+  </si>
+  <si>
+    <t>attack-pattern--206e1b6d-0089-41bf-90f7-a688c98d2e76</t>
+  </si>
+  <si>
+    <t>attack-pattern--523aacd9-47b3-47b2-adb3-287d2a16e5af</t>
+  </si>
+  <si>
+    <t>attack-pattern--0303efbf-15e3-4236-b772-141d8a8a957d</t>
+  </si>
+  <si>
+    <t>attack-pattern--c6ac2f3b-cb35-4527-a4e5-af2c973f8d83</t>
+  </si>
+  <si>
+    <t>attack-pattern--13ee69c8-da80-4724-a9d1-ecca9fdf9329</t>
+  </si>
+  <si>
+    <t>attack-pattern--b64aca28-b194-4e49-8879-942f679f64df</t>
+  </si>
+  <si>
+    <t>attack-pattern--c557225b-d26b-4692-a62d-3f0d44adacd1</t>
+  </si>
+  <si>
+    <t>attack-pattern--3c696a14-01cc-433a-b5f7-9c4129a924ed</t>
+  </si>
+  <si>
+    <t>attack-pattern--8fadf730-0543-4674-abd4-730185107b9e</t>
+  </si>
+  <si>
+    <t>attack-pattern--c1b202de-c21f-4fa9-87c0-17371126caa3</t>
+  </si>
+  <si>
+    <t>attack-pattern--2d409d2f-6179-4c2e-a3ba-423c456782a8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9da7e4e5-08e4-483f-a180-091e6a8bc388</t>
+  </si>
+  <si>
+    <t>attack-pattern--012c03a7-02a4-450b-9bcc-085eed2c3133</t>
+  </si>
+  <si>
+    <t>attack-pattern--edd8712e-a284-402e-893f-de3a3438aa17</t>
+  </si>
+  <si>
+    <t>attack-pattern--714544ac-a214-4a1d-8423-c55790cf884b</t>
+  </si>
+  <si>
+    <t>attack-pattern--4c1d603c-e34a-4a55-ac3a-7938391ed50f</t>
+  </si>
+  <si>
+    <t>attack-pattern--14d0547e-5c60-4efb-be3e-2bc3ffc9a5f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--60014399-fdb3-4b68-85a1-6e5ae0248286</t>
+  </si>
+  <si>
+    <t>attack-pattern--f5f8140a-a8c2-4560-a98d-540a876c0c59</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea80c588-0f92-452b-bd1e-714248185c42</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4891783-2642-4210-b3e6-bd742979631f</t>
   </si>
   <si>
     <t>technique</t>
@@ -998,6 +998,9 @@
 </t>
   </si>
   <si>
+    <t>Guardrails can prevent harmful inputs that can lead to plugin compromise, and they can detect PII in model outputs.</t>
+  </si>
+  <si>
     <t>Guardrails can detect harmful code in model outputs.</t>
   </si>
   <si>
@@ -1008,9 +1011,6 @@
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to a jailbreak.</t>
-  </si>
-  <si>
-    <t>Guardrails can prevent harmful inputs that can lead to plugin compromise, and they can detect PII in model outputs.</t>
   </si>
   <si>
     <t>Guardrails can prevent harmful inputs that can lead to prompt injection.</t>
@@ -1147,12 +1147,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ensure that acquired models do not respond to potential backdoor triggers or adversarial bias.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that trained models do not respond to potential backdoor triggers or adversarial bias.
-</t>
+    <t>Ensure that acquired models do not respond to potential backdoor triggers or adversarial influence.</t>
+  </si>
+  <si>
+    <t>Ensure that trained models do not respond to potential backdoor triggers or adversarial influence.</t>
   </si>
   <si>
     <t xml:space="preserve">Introduce proper checking of signatures to ensure that unsafe ML artifacts will not be introduced to the system.
@@ -1171,313 +1169,313 @@
 </t>
   </si>
   <si>
-    <t>relationship--4c794d66-d125-4b7b-b196-6ee071f82930</t>
-  </si>
-  <si>
-    <t>relationship--7188bdc2-b384-4443-932d-db79b1fef103</t>
-  </si>
-  <si>
-    <t>relationship--80d6115c-703a-497b-8441-cc2864da89d9</t>
-  </si>
-  <si>
-    <t>relationship--89830187-e5aa-445b-808e-0be4d3d60ee5</t>
-  </si>
-  <si>
-    <t>relationship--1ac84ff0-2833-4739-a8af-8305354e1f36</t>
-  </si>
-  <si>
-    <t>relationship--fe7a172c-8d66-48aa-b4c9-dee49cce406a</t>
-  </si>
-  <si>
-    <t>relationship--4584ce30-d9f1-4852-bc32-13b589353ec8</t>
-  </si>
-  <si>
-    <t>relationship--7c0a60f1-cd43-425e-95ad-9596459f98fb</t>
-  </si>
-  <si>
-    <t>relationship--74255de0-85f3-4c77-a15b-a4bec71fbaf6</t>
-  </si>
-  <si>
-    <t>relationship--713190b0-ec5c-453d-b2e9-a3665a0d4c53</t>
-  </si>
-  <si>
-    <t>relationship--188cc12b-f1d7-46d2-97ee-1f804e12378d</t>
-  </si>
-  <si>
-    <t>relationship--f11f3e8d-bcff-432a-9a3a-0f62a6d0725a</t>
-  </si>
-  <si>
-    <t>relationship--5dc3436e-6dae-41c1-92fb-20fd788a5b01</t>
-  </si>
-  <si>
-    <t>relationship--ec6ae09c-2491-45dc-8f44-eabd3ebbd0af</t>
-  </si>
-  <si>
-    <t>relationship--5eb9e65d-d204-44fd-85d9-6140a4e02f9c</t>
-  </si>
-  <si>
-    <t>relationship--7a5bc8bc-0349-4c47-8aaa-3cb90c06e1c9</t>
-  </si>
-  <si>
-    <t>relationship--53a99ce4-d84c-4dd7-9483-decee259070e</t>
-  </si>
-  <si>
-    <t>relationship--76efbecc-6b0e-420e-a951-2aab19a0ceb5</t>
-  </si>
-  <si>
-    <t>relationship--26f9b833-d2c9-4e48-887a-af255e5a897f</t>
-  </si>
-  <si>
-    <t>relationship--1ff1fb02-0273-428c-bd12-807b2c10c35a</t>
-  </si>
-  <si>
-    <t>relationship--d6850c87-bb30-4fe5-b77c-635694770bf9</t>
-  </si>
-  <si>
-    <t>relationship--33c16c12-7132-486c-9107-20c63f7af102</t>
-  </si>
-  <si>
-    <t>relationship--77f5c7ed-4c19-468b-b555-d34b0e801a4b</t>
-  </si>
-  <si>
-    <t>relationship--c652c8a0-4dce-4eee-a718-72c7a8454771</t>
-  </si>
-  <si>
-    <t>relationship--9d44604f-f5e4-4383-922c-e26b8c2d9e92</t>
-  </si>
-  <si>
-    <t>relationship--c1c26ff9-49ee-45d7-8b3e-4c97300642fc</t>
-  </si>
-  <si>
-    <t>relationship--71a5c0f7-36a0-4b12-8527-fab036370629</t>
-  </si>
-  <si>
-    <t>relationship--f87046dc-572c-43a7-bbad-28fafdbe153c</t>
-  </si>
-  <si>
-    <t>relationship--e64ef8ad-1cb5-448f-a91e-1fdea4e4a764</t>
-  </si>
-  <si>
-    <t>relationship--6539cfe2-f4ab-41f8-ba52-2c5c80470356</t>
-  </si>
-  <si>
-    <t>relationship--0036a126-713b-473f-b6f2-1b89d3739aa0</t>
-  </si>
-  <si>
-    <t>relationship--35c7d20b-5eab-4857-a101-09cd00cd2ffa</t>
-  </si>
-  <si>
-    <t>relationship--720defa1-2c91-4122-b268-6b1ba62519ce</t>
-  </si>
-  <si>
-    <t>relationship--9b0b0626-8627-4e62-ba5e-445a606942bb</t>
-  </si>
-  <si>
-    <t>relationship--75fe0792-7efc-4f87-80c5-6cdf20a7c406</t>
-  </si>
-  <si>
-    <t>relationship--7b209f5a-5a57-4d88-af55-233fc8c7fe98</t>
-  </si>
-  <si>
-    <t>relationship--9bc35627-d57e-42fb-abb1-c29e1f3000d2</t>
-  </si>
-  <si>
-    <t>relationship--1a99eba0-29c7-4822-a93d-dac9ea9b1d6c</t>
-  </si>
-  <si>
-    <t>relationship--4056f5db-def5-45c5-8946-ce1d10a29b88</t>
-  </si>
-  <si>
-    <t>relationship--9ad9bd35-ecfe-4408-b4bd-289459b01b01</t>
-  </si>
-  <si>
-    <t>relationship--0ef5020e-b56a-4636-9685-2b07cc2273e3</t>
-  </si>
-  <si>
-    <t>relationship--fb0abaca-6d6d-438e-adc0-ecae6f3b43af</t>
-  </si>
-  <si>
-    <t>relationship--3f42a75a-c3b8-41c9-95fc-098642ebd33f</t>
-  </si>
-  <si>
-    <t>relationship--677336e8-c698-4f55-9d65-b9f92dd4b9f7</t>
-  </si>
-  <si>
-    <t>relationship--354f3d62-a299-4c87-933b-50a99564fda3</t>
-  </si>
-  <si>
-    <t>relationship--ba9b54bf-3ca6-41e7-a338-7626bb1b620c</t>
-  </si>
-  <si>
-    <t>relationship--5e2073b9-6b67-4b80-8027-82854a44a775</t>
-  </si>
-  <si>
-    <t>relationship--f971a8c4-0fe1-48c5-a2f7-9f2f93255bf8</t>
-  </si>
-  <si>
-    <t>relationship--a8126b77-5c18-46ee-aca0-0131efd4a5b8</t>
-  </si>
-  <si>
-    <t>relationship--b4a81057-1f4c-43c5-82b4-e2af37e49eef</t>
-  </si>
-  <si>
-    <t>relationship--e2201ec7-0898-4bee-8605-c47cf94c6091</t>
-  </si>
-  <si>
-    <t>relationship--fff0c280-9530-409c-8fbb-18bb9c059cc8</t>
-  </si>
-  <si>
-    <t>relationship--b6a8b081-00b1-4986-8a2e-7d7cad6a5900</t>
-  </si>
-  <si>
-    <t>relationship--a619b60f-a17d-4f84-ab6a-2af3a13240cf</t>
-  </si>
-  <si>
-    <t>relationship--f065de2b-6629-4d70-a8b8-80d5bb3296a7</t>
-  </si>
-  <si>
-    <t>relationship--1ccc1e1f-9ddd-47cf-9a5f-983769c80dd7</t>
-  </si>
-  <si>
-    <t>relationship--f934561d-da75-4fec-9200-a424e8a63fd5</t>
-  </si>
-  <si>
-    <t>relationship--cfa30c11-894c-49cb-b3a3-43b6323da98c</t>
-  </si>
-  <si>
-    <t>relationship--be748c3c-b49a-499d-a3ad-afe4c4589212</t>
-  </si>
-  <si>
-    <t>relationship--42bc9da3-eb2c-4325-8ecf-a6f39ed6b49f</t>
-  </si>
-  <si>
-    <t>relationship--463e1597-591a-4adc-aa3a-42fe37fa7ad9</t>
-  </si>
-  <si>
-    <t>relationship--4c11a650-8268-4172-88df-bb8fae791c5a</t>
-  </si>
-  <si>
-    <t>relationship--4bc941ad-200e-4752-82e0-4424fffcc273</t>
-  </si>
-  <si>
-    <t>relationship--de010865-40a6-4835-a883-dcee1f0411fe</t>
-  </si>
-  <si>
-    <t>relationship--94f339f6-7e83-451e-9a21-53c5fd9b785a</t>
-  </si>
-  <si>
-    <t>relationship--6d0c9534-d58d-4274-9d13-7fa6a32551e1</t>
-  </si>
-  <si>
-    <t>relationship--4ff6ae53-e707-4deb-bd92-3d70dfb1dab6</t>
-  </si>
-  <si>
-    <t>relationship--2e9dbaa5-6399-44dd-b972-0919f557a1fe</t>
-  </si>
-  <si>
-    <t>relationship--aa84dfd0-718d-4b6f-beb5-225687a1ddaa</t>
-  </si>
-  <si>
-    <t>relationship--f40b4c61-8687-4264-9ea2-6f73a36512cb</t>
-  </si>
-  <si>
-    <t>relationship--72c3bd62-6129-432b-b235-af916fc35b62</t>
-  </si>
-  <si>
-    <t>relationship--ec23e9fa-8921-4e48-bc57-c0b1c753a780</t>
-  </si>
-  <si>
-    <t>relationship--b70747a8-5960-4b55-9815-b9b4f5295c9f</t>
-  </si>
-  <si>
-    <t>relationship--0a845e8f-d668-4723-aba2-1567158dbbb5</t>
-  </si>
-  <si>
-    <t>relationship--4f6058f7-cb09-4d8c-8763-870e842a8948</t>
-  </si>
-  <si>
-    <t>relationship--eb69f1ab-ad28-4e37-bb84-f48b50f38773</t>
-  </si>
-  <si>
-    <t>relationship--b3f01457-ec6d-4414-b37c-4b20aac0d555</t>
-  </si>
-  <si>
-    <t>relationship--a6ed084f-0b0b-4d5b-bac1-5eec4c3c5298</t>
-  </si>
-  <si>
-    <t>relationship--3fe02801-32ba-459c-8331-60dab5e3f904</t>
-  </si>
-  <si>
-    <t>relationship--6c8a80ed-5c60-4e5e-86f5-30621b26b5a5</t>
-  </si>
-  <si>
-    <t>relationship--25b35eb4-0985-4f87-9786-ae1c97a66851</t>
-  </si>
-  <si>
-    <t>relationship--587c8dbf-f060-43ee-880d-19285dedc00b</t>
-  </si>
-  <si>
-    <t>relationship--4a9bf13b-95cb-4d26-b7fd-d3c3a1a6bb09</t>
-  </si>
-  <si>
-    <t>relationship--b3a3715d-034b-4b82-a1a8-97c918f20000</t>
-  </si>
-  <si>
-    <t>relationship--be3774a5-f0a3-43f9-aafa-767f7bd9addd</t>
-  </si>
-  <si>
-    <t>relationship--e1c0da34-aed5-40d2-a80a-da7158409a03</t>
-  </si>
-  <si>
-    <t>relationship--2ae2be70-5d8a-453a-9a23-64475377cf85</t>
-  </si>
-  <si>
-    <t>relationship--13326fee-6b36-46a9-9632-ca3746b1e8b7</t>
-  </si>
-  <si>
-    <t>relationship--b2ca9245-c2bf-4ed7-95f1-f93a928d0d17</t>
-  </si>
-  <si>
-    <t>relationship--c94652fc-e432-4238-be3b-c2aa4c6ef498</t>
-  </si>
-  <si>
-    <t>relationship--b450d919-6ea8-4a31-8f68-780228e012e7</t>
-  </si>
-  <si>
-    <t>relationship--85fb44d8-0f64-431f-a236-1beb0aa3218f</t>
-  </si>
-  <si>
-    <t>relationship--6480983f-4f2f-4848-8194-09b630702c56</t>
-  </si>
-  <si>
-    <t>relationship--147abe7f-a959-4837-ab99-4f75b5af9d16</t>
-  </si>
-  <si>
-    <t>relationship--e10548b0-f1c3-420b-805c-2d86b8ec7530</t>
-  </si>
-  <si>
-    <t>relationship--e851883f-74b8-4af7-b9ed-d3b940e4d578</t>
-  </si>
-  <si>
-    <t>relationship--6e4e8143-66f8-4d2e-a5ab-11ad5dbbc0d0</t>
-  </si>
-  <si>
-    <t>relationship--df34a439-05c2-454b-81b5-50d799b18424</t>
-  </si>
-  <si>
-    <t>relationship--016eb7fc-bcd6-4318-a467-f08ec777fad1</t>
-  </si>
-  <si>
-    <t>relationship--e1fe198d-8995-4af0-a926-9ca303d1a952</t>
-  </si>
-  <si>
-    <t>relationship--569ef4b5-e12e-40bc-bf43-8353ce91bea9</t>
-  </si>
-  <si>
-    <t>relationship--b2908b4c-e0af-4286-ae24-eb3dca3978a6</t>
-  </si>
-  <si>
-    <t>relationship--fdec23a2-8b7d-4f84-83b2-81bca6392d61</t>
+    <t>relationship--8e3ab0d1-d8fd-4720-b5d3-4d6b7a4b6227</t>
+  </si>
+  <si>
+    <t>relationship--21dd09cc-f629-4060-b1bf-ea75120d0b7f</t>
+  </si>
+  <si>
+    <t>relationship--9198cebb-ba70-4488-bc7d-8529b388d30e</t>
+  </si>
+  <si>
+    <t>relationship--e4cee37b-ea42-4fe3-9295-2e38b73c8985</t>
+  </si>
+  <si>
+    <t>relationship--c01af0b6-844d-4fbb-8371-e7f481b1f50f</t>
+  </si>
+  <si>
+    <t>relationship--17101d77-9604-4e09-b01a-1287e8f7e870</t>
+  </si>
+  <si>
+    <t>relationship--ef8a7dd5-ef49-4897-abce-fe5538ed10f9</t>
+  </si>
+  <si>
+    <t>relationship--a88155c1-a169-4587-b3ea-88191d10d277</t>
+  </si>
+  <si>
+    <t>relationship--5ada900c-f39c-4179-b440-17a9a77cbc77</t>
+  </si>
+  <si>
+    <t>relationship--bd61a32e-db6d-43b7-9fa0-7f4280fac836</t>
+  </si>
+  <si>
+    <t>relationship--aa172124-9d75-4cde-a90f-347e9d980012</t>
+  </si>
+  <si>
+    <t>relationship--2834f436-5a2f-4965-ad16-8673deba5eab</t>
+  </si>
+  <si>
+    <t>relationship--bc62f277-37d4-4aed-aa0c-606378f7e07f</t>
+  </si>
+  <si>
+    <t>relationship--155b862a-1d9d-4329-9c98-88f26bc337d4</t>
+  </si>
+  <si>
+    <t>relationship--80fca526-01a3-4262-b731-1614e9e07bb0</t>
+  </si>
+  <si>
+    <t>relationship--423928a4-55f6-43bf-be6d-108e0714bb03</t>
+  </si>
+  <si>
+    <t>relationship--ce759541-24e5-4e4c-9e80-ba16e9d4ad00</t>
+  </si>
+  <si>
+    <t>relationship--445dcde0-77ae-46e2-98c9-b5d6412274ab</t>
+  </si>
+  <si>
+    <t>relationship--06e35834-2254-4284-925b-004df37ca3d6</t>
+  </si>
+  <si>
+    <t>relationship--67798b5f-7e58-40dd-b9dc-8990db5c5fdf</t>
+  </si>
+  <si>
+    <t>relationship--6ec0602b-8ca8-4d73-a149-11eea340c489</t>
+  </si>
+  <si>
+    <t>relationship--62ef1ccb-4dba-4470-9681-95d447f11a72</t>
+  </si>
+  <si>
+    <t>relationship--16bcc4b8-0c11-4643-9c80-91ca692e4dd4</t>
+  </si>
+  <si>
+    <t>relationship--b880254b-561d-48ca-a86b-915f01338127</t>
+  </si>
+  <si>
+    <t>relationship--6899b919-a868-4fb2-ae43-f987f11634c3</t>
+  </si>
+  <si>
+    <t>relationship--1493b057-798c-450c-b4c4-2ba1f11b5087</t>
+  </si>
+  <si>
+    <t>relationship--c7d377a8-10b4-48a4-8d51-66cef43107e7</t>
+  </si>
+  <si>
+    <t>relationship--81310879-bc75-4dc3-ac9f-02053b69bb18</t>
+  </si>
+  <si>
+    <t>relationship--c8b7364d-da31-4fee-b6d4-87da58590ad7</t>
+  </si>
+  <si>
+    <t>relationship--1e2d5bac-9ad5-45e3-afa8-b735f90ccf93</t>
+  </si>
+  <si>
+    <t>relationship--45643bff-ca2c-4d4c-a57c-78cdb8c03cb1</t>
+  </si>
+  <si>
+    <t>relationship--ffcbdf37-d103-4be8-a816-ce2d984f25a7</t>
+  </si>
+  <si>
+    <t>relationship--d919baf8-905c-4331-8002-17cc559cff7a</t>
+  </si>
+  <si>
+    <t>relationship--061f6079-b9a5-4228-9ed3-e4bc7095ac17</t>
+  </si>
+  <si>
+    <t>relationship--8639b3bf-e804-4011-8782-91784c3bb523</t>
+  </si>
+  <si>
+    <t>relationship--39f47e14-b0c6-423e-8e85-fcdfbfe6cd8b</t>
+  </si>
+  <si>
+    <t>relationship--bb42c61a-c675-4147-85ec-fc3b54303177</t>
+  </si>
+  <si>
+    <t>relationship--cee42371-4b4a-4258-a7e0-ce05f628bfa0</t>
+  </si>
+  <si>
+    <t>relationship--b787cd51-1112-43a6-8e4b-601b18affd89</t>
+  </si>
+  <si>
+    <t>relationship--80df8b5b-ad42-4746-babf-25f192fc930f</t>
+  </si>
+  <si>
+    <t>relationship--fb093c9c-e2d4-4c5e-9a29-fbc1abca37a8</t>
+  </si>
+  <si>
+    <t>relationship--2ea9bab2-c41a-4b71-917d-ef7784e0b431</t>
+  </si>
+  <si>
+    <t>relationship--ee622cf1-eb3f-4320-8ed5-54f9e47e0cf9</t>
+  </si>
+  <si>
+    <t>relationship--35a61bb7-c176-4dd6-9b81-a93ab506d397</t>
+  </si>
+  <si>
+    <t>relationship--e85000cc-c879-4191-a867-03cfad3c9a80</t>
+  </si>
+  <si>
+    <t>relationship--51e5dbfa-80a0-4f7d-9a28-37170bfe22e4</t>
+  </si>
+  <si>
+    <t>relationship--c6270b27-32cb-4ff5-8438-882513f39991</t>
+  </si>
+  <si>
+    <t>relationship--37f4f08f-28aa-40e9-8e7a-acdeca8517fd</t>
+  </si>
+  <si>
+    <t>relationship--e816f655-6e13-4588-9e4d-b9298cf4a68f</t>
+  </si>
+  <si>
+    <t>relationship--bc90157e-52af-4a8d-8e30-918649e5b96f</t>
+  </si>
+  <si>
+    <t>relationship--590c7dfa-45cc-4140-9c59-5fb55af5549a</t>
+  </si>
+  <si>
+    <t>relationship--b9adaa43-857f-422a-aff7-118d1d2bddbf</t>
+  </si>
+  <si>
+    <t>relationship--9158b0a6-ea51-4b4c-b68a-68c9cc2f468f</t>
+  </si>
+  <si>
+    <t>relationship--22b6de7c-2941-4035-9784-9086c3b71e21</t>
+  </si>
+  <si>
+    <t>relationship--a50433ba-ffad-4267-9ac9-3c8e42570921</t>
+  </si>
+  <si>
+    <t>relationship--2048341a-7fc0-4f7e-8867-b8e73a0afd88</t>
+  </si>
+  <si>
+    <t>relationship--93ed8aa5-31c7-4675-a7e8-b2d173130097</t>
+  </si>
+  <si>
+    <t>relationship--56b5dd59-cce2-421b-ae27-42b040292732</t>
+  </si>
+  <si>
+    <t>relationship--323312ba-7f78-435c-8290-d4c2c955b971</t>
+  </si>
+  <si>
+    <t>relationship--45a59d75-edb9-47b4-b5db-bc331da876f6</t>
+  </si>
+  <si>
+    <t>relationship--80dc2552-d48d-4cb5-a6a4-3b768ee8db2b</t>
+  </si>
+  <si>
+    <t>relationship--5dd6d528-db10-48df-8486-4e64f6fc4359</t>
+  </si>
+  <si>
+    <t>relationship--3fc85eb8-a09a-4cff-b3c3-3b5b1ac48f85</t>
+  </si>
+  <si>
+    <t>relationship--6da1cb1b-226c-4c24-a99a-0035e7af46aa</t>
+  </si>
+  <si>
+    <t>relationship--2f69844f-e474-4666-a865-94ea27cb48d9</t>
+  </si>
+  <si>
+    <t>relationship--86127fa3-3d81-40c2-a1c0-0ba4d80e974b</t>
+  </si>
+  <si>
+    <t>relationship--145229d3-9813-410a-9b09-f29caea59ab0</t>
+  </si>
+  <si>
+    <t>relationship--d7f1d45e-7295-4d04-9047-1f4439a0557b</t>
+  </si>
+  <si>
+    <t>relationship--e84ff3d5-f906-4349-85d6-39e777afc76d</t>
+  </si>
+  <si>
+    <t>relationship--52c1f368-4a1a-4dc9-9c08-6e05aaef335f</t>
+  </si>
+  <si>
+    <t>relationship--ede044ad-f0c1-4578-9f15-e580a427b954</t>
+  </si>
+  <si>
+    <t>relationship--bdd15669-9008-4ad1-9652-3792760df0cb</t>
+  </si>
+  <si>
+    <t>relationship--d99e4e4a-63cf-4b60-ab12-a6785764b1a9</t>
+  </si>
+  <si>
+    <t>relationship--a6ed2dcf-4380-4f4c-9ed5-fcef0059e8aa</t>
+  </si>
+  <si>
+    <t>relationship--d2e90cf4-cc97-4d1a-a340-656c0f004d2b</t>
+  </si>
+  <si>
+    <t>relationship--f672b719-f8ae-4f78-b745-3daa06caa6fa</t>
+  </si>
+  <si>
+    <t>relationship--908faca1-a8ba-4574-9e3b-48740ee26ecd</t>
+  </si>
+  <si>
+    <t>relationship--8eecc5f0-aac2-4f3a-8cb4-aee0bcbfac65</t>
+  </si>
+  <si>
+    <t>relationship--935fed73-63b1-40ab-b59e-9b8f5f60c02a</t>
+  </si>
+  <si>
+    <t>relationship--c89d6e7b-97cc-4ff5-aa60-1b43e5923133</t>
+  </si>
+  <si>
+    <t>relationship--ce1d4f46-c5bb-4f2a-a1e9-d81c5d5e2eef</t>
+  </si>
+  <si>
+    <t>relationship--29721512-d8c6-4cc7-bcc7-ce9a346755cc</t>
+  </si>
+  <si>
+    <t>relationship--42634514-a3c1-46ce-a3cb-a361c771ad5a</t>
+  </si>
+  <si>
+    <t>relationship--71147601-a650-4777-b9f0-081e51772848</t>
+  </si>
+  <si>
+    <t>relationship--8bd786a2-53f4-4234-83cd-92f634fcecba</t>
+  </si>
+  <si>
+    <t>relationship--b886064e-1404-4830-92b6-e7dcc30bc59e</t>
+  </si>
+  <si>
+    <t>relationship--717f95c1-bc58-4e0e-bf6f-da66ca263823</t>
+  </si>
+  <si>
+    <t>relationship--3e0a1590-2e83-46b6-ae0c-3e3e23a69f9b</t>
+  </si>
+  <si>
+    <t>relationship--90460c97-0c59-4aea-84a6-4edfb3ac3ae5</t>
+  </si>
+  <si>
+    <t>relationship--c2172585-2ba5-493f-b77d-764b06b71a80</t>
+  </si>
+  <si>
+    <t>relationship--fc7e7507-b33f-40f5-9687-8caf11a6c809</t>
+  </si>
+  <si>
+    <t>relationship--4b09d9cd-e0ce-4c07-9417-248ebfda53e2</t>
+  </si>
+  <si>
+    <t>relationship--31f8dce3-23a1-4ce4-92f3-b6ca87c8fc06</t>
+  </si>
+  <si>
+    <t>relationship--32c41457-d33f-46e1-b58e-18be94d94417</t>
+  </si>
+  <si>
+    <t>relationship--f665ea7b-85b2-4c2e-aa49-48ec210532a6</t>
+  </si>
+  <si>
+    <t>relationship--5f9bbe9d-1776-4553-86c6-62b8e746c444</t>
+  </si>
+  <si>
+    <t>relationship--ff3dbda2-973c-40ad-a43f-1801a2c8c0d7</t>
+  </si>
+  <si>
+    <t>relationship--f0c2f201-879d-4146-b61c-a743da3062a9</t>
+  </si>
+  <si>
+    <t>relationship--c8456336-df41-409f-8b66-06a69ba7df79</t>
+  </si>
+  <si>
+    <t>relationship--d578b275-b182-4610-ab39-12ffc3ac2c34</t>
+  </si>
+  <si>
+    <t>relationship--91be716e-9194-456a-83f4-7316fe4dbbb6</t>
+  </si>
+  <si>
+    <t>relationship--c2b31377-ecae-4b38-9f44-e72124d81ca8</t>
+  </si>
+  <si>
+    <t>relationship--594985b2-0666-4299-8ec9-09f449778f6a</t>
   </si>
 </sst>
 </file>
@@ -4299,13 +4297,13 @@
         <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I44" t="s">
         <v>289</v>
@@ -4504,13 +4502,13 @@
         <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I49" t="s">
         <v>289</v>
@@ -6636,13 +6634,13 @@
         <v>150</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I101" t="s">
         <v>289</v>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -119,82 +119,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--51df827f-516e-4c39-b145-76b81299ec52</t>
-  </si>
-  <si>
-    <t>course-of-action--b5ef966a-63d6-42dd-ad9f-815517a04e8f</t>
-  </si>
-  <si>
-    <t>course-of-action--65d103b8-03fa-486e-a763-ee0166095508</t>
-  </si>
-  <si>
-    <t>course-of-action--c2fed5ee-3e46-4465-a124-bce368826b7e</t>
-  </si>
-  <si>
-    <t>course-of-action--716c79ec-309d-46f6-a8ec-0d8361e34e58</t>
-  </si>
-  <si>
-    <t>course-of-action--784c2fb0-5a3d-43b3-b881-d56fb24ad51c</t>
-  </si>
-  <si>
-    <t>course-of-action--cf7a9fd6-f23d-4f9b-9a98-1c047aada908</t>
-  </si>
-  <si>
-    <t>course-of-action--08498ebf-daea-4c8f-be90-f976b408fc88</t>
-  </si>
-  <si>
-    <t>course-of-action--fbb1e321-c0b8-402a-a911-ea456ce99b34</t>
-  </si>
-  <si>
-    <t>course-of-action--bdc27f02-8925-46b5-b602-a3fd288c8e68</t>
-  </si>
-  <si>
-    <t>course-of-action--b304e8ce-46d3-4d1b-b849-9e9252cd7ad4</t>
-  </si>
-  <si>
-    <t>course-of-action--e8c1e0e9-833a-4d82-ab1d-c85571d6700e</t>
-  </si>
-  <si>
-    <t>course-of-action--41790108-f5a6-4a4c-960e-6aad7c6400ad</t>
-  </si>
-  <si>
-    <t>course-of-action--77b0693c-f61f-434e-9a9d-95c7b0ecea6f</t>
-  </si>
-  <si>
-    <t>course-of-action--f4ff76ff-2534-40a2-b787-b6b1b29a0273</t>
-  </si>
-  <si>
-    <t>course-of-action--b401966e-0f8d-47fa-a9c8-b3e203bb9b3c</t>
-  </si>
-  <si>
-    <t>course-of-action--c72d54b4-ece7-4043-b515-391145836b68</t>
-  </si>
-  <si>
-    <t>course-of-action--ab49fe8d-a63c-49ef-b8eb-e670a3d1e98e</t>
-  </si>
-  <si>
-    <t>course-of-action--664c2d35-9090-4322-b8d6-e056e8325573</t>
-  </si>
-  <si>
-    <t>course-of-action--05f1c700-7468-4398-82a4-30e2a9913c3f</t>
-  </si>
-  <si>
-    <t>course-of-action--b6235cea-ce60-41da-827f-fcb75aa006b0</t>
-  </si>
-  <si>
-    <t>course-of-action--60684533-200a-44a8-926b-69f304b25bc4</t>
-  </si>
-  <si>
-    <t>course-of-action--6e25b8c1-c7f9-44de-977b-c37568d83e02</t>
-  </si>
-  <si>
-    <t>course-of-action--2a7461ae-c975-46a4-bfe1-42bc8719510a</t>
-  </si>
-  <si>
-    <t>course-of-action--0b60e7b4-e979-41ca-b10d-7e732b58f472</t>
-  </si>
-  <si>
-    <t>course-of-action--47dd59e6-a681-4899-b308-a1e20ea60d81</t>
+    <t>course-of-action--dd3aa631-4640-4ea8-b630-3dd4588beea2</t>
+  </si>
+  <si>
+    <t>course-of-action--7ddd1f7d-1f39-4efd-97ce-2a0577b9d967</t>
+  </si>
+  <si>
+    <t>course-of-action--02fba334-0ac7-4005-bf1e-4815788a2a97</t>
+  </si>
+  <si>
+    <t>course-of-action--ef50cc5e-4cdd-483d-83a7-feae98e63a59</t>
+  </si>
+  <si>
+    <t>course-of-action--0c640f67-3d2c-4967-9975-ab0b80eb9330</t>
+  </si>
+  <si>
+    <t>course-of-action--ce135f7f-9edf-4942-a804-9478173dfeba</t>
+  </si>
+  <si>
+    <t>course-of-action--aed8bf3d-fca8-4aec-a25f-44143f4e4ac3</t>
+  </si>
+  <si>
+    <t>course-of-action--b263053e-cd0a-4502-8b33-50f9070d49a3</t>
+  </si>
+  <si>
+    <t>course-of-action--b0f8611d-5802-42ab-864b-2470ffcd6d28</t>
+  </si>
+  <si>
+    <t>course-of-action--0ce9c1dd-593d-4f87-a526-1cae567bc902</t>
+  </si>
+  <si>
+    <t>course-of-action--3dd5c016-2590-4bf3-a014-e8ad56ec8429</t>
+  </si>
+  <si>
+    <t>course-of-action--6d88c859-0afa-4bf9-852d-5297273a41c7</t>
+  </si>
+  <si>
+    <t>course-of-action--3d9c49c8-153c-4f28-af3f-8da9bc53aff6</t>
+  </si>
+  <si>
+    <t>course-of-action--267a1957-3eeb-456e-b20c-8bfc4203c25e</t>
+  </si>
+  <si>
+    <t>course-of-action--6b8233eb-5491-4faf-9de6-4b52d096e3c7</t>
+  </si>
+  <si>
+    <t>course-of-action--c18258e4-7399-4e2a-8d6e-e9a841b51111</t>
+  </si>
+  <si>
+    <t>course-of-action--3a3e11fa-b453-4d13-9117-3ec2b79c02fe</t>
+  </si>
+  <si>
+    <t>course-of-action--ded500ba-507c-4846-956e-e6e8e26bb16c</t>
+  </si>
+  <si>
+    <t>course-of-action--e24214b3-1a11-4597-b4e0-d410f1d90754</t>
+  </si>
+  <si>
+    <t>course-of-action--87fc5780-6b5f-4c93-a4a7-bb928f36478b</t>
+  </si>
+  <si>
+    <t>course-of-action--482dddc6-c06d-4902-b567-a765851c6b63</t>
+  </si>
+  <si>
+    <t>course-of-action--ee7a3c90-4624-4508-86b2-5995c131e852</t>
+  </si>
+  <si>
+    <t>course-of-action--71e80285-9441-4c34-89ff-3c5d279efa74</t>
+  </si>
+  <si>
+    <t>course-of-action--603fba78-8bfd-4fba-a551-c76394590135</t>
+  </si>
+  <si>
+    <t>course-of-action--bd9f1b3e-c8ee-4b5a-8d8d-d78fb4ca5ed7</t>
+  </si>
+  <si>
+    <t>course-of-action--0118178b-98d8-48b4-b9e7-7da0f55e073c</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -456,7 +456,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>29 September 2025</t>
+    <t>14 October 2025</t>
   </si>
   <si>
     <t>source ID</t>
@@ -771,142 +771,142 @@
     <t>User Execution</t>
   </si>
   <si>
-    <t>attack-pattern--c231b0b5-73e4-40b2-bf23-5a99f7a8433b</t>
-  </si>
-  <si>
-    <t>attack-pattern--c03c1cc3-0e57-4dcb-94d4-833fe159975a</t>
-  </si>
-  <si>
-    <t>attack-pattern--fbd4dc77-b6a7-409a-bd43-39c62be957e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--e6e9b7bc-f37b-4dea-a135-7bae180a616d</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a8bd016-e00c-490e-8c3f-c8622bf58457</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ca400f1-e1f1-4aca-af63-d8899a40fbbc</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e3ede18-fa15-41f6-b900-c70befd558f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--bf14e573-22d9-4468-9356-79f9191487fc</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac579bcf-77d6-4ea4-8349-93eb05a5f405</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd0d8a61-4897-497d-ba4b-2ef008b4ae9b</t>
-  </si>
-  <si>
-    <t>attack-pattern--eceb6948-b30c-4c5d-b9f9-8219bfd61120</t>
-  </si>
-  <si>
-    <t>attack-pattern--d5d86a7f-0cc9-4963-b8b2-8f4fbf8dda91</t>
-  </si>
-  <si>
-    <t>attack-pattern--b9ff7676-0331-495a-a241-3d196fa04c76</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd8c946a-e156-4721-b7b3-57193260a22d</t>
-  </si>
-  <si>
-    <t>attack-pattern--72bcf68e-5ea9-4f40-a690-b8b952b623b8</t>
-  </si>
-  <si>
-    <t>attack-pattern--01786a2e-ae41-4076-8ce9-5e7b11ef8d6f</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d87dff5-d7ed-46d2-be6e-1a917d1a7f9b</t>
-  </si>
-  <si>
-    <t>attack-pattern--c1ecb552-faa2-40d8-8b39-8fc7d21c4777</t>
-  </si>
-  <si>
-    <t>attack-pattern--6c776227-c20d-4038-8226-7dd9f474eeb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--90842bc1-4bae-4e91-ba40-08b1450ab4ea</t>
-  </si>
-  <si>
-    <t>attack-pattern--8df3e434-a1b6-4e92-aca0-2d8b728073f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--63d80df5-c87c-424d-98bb-43792372b830</t>
-  </si>
-  <si>
-    <t>attack-pattern--c07b4911-2be0-427c-9334-c76f3947bd7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--992f2f8d-278f-4a6c-863c-b11c70810773</t>
-  </si>
-  <si>
-    <t>attack-pattern--64f0bd2a-284b-4f60-a23f-a0647511c675</t>
-  </si>
-  <si>
-    <t>attack-pattern--206e1b6d-0089-41bf-90f7-a688c98d2e76</t>
-  </si>
-  <si>
-    <t>attack-pattern--523aacd9-47b3-47b2-adb3-287d2a16e5af</t>
-  </si>
-  <si>
-    <t>attack-pattern--0303efbf-15e3-4236-b772-141d8a8a957d</t>
-  </si>
-  <si>
-    <t>attack-pattern--c6ac2f3b-cb35-4527-a4e5-af2c973f8d83</t>
-  </si>
-  <si>
-    <t>attack-pattern--13ee69c8-da80-4724-a9d1-ecca9fdf9329</t>
-  </si>
-  <si>
-    <t>attack-pattern--b64aca28-b194-4e49-8879-942f679f64df</t>
-  </si>
-  <si>
-    <t>attack-pattern--c557225b-d26b-4692-a62d-3f0d44adacd1</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c696a14-01cc-433a-b5f7-9c4129a924ed</t>
-  </si>
-  <si>
-    <t>attack-pattern--8fadf730-0543-4674-abd4-730185107b9e</t>
-  </si>
-  <si>
-    <t>attack-pattern--c1b202de-c21f-4fa9-87c0-17371126caa3</t>
-  </si>
-  <si>
-    <t>attack-pattern--2d409d2f-6179-4c2e-a3ba-423c456782a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9da7e4e5-08e4-483f-a180-091e6a8bc388</t>
-  </si>
-  <si>
-    <t>attack-pattern--012c03a7-02a4-450b-9bcc-085eed2c3133</t>
-  </si>
-  <si>
-    <t>attack-pattern--edd8712e-a284-402e-893f-de3a3438aa17</t>
-  </si>
-  <si>
-    <t>attack-pattern--714544ac-a214-4a1d-8423-c55790cf884b</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c1d603c-e34a-4a55-ac3a-7938391ed50f</t>
-  </si>
-  <si>
-    <t>attack-pattern--14d0547e-5c60-4efb-be3e-2bc3ffc9a5f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--60014399-fdb3-4b68-85a1-6e5ae0248286</t>
-  </si>
-  <si>
-    <t>attack-pattern--f5f8140a-a8c2-4560-a98d-540a876c0c59</t>
-  </si>
-  <si>
-    <t>attack-pattern--ea80c588-0f92-452b-bd1e-714248185c42</t>
-  </si>
-  <si>
-    <t>attack-pattern--d4891783-2642-4210-b3e6-bd742979631f</t>
+    <t>attack-pattern--02573874-564d-405f-b9ea-d5299cd6a770</t>
+  </si>
+  <si>
+    <t>attack-pattern--7187fe3d-e183-4dd9-a67c-e2be1cd7de1a</t>
+  </si>
+  <si>
+    <t>attack-pattern--023c1e52-ad3a-4991-9f0b-eef64fbfc503</t>
+  </si>
+  <si>
+    <t>attack-pattern--476c43ad-1a16-4a38-9109-22dad22cc998</t>
+  </si>
+  <si>
+    <t>attack-pattern--724b0528-6716-415e-8b32-023982f41b65</t>
+  </si>
+  <si>
+    <t>attack-pattern--75f4b6e6-2c1a-489a-9819-a46b08dece0b</t>
+  </si>
+  <si>
+    <t>attack-pattern--7c2776a4-292a-43a3-9f1f-55b743c3cdb3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca7df05b-6f48-4979-a3ed-5d58340aa2a2</t>
+  </si>
+  <si>
+    <t>attack-pattern--07cdfd57-21de-4ac0-8214-499ea2f213c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--89977385-7cbf-4c35-aa5f-3556d423b16f</t>
+  </si>
+  <si>
+    <t>attack-pattern--fac3953d-1a76-41c2-b8fb-5335360f3a70</t>
+  </si>
+  <si>
+    <t>attack-pattern--75170956-8c65-4a9d-84cd-a390972a4ad8</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ab2242e-f52d-42a1-9b5c-487d56e6130a</t>
+  </si>
+  <si>
+    <t>attack-pattern--e055148e-b7d9-44eb-97b8-8e1147fa945d</t>
+  </si>
+  <si>
+    <t>attack-pattern--60c58536-0a04-4468-9e15-703b2d65e516</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c92231b-f3fe-4da0-ba24-f3d7243f9be7</t>
+  </si>
+  <si>
+    <t>attack-pattern--7fb874e9-a690-4696-ad74-69234fa9ace5</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9133f08-daaa-4cab-a3e1-c39746e2c3e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--041a9792-537b-4a7c-ad8a-e4d8adbb6f3c</t>
+  </si>
+  <si>
+    <t>attack-pattern--d276f052-7ca6-40c2-9b44-1bd8de0d9216</t>
+  </si>
+  <si>
+    <t>attack-pattern--633e83b9-7d27-4b3a-9f59-50cc8e60fa4e</t>
+  </si>
+  <si>
+    <t>attack-pattern--296d4b7d-fe9b-4e9f-ac78-69a001f6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--da47ea85-1495-4419-be39-937d4f9fccf3</t>
+  </si>
+  <si>
+    <t>attack-pattern--3bae2bf3-b18a-4c90-866e-22a0a5c6364e</t>
+  </si>
+  <si>
+    <t>attack-pattern--92147a80-f17e-450e-907f-8ed496079a86</t>
+  </si>
+  <si>
+    <t>attack-pattern--77727d6d-ec87-4c1c-a8be-9252e061fcc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6798c32-1cb0-4fff-9ca7-5b340676d3bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--f1f4f17b-fec1-471d-9d48-52d0009747cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--0b6afaf3-1c27-4dbc-9ac4-9728b06571ee</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e134aef-a2d3-44e7-9cf3-dd65306b7fd3</t>
+  </si>
+  <si>
+    <t>attack-pattern--63949113-3bdf-4bf9-8b97-bf88f6ea2b5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--97c9fae3-b20b-4f07-8f54-28fde4aed8d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--68948a16-1aa4-4b26-a479-5fc24403e9e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--10f4a431-2663-498f-bef9-2de43f4d733d</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3998e6c-f7c9-4b89-a8d2-afb00c48aea1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a733a4be-72af-44fd-8863-2a45c2de187b</t>
+  </si>
+  <si>
+    <t>attack-pattern--5b4aaa0e-a59b-4aef-9089-87153268f5a3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab26383f-c974-4ea2-9e1b-8b9236760489</t>
+  </si>
+  <si>
+    <t>attack-pattern--8ed6d88d-79c6-48f5-a863-3d960d9a192c</t>
+  </si>
+  <si>
+    <t>attack-pattern--fed00fd1-986f-4962-a4d2-3ea7168ec7e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--29621dd4-0d45-4cef-956e-c94d46934874</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe2aa670-46ff-4c8d-b47e-e924d9a7b44d</t>
+  </si>
+  <si>
+    <t>attack-pattern--af5092c6-0f01-47bc-81a7-b5780b4ee927</t>
+  </si>
+  <si>
+    <t>attack-pattern--d262dc2e-8e6b-46dd-b0f0-c79d64577fe8</t>
+  </si>
+  <si>
+    <t>attack-pattern--d024ba77-7c46-44fa-81dc-35376664d66f</t>
+  </si>
+  <si>
+    <t>attack-pattern--3dec1e87-8cd0-4a71-977b-cb182ca4434f</t>
   </si>
   <si>
     <t>technique</t>
@@ -1169,313 +1169,313 @@
 </t>
   </si>
   <si>
-    <t>relationship--8e3ab0d1-d8fd-4720-b5d3-4d6b7a4b6227</t>
-  </si>
-  <si>
-    <t>relationship--21dd09cc-f629-4060-b1bf-ea75120d0b7f</t>
-  </si>
-  <si>
-    <t>relationship--9198cebb-ba70-4488-bc7d-8529b388d30e</t>
-  </si>
-  <si>
-    <t>relationship--e4cee37b-ea42-4fe3-9295-2e38b73c8985</t>
-  </si>
-  <si>
-    <t>relationship--c01af0b6-844d-4fbb-8371-e7f481b1f50f</t>
-  </si>
-  <si>
-    <t>relationship--17101d77-9604-4e09-b01a-1287e8f7e870</t>
-  </si>
-  <si>
-    <t>relationship--ef8a7dd5-ef49-4897-abce-fe5538ed10f9</t>
-  </si>
-  <si>
-    <t>relationship--a88155c1-a169-4587-b3ea-88191d10d277</t>
-  </si>
-  <si>
-    <t>relationship--5ada900c-f39c-4179-b440-17a9a77cbc77</t>
-  </si>
-  <si>
-    <t>relationship--bd61a32e-db6d-43b7-9fa0-7f4280fac836</t>
-  </si>
-  <si>
-    <t>relationship--aa172124-9d75-4cde-a90f-347e9d980012</t>
-  </si>
-  <si>
-    <t>relationship--2834f436-5a2f-4965-ad16-8673deba5eab</t>
-  </si>
-  <si>
-    <t>relationship--bc62f277-37d4-4aed-aa0c-606378f7e07f</t>
-  </si>
-  <si>
-    <t>relationship--155b862a-1d9d-4329-9c98-88f26bc337d4</t>
-  </si>
-  <si>
-    <t>relationship--80fca526-01a3-4262-b731-1614e9e07bb0</t>
-  </si>
-  <si>
-    <t>relationship--423928a4-55f6-43bf-be6d-108e0714bb03</t>
-  </si>
-  <si>
-    <t>relationship--ce759541-24e5-4e4c-9e80-ba16e9d4ad00</t>
-  </si>
-  <si>
-    <t>relationship--445dcde0-77ae-46e2-98c9-b5d6412274ab</t>
-  </si>
-  <si>
-    <t>relationship--06e35834-2254-4284-925b-004df37ca3d6</t>
-  </si>
-  <si>
-    <t>relationship--67798b5f-7e58-40dd-b9dc-8990db5c5fdf</t>
-  </si>
-  <si>
-    <t>relationship--6ec0602b-8ca8-4d73-a149-11eea340c489</t>
-  </si>
-  <si>
-    <t>relationship--62ef1ccb-4dba-4470-9681-95d447f11a72</t>
-  </si>
-  <si>
-    <t>relationship--16bcc4b8-0c11-4643-9c80-91ca692e4dd4</t>
-  </si>
-  <si>
-    <t>relationship--b880254b-561d-48ca-a86b-915f01338127</t>
-  </si>
-  <si>
-    <t>relationship--6899b919-a868-4fb2-ae43-f987f11634c3</t>
-  </si>
-  <si>
-    <t>relationship--1493b057-798c-450c-b4c4-2ba1f11b5087</t>
-  </si>
-  <si>
-    <t>relationship--c7d377a8-10b4-48a4-8d51-66cef43107e7</t>
-  </si>
-  <si>
-    <t>relationship--81310879-bc75-4dc3-ac9f-02053b69bb18</t>
-  </si>
-  <si>
-    <t>relationship--c8b7364d-da31-4fee-b6d4-87da58590ad7</t>
-  </si>
-  <si>
-    <t>relationship--1e2d5bac-9ad5-45e3-afa8-b735f90ccf93</t>
-  </si>
-  <si>
-    <t>relationship--45643bff-ca2c-4d4c-a57c-78cdb8c03cb1</t>
-  </si>
-  <si>
-    <t>relationship--ffcbdf37-d103-4be8-a816-ce2d984f25a7</t>
-  </si>
-  <si>
-    <t>relationship--d919baf8-905c-4331-8002-17cc559cff7a</t>
-  </si>
-  <si>
-    <t>relationship--061f6079-b9a5-4228-9ed3-e4bc7095ac17</t>
-  </si>
-  <si>
-    <t>relationship--8639b3bf-e804-4011-8782-91784c3bb523</t>
-  </si>
-  <si>
-    <t>relationship--39f47e14-b0c6-423e-8e85-fcdfbfe6cd8b</t>
-  </si>
-  <si>
-    <t>relationship--bb42c61a-c675-4147-85ec-fc3b54303177</t>
-  </si>
-  <si>
-    <t>relationship--cee42371-4b4a-4258-a7e0-ce05f628bfa0</t>
-  </si>
-  <si>
-    <t>relationship--b787cd51-1112-43a6-8e4b-601b18affd89</t>
-  </si>
-  <si>
-    <t>relationship--80df8b5b-ad42-4746-babf-25f192fc930f</t>
-  </si>
-  <si>
-    <t>relationship--fb093c9c-e2d4-4c5e-9a29-fbc1abca37a8</t>
-  </si>
-  <si>
-    <t>relationship--2ea9bab2-c41a-4b71-917d-ef7784e0b431</t>
-  </si>
-  <si>
-    <t>relationship--ee622cf1-eb3f-4320-8ed5-54f9e47e0cf9</t>
-  </si>
-  <si>
-    <t>relationship--35a61bb7-c176-4dd6-9b81-a93ab506d397</t>
-  </si>
-  <si>
-    <t>relationship--e85000cc-c879-4191-a867-03cfad3c9a80</t>
-  </si>
-  <si>
-    <t>relationship--51e5dbfa-80a0-4f7d-9a28-37170bfe22e4</t>
-  </si>
-  <si>
-    <t>relationship--c6270b27-32cb-4ff5-8438-882513f39991</t>
-  </si>
-  <si>
-    <t>relationship--37f4f08f-28aa-40e9-8e7a-acdeca8517fd</t>
-  </si>
-  <si>
-    <t>relationship--e816f655-6e13-4588-9e4d-b9298cf4a68f</t>
-  </si>
-  <si>
-    <t>relationship--bc90157e-52af-4a8d-8e30-918649e5b96f</t>
-  </si>
-  <si>
-    <t>relationship--590c7dfa-45cc-4140-9c59-5fb55af5549a</t>
-  </si>
-  <si>
-    <t>relationship--b9adaa43-857f-422a-aff7-118d1d2bddbf</t>
-  </si>
-  <si>
-    <t>relationship--9158b0a6-ea51-4b4c-b68a-68c9cc2f468f</t>
-  </si>
-  <si>
-    <t>relationship--22b6de7c-2941-4035-9784-9086c3b71e21</t>
-  </si>
-  <si>
-    <t>relationship--a50433ba-ffad-4267-9ac9-3c8e42570921</t>
-  </si>
-  <si>
-    <t>relationship--2048341a-7fc0-4f7e-8867-b8e73a0afd88</t>
-  </si>
-  <si>
-    <t>relationship--93ed8aa5-31c7-4675-a7e8-b2d173130097</t>
-  </si>
-  <si>
-    <t>relationship--56b5dd59-cce2-421b-ae27-42b040292732</t>
-  </si>
-  <si>
-    <t>relationship--323312ba-7f78-435c-8290-d4c2c955b971</t>
-  </si>
-  <si>
-    <t>relationship--45a59d75-edb9-47b4-b5db-bc331da876f6</t>
-  </si>
-  <si>
-    <t>relationship--80dc2552-d48d-4cb5-a6a4-3b768ee8db2b</t>
-  </si>
-  <si>
-    <t>relationship--5dd6d528-db10-48df-8486-4e64f6fc4359</t>
-  </si>
-  <si>
-    <t>relationship--3fc85eb8-a09a-4cff-b3c3-3b5b1ac48f85</t>
-  </si>
-  <si>
-    <t>relationship--6da1cb1b-226c-4c24-a99a-0035e7af46aa</t>
-  </si>
-  <si>
-    <t>relationship--2f69844f-e474-4666-a865-94ea27cb48d9</t>
-  </si>
-  <si>
-    <t>relationship--86127fa3-3d81-40c2-a1c0-0ba4d80e974b</t>
-  </si>
-  <si>
-    <t>relationship--145229d3-9813-410a-9b09-f29caea59ab0</t>
-  </si>
-  <si>
-    <t>relationship--d7f1d45e-7295-4d04-9047-1f4439a0557b</t>
-  </si>
-  <si>
-    <t>relationship--e84ff3d5-f906-4349-85d6-39e777afc76d</t>
-  </si>
-  <si>
-    <t>relationship--52c1f368-4a1a-4dc9-9c08-6e05aaef335f</t>
-  </si>
-  <si>
-    <t>relationship--ede044ad-f0c1-4578-9f15-e580a427b954</t>
-  </si>
-  <si>
-    <t>relationship--bdd15669-9008-4ad1-9652-3792760df0cb</t>
-  </si>
-  <si>
-    <t>relationship--d99e4e4a-63cf-4b60-ab12-a6785764b1a9</t>
-  </si>
-  <si>
-    <t>relationship--a6ed2dcf-4380-4f4c-9ed5-fcef0059e8aa</t>
-  </si>
-  <si>
-    <t>relationship--d2e90cf4-cc97-4d1a-a340-656c0f004d2b</t>
-  </si>
-  <si>
-    <t>relationship--f672b719-f8ae-4f78-b745-3daa06caa6fa</t>
-  </si>
-  <si>
-    <t>relationship--908faca1-a8ba-4574-9e3b-48740ee26ecd</t>
-  </si>
-  <si>
-    <t>relationship--8eecc5f0-aac2-4f3a-8cb4-aee0bcbfac65</t>
-  </si>
-  <si>
-    <t>relationship--935fed73-63b1-40ab-b59e-9b8f5f60c02a</t>
-  </si>
-  <si>
-    <t>relationship--c89d6e7b-97cc-4ff5-aa60-1b43e5923133</t>
-  </si>
-  <si>
-    <t>relationship--ce1d4f46-c5bb-4f2a-a1e9-d81c5d5e2eef</t>
-  </si>
-  <si>
-    <t>relationship--29721512-d8c6-4cc7-bcc7-ce9a346755cc</t>
-  </si>
-  <si>
-    <t>relationship--42634514-a3c1-46ce-a3cb-a361c771ad5a</t>
-  </si>
-  <si>
-    <t>relationship--71147601-a650-4777-b9f0-081e51772848</t>
-  </si>
-  <si>
-    <t>relationship--8bd786a2-53f4-4234-83cd-92f634fcecba</t>
-  </si>
-  <si>
-    <t>relationship--b886064e-1404-4830-92b6-e7dcc30bc59e</t>
-  </si>
-  <si>
-    <t>relationship--717f95c1-bc58-4e0e-bf6f-da66ca263823</t>
-  </si>
-  <si>
-    <t>relationship--3e0a1590-2e83-46b6-ae0c-3e3e23a69f9b</t>
-  </si>
-  <si>
-    <t>relationship--90460c97-0c59-4aea-84a6-4edfb3ac3ae5</t>
-  </si>
-  <si>
-    <t>relationship--c2172585-2ba5-493f-b77d-764b06b71a80</t>
-  </si>
-  <si>
-    <t>relationship--fc7e7507-b33f-40f5-9687-8caf11a6c809</t>
-  </si>
-  <si>
-    <t>relationship--4b09d9cd-e0ce-4c07-9417-248ebfda53e2</t>
-  </si>
-  <si>
-    <t>relationship--31f8dce3-23a1-4ce4-92f3-b6ca87c8fc06</t>
-  </si>
-  <si>
-    <t>relationship--32c41457-d33f-46e1-b58e-18be94d94417</t>
-  </si>
-  <si>
-    <t>relationship--f665ea7b-85b2-4c2e-aa49-48ec210532a6</t>
-  </si>
-  <si>
-    <t>relationship--5f9bbe9d-1776-4553-86c6-62b8e746c444</t>
-  </si>
-  <si>
-    <t>relationship--ff3dbda2-973c-40ad-a43f-1801a2c8c0d7</t>
-  </si>
-  <si>
-    <t>relationship--f0c2f201-879d-4146-b61c-a743da3062a9</t>
-  </si>
-  <si>
-    <t>relationship--c8456336-df41-409f-8b66-06a69ba7df79</t>
-  </si>
-  <si>
-    <t>relationship--d578b275-b182-4610-ab39-12ffc3ac2c34</t>
-  </si>
-  <si>
-    <t>relationship--91be716e-9194-456a-83f4-7316fe4dbbb6</t>
-  </si>
-  <si>
-    <t>relationship--c2b31377-ecae-4b38-9f44-e72124d81ca8</t>
-  </si>
-  <si>
-    <t>relationship--594985b2-0666-4299-8ec9-09f449778f6a</t>
+    <t>relationship--81417937-ea1c-4ab8-bc02-094ed419a153</t>
+  </si>
+  <si>
+    <t>relationship--fef9f8cf-3ec4-463f-9719-820a0984b9c6</t>
+  </si>
+  <si>
+    <t>relationship--f21bb20a-a6db-4df5-9d1e-2515b2c1113c</t>
+  </si>
+  <si>
+    <t>relationship--87d4014c-a80b-4e8a-b26f-25df19cd9b3c</t>
+  </si>
+  <si>
+    <t>relationship--c77f8ebb-de34-4172-bcc1-0415771434d7</t>
+  </si>
+  <si>
+    <t>relationship--5171bd6c-d493-49d2-868d-58b23fa51124</t>
+  </si>
+  <si>
+    <t>relationship--0e0e2d5f-3f19-445a-ac77-df245a40fe07</t>
+  </si>
+  <si>
+    <t>relationship--51cdc9af-68bf-410c-be38-71c381ea06cc</t>
+  </si>
+  <si>
+    <t>relationship--67fed717-d16b-4f0f-be2e-520b2131e697</t>
+  </si>
+  <si>
+    <t>relationship--30eed9e4-8d51-44cb-b575-4be14e300a4f</t>
+  </si>
+  <si>
+    <t>relationship--7a3d99c3-7e46-48e8-927d-bbfeb6144251</t>
+  </si>
+  <si>
+    <t>relationship--4f3f6ec9-8f8c-440a-92a2-cdd77bb2bcb0</t>
+  </si>
+  <si>
+    <t>relationship--1299d3a4-b0ba-4448-8c8e-674875c1ea81</t>
+  </si>
+  <si>
+    <t>relationship--8439d4c2-7309-4810-aabb-83b623f30d13</t>
+  </si>
+  <si>
+    <t>relationship--9aa86ed7-8eab-46de-8486-28e26e6d1107</t>
+  </si>
+  <si>
+    <t>relationship--b9a8295b-6a2e-4171-8465-55a875ac92dd</t>
+  </si>
+  <si>
+    <t>relationship--78b916bd-f822-401f-9cfe-3373e498ea09</t>
+  </si>
+  <si>
+    <t>relationship--542c2fc4-52b8-4a1b-95cb-364bc7b7beee</t>
+  </si>
+  <si>
+    <t>relationship--f7878822-c730-41d5-ad5b-6a5b091543f1</t>
+  </si>
+  <si>
+    <t>relationship--41037197-3892-4f93-b465-29260c671577</t>
+  </si>
+  <si>
+    <t>relationship--d1c7bdf7-0694-4698-b12e-61695c20fd70</t>
+  </si>
+  <si>
+    <t>relationship--9e1382bb-7214-4935-98c7-c01334a50ec3</t>
+  </si>
+  <si>
+    <t>relationship--d62250dd-6e1a-4573-9f41-ccf276fd70a6</t>
+  </si>
+  <si>
+    <t>relationship--435cf8dc-be77-4c87-9e15-9fd2d0030e36</t>
+  </si>
+  <si>
+    <t>relationship--a363af2a-7b76-4f8b-83c6-7337efa7d103</t>
+  </si>
+  <si>
+    <t>relationship--9f914443-4727-4182-a44e-cc3e15dce8ec</t>
+  </si>
+  <si>
+    <t>relationship--5335d93f-7723-41d3-8ffb-42ae3f43101b</t>
+  </si>
+  <si>
+    <t>relationship--2559c6fd-2d82-4636-9304-64a8ecd6f4d9</t>
+  </si>
+  <si>
+    <t>relationship--0a3cdeaa-a550-4a58-8b8f-d6c8f3d5237b</t>
+  </si>
+  <si>
+    <t>relationship--ed2ccb87-488b-4941-87b2-ea0f9f55754b</t>
+  </si>
+  <si>
+    <t>relationship--4224bf1b-74f9-4cfe-9d0a-7ecf96fa75a7</t>
+  </si>
+  <si>
+    <t>relationship--3e9722c6-b7dc-408a-b3f3-da3f0d48b0fa</t>
+  </si>
+  <si>
+    <t>relationship--60429ab5-3fd9-440f-ae0b-3fc27312b02b</t>
+  </si>
+  <si>
+    <t>relationship--1596d760-5861-42f8-b646-90dc7195c883</t>
+  </si>
+  <si>
+    <t>relationship--fa41ed54-c07c-426b-b069-5764838c2da6</t>
+  </si>
+  <si>
+    <t>relationship--079e06bf-0e24-4221-820c-f2be0dc02a3f</t>
+  </si>
+  <si>
+    <t>relationship--cc32cfb8-051f-4371-940e-3066c446291e</t>
+  </si>
+  <si>
+    <t>relationship--d314b045-e9a5-454d-b526-327d334860df</t>
+  </si>
+  <si>
+    <t>relationship--e01545f2-69f0-4b63-83b0-1fb68e7a1e57</t>
+  </si>
+  <si>
+    <t>relationship--faabe1eb-1c05-43b0-8077-31522bcfef4c</t>
+  </si>
+  <si>
+    <t>relationship--db2aa4d4-3765-4076-8c21-609d934e7753</t>
+  </si>
+  <si>
+    <t>relationship--eb209dab-9293-44f3-ab83-1edb434fdb0d</t>
+  </si>
+  <si>
+    <t>relationship--10c56b7c-73f5-4463-bc59-db065e7dedf9</t>
+  </si>
+  <si>
+    <t>relationship--215f76c4-0f65-4f76-a17c-501e9d7c36d3</t>
+  </si>
+  <si>
+    <t>relationship--949b2b1a-41fd-49af-a6ff-5899812cfd85</t>
+  </si>
+  <si>
+    <t>relationship--90cb8975-af58-4819-8ada-6419313cc986</t>
+  </si>
+  <si>
+    <t>relationship--bcf6e46f-e141-433f-8bc7-b386b4c7af15</t>
+  </si>
+  <si>
+    <t>relationship--a9d50213-4a8b-44f2-85ea-c181979aa9b1</t>
+  </si>
+  <si>
+    <t>relationship--e5530edc-0ac0-4e13-9599-0600d987d777</t>
+  </si>
+  <si>
+    <t>relationship--1d5ed945-c590-4e67-a2e9-f3402382d60e</t>
+  </si>
+  <si>
+    <t>relationship--ccaed90f-71f0-469f-ae2c-4b6822631ba6</t>
+  </si>
+  <si>
+    <t>relationship--ce59d0e6-9ea6-4c81-ad84-2525094e1a20</t>
+  </si>
+  <si>
+    <t>relationship--998e60bc-f1e7-4672-9b40-33fbe1a0deee</t>
+  </si>
+  <si>
+    <t>relationship--c1b6ac69-4ba0-4fec-b74a-65ad871d45fd</t>
+  </si>
+  <si>
+    <t>relationship--202a63a2-d2f1-46c4-af5d-92c6dc3f9aef</t>
+  </si>
+  <si>
+    <t>relationship--7bf5edf4-b7f4-4b4f-839a-aac076f1aa72</t>
+  </si>
+  <si>
+    <t>relationship--2f0468c3-0370-41b3-bb7a-4eb3f5f83922</t>
+  </si>
+  <si>
+    <t>relationship--fa65b2df-7ab2-4989-a23d-162a3fd906e1</t>
+  </si>
+  <si>
+    <t>relationship--2b2853f4-cf74-403f-9ce9-8bed07c7cd25</t>
+  </si>
+  <si>
+    <t>relationship--a7690b2b-cfee-4755-9427-be8c55387390</t>
+  </si>
+  <si>
+    <t>relationship--204ba228-370f-4199-97ec-91638a90b4d3</t>
+  </si>
+  <si>
+    <t>relationship--d63fb4c1-92b0-4515-abfb-785851d126a1</t>
+  </si>
+  <si>
+    <t>relationship--8ca0497e-c326-4ef7-aef7-8043c44e550d</t>
+  </si>
+  <si>
+    <t>relationship--fda01315-1dfb-46cb-b07d-635130ad625a</t>
+  </si>
+  <si>
+    <t>relationship--84bd04df-4374-4dee-bb51-33dbacb2caea</t>
+  </si>
+  <si>
+    <t>relationship--e69053c8-4149-417b-a0bc-f3deae3f0c11</t>
+  </si>
+  <si>
+    <t>relationship--5ddd79d0-ba5e-407a-899f-44d42352da4b</t>
+  </si>
+  <si>
+    <t>relationship--75bc658f-f0e8-4812-b6dd-eebb989fc09d</t>
+  </si>
+  <si>
+    <t>relationship--f0c4b49f-ab52-4687-af49-bb36b6e1a159</t>
+  </si>
+  <si>
+    <t>relationship--6680be02-fba5-4720-9ab1-1f33c6e3adfd</t>
+  </si>
+  <si>
+    <t>relationship--3d34536b-3d8c-4dec-9aef-44fcc23f0bce</t>
+  </si>
+  <si>
+    <t>relationship--483faafe-e3a1-425d-8970-88c95f7bf1c3</t>
+  </si>
+  <si>
+    <t>relationship--1ff39f31-a22e-4659-be63-df27edd2b2fe</t>
+  </si>
+  <si>
+    <t>relationship--5e141ed8-3fce-4f3e-97c6-9364bde2377e</t>
+  </si>
+  <si>
+    <t>relationship--29fce26d-4f05-4d0b-97a7-34ab9583cd25</t>
+  </si>
+  <si>
+    <t>relationship--52b1671b-1872-4860-ad8d-509caac85d79</t>
+  </si>
+  <si>
+    <t>relationship--7461b1b2-1d13-42c5-8ea7-d79e1f7271a2</t>
+  </si>
+  <si>
+    <t>relationship--ffc56fd4-ee09-4e55-9073-65009c0b206c</t>
+  </si>
+  <si>
+    <t>relationship--d55e2a68-ae70-48a1-96c0-de9e74c1677b</t>
+  </si>
+  <si>
+    <t>relationship--6e9af941-ee3f-4496-8fb7-646fd3335db2</t>
+  </si>
+  <si>
+    <t>relationship--e36f8c69-6d58-4247-a9d3-0a77fa919f7e</t>
+  </si>
+  <si>
+    <t>relationship--10ba0689-07f1-46ba-a505-d0a5db5083ca</t>
+  </si>
+  <si>
+    <t>relationship--ddb4c9bf-cfd0-4b50-a37b-8befba945bcf</t>
+  </si>
+  <si>
+    <t>relationship--589f9801-6351-4239-a4db-316d68266226</t>
+  </si>
+  <si>
+    <t>relationship--8de08fef-ef2b-462a-9137-fc52f5dee4d9</t>
+  </si>
+  <si>
+    <t>relationship--8e870509-4a27-461f-ad78-21ae6de1dc73</t>
+  </si>
+  <si>
+    <t>relationship--b01b7346-5e69-4211-8634-84315e12f001</t>
+  </si>
+  <si>
+    <t>relationship--55b27e51-8a2d-4fdb-bc40-aca8b6c6b195</t>
+  </si>
+  <si>
+    <t>relationship--4bec88c7-870e-47cf-a17c-aa6e1233fbd7</t>
+  </si>
+  <si>
+    <t>relationship--fd26b9e2-5886-4e37-a999-387cccbdd06c</t>
+  </si>
+  <si>
+    <t>relationship--c19a35f0-fb5b-4981-8baa-9dd986bd2e3b</t>
+  </si>
+  <si>
+    <t>relationship--8a88a25f-ba98-4348-8f35-81110df91c48</t>
+  </si>
+  <si>
+    <t>relationship--c297a428-9c57-4e78-974b-dbc8151460eb</t>
+  </si>
+  <si>
+    <t>relationship--5b857410-bddb-45b8-8d80-77fc4b017ec2</t>
+  </si>
+  <si>
+    <t>relationship--100356ec-cd07-435f-a225-bc1345847d28</t>
+  </si>
+  <si>
+    <t>relationship--9f247a53-70ec-4336-8c85-8ed8d78c2267</t>
+  </si>
+  <si>
+    <t>relationship--4dba341f-39d5-487a-a0d2-50bcccd89ee3</t>
+  </si>
+  <si>
+    <t>relationship--cd62ecfc-454d-4845-8afa-13d912b446aa</t>
+  </si>
+  <si>
+    <t>relationship--c4f90249-f572-4c99-b737-9c993e14d43e</t>
+  </si>
+  <si>
+    <t>relationship--37ddd512-29a6-43b5-9f74-b66b1118de36</t>
+  </si>
+  <si>
+    <t>relationship--92ba7629-4bd5-4aaf-940d-b2afbb9d8b21</t>
+  </si>
+  <si>
+    <t>relationship--2321aafc-6c4e-4d30-9fb8-6e38bdc9648a</t>
+  </si>
+  <si>
+    <t>relationship--871d16eb-61c2-40f2-a35e-b772345b12a3</t>
   </si>
 </sst>
 </file>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="549">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>relationship citations</t>
   </si>
   <si>
+    <t>AML.M0028</t>
+  </si>
+  <si>
     <t>AML.M0023</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>AML.M0022</t>
   </si>
   <si>
+    <t>AML.M0029</t>
+  </si>
+  <si>
     <t>AML.M0010</t>
   </si>
   <si>
@@ -86,12 +92,21 @@
     <t>AML.M0025</t>
   </si>
   <si>
+    <t>AML.M0031</t>
+  </si>
+  <si>
     <t>AML.M0003</t>
   </si>
   <si>
     <t>AML.M0002</t>
   </si>
   <si>
+    <t>AML.M0026</t>
+  </si>
+  <si>
+    <t>AML.M0030</t>
+  </si>
+  <si>
     <t>AML.M0011</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t>AML.M0007</t>
   </si>
   <si>
+    <t>AML.M0027</t>
+  </si>
+  <si>
     <t>AML.M0006</t>
   </si>
   <si>
@@ -119,82 +137,103 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--dd3aa631-4640-4ea8-b630-3dd4588beea2</t>
-  </si>
-  <si>
-    <t>course-of-action--7ddd1f7d-1f39-4efd-97ce-2a0577b9d967</t>
-  </si>
-  <si>
-    <t>course-of-action--02fba334-0ac7-4005-bf1e-4815788a2a97</t>
-  </si>
-  <si>
-    <t>course-of-action--ef50cc5e-4cdd-483d-83a7-feae98e63a59</t>
-  </si>
-  <si>
-    <t>course-of-action--0c640f67-3d2c-4967-9975-ab0b80eb9330</t>
-  </si>
-  <si>
-    <t>course-of-action--ce135f7f-9edf-4942-a804-9478173dfeba</t>
-  </si>
-  <si>
-    <t>course-of-action--aed8bf3d-fca8-4aec-a25f-44143f4e4ac3</t>
-  </si>
-  <si>
-    <t>course-of-action--b263053e-cd0a-4502-8b33-50f9070d49a3</t>
-  </si>
-  <si>
-    <t>course-of-action--b0f8611d-5802-42ab-864b-2470ffcd6d28</t>
-  </si>
-  <si>
-    <t>course-of-action--0ce9c1dd-593d-4f87-a526-1cae567bc902</t>
-  </si>
-  <si>
-    <t>course-of-action--3dd5c016-2590-4bf3-a014-e8ad56ec8429</t>
-  </si>
-  <si>
-    <t>course-of-action--6d88c859-0afa-4bf9-852d-5297273a41c7</t>
-  </si>
-  <si>
-    <t>course-of-action--3d9c49c8-153c-4f28-af3f-8da9bc53aff6</t>
-  </si>
-  <si>
-    <t>course-of-action--267a1957-3eeb-456e-b20c-8bfc4203c25e</t>
-  </si>
-  <si>
-    <t>course-of-action--6b8233eb-5491-4faf-9de6-4b52d096e3c7</t>
-  </si>
-  <si>
-    <t>course-of-action--c18258e4-7399-4e2a-8d6e-e9a841b51111</t>
-  </si>
-  <si>
-    <t>course-of-action--3a3e11fa-b453-4d13-9117-3ec2b79c02fe</t>
-  </si>
-  <si>
-    <t>course-of-action--ded500ba-507c-4846-956e-e6e8e26bb16c</t>
-  </si>
-  <si>
-    <t>course-of-action--e24214b3-1a11-4597-b4e0-d410f1d90754</t>
-  </si>
-  <si>
-    <t>course-of-action--87fc5780-6b5f-4c93-a4a7-bb928f36478b</t>
-  </si>
-  <si>
-    <t>course-of-action--482dddc6-c06d-4902-b567-a765851c6b63</t>
-  </si>
-  <si>
-    <t>course-of-action--ee7a3c90-4624-4508-86b2-5995c131e852</t>
-  </si>
-  <si>
-    <t>course-of-action--71e80285-9441-4c34-89ff-3c5d279efa74</t>
-  </si>
-  <si>
-    <t>course-of-action--603fba78-8bfd-4fba-a551-c76394590135</t>
-  </si>
-  <si>
-    <t>course-of-action--bd9f1b3e-c8ee-4b5a-8d8d-d78fb4ca5ed7</t>
-  </si>
-  <si>
-    <t>course-of-action--0118178b-98d8-48b4-b9e7-7da0f55e073c</t>
+    <t>course-of-action--66662d10-2079-45da-a850-8b29aa0ff90a</t>
+  </si>
+  <si>
+    <t>course-of-action--26a9b3d1-0c48-415f-a011-1b864defc455</t>
+  </si>
+  <si>
+    <t>course-of-action--081d6d9e-aecf-46f3-b035-0253b8d1501f</t>
+  </si>
+  <si>
+    <t>course-of-action--32caa8ed-49bc-4485-b068-838e97a772dc</t>
+  </si>
+  <si>
+    <t>course-of-action--c643d9f7-525f-4c21-bf6e-4b577c75484d</t>
+  </si>
+  <si>
+    <t>course-of-action--7330b481-cb73-4100-b533-1135c440ecdb</t>
+  </si>
+  <si>
+    <t>course-of-action--dc781da8-1943-49ea-8f8c-a0c0a86f5f5c</t>
+  </si>
+  <si>
+    <t>course-of-action--40a562b5-8795-4064-99ea-2e77d11a87d3</t>
+  </si>
+  <si>
+    <t>course-of-action--94ba89e5-060a-4aa9-8805-a874d2a63644</t>
+  </si>
+  <si>
+    <t>course-of-action--3fec7122-a13d-436a-abd8-f988abafad4d</t>
+  </si>
+  <si>
+    <t>course-of-action--a1ba8096-3f60-4429-a2f9-93134c913f2f</t>
+  </si>
+  <si>
+    <t>course-of-action--11d3600c-6e97-4c8e-ace6-258abb52bf5e</t>
+  </si>
+  <si>
+    <t>course-of-action--6a80465b-491d-4456-8a1c-dad1f6084073</t>
+  </si>
+  <si>
+    <t>course-of-action--6bef67bf-7cb7-459e-8d8c-f998960fc931</t>
+  </si>
+  <si>
+    <t>course-of-action--0eb2eed7-21fb-4c0e-bc05-f70d08af6cdd</t>
+  </si>
+  <si>
+    <t>course-of-action--e4e9faf1-8700-4aa8-8967-b87c4b64a373</t>
+  </si>
+  <si>
+    <t>course-of-action--59f1f2f3-4d14-419a-b3c4-954f966e5896</t>
+  </si>
+  <si>
+    <t>course-of-action--5d04760c-107b-429a-81e0-338ea6b74160</t>
+  </si>
+  <si>
+    <t>course-of-action--4aff65a9-0850-4f32-bb40-26a37145a218</t>
+  </si>
+  <si>
+    <t>course-of-action--3e3e763d-2a04-47e0-bfa6-848701bcab8b</t>
+  </si>
+  <si>
+    <t>course-of-action--7dfca9f9-9bac-43b9-a0cd-7931a854d3f0</t>
+  </si>
+  <si>
+    <t>course-of-action--1d986476-d01e-4eff-a89b-e91edcc3c171</t>
+  </si>
+  <si>
+    <t>course-of-action--020228f8-2cea-4f5b-b589-38b609184f49</t>
+  </si>
+  <si>
+    <t>course-of-action--325643c8-75d3-497b-bef6-5b0cda2a6e66</t>
+  </si>
+  <si>
+    <t>course-of-action--eba11b22-421b-4e1b-aeab-2676b69e81ca</t>
+  </si>
+  <si>
+    <t>course-of-action--41323eda-f2a5-400c-9b20-cf5569bd1ef1</t>
+  </si>
+  <si>
+    <t>course-of-action--1a60c9bc-21a5-4dfe-9efd-c65aa3982fe1</t>
+  </si>
+  <si>
+    <t>course-of-action--ffe6e5df-5a6c-4b9a-8cc8-bef149efca4c</t>
+  </si>
+  <si>
+    <t>course-of-action--b1540dea-06f7-408e-aa46-f62fb5ca9d74</t>
+  </si>
+  <si>
+    <t>course-of-action--c4c7044f-4f3e-42ba-a6d9-ebeedbdaf766</t>
+  </si>
+  <si>
+    <t>course-of-action--279ebf5a-bba3-4fca-80be-de230fe98966</t>
+  </si>
+  <si>
+    <t>course-of-action--c9576e37-7d87-40f2-b446-f82bb77452e6</t>
+  </si>
+  <si>
+    <t>AI Agent Tools Permissions Configuration</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -230,6 +269,9 @@
     <t>Generative AI Model Alignment</t>
   </si>
   <si>
+    <t>Human In-the-Loop for AI Agent Actions</t>
+  </si>
+  <si>
     <t>Input Restoration</t>
   </si>
   <si>
@@ -242,12 +284,21 @@
     <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
+    <t>Memory Hardening</t>
+  </si>
+  <si>
     <t>Model Hardening</t>
   </si>
   <si>
     <t>Passive AI Output Obfuscation</t>
   </si>
   <si>
+    <t>Privileged AI Agent Permissions Configuration</t>
+  </si>
+  <si>
+    <t>Restrict AI Agent Tool Invocation on Untrusted Data</t>
+  </si>
+  <si>
     <t>Restrict Library Loading</t>
   </si>
   <si>
@@ -257,6 +308,9 @@
     <t>Sanitize Training Data</t>
   </si>
   <si>
+    <t>Single-User AI Agent Permissions Configuration</t>
+  </si>
+  <si>
     <t>Use Ensemble Methods</t>
   </si>
   <si>
@@ -273,6 +327,9 @@
   </si>
   <si>
     <t>Vulnerability Scanning</t>
+  </si>
+  <si>
+    <t>When deploying tools that will be shared across multiple AI agents, it is important to implement robust policies and controls on permissions for the tools. These controls include applying the principle of least privilege along with delegated access, where the tools receive the permissions, identities, and restrictions of the AI agent calling them. These configurations may be implemented either in MCP servers which connect the agents to the tools calling them or, in more complex cases, directly in the configuration files of the tool.</t>
   </si>
   <si>
     <t>An AI Bill of Materials (AI BOM) contains a full listing of artifacts and resources that were used in building the AI. The AI BOM can help mitigate supply chain risks and enable rapid response to reported vulnerabilities.
@@ -319,6 +376,10 @@
 The fine-tuning process can potentially remove built-in safety mechanisms in a generative AI model, but utilizing techniques such as Supervised Fine-Tuning, Reinforcement Learning from Human Feedback or AI Feedback, and Targeted Safety Context Distillation can improve the safety and alignment of the model.</t>
   </si>
   <si>
+    <t>Systems should require the user or another human stakeholder to approve AI agent actions before the agent takes them. The human approver may be technical staff or business unit SMEs depending on the use case. Separate tools, such as dedicated audit agents, may assist human approval, but final adjudication should be conducted by a human decision-maker. 
+The security benefits from Human In-the-Loop policies may be at odds with operational overhead costs of additional approvals. To ease this, Human In-the-Loop policies should follow the degree of consequence of the task at hand. Minor, repetitive tasks performed by agents accessing basic tools may only require minimal human oversight, while agents employed in systems with significant consequences may necessitate approval from multiple stakeholders diversified across multiple organizations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preprocess all inference data to nullify or reverse potential adversarial perturbations.
 </t>
   </si>
@@ -333,11 +394,21 @@
     <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
+    <t>Memory Hardening involves developing trust boundaries and secure processes for how an AI agent stores and accesses memory and context. This may be implemented using a combination of strategies including restricting an agent's ability to store memories by requiring external authentication and validation for memory updates, performing semantic integrity checks on retrieved memories before agents execute actions, and implementing controls for monitoring of memory and remediation processes for poisoned memory.</t>
+  </si>
+  <si>
     <t>Use techniques to make AI models robust to adversarial inputs such as adversarial training or network distillation.</t>
   </si>
   <si>
     <t xml:space="preserve">Decreasing the fidelity of model outputs provided to the end user can reduce an adversaries ability to extract information about the model and optimize attacks for the model.
 </t>
+  </si>
+  <si>
+    <t>AI agents may be granted elevated privileges above that of a normal user to enable desired workflows. When deploying a privileged AI agent, or an agent that interacts with multiple users, it is important to implement robust policies and controls on permissions of the privileged agent. These controls include Role-Based Access Controls (RBAC), Attribute-Based Access Controls (ABAC), and the principle of least privilege so that the agent is only granted the necessary permissions to access tools and resources required to accomplish its designated task(s).</t>
+  </si>
+  <si>
+    <t>Untrusted data can contain prompt injections that invoke an AI agent's tools, potentially causing confidentiality, integrity or availability violations. It is recommended that tool invocation be restricted or limited when untrusted data enters the LLM's context.
+The degree to which tool invocation is restricted may depend on the potential consequences of the action. Consider blocking the automatic invocation of tools or requiring user confirmation once untrusted data enters the LLM's context. For high consequence actions, consider always requiring user confirmation.</t>
   </si>
   <si>
     <t>Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
@@ -351,6 +422,9 @@
     <t xml:space="preserve">Detect and remove or remediate poisoned training data.  Training data should be sanitized prior to model training and recurrently for an active learning model.
 Implement a filter to limit ingested training data.  Establish a content policy that would remove unwanted content such as certain explicit or offensive language from being used.
 </t>
+  </si>
+  <si>
+    <t>When deploying an AI agent that acts as a representative of a user and performs actions on their behalf, it is important to implement robust policies and controls on permissions and lifecycle management of the agent. Lifecycle management involves establishing identity, protocols for access management, and decommissioning of the agent when its role is no longer needed. Controls should also include the principle of least privilege and delegated access from the user account. When acting as a representative of a user, the AI agent should not be granted permissions that the user would not be granted within the system or organization.</t>
   </si>
   <si>
     <t xml:space="preserve">Use an ensemble of models for inference to increase robustness to adversarial inputs. Some attacks may effectively evade one model or model family but be ineffective against others.
@@ -378,6 +452,9 @@
 Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0028</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
   </si>
   <si>
@@ -411,6 +488,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0029</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
   </si>
   <si>
@@ -423,12 +503,21 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0031</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0003</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0026</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0030</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0011</t>
   </si>
   <si>
@@ -438,6 +527,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0007</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0027</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0006</t>
   </si>
   <si>
@@ -456,7 +548,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>14 October 2025</t>
+    <t>07 November 2025</t>
   </si>
   <si>
     <t>source ID</t>
@@ -495,6 +587,15 @@
     <t>mitigates</t>
   </si>
   <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
+    <t>AML.T0085.001</t>
+  </si>
+  <si>
+    <t>AML.T0085</t>
+  </si>
+  <si>
     <t>AML.T0020</t>
   </si>
   <si>
@@ -582,9 +683,6 @@
     <t>AML.T0007</t>
   </si>
   <si>
-    <t>AML.T0053</t>
-  </si>
-  <si>
     <t>AML.T0010</t>
   </si>
   <si>
@@ -597,6 +695,9 @@
     <t>AML.T0054</t>
   </si>
   <si>
+    <t>AML.T0086</t>
+  </si>
+  <si>
     <t>AML.T0002.000</t>
   </si>
   <si>
@@ -615,12 +716,24 @@
     <t>AML.T0003</t>
   </si>
   <si>
+    <t>AML.T0080</t>
+  </si>
+  <si>
+    <t>AML.T0080.000</t>
+  </si>
+  <si>
     <t>AML.T0014</t>
   </si>
   <si>
     <t>AML.T0013</t>
   </si>
   <si>
+    <t>AML.T0082</t>
+  </si>
+  <si>
+    <t>AML.T0085.000</t>
+  </si>
+  <si>
     <t>AML.T0034</t>
   </si>
   <si>
@@ -633,6 +746,15 @@
     <t>AML.T0011</t>
   </si>
   <si>
+    <t>AI Agent Tool Invocation</t>
+  </si>
+  <si>
+    <t>AI Agent Tools</t>
+  </si>
+  <si>
+    <t>Data from AI Services</t>
+  </si>
+  <si>
     <t>Poison Training Data</t>
   </si>
   <si>
@@ -720,9 +842,6 @@
     <t>Discover AI Artifacts</t>
   </si>
   <si>
-    <t>AI Agent Tool Invocation</t>
-  </si>
-  <si>
     <t>AI Supply Chain Compromise</t>
   </si>
   <si>
@@ -735,6 +854,9 @@
     <t>LLM Jailbreak</t>
   </si>
   <si>
+    <t>Exfiltration via AI Agent Tool Invocation</t>
+  </si>
+  <si>
     <t>Datasets</t>
   </si>
   <si>
@@ -753,12 +875,24 @@
     <t>Search Victim-Owned Websites</t>
   </si>
   <si>
+    <t>AI Agent Context Poisoning</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
     <t>Discover AI Model Family</t>
   </si>
   <si>
     <t>Discover AI Model Ontology</t>
   </si>
   <si>
+    <t>RAG Credential Harvesting</t>
+  </si>
+  <si>
+    <t>RAG Databases</t>
+  </si>
+  <si>
     <t>Cost Harvesting</t>
   </si>
   <si>
@@ -771,145 +905,175 @@
     <t>User Execution</t>
   </si>
   <si>
-    <t>attack-pattern--02573874-564d-405f-b9ea-d5299cd6a770</t>
-  </si>
-  <si>
-    <t>attack-pattern--7187fe3d-e183-4dd9-a67c-e2be1cd7de1a</t>
-  </si>
-  <si>
-    <t>attack-pattern--023c1e52-ad3a-4991-9f0b-eef64fbfc503</t>
-  </si>
-  <si>
-    <t>attack-pattern--476c43ad-1a16-4a38-9109-22dad22cc998</t>
-  </si>
-  <si>
-    <t>attack-pattern--724b0528-6716-415e-8b32-023982f41b65</t>
-  </si>
-  <si>
-    <t>attack-pattern--75f4b6e6-2c1a-489a-9819-a46b08dece0b</t>
-  </si>
-  <si>
-    <t>attack-pattern--7c2776a4-292a-43a3-9f1f-55b743c3cdb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--ca7df05b-6f48-4979-a3ed-5d58340aa2a2</t>
-  </si>
-  <si>
-    <t>attack-pattern--07cdfd57-21de-4ac0-8214-499ea2f213c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--89977385-7cbf-4c35-aa5f-3556d423b16f</t>
-  </si>
-  <si>
-    <t>attack-pattern--fac3953d-1a76-41c2-b8fb-5335360f3a70</t>
-  </si>
-  <si>
-    <t>attack-pattern--75170956-8c65-4a9d-84cd-a390972a4ad8</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ab2242e-f52d-42a1-9b5c-487d56e6130a</t>
-  </si>
-  <si>
-    <t>attack-pattern--e055148e-b7d9-44eb-97b8-8e1147fa945d</t>
-  </si>
-  <si>
-    <t>attack-pattern--60c58536-0a04-4468-9e15-703b2d65e516</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c92231b-f3fe-4da0-ba24-f3d7243f9be7</t>
-  </si>
-  <si>
-    <t>attack-pattern--7fb874e9-a690-4696-ad74-69234fa9ace5</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9133f08-daaa-4cab-a3e1-c39746e2c3e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--041a9792-537b-4a7c-ad8a-e4d8adbb6f3c</t>
-  </si>
-  <si>
-    <t>attack-pattern--d276f052-7ca6-40c2-9b44-1bd8de0d9216</t>
-  </si>
-  <si>
-    <t>attack-pattern--633e83b9-7d27-4b3a-9f59-50cc8e60fa4e</t>
-  </si>
-  <si>
-    <t>attack-pattern--296d4b7d-fe9b-4e9f-ac78-69a001f6b94c</t>
-  </si>
-  <si>
-    <t>attack-pattern--da47ea85-1495-4419-be39-937d4f9fccf3</t>
-  </si>
-  <si>
-    <t>attack-pattern--3bae2bf3-b18a-4c90-866e-22a0a5c6364e</t>
-  </si>
-  <si>
-    <t>attack-pattern--92147a80-f17e-450e-907f-8ed496079a86</t>
-  </si>
-  <si>
-    <t>attack-pattern--77727d6d-ec87-4c1c-a8be-9252e061fcc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6798c32-1cb0-4fff-9ca7-5b340676d3bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--f1f4f17b-fec1-471d-9d48-52d0009747cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--0b6afaf3-1c27-4dbc-9ac4-9728b06571ee</t>
-  </si>
-  <si>
-    <t>attack-pattern--3e134aef-a2d3-44e7-9cf3-dd65306b7fd3</t>
-  </si>
-  <si>
-    <t>attack-pattern--63949113-3bdf-4bf9-8b97-bf88f6ea2b5d</t>
-  </si>
-  <si>
-    <t>attack-pattern--97c9fae3-b20b-4f07-8f54-28fde4aed8d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--68948a16-1aa4-4b26-a479-5fc24403e9e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--10f4a431-2663-498f-bef9-2de43f4d733d</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3998e6c-f7c9-4b89-a8d2-afb00c48aea1</t>
-  </si>
-  <si>
-    <t>attack-pattern--a733a4be-72af-44fd-8863-2a45c2de187b</t>
-  </si>
-  <si>
-    <t>attack-pattern--5b4aaa0e-a59b-4aef-9089-87153268f5a3</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab26383f-c974-4ea2-9e1b-8b9236760489</t>
-  </si>
-  <si>
-    <t>attack-pattern--8ed6d88d-79c6-48f5-a863-3d960d9a192c</t>
-  </si>
-  <si>
-    <t>attack-pattern--fed00fd1-986f-4962-a4d2-3ea7168ec7e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--29621dd4-0d45-4cef-956e-c94d46934874</t>
-  </si>
-  <si>
-    <t>attack-pattern--fe2aa670-46ff-4c8d-b47e-e924d9a7b44d</t>
-  </si>
-  <si>
-    <t>attack-pattern--af5092c6-0f01-47bc-81a7-b5780b4ee927</t>
-  </si>
-  <si>
-    <t>attack-pattern--d262dc2e-8e6b-46dd-b0f0-c79d64577fe8</t>
-  </si>
-  <si>
-    <t>attack-pattern--d024ba77-7c46-44fa-81dc-35376664d66f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3dec1e87-8cd0-4a71-977b-cb182ca4434f</t>
+    <t>attack-pattern--4a4c006f-9edb-4161-af0c-31ae36cfeb6e</t>
+  </si>
+  <si>
+    <t>attack-pattern--cb2ad666-315c-49e8-87f9-978ffcb1c696</t>
+  </si>
+  <si>
+    <t>attack-pattern--835d9bc1-2389-44e0-b4dd-87d11692833a</t>
+  </si>
+  <si>
+    <t>attack-pattern--c357897c-662c-4a41-883d-98bfb369ab30</t>
+  </si>
+  <si>
+    <t>attack-pattern--b0dbc5d2-4207-445a-9b08-6df360948fb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--6b9f7277-4207-4fa7-a8af-946715cade74</t>
+  </si>
+  <si>
+    <t>attack-pattern--eb12109e-5540-4de8-a3f2-0a3b85ebaf98</t>
+  </si>
+  <si>
+    <t>attack-pattern--94e4d142-dd64-464a-9675-e8a14aca8261</t>
+  </si>
+  <si>
+    <t>attack-pattern--68bda813-33bf-4843-9964-5c446c22c01e</t>
+  </si>
+  <si>
+    <t>attack-pattern--f57d4d58-f1ca-4924-becc-730e186ca0fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--8755a1fb-e2df-4538-bcf3-9d37d31cf0e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--78121d5a-c458-40dc-a83a-3e5771d5f966</t>
+  </si>
+  <si>
+    <t>attack-pattern--568bdae0-9c1e-4f17-9ad8-b1284fc343c2</t>
+  </si>
+  <si>
+    <t>attack-pattern--723710a2-5947-4211-a050-f79b4dc76144</t>
+  </si>
+  <si>
+    <t>attack-pattern--b882dc78-920e-4241-bf44-fdc95d1ab009</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a402de5-aa40-41f2-8e36-38e41ae962f7</t>
+  </si>
+  <si>
+    <t>attack-pattern--3ec5213b-94f3-4a03-a127-c7988dbf24d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4a80308-c6c1-487b-92f2-ca23374b0fad</t>
+  </si>
+  <si>
+    <t>attack-pattern--f34e16c9-f3a3-4895-91e1-c1349ac2424f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f3ca37b5-5658-4026-b992-e2bf9aa6edcb</t>
+  </si>
+  <si>
+    <t>attack-pattern--f8f6de56-8b84-4883-99d2-a6ab686ff802</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac97befe-574d-4624-9615-6ec5f3c15d7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b11c16e-6de1-4308-941d-503450611f29</t>
+  </si>
+  <si>
+    <t>attack-pattern--65a96a5b-97fc-4c2a-b28d-ec431a7d6b16</t>
+  </si>
+  <si>
+    <t>attack-pattern--eaec44e1-048d-487a-8774-da706f6744d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--30f1f6a3-f227-4293-a102-c4be62566f42</t>
+  </si>
+  <si>
+    <t>attack-pattern--948dd102-ecc7-4cf3-8331-e1e5abd54a66</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3f4ed27-3927-4af1-a9d0-a9f5a62e1b28</t>
+  </si>
+  <si>
+    <t>attack-pattern--4698eee5-b315-4030-be87-55ccb3e4de06</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5363aa6-628f-4326-a180-6390bc609aec</t>
+  </si>
+  <si>
+    <t>attack-pattern--2a2d2e69-55da-4212-809a-eb6ecde65f70</t>
+  </si>
+  <si>
+    <t>attack-pattern--4187ee08-0ae4-4b24-b648-c7e85c8805e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--0a4c52dc-1241-4d85-88af-e77919000c98</t>
+  </si>
+  <si>
+    <t>attack-pattern--14644c46-5768-4f18-a42d-2975aa3439bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--e19b38ca-6197-43d5-999f-6dd8bf79bf43</t>
+  </si>
+  <si>
+    <t>attack-pattern--15c00b06-ace3-46c1-9f37-5c882becfba3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ba0780ed-8721-4ed2-af10-7957816a2706</t>
+  </si>
+  <si>
+    <t>attack-pattern--7847b0ce-4e31-450c-b2f5-fe5d34d6ede4</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9746330-554c-4359-86a1-f3553102e56a</t>
+  </si>
+  <si>
+    <t>attack-pattern--74b811fa-679a-4af8-90c0-0d8e29d59e16</t>
+  </si>
+  <si>
+    <t>attack-pattern--1d35b531-4802-4a44-8897-47fbff98f4dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--87b94e0e-5d5d-438e-9603-083b2196e765</t>
+  </si>
+  <si>
+    <t>attack-pattern--fffa50b1-9bdb-4188-8734-10567904c15f</t>
+  </si>
+  <si>
+    <t>attack-pattern--12edcfea-e809-45ab-ba68-a678b828dc0e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b252a691-ee08-4ae8-981b-b3f004a32ee9</t>
+  </si>
+  <si>
+    <t>attack-pattern--753e6d26-e7b3-441b-909a-455119166eb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--242cd62a-715a-4482-b2fb-b628dd6c2bd2</t>
+  </si>
+  <si>
+    <t>attack-pattern--52283b39-3b57-4a79-afee-761cee49a4e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9b153778-a791-4e7d-b498-fd962a77624b</t>
+  </si>
+  <si>
+    <t>attack-pattern--6171704b-8ace-4d2e-8727-a4f0c5ca7b4a</t>
+  </si>
+  <si>
+    <t>attack-pattern--bb56158c-34a8-4eb6-947e-d6831babd031</t>
+  </si>
+  <si>
+    <t>attack-pattern--18b30bd8-ffa5-41ac-aa92-eead8ee22ae5</t>
+  </si>
+  <si>
+    <t>attack-pattern--392a08c5-1a22-45b3-b85d-28011da21a0c</t>
   </si>
   <si>
     <t>technique</t>
+  </si>
+  <si>
+    <t>Configuring AI Agent tools with access controls inherited from the user or the AI Agent invoking the tool can limit an adversary's capabilities within a system, including their ability to abuse tool invocations and  and access sensitive data.</t>
+  </si>
+  <si>
+    <t>Configuring AI Agent tools with access controls that are inherited from the user or the AI Agent invoking the tool can limit adversary's access to sensitive data.</t>
+  </si>
+  <si>
+    <t>Configuring AI Agent tools with access controls inherited from the user or the AI Agent invoking the tool can limit adversary's access to sensitive data.</t>
   </si>
   <si>
     <t>An AI BOM can help users identify untrustworthy model artifacts.</t>
@@ -1022,6 +1186,9 @@
     <t>Model alignment can improve the parametric safety of a model by guiding it away from unsafe prompts and responses.</t>
   </si>
   <si>
+    <t>Requiring user confirmation of AI agent tool invocations can prevent the automatic execution of tools by an adversary.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input restoration adds an extra layer of unknowns and randomness when an adversary evaluates the input-output relationship.
 </t>
   </si>
@@ -1061,6 +1228,9 @@
   </si>
   <si>
     <t>Dataset provenance can protect against poisoning of training data</t>
+  </si>
+  <si>
+    <t>Memory hardening can help protect LLM memory from manipulation and prevent poisoned memories from executing.</t>
   </si>
   <si>
     <t xml:space="preserve">Hardened models are less susceptible to integrity attacks.
@@ -1079,6 +1249,24 @@
 </t>
   </si>
   <si>
+    <t>Configuring privileged AI agents with proper access controls for tool use can limit an adversary's ability to abuse tool invocations if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring privileged AI agents with proper access controls can limit an adversary's ability to collect data from agent tool invocation if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring privileged AI agents with proper access controls can limit an adversary's ability to collect data from AI services if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring privileged AI agents with proper access controls can limit an adversary's ability to harvest credentials from RAG Databases if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring privileged AI agents with proper access controls can limit an adversary's ability to collect data from RAG Databases if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Restricting the automatic tool use when untrusted data is present can prevent adversaries from invoking tools via prompt injections.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restrict library loading by ML artifacts.
 </t>
   </si>
@@ -1119,6 +1307,21 @@
 </t>
   </si>
   <si>
+    <t>Configuring AI agents with permissions that are inherited from the user for tool use can limit an adversary's ability to abuse tool invocations if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring AI agents with permissions that are inherited from the user can limit an adversary's ability to collect data from agent tool invocation if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring AI agents with permissions that are inherited from the user can limit an adversary's ability to collect data from AI services if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring AI agents with permissions that are inherited from the user can limit an adversary's ability to harvest credentials from RAG Databases if the agent is compromised.</t>
+  </si>
+  <si>
+    <t>Configuring AI agents with permissions that are inherited from the user can limit an adversary's ability to collect data from RAG Databases if the agent is compromised.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using multiple different models ensures minimal performance loss if security flaw is found in tool for one model or family.
 </t>
   </si>
@@ -1169,313 +1372,376 @@
 </t>
   </si>
   <si>
-    <t>relationship--81417937-ea1c-4ab8-bc02-094ed419a153</t>
-  </si>
-  <si>
-    <t>relationship--fef9f8cf-3ec4-463f-9719-820a0984b9c6</t>
-  </si>
-  <si>
-    <t>relationship--f21bb20a-a6db-4df5-9d1e-2515b2c1113c</t>
-  </si>
-  <si>
-    <t>relationship--87d4014c-a80b-4e8a-b26f-25df19cd9b3c</t>
-  </si>
-  <si>
-    <t>relationship--c77f8ebb-de34-4172-bcc1-0415771434d7</t>
-  </si>
-  <si>
-    <t>relationship--5171bd6c-d493-49d2-868d-58b23fa51124</t>
-  </si>
-  <si>
-    <t>relationship--0e0e2d5f-3f19-445a-ac77-df245a40fe07</t>
-  </si>
-  <si>
-    <t>relationship--51cdc9af-68bf-410c-be38-71c381ea06cc</t>
-  </si>
-  <si>
-    <t>relationship--67fed717-d16b-4f0f-be2e-520b2131e697</t>
-  </si>
-  <si>
-    <t>relationship--30eed9e4-8d51-44cb-b575-4be14e300a4f</t>
-  </si>
-  <si>
-    <t>relationship--7a3d99c3-7e46-48e8-927d-bbfeb6144251</t>
-  </si>
-  <si>
-    <t>relationship--4f3f6ec9-8f8c-440a-92a2-cdd77bb2bcb0</t>
-  </si>
-  <si>
-    <t>relationship--1299d3a4-b0ba-4448-8c8e-674875c1ea81</t>
-  </si>
-  <si>
-    <t>relationship--8439d4c2-7309-4810-aabb-83b623f30d13</t>
-  </si>
-  <si>
-    <t>relationship--9aa86ed7-8eab-46de-8486-28e26e6d1107</t>
-  </si>
-  <si>
-    <t>relationship--b9a8295b-6a2e-4171-8465-55a875ac92dd</t>
-  </si>
-  <si>
-    <t>relationship--78b916bd-f822-401f-9cfe-3373e498ea09</t>
-  </si>
-  <si>
-    <t>relationship--542c2fc4-52b8-4a1b-95cb-364bc7b7beee</t>
-  </si>
-  <si>
-    <t>relationship--f7878822-c730-41d5-ad5b-6a5b091543f1</t>
-  </si>
-  <si>
-    <t>relationship--41037197-3892-4f93-b465-29260c671577</t>
-  </si>
-  <si>
-    <t>relationship--d1c7bdf7-0694-4698-b12e-61695c20fd70</t>
-  </si>
-  <si>
-    <t>relationship--9e1382bb-7214-4935-98c7-c01334a50ec3</t>
-  </si>
-  <si>
-    <t>relationship--d62250dd-6e1a-4573-9f41-ccf276fd70a6</t>
-  </si>
-  <si>
-    <t>relationship--435cf8dc-be77-4c87-9e15-9fd2d0030e36</t>
-  </si>
-  <si>
-    <t>relationship--a363af2a-7b76-4f8b-83c6-7337efa7d103</t>
-  </si>
-  <si>
-    <t>relationship--9f914443-4727-4182-a44e-cc3e15dce8ec</t>
-  </si>
-  <si>
-    <t>relationship--5335d93f-7723-41d3-8ffb-42ae3f43101b</t>
-  </si>
-  <si>
-    <t>relationship--2559c6fd-2d82-4636-9304-64a8ecd6f4d9</t>
-  </si>
-  <si>
-    <t>relationship--0a3cdeaa-a550-4a58-8b8f-d6c8f3d5237b</t>
-  </si>
-  <si>
-    <t>relationship--ed2ccb87-488b-4941-87b2-ea0f9f55754b</t>
-  </si>
-  <si>
-    <t>relationship--4224bf1b-74f9-4cfe-9d0a-7ecf96fa75a7</t>
-  </si>
-  <si>
-    <t>relationship--3e9722c6-b7dc-408a-b3f3-da3f0d48b0fa</t>
-  </si>
-  <si>
-    <t>relationship--60429ab5-3fd9-440f-ae0b-3fc27312b02b</t>
-  </si>
-  <si>
-    <t>relationship--1596d760-5861-42f8-b646-90dc7195c883</t>
-  </si>
-  <si>
-    <t>relationship--fa41ed54-c07c-426b-b069-5764838c2da6</t>
-  </si>
-  <si>
-    <t>relationship--079e06bf-0e24-4221-820c-f2be0dc02a3f</t>
-  </si>
-  <si>
-    <t>relationship--cc32cfb8-051f-4371-940e-3066c446291e</t>
-  </si>
-  <si>
-    <t>relationship--d314b045-e9a5-454d-b526-327d334860df</t>
-  </si>
-  <si>
-    <t>relationship--e01545f2-69f0-4b63-83b0-1fb68e7a1e57</t>
-  </si>
-  <si>
-    <t>relationship--faabe1eb-1c05-43b0-8077-31522bcfef4c</t>
-  </si>
-  <si>
-    <t>relationship--db2aa4d4-3765-4076-8c21-609d934e7753</t>
-  </si>
-  <si>
-    <t>relationship--eb209dab-9293-44f3-ab83-1edb434fdb0d</t>
-  </si>
-  <si>
-    <t>relationship--10c56b7c-73f5-4463-bc59-db065e7dedf9</t>
-  </si>
-  <si>
-    <t>relationship--215f76c4-0f65-4f76-a17c-501e9d7c36d3</t>
-  </si>
-  <si>
-    <t>relationship--949b2b1a-41fd-49af-a6ff-5899812cfd85</t>
-  </si>
-  <si>
-    <t>relationship--90cb8975-af58-4819-8ada-6419313cc986</t>
-  </si>
-  <si>
-    <t>relationship--bcf6e46f-e141-433f-8bc7-b386b4c7af15</t>
-  </si>
-  <si>
-    <t>relationship--a9d50213-4a8b-44f2-85ea-c181979aa9b1</t>
-  </si>
-  <si>
-    <t>relationship--e5530edc-0ac0-4e13-9599-0600d987d777</t>
-  </si>
-  <si>
-    <t>relationship--1d5ed945-c590-4e67-a2e9-f3402382d60e</t>
-  </si>
-  <si>
-    <t>relationship--ccaed90f-71f0-469f-ae2c-4b6822631ba6</t>
-  </si>
-  <si>
-    <t>relationship--ce59d0e6-9ea6-4c81-ad84-2525094e1a20</t>
-  </si>
-  <si>
-    <t>relationship--998e60bc-f1e7-4672-9b40-33fbe1a0deee</t>
-  </si>
-  <si>
-    <t>relationship--c1b6ac69-4ba0-4fec-b74a-65ad871d45fd</t>
-  </si>
-  <si>
-    <t>relationship--202a63a2-d2f1-46c4-af5d-92c6dc3f9aef</t>
-  </si>
-  <si>
-    <t>relationship--7bf5edf4-b7f4-4b4f-839a-aac076f1aa72</t>
-  </si>
-  <si>
-    <t>relationship--2f0468c3-0370-41b3-bb7a-4eb3f5f83922</t>
-  </si>
-  <si>
-    <t>relationship--fa65b2df-7ab2-4989-a23d-162a3fd906e1</t>
-  </si>
-  <si>
-    <t>relationship--2b2853f4-cf74-403f-9ce9-8bed07c7cd25</t>
-  </si>
-  <si>
-    <t>relationship--a7690b2b-cfee-4755-9427-be8c55387390</t>
-  </si>
-  <si>
-    <t>relationship--204ba228-370f-4199-97ec-91638a90b4d3</t>
-  </si>
-  <si>
-    <t>relationship--d63fb4c1-92b0-4515-abfb-785851d126a1</t>
-  </si>
-  <si>
-    <t>relationship--8ca0497e-c326-4ef7-aef7-8043c44e550d</t>
-  </si>
-  <si>
-    <t>relationship--fda01315-1dfb-46cb-b07d-635130ad625a</t>
-  </si>
-  <si>
-    <t>relationship--84bd04df-4374-4dee-bb51-33dbacb2caea</t>
-  </si>
-  <si>
-    <t>relationship--e69053c8-4149-417b-a0bc-f3deae3f0c11</t>
-  </si>
-  <si>
-    <t>relationship--5ddd79d0-ba5e-407a-899f-44d42352da4b</t>
-  </si>
-  <si>
-    <t>relationship--75bc658f-f0e8-4812-b6dd-eebb989fc09d</t>
-  </si>
-  <si>
-    <t>relationship--f0c4b49f-ab52-4687-af49-bb36b6e1a159</t>
-  </si>
-  <si>
-    <t>relationship--6680be02-fba5-4720-9ab1-1f33c6e3adfd</t>
-  </si>
-  <si>
-    <t>relationship--3d34536b-3d8c-4dec-9aef-44fcc23f0bce</t>
-  </si>
-  <si>
-    <t>relationship--483faafe-e3a1-425d-8970-88c95f7bf1c3</t>
-  </si>
-  <si>
-    <t>relationship--1ff39f31-a22e-4659-be63-df27edd2b2fe</t>
-  </si>
-  <si>
-    <t>relationship--5e141ed8-3fce-4f3e-97c6-9364bde2377e</t>
-  </si>
-  <si>
-    <t>relationship--29fce26d-4f05-4d0b-97a7-34ab9583cd25</t>
-  </si>
-  <si>
-    <t>relationship--52b1671b-1872-4860-ad8d-509caac85d79</t>
-  </si>
-  <si>
-    <t>relationship--7461b1b2-1d13-42c5-8ea7-d79e1f7271a2</t>
-  </si>
-  <si>
-    <t>relationship--ffc56fd4-ee09-4e55-9073-65009c0b206c</t>
-  </si>
-  <si>
-    <t>relationship--d55e2a68-ae70-48a1-96c0-de9e74c1677b</t>
-  </si>
-  <si>
-    <t>relationship--6e9af941-ee3f-4496-8fb7-646fd3335db2</t>
-  </si>
-  <si>
-    <t>relationship--e36f8c69-6d58-4247-a9d3-0a77fa919f7e</t>
-  </si>
-  <si>
-    <t>relationship--10ba0689-07f1-46ba-a505-d0a5db5083ca</t>
-  </si>
-  <si>
-    <t>relationship--ddb4c9bf-cfd0-4b50-a37b-8befba945bcf</t>
-  </si>
-  <si>
-    <t>relationship--589f9801-6351-4239-a4db-316d68266226</t>
-  </si>
-  <si>
-    <t>relationship--8de08fef-ef2b-462a-9137-fc52f5dee4d9</t>
-  </si>
-  <si>
-    <t>relationship--8e870509-4a27-461f-ad78-21ae6de1dc73</t>
-  </si>
-  <si>
-    <t>relationship--b01b7346-5e69-4211-8634-84315e12f001</t>
-  </si>
-  <si>
-    <t>relationship--55b27e51-8a2d-4fdb-bc40-aca8b6c6b195</t>
-  </si>
-  <si>
-    <t>relationship--4bec88c7-870e-47cf-a17c-aa6e1233fbd7</t>
-  </si>
-  <si>
-    <t>relationship--fd26b9e2-5886-4e37-a999-387cccbdd06c</t>
-  </si>
-  <si>
-    <t>relationship--c19a35f0-fb5b-4981-8baa-9dd986bd2e3b</t>
-  </si>
-  <si>
-    <t>relationship--8a88a25f-ba98-4348-8f35-81110df91c48</t>
-  </si>
-  <si>
-    <t>relationship--c297a428-9c57-4e78-974b-dbc8151460eb</t>
-  </si>
-  <si>
-    <t>relationship--5b857410-bddb-45b8-8d80-77fc4b017ec2</t>
-  </si>
-  <si>
-    <t>relationship--100356ec-cd07-435f-a225-bc1345847d28</t>
-  </si>
-  <si>
-    <t>relationship--9f247a53-70ec-4336-8c85-8ed8d78c2267</t>
-  </si>
-  <si>
-    <t>relationship--4dba341f-39d5-487a-a0d2-50bcccd89ee3</t>
-  </si>
-  <si>
-    <t>relationship--cd62ecfc-454d-4845-8afa-13d912b446aa</t>
-  </si>
-  <si>
-    <t>relationship--c4f90249-f572-4c99-b737-9c993e14d43e</t>
-  </si>
-  <si>
-    <t>relationship--37ddd512-29a6-43b5-9f74-b66b1118de36</t>
-  </si>
-  <si>
-    <t>relationship--92ba7629-4bd5-4aaf-940d-b2afbb9d8b21</t>
-  </si>
-  <si>
-    <t>relationship--2321aafc-6c4e-4d30-9fb8-6e38bdc9648a</t>
-  </si>
-  <si>
-    <t>relationship--871d16eb-61c2-40f2-a35e-b772345b12a3</t>
+    <t>relationship--5d3e89f5-33f6-45a6-9f8d-066a628c9b0b</t>
+  </si>
+  <si>
+    <t>relationship--1c1678e3-c9c0-42a2-baf6-2f500d03250c</t>
+  </si>
+  <si>
+    <t>relationship--b3494523-f6a1-40df-9800-75d810026453</t>
+  </si>
+  <si>
+    <t>relationship--c6af94bb-8e4d-4a90-bd97-e28106dc520d</t>
+  </si>
+  <si>
+    <t>relationship--8b2557c6-629b-4683-a872-3bcfc1932b39</t>
+  </si>
+  <si>
+    <t>relationship--6b58e337-ae36-473f-be39-a52e669e008b</t>
+  </si>
+  <si>
+    <t>relationship--8fdb8269-7a7c-4b0c-9845-11aa84a6c026</t>
+  </si>
+  <si>
+    <t>relationship--4c7bb416-160d-4043-b80f-be46e6458f28</t>
+  </si>
+  <si>
+    <t>relationship--aa500bb7-e006-4b5d-82e5-b57878f123c7</t>
+  </si>
+  <si>
+    <t>relationship--2f484227-a886-4499-b09f-f41a74dcd221</t>
+  </si>
+  <si>
+    <t>relationship--9153ce07-44d7-4695-85e1-f1af10fcb3a1</t>
+  </si>
+  <si>
+    <t>relationship--fa927e7a-ec05-4bf4-8253-b32d074c6bb7</t>
+  </si>
+  <si>
+    <t>relationship--b9f800d6-f00d-4c07-8b03-a0433dfeeb05</t>
+  </si>
+  <si>
+    <t>relationship--1aa36080-cf8c-46ef-8256-37f516d69f50</t>
+  </si>
+  <si>
+    <t>relationship--c703f4a0-34f1-43a9-9289-9fc17eadecf2</t>
+  </si>
+  <si>
+    <t>relationship--3861380b-a1ca-40c6-8a29-8d40c38408bb</t>
+  </si>
+  <si>
+    <t>relationship--e9d7e0bc-96cd-4450-98fb-5805bfedd653</t>
+  </si>
+  <si>
+    <t>relationship--e89aed10-e060-431b-804a-15110a64c6ea</t>
+  </si>
+  <si>
+    <t>relationship--6bc38276-7a07-4068-bf2c-e7ccb3c2b6b0</t>
+  </si>
+  <si>
+    <t>relationship--18a294b8-d4c5-4a29-af20-89eeade457c7</t>
+  </si>
+  <si>
+    <t>relationship--ea609574-5204-4aa4-b92d-5ae3a1f48ad4</t>
+  </si>
+  <si>
+    <t>relationship--1e9e2484-1f24-49c3-a086-2d417247a78f</t>
+  </si>
+  <si>
+    <t>relationship--3512072c-a2ba-4ca9-86f4-b21b8f3edcc8</t>
+  </si>
+  <si>
+    <t>relationship--b2791d3e-b37f-4ad0-b9f2-f9fb2dab9587</t>
+  </si>
+  <si>
+    <t>relationship--87e4d516-0583-4b25-8a62-bffb7dd1e969</t>
+  </si>
+  <si>
+    <t>relationship--e5bafa11-7c0c-4af8-9fd2-834068c25305</t>
+  </si>
+  <si>
+    <t>relationship--d5a9c308-e2c0-4d03-8c2a-3bc6858e0739</t>
+  </si>
+  <si>
+    <t>relationship--7a952f43-05fc-4286-ad1c-d6e293489822</t>
+  </si>
+  <si>
+    <t>relationship--671d6bac-08cc-4b50-a1ce-f7d94236fd51</t>
+  </si>
+  <si>
+    <t>relationship--65d5cfb6-3cd2-4350-83dd-cbc5639df4db</t>
+  </si>
+  <si>
+    <t>relationship--7ba94341-a157-4101-a34b-47edc2e9a922</t>
+  </si>
+  <si>
+    <t>relationship--421d9aa1-6cb8-42aa-9aef-414fd43c50bf</t>
+  </si>
+  <si>
+    <t>relationship--78a64434-28da-4f30-83ee-c95798f47f78</t>
+  </si>
+  <si>
+    <t>relationship--5424eacd-bb68-4086-b556-6ae2153506f6</t>
+  </si>
+  <si>
+    <t>relationship--0afc1bcc-52f1-40f7-b6ed-caab8ee67de4</t>
+  </si>
+  <si>
+    <t>relationship--3821318a-fc9e-47fa-81f8-bdacdd95e704</t>
+  </si>
+  <si>
+    <t>relationship--8a88a753-c471-4fc2-8b1c-1956cb1f145c</t>
+  </si>
+  <si>
+    <t>relationship--5e632305-1784-44d8-84dd-c8798cb025ce</t>
+  </si>
+  <si>
+    <t>relationship--4ec914f3-2191-4eb6-bbb1-ff62b4ef6871</t>
+  </si>
+  <si>
+    <t>relationship--bb113462-8a52-4b8e-9c63-1697426af405</t>
+  </si>
+  <si>
+    <t>relationship--8f227f57-3baf-4032-a70e-2aa65c30a8f0</t>
+  </si>
+  <si>
+    <t>relationship--689a3f40-add6-40e4-8556-b14759def3eb</t>
+  </si>
+  <si>
+    <t>relationship--df295041-aa2d-4775-ab57-a2b79426ab69</t>
+  </si>
+  <si>
+    <t>relationship--6f281351-b0b6-4309-8ae8-97b4f66025ab</t>
+  </si>
+  <si>
+    <t>relationship--31f46c54-c027-492c-8bff-96b55ff9ac0d</t>
+  </si>
+  <si>
+    <t>relationship--ca55c7bd-cc82-4fd2-8c3b-cd02ce3209b3</t>
+  </si>
+  <si>
+    <t>relationship--e4558619-3d32-4893-9bd3-b87829c64ed7</t>
+  </si>
+  <si>
+    <t>relationship--7d9c57a1-dcfa-48d4-a79f-0ef441b3a90f</t>
+  </si>
+  <si>
+    <t>relationship--3997cf11-be05-4939-93eb-f25acd27bd77</t>
+  </si>
+  <si>
+    <t>relationship--497bbd27-1e82-493d-be4d-b9affc897da2</t>
+  </si>
+  <si>
+    <t>relationship--132b6296-0034-43c9-9b60-f6f8cd5ed306</t>
+  </si>
+  <si>
+    <t>relationship--2bd75f8b-d1c2-4231-b795-bac45506f760</t>
+  </si>
+  <si>
+    <t>relationship--edaa03c9-7094-4d0a-90e2-02b7043b2eb0</t>
+  </si>
+  <si>
+    <t>relationship--135743b6-d013-456b-b404-a9128f442dfd</t>
+  </si>
+  <si>
+    <t>relationship--158e1837-6d39-44bd-91fa-9e34fd642fef</t>
+  </si>
+  <si>
+    <t>relationship--78b9a654-d22f-40a3-933e-1f5b2dfbffc9</t>
+  </si>
+  <si>
+    <t>relationship--00a07810-faec-4f89-a428-88182ec510c8</t>
+  </si>
+  <si>
+    <t>relationship--3fdfef1f-bf05-4ef0-95cb-d3a3cf27ff50</t>
+  </si>
+  <si>
+    <t>relationship--0a5b5b8b-8a19-400e-9bca-778adbf562d2</t>
+  </si>
+  <si>
+    <t>relationship--ecab7913-9982-417b-b9d6-905dc7fae4bb</t>
+  </si>
+  <si>
+    <t>relationship--4150a020-23d4-44d5-b3af-6cd0b83ff56b</t>
+  </si>
+  <si>
+    <t>relationship--9acf1a85-2ce2-4ab3-a021-be20986e12ef</t>
+  </si>
+  <si>
+    <t>relationship--04f6fa48-3d0b-4211-bc9e-e06508ba83be</t>
+  </si>
+  <si>
+    <t>relationship--8c518bac-4483-48f6-8420-a470d3518513</t>
+  </si>
+  <si>
+    <t>relationship--6f146fc3-68aa-4e36-941d-f52c024cb7b3</t>
+  </si>
+  <si>
+    <t>relationship--aed24a96-6a62-42f1-82b7-5a14268c4e47</t>
+  </si>
+  <si>
+    <t>relationship--f136aeb0-c1ae-4a26-96a9-f502be3755fb</t>
+  </si>
+  <si>
+    <t>relationship--fc4aeffc-60c6-43ab-9e3c-8a6b4cbf13a6</t>
+  </si>
+  <si>
+    <t>relationship--62d1c87a-3ac4-413e-8e6c-4493e0c521d2</t>
+  </si>
+  <si>
+    <t>relationship--3e61fbc1-9276-43b7-af21-64b8e3ca7af5</t>
+  </si>
+  <si>
+    <t>relationship--2abe7aa5-93d2-4303-af11-e34f38ccb5f7</t>
+  </si>
+  <si>
+    <t>relationship--2844fd91-1afd-46f7-ab68-de29fd187625</t>
+  </si>
+  <si>
+    <t>relationship--af949986-fad9-49c1-b449-2e92cd87fe38</t>
+  </si>
+  <si>
+    <t>relationship--0ba63099-d5ba-47cc-b245-636d76da3239</t>
+  </si>
+  <si>
+    <t>relationship--69b2c26f-56c3-4c32-a56f-04a6dd3c7d68</t>
+  </si>
+  <si>
+    <t>relationship--467ab013-80af-4c87-9e11-41e6739d3dfa</t>
+  </si>
+  <si>
+    <t>relationship--085f0607-60ac-4ebd-b01f-7e234746fe7a</t>
+  </si>
+  <si>
+    <t>relationship--dbec32d1-3692-44e5-9c90-b6bcede29fb7</t>
+  </si>
+  <si>
+    <t>relationship--a2cb9b76-e071-48d9-ad0a-25714ae2cbea</t>
+  </si>
+  <si>
+    <t>relationship--ed16645d-03c2-4e51-b92a-52d1dd9032a0</t>
+  </si>
+  <si>
+    <t>relationship--b275c65d-3a56-4319-9363-f6deb3f1afff</t>
+  </si>
+  <si>
+    <t>relationship--57bdd52d-eeba-47c1-a582-ef71ec70d2df</t>
+  </si>
+  <si>
+    <t>relationship--5b4c0e46-5424-471c-9e56-af757938bf58</t>
+  </si>
+  <si>
+    <t>relationship--b20b2c53-a26a-4d52-a3d9-8bc9e6359e05</t>
+  </si>
+  <si>
+    <t>relationship--c1153e97-27b3-424d-bce8-815768064227</t>
+  </si>
+  <si>
+    <t>relationship--a35a2fe9-1622-4e61-867f-6b90b6751a41</t>
+  </si>
+  <si>
+    <t>relationship--eb91227b-3908-4f10-9013-f301b58fc1f8</t>
+  </si>
+  <si>
+    <t>relationship--8e0fe6f0-fb1c-42c2-a1c4-e0abde825470</t>
+  </si>
+  <si>
+    <t>relationship--6863c1eb-a082-4b7f-a557-cbdfa0f9f736</t>
+  </si>
+  <si>
+    <t>relationship--b7bb87c1-8d40-4011-9aa1-6fb236e1a76f</t>
+  </si>
+  <si>
+    <t>relationship--f3ba14ab-13c2-4a93-82fe-90e086052e8e</t>
+  </si>
+  <si>
+    <t>relationship--16c6a53f-e8d2-43dc-be6a-43884dad70e1</t>
+  </si>
+  <si>
+    <t>relationship--1a7ace27-2b4b-4aed-88e6-d2d2e6dc2217</t>
+  </si>
+  <si>
+    <t>relationship--67acbe15-6c36-4fbc-b46e-b4bdc3b6fd49</t>
+  </si>
+  <si>
+    <t>relationship--c1ee2286-a205-48a5-86f4-6d2563c634db</t>
+  </si>
+  <si>
+    <t>relationship--a405c796-fbc8-4ffe-9f36-eb38ce938f36</t>
+  </si>
+  <si>
+    <t>relationship--2b191e14-1b08-4f91-bb1b-5cb8d6a6d904</t>
+  </si>
+  <si>
+    <t>relationship--0dd146dc-dd1a-415b-9488-b5e588db452c</t>
+  </si>
+  <si>
+    <t>relationship--026404ec-febc-42cb-81e8-66dd7b58746f</t>
+  </si>
+  <si>
+    <t>relationship--757c5e79-1983-4ce0-bf20-0ff8229b3d2e</t>
+  </si>
+  <si>
+    <t>relationship--0856a21a-9899-4a4c-9a1c-bcc4428fa074</t>
+  </si>
+  <si>
+    <t>relationship--d0938347-6b88-4e77-a300-77e3bf6e1591</t>
+  </si>
+  <si>
+    <t>relationship--f1d9909a-e869-4eeb-90be-881e6d8bac40</t>
+  </si>
+  <si>
+    <t>relationship--9081ab0d-4d5b-42ee-8e4d-352633dd74a6</t>
+  </si>
+  <si>
+    <t>relationship--c2f6bdf8-4ec8-4a55-858d-0a3cb7c82cbf</t>
+  </si>
+  <si>
+    <t>relationship--e5b576ff-19dc-43dc-a8e3-d4ac14c09166</t>
+  </si>
+  <si>
+    <t>relationship--3a9be2fa-3525-4a71-9d87-4b5a2976cc89</t>
+  </si>
+  <si>
+    <t>relationship--33d9ff21-dc28-4588-9d62-1eea575f4aa0</t>
+  </si>
+  <si>
+    <t>relationship--4ad4b75d-6bac-4565-b46e-b5277da3f115</t>
+  </si>
+  <si>
+    <t>relationship--052ed218-801b-467b-84d5-6a9737d80df9</t>
+  </si>
+  <si>
+    <t>relationship--d69474ea-3258-43ab-bf2b-cacd6687b6e6</t>
+  </si>
+  <si>
+    <t>relationship--93c7ac63-0115-4ea6-afa3-7ccb8037017b</t>
+  </si>
+  <si>
+    <t>relationship--71ae08b0-038c-4e5d-b1b7-97d8f3ee7236</t>
+  </si>
+  <si>
+    <t>relationship--d73e5bd3-b4ba-4eee-99df-8a8657528bd6</t>
+  </si>
+  <si>
+    <t>relationship--64c86a64-4752-42a8-8fa1-472b35ca99ad</t>
+  </si>
+  <si>
+    <t>relationship--5ec5ede5-7fb7-45aa-ab2d-c1ea13b62811</t>
+  </si>
+  <si>
+    <t>relationship--1f48ef52-a533-4f8b-80f1-7650af3cade9</t>
+  </si>
+  <si>
+    <t>relationship--f3ea415d-2a57-4db2-9350-311a3f8cdbfc</t>
+  </si>
+  <si>
+    <t>relationship--1ca34111-bc50-41f4-b0ea-6adce4f32968</t>
+  </si>
+  <si>
+    <t>relationship--aa9c0a53-2f1c-4f88-9588-06372c213e55</t>
+  </si>
+  <si>
+    <t>relationship--4d1f5a09-cba2-447e-81bf-d66f256a7f6a</t>
+  </si>
+  <si>
+    <t>relationship--ccdb4dca-a64f-4fcf-adff-1ea7f5539616</t>
+  </si>
+  <si>
+    <t>relationship--3ae6749b-835a-4696-a592-296aeb07b11e</t>
+  </si>
+  <si>
+    <t>relationship--db3cca45-eb79-4f5e-a898-2d25331b086e</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1883,22 +2149,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1906,22 +2172,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1929,22 +2195,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1952,22 +2218,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1975,22 +2241,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1998,22 +2264,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2021,22 +2287,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2044,22 +2310,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2067,22 +2333,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2090,22 +2356,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2113,22 +2379,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2136,22 +2402,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2159,22 +2425,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2182,22 +2448,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2205,22 +2471,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2228,22 +2494,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2251,22 +2517,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2274,22 +2540,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2297,22 +2563,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2320,22 +2586,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2343,22 +2609,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2366,22 +2632,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2389,22 +2655,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2412,22 +2678,22 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2435,22 +2701,22 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2458,22 +2724,160 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2504,6 +2908,12 @@
     <hyperlink ref="E25" r:id="rId24"/>
     <hyperlink ref="E26" r:id="rId25"/>
     <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2511,7 +2921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,34 +2929,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2563,40 +2973,40 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2604,40 +3014,40 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2645,81 +3055,81 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J5" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2727,40 +3137,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2768,40 +3178,40 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="K7" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="L7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2809,40 +3219,40 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="K8" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2850,40 +3260,40 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J9" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="K9" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2891,40 +3301,40 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J10" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2932,327 +3342,327 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J11" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="K11" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J12" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="K12" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J13" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J14" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="K14" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J15" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J16" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="K16" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="K17" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J18" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="K18" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3260,40 +3670,40 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J19" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="K19" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3301,40 +3711,40 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J20" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K20" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3342,81 +3752,81 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="K21" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J22" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="K22" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3424,40 +3834,40 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="H23" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J23" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="K23" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="L23" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3465,40 +3875,40 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J24" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="K24" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="L24" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3506,40 +3916,40 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J25" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="K25" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3547,40 +3957,40 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J26" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="K26" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3588,40 +3998,40 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J27" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="K27" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="L27" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3629,204 +4039,204 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J28" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="K28" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="L28" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="K29" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="H30" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="K30" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="L30" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="K31" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="L31" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="K32" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3834,40 +4244,40 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="K33" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="L33" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3875,81 +4285,81 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="K34" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M35" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3957,40 +4367,40 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="L36" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3998,40 +4408,40 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4039,40 +4449,40 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4080,40 +4490,40 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F39" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="K39" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="L39" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4121,163 +4531,163 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="L40" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="K42" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="L42" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="L43" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M43" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4285,40 +4695,40 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="L44" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4326,40 +4736,40 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M45" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4367,122 +4777,122 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H47" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I47" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="L47" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J48" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4490,40 +4900,40 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4531,40 +4941,40 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J50" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="K50" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="L50" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M50" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4572,122 +4982,122 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J52" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="L52" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J53" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="L53" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4695,40 +5105,40 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J54" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M54" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4736,40 +5146,40 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="G55" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J55" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="L55" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M55" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4777,40 +5187,40 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J56" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4818,40 +5228,40 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M57" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4859,81 +5269,81 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J58" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="K58" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M58" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="H59" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="I59" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J59" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="K59" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4941,40 +5351,40 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G60" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J60" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="K60" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="L60" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M60" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4982,122 +5392,122 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J61" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="K61" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="H62" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="I62" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J62" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="K62" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H63" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J63" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="K63" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -5105,122 +5515,122 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J64" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="K64" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M64" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="H65" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="I65" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="K65" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="L65" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="H66" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J66" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="K66" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="L66" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M66" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -5228,40 +5638,40 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="G67" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J67" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="L67" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M67" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -5269,40 +5679,40 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="K68" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M68" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5310,40 +5720,40 @@
         <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="G69" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J69" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K69" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="L69" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M69" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5351,40 +5761,40 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J70" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="K70" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="L70" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5392,1106 +5802,1106 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J71" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="K71" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="L71" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M71" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J72" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="K72" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="L72" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M72" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="I73" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J73" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="K73" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="L73" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M73" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="K74" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="L74" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M74" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J75" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="K75" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="L75" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M75" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J76" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="K76" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M76" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="H77" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J77" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="K77" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="L77" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M77" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="H78" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="I78" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J78" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="K78" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M78" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J79" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K79" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="L79" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M79" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F80" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G80" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J80" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K80" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="L80" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M80" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="I81" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J81" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K81" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="L81" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="I82" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J82" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="K82" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="L82" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M82" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="I83" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J83" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="K83" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M83" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="I84" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J84" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="K84" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="L84" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F85" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I85" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J85" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="K85" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="L85" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M85" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="G86" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="H86" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J86" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="K86" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M86" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="G87" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H87" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="I87" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J87" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="K87" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="L87" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M87" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="G88" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="H88" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="I88" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J88" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K88" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="L88" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="I89" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J89" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="K89" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="L89" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M89" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G90" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I90" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J90" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="K90" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M90" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="G91" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J91" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="K91" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="L91" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M91" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="H92" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="I92" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J92" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="K92" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="L92" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M92" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="G93" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="H93" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="I93" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J93" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="K93" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="L93" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M93" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J94" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="K94" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="L94" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M94" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="H95" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="I95" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J95" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="K95" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="L95" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M95" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="G96" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J96" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="K96" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="L96" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M96" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G97" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="I97" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J97" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="K97" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="L97" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M97" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -6499,40 +6909,40 @@
         <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="H98" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="I98" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J98" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="K98" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="L98" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M98" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -6540,40 +6950,40 @@
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G99" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H99" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="I99" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J99" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="K99" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M99" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -6581,40 +6991,40 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="G100" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="H100" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="I100" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J100" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="K100" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="L100" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M100" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -6622,40 +7032,40 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F101" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G101" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="H101" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I101" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J101" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="K101" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="L101" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M101" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -6663,40 +7073,40 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="G102" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="H102" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="I102" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J102" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="K102" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="L102" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M102" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -6704,40 +7114,40 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G103" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="I103" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="J103" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="K103" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="L103" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M103" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -6745,40 +7155,901 @@
         <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="I104" t="s">
+        <v>340</v>
+      </c>
+      <c r="J104" t="s">
+        <v>407</v>
+      </c>
+      <c r="K104" t="s">
+        <v>527</v>
+      </c>
+      <c r="L104" t="s">
+        <v>168</v>
+      </c>
+      <c r="M104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" t="s">
+        <v>235</v>
+      </c>
+      <c r="H105" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105" t="s">
+        <v>340</v>
+      </c>
+      <c r="J105" t="s">
+        <v>408</v>
+      </c>
+      <c r="K105" t="s">
+        <v>528</v>
+      </c>
+      <c r="L105" t="s">
+        <v>168</v>
+      </c>
+      <c r="M105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106" t="s">
+        <v>236</v>
+      </c>
+      <c r="H106" t="s">
         <v>289</v>
       </c>
-      <c r="J104" t="s">
-        <v>357</v>
-      </c>
-      <c r="K104" t="s">
-        <v>460</v>
-      </c>
-      <c r="L104" t="s">
-        <v>138</v>
-      </c>
-      <c r="M104" t="s">
-        <v>138</v>
+      <c r="I106" t="s">
+        <v>340</v>
+      </c>
+      <c r="J106" t="s">
+        <v>409</v>
+      </c>
+      <c r="K106" t="s">
+        <v>529</v>
+      </c>
+      <c r="L106" t="s">
+        <v>168</v>
+      </c>
+      <c r="M106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" t="s">
+        <v>270</v>
+      </c>
+      <c r="H107" t="s">
+        <v>323</v>
+      </c>
+      <c r="I107" t="s">
+        <v>340</v>
+      </c>
+      <c r="J107" t="s">
+        <v>407</v>
+      </c>
+      <c r="K107" t="s">
+        <v>530</v>
+      </c>
+      <c r="L107" t="s">
+        <v>168</v>
+      </c>
+      <c r="M107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" t="s">
+        <v>180</v>
+      </c>
+      <c r="F108" t="s">
+        <v>228</v>
+      </c>
+      <c r="G108" t="s">
+        <v>281</v>
+      </c>
+      <c r="H108" t="s">
+        <v>334</v>
+      </c>
+      <c r="I108" t="s">
+        <v>340</v>
+      </c>
+      <c r="J108" t="s">
+        <v>410</v>
+      </c>
+      <c r="K108" t="s">
+        <v>531</v>
+      </c>
+      <c r="L108" t="s">
+        <v>168</v>
+      </c>
+      <c r="M108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" t="s">
+        <v>180</v>
+      </c>
+      <c r="F109" t="s">
+        <v>229</v>
+      </c>
+      <c r="G109" t="s">
+        <v>282</v>
+      </c>
+      <c r="H109" t="s">
+        <v>335</v>
+      </c>
+      <c r="I109" t="s">
+        <v>340</v>
+      </c>
+      <c r="J109" t="s">
+        <v>411</v>
+      </c>
+      <c r="K109" t="s">
+        <v>532</v>
+      </c>
+      <c r="L109" t="s">
+        <v>168</v>
+      </c>
+      <c r="M109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" t="s">
+        <v>258</v>
+      </c>
+      <c r="H110" t="s">
+        <v>311</v>
+      </c>
+      <c r="I110" t="s">
+        <v>340</v>
+      </c>
+      <c r="J110" t="s">
+        <v>412</v>
+      </c>
+      <c r="K110" t="s">
+        <v>533</v>
+      </c>
+      <c r="L110" t="s">
+        <v>168</v>
+      </c>
+      <c r="M110" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" t="s">
+        <v>180</v>
+      </c>
+      <c r="F111" t="s">
+        <v>226</v>
+      </c>
+      <c r="G111" t="s">
+        <v>279</v>
+      </c>
+      <c r="H111" t="s">
+        <v>332</v>
+      </c>
+      <c r="I111" t="s">
+        <v>340</v>
+      </c>
+      <c r="J111" t="s">
+        <v>413</v>
+      </c>
+      <c r="K111" t="s">
+        <v>534</v>
+      </c>
+      <c r="L111" t="s">
+        <v>168</v>
+      </c>
+      <c r="M111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" t="s">
+        <v>179</v>
+      </c>
+      <c r="E112" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H112" t="s">
+        <v>309</v>
+      </c>
+      <c r="I112" t="s">
+        <v>340</v>
+      </c>
+      <c r="J112" t="s">
+        <v>414</v>
+      </c>
+      <c r="K112" t="s">
+        <v>535</v>
+      </c>
+      <c r="L112" t="s">
+        <v>168</v>
+      </c>
+      <c r="M112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>179</v>
+      </c>
+      <c r="E113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F113" t="s">
+        <v>204</v>
+      </c>
+      <c r="G113" t="s">
+        <v>257</v>
+      </c>
+      <c r="H113" t="s">
+        <v>310</v>
+      </c>
+      <c r="I113" t="s">
+        <v>340</v>
+      </c>
+      <c r="J113" t="s">
+        <v>414</v>
+      </c>
+      <c r="K113" t="s">
+        <v>536</v>
+      </c>
+      <c r="L113" t="s">
+        <v>168</v>
+      </c>
+      <c r="M113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="s">
+        <v>189</v>
+      </c>
+      <c r="G114" t="s">
+        <v>242</v>
+      </c>
+      <c r="H114" t="s">
+        <v>295</v>
+      </c>
+      <c r="I114" t="s">
+        <v>340</v>
+      </c>
+      <c r="J114" t="s">
+        <v>412</v>
+      </c>
+      <c r="K114" t="s">
+        <v>537</v>
+      </c>
+      <c r="L114" t="s">
+        <v>168</v>
+      </c>
+      <c r="M114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" t="s">
+        <v>204</v>
+      </c>
+      <c r="G115" t="s">
+        <v>257</v>
+      </c>
+      <c r="H115" t="s">
+        <v>310</v>
+      </c>
+      <c r="I115" t="s">
+        <v>340</v>
+      </c>
+      <c r="J115" t="s">
+        <v>415</v>
+      </c>
+      <c r="K115" t="s">
+        <v>538</v>
+      </c>
+      <c r="L115" t="s">
+        <v>168</v>
+      </c>
+      <c r="M115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" t="s">
+        <v>180</v>
+      </c>
+      <c r="F116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116" t="s">
+        <v>285</v>
+      </c>
+      <c r="H116" t="s">
+        <v>338</v>
+      </c>
+      <c r="I116" t="s">
+        <v>340</v>
+      </c>
+      <c r="J116" t="s">
+        <v>416</v>
+      </c>
+      <c r="K116" t="s">
+        <v>539</v>
+      </c>
+      <c r="L116" t="s">
+        <v>168</v>
+      </c>
+      <c r="M116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" t="s">
+        <v>180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G117" t="s">
+        <v>240</v>
+      </c>
+      <c r="H117" t="s">
+        <v>293</v>
+      </c>
+      <c r="I117" t="s">
+        <v>340</v>
+      </c>
+      <c r="J117" t="s">
+        <v>417</v>
+      </c>
+      <c r="K117" t="s">
+        <v>540</v>
+      </c>
+      <c r="L117" t="s">
+        <v>168</v>
+      </c>
+      <c r="M117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" t="s">
+        <v>286</v>
+      </c>
+      <c r="H118" t="s">
+        <v>339</v>
+      </c>
+      <c r="I118" t="s">
+        <v>340</v>
+      </c>
+      <c r="J118" t="s">
+        <v>418</v>
+      </c>
+      <c r="K118" t="s">
+        <v>541</v>
+      </c>
+      <c r="L118" t="s">
+        <v>168</v>
+      </c>
+      <c r="M118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G119" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119" t="s">
+        <v>295</v>
+      </c>
+      <c r="I119" t="s">
+        <v>340</v>
+      </c>
+      <c r="J119" t="s">
+        <v>419</v>
+      </c>
+      <c r="K119" t="s">
+        <v>542</v>
+      </c>
+      <c r="L119" t="s">
+        <v>168</v>
+      </c>
+      <c r="M119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>180</v>
+      </c>
+      <c r="F120" t="s">
+        <v>209</v>
+      </c>
+      <c r="G120" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" t="s">
+        <v>315</v>
+      </c>
+      <c r="I120" t="s">
+        <v>340</v>
+      </c>
+      <c r="J120" t="s">
+        <v>419</v>
+      </c>
+      <c r="K120" t="s">
+        <v>543</v>
+      </c>
+      <c r="L120" t="s">
+        <v>168</v>
+      </c>
+      <c r="M120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" t="s">
+        <v>210</v>
+      </c>
+      <c r="G121" t="s">
+        <v>263</v>
+      </c>
+      <c r="H121" t="s">
+        <v>316</v>
+      </c>
+      <c r="I121" t="s">
+        <v>340</v>
+      </c>
+      <c r="J121" t="s">
+        <v>420</v>
+      </c>
+      <c r="K121" t="s">
+        <v>544</v>
+      </c>
+      <c r="L121" t="s">
+        <v>168</v>
+      </c>
+      <c r="M121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122" t="s">
+        <v>180</v>
+      </c>
+      <c r="F122" t="s">
+        <v>213</v>
+      </c>
+      <c r="G122" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" t="s">
+        <v>319</v>
+      </c>
+      <c r="I122" t="s">
+        <v>340</v>
+      </c>
+      <c r="J122" t="s">
+        <v>421</v>
+      </c>
+      <c r="K122" t="s">
+        <v>545</v>
+      </c>
+      <c r="L122" t="s">
+        <v>168</v>
+      </c>
+      <c r="M122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+      <c r="E123" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" t="s">
+        <v>238</v>
+      </c>
+      <c r="H123" t="s">
+        <v>291</v>
+      </c>
+      <c r="I123" t="s">
+        <v>340</v>
+      </c>
+      <c r="J123" t="s">
+        <v>422</v>
+      </c>
+      <c r="K123" t="s">
+        <v>546</v>
+      </c>
+      <c r="L123" t="s">
+        <v>168</v>
+      </c>
+      <c r="M123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" t="s">
+        <v>180</v>
+      </c>
+      <c r="F124" t="s">
+        <v>187</v>
+      </c>
+      <c r="G124" t="s">
+        <v>240</v>
+      </c>
+      <c r="H124" t="s">
+        <v>293</v>
+      </c>
+      <c r="I124" t="s">
+        <v>340</v>
+      </c>
+      <c r="J124" t="s">
+        <v>423</v>
+      </c>
+      <c r="K124" t="s">
+        <v>547</v>
+      </c>
+      <c r="L124" t="s">
+        <v>168</v>
+      </c>
+      <c r="M124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F125" t="s">
+        <v>187</v>
+      </c>
+      <c r="G125" t="s">
+        <v>240</v>
+      </c>
+      <c r="H125" t="s">
+        <v>293</v>
+      </c>
+      <c r="I125" t="s">
+        <v>340</v>
+      </c>
+      <c r="J125" t="s">
+        <v>424</v>
+      </c>
+      <c r="K125" t="s">
+        <v>548</v>
+      </c>
+      <c r="L125" t="s">
+        <v>168</v>
+      </c>
+      <c r="M125" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/atlas-mitigations.xlsx
+++ b/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="498">
   <si>
     <t>ID</t>
   </si>
@@ -137,100 +137,100 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--66662d10-2079-45da-a850-8b29aa0ff90a</t>
-  </si>
-  <si>
-    <t>course-of-action--26a9b3d1-0c48-415f-a011-1b864defc455</t>
-  </si>
-  <si>
-    <t>course-of-action--081d6d9e-aecf-46f3-b035-0253b8d1501f</t>
-  </si>
-  <si>
-    <t>course-of-action--32caa8ed-49bc-4485-b068-838e97a772dc</t>
-  </si>
-  <si>
-    <t>course-of-action--c643d9f7-525f-4c21-bf6e-4b577c75484d</t>
-  </si>
-  <si>
-    <t>course-of-action--7330b481-cb73-4100-b533-1135c440ecdb</t>
-  </si>
-  <si>
-    <t>course-of-action--dc781da8-1943-49ea-8f8c-a0c0a86f5f5c</t>
-  </si>
-  <si>
-    <t>course-of-action--40a562b5-8795-4064-99ea-2e77d11a87d3</t>
-  </si>
-  <si>
-    <t>course-of-action--94ba89e5-060a-4aa9-8805-a874d2a63644</t>
-  </si>
-  <si>
-    <t>course-of-action--3fec7122-a13d-436a-abd8-f988abafad4d</t>
-  </si>
-  <si>
-    <t>course-of-action--a1ba8096-3f60-4429-a2f9-93134c913f2f</t>
-  </si>
-  <si>
-    <t>course-of-action--11d3600c-6e97-4c8e-ace6-258abb52bf5e</t>
-  </si>
-  <si>
-    <t>course-of-action--6a80465b-491d-4456-8a1c-dad1f6084073</t>
-  </si>
-  <si>
-    <t>course-of-action--6bef67bf-7cb7-459e-8d8c-f998960fc931</t>
-  </si>
-  <si>
-    <t>course-of-action--0eb2eed7-21fb-4c0e-bc05-f70d08af6cdd</t>
-  </si>
-  <si>
-    <t>course-of-action--e4e9faf1-8700-4aa8-8967-b87c4b64a373</t>
-  </si>
-  <si>
-    <t>course-of-action--59f1f2f3-4d14-419a-b3c4-954f966e5896</t>
-  </si>
-  <si>
-    <t>course-of-action--5d04760c-107b-429a-81e0-338ea6b74160</t>
-  </si>
-  <si>
-    <t>course-of-action--4aff65a9-0850-4f32-bb40-26a37145a218</t>
-  </si>
-  <si>
-    <t>course-of-action--3e3e763d-2a04-47e0-bfa6-848701bcab8b</t>
-  </si>
-  <si>
-    <t>course-of-action--7dfca9f9-9bac-43b9-a0cd-7931a854d3f0</t>
-  </si>
-  <si>
-    <t>course-of-action--1d986476-d01e-4eff-a89b-e91edcc3c171</t>
-  </si>
-  <si>
-    <t>course-of-action--020228f8-2cea-4f5b-b589-38b609184f49</t>
-  </si>
-  <si>
-    <t>course-of-action--325643c8-75d3-497b-bef6-5b0cda2a6e66</t>
-  </si>
-  <si>
-    <t>course-of-action--eba11b22-421b-4e1b-aeab-2676b69e81ca</t>
-  </si>
-  <si>
-    <t>course-of-action--41323eda-f2a5-400c-9b20-cf5569bd1ef1</t>
-  </si>
-  <si>
-    <t>course-of-action--1a60c9bc-21a5-4dfe-9efd-c65aa3982fe1</t>
-  </si>
-  <si>
-    <t>course-of-action--ffe6e5df-5a6c-4b9a-8cc8-bef149efca4c</t>
-  </si>
-  <si>
-    <t>course-of-action--b1540dea-06f7-408e-aa46-f62fb5ca9d74</t>
-  </si>
-  <si>
-    <t>course-of-action--c4c7044f-4f3e-42ba-a6d9-ebeedbdaf766</t>
-  </si>
-  <si>
-    <t>course-of-action--279ebf5a-bba3-4fca-80be-de230fe98966</t>
-  </si>
-  <si>
-    <t>course-of-action--c9576e37-7d87-40f2-b446-f82bb77452e6</t>
+    <t>course-of-action--70836747-6dd7-52ee-82a8-547def5d2c6c</t>
+  </si>
+  <si>
+    <t>course-of-action--816f193f-8d87-5199-bc54-107b74f283c3</t>
+  </si>
+  <si>
+    <t>course-of-action--3c7d2fc8-7b70-54d5-b722-2a5c9292f88a</t>
+  </si>
+  <si>
+    <t>course-of-action--1f45c127-eb18-5e17-a136-28ceef04edec</t>
+  </si>
+  <si>
+    <t>course-of-action--20c3de3a-045a-5c5d-883b-4bb074cc427e</t>
+  </si>
+  <si>
+    <t>course-of-action--0fd2a106-347e-51b2-8c78-2fdd4b091548</t>
+  </si>
+  <si>
+    <t>course-of-action--1fc2879c-d3c3-5dbf-882d-4ca4721f30d4</t>
+  </si>
+  <si>
+    <t>course-of-action--9ae01d8c-c75b-5d11-944f-16edbb7d754f</t>
+  </si>
+  <si>
+    <t>course-of-action--33f3432f-83e7-5d59-924c-ed2b817c2214</t>
+  </si>
+  <si>
+    <t>course-of-action--eae4dfbe-1a12-5a2e-bad8-d5adbbf39cb6</t>
+  </si>
+  <si>
+    <t>course-of-action--4f43e1d3-1198-56e6-91ac-654ee9972acd</t>
+  </si>
+  <si>
+    <t>course-of-action--5af67059-b0e6-5e35-b3d6-ef4f2a46a559</t>
+  </si>
+  <si>
+    <t>course-of-action--215593c6-9371-51f0-997a-9080c6786b2a</t>
+  </si>
+  <si>
+    <t>course-of-action--1c8b96b0-c21f-5a9b-b478-ddd9ac40f686</t>
+  </si>
+  <si>
+    <t>course-of-action--68a1c707-b05e-5588-b0a3-01aa35182ed0</t>
+  </si>
+  <si>
+    <t>course-of-action--c35b59f9-60f8-5bd1-ad76-9cbb549a97ce</t>
+  </si>
+  <si>
+    <t>course-of-action--beae4fe4-c289-5c57-b8b9-6febb24d5c9a</t>
+  </si>
+  <si>
+    <t>course-of-action--689cbf83-609f-55ce-95d6-9d05df6da1f4</t>
+  </si>
+  <si>
+    <t>course-of-action--e3e2c4e7-ecc1-5e0b-a276-9b00c0b30204</t>
+  </si>
+  <si>
+    <t>course-of-action--8aaa7934-9c52-56f0-a48d-1f5258e4288b</t>
+  </si>
+  <si>
+    <t>course-of-action--08ed40a8-34fb-59c1-a889-c4dafa4bc134</t>
+  </si>
+  <si>
+    <t>course-of-action--ca58e864-8980-5b45-a405-093d6803ad97</t>
+  </si>
+  <si>
+    <t>course-of-action--94cf1dc2-512c-5d81-b073-891d7113c194</t>
+  </si>
+  <si>
+    <t>course-of-action--1b15d839-8893-5005-aba7-62c3cc8b48ac</t>
+  </si>
+  <si>
+    <t>course-of-action--aba79819-27d3-5204-9fed-011613fa8136</t>
+  </si>
+  <si>
+    <t>course-of-action--5537712b-0001-5d3a-b12f-041d78a837a7</t>
+  </si>
+  <si>
+    <t>course-of-action--0f15844f-7146-5bcd-8787-4e6f688f9a2c</t>
+  </si>
+  <si>
+    <t>course-of-action--6c1c5f7a-986c-5c1f-ac9b-bde692d0b3fe</t>
+  </si>
+  <si>
+    <t>course-of-action--291b6312-52da-583e-bebe-bbc4cb40db4a</t>
+  </si>
+  <si>
+    <t>course-of-action--b1132427-33bb-5055-9e86-9df87ad144e7</t>
+  </si>
+  <si>
+    <t>course-of-action--bf670d38-5978-5e5e-ba61-9b61dbc70122</t>
+  </si>
+  <si>
+    <t>course-of-action--c578b076-802d-50d7-9d88-25d62ea569c8</t>
   </si>
   <si>
     <t>AI Agent Tools Permissions Configuration</t>
@@ -548,7 +548,37 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>07 November 2025</t>
+    <t>29 October 2025</t>
+  </si>
+  <si>
+    <t>12 March 2025</t>
+  </si>
+  <si>
+    <t>12 April 2023</t>
+  </si>
+  <si>
+    <t>12 January 2024</t>
+  </si>
+  <si>
+    <t>05 November 2025</t>
+  </si>
+  <si>
+    <t>15 April 2025</t>
+  </si>
+  <si>
+    <t>14 April 2025</t>
+  </si>
+  <si>
+    <t>12 October 2023</t>
+  </si>
+  <si>
+    <t>06 November 2025</t>
+  </si>
+  <si>
+    <t>13 August 2025</t>
+  </si>
+  <si>
+    <t>21 April 2025</t>
   </si>
   <si>
     <t>source ID</t>
@@ -596,156 +626,135 @@
     <t>AML.T0085</t>
   </si>
   <si>
+    <t>AML.T0058</t>
+  </si>
+  <si>
+    <t>AML.T0044</t>
+  </si>
+  <si>
+    <t>AML.T0010.003</t>
+  </si>
+  <si>
+    <t>AML.T0043.000</t>
+  </si>
+  <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
+    <t>AML.T0047</t>
+  </si>
+  <si>
+    <t>AML.T0024.002</t>
+  </si>
+  <si>
+    <t>AML.T0051.001</t>
+  </si>
+  <si>
+    <t>AML.T0005.001</t>
+  </si>
+  <si>
+    <t>AML.T0043.001</t>
+  </si>
+  <si>
+    <t>AML.T0029</t>
+  </si>
+  <si>
+    <t>AML.T0031</t>
+  </si>
+  <si>
+    <t>AML.T0015</t>
+  </si>
+  <si>
+    <t>AML.T0010.001</t>
+  </si>
+  <si>
+    <t>AML.T0011.000</t>
+  </si>
+  <si>
+    <t>AML.T0048.004</t>
+  </si>
+  <si>
+    <t>AML.T0025</t>
+  </si>
+  <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0007</t>
+  </si>
+  <si>
+    <t>AML.T0010</t>
+  </si>
+  <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
+    <t>AML.T0057</t>
+  </si>
+  <si>
+    <t>AML.T0054</t>
+  </si>
+  <si>
+    <t>AML.T0051</t>
+  </si>
+  <si>
+    <t>AML.T0002.000</t>
+  </si>
+  <si>
+    <t>AML.T0002.001</t>
+  </si>
+  <si>
     <t>AML.T0020</t>
   </si>
   <si>
+    <t>AML.T0004</t>
+  </si>
+  <si>
+    <t>AML.T0000</t>
+  </si>
+  <si>
+    <t>AML.T0003</t>
+  </si>
+  <si>
+    <t>AML.T0010.002</t>
+  </si>
+  <si>
+    <t>AML.T0018.000</t>
+  </si>
+  <si>
+    <t>AML.T0080.000</t>
+  </si>
+  <si>
+    <t>AML.T0082</t>
+  </si>
+  <si>
+    <t>AML.T0085.000</t>
+  </si>
+  <si>
+    <t>AML.T0086</t>
+  </si>
+  <si>
+    <t>AML.T0034</t>
+  </si>
+  <si>
+    <t>AML.T0014</t>
+  </si>
+  <si>
+    <t>AML.T0046</t>
+  </si>
+  <si>
+    <t>AML.T0041</t>
+  </si>
+  <si>
+    <t>AML.T0011</t>
+  </si>
+  <si>
+    <t>AML.T0018.001</t>
+  </si>
+  <si>
     <t>AML.T0019</t>
   </si>
   <si>
-    <t>AML.T0058</t>
-  </si>
-  <si>
-    <t>AML.T0011.000</t>
-  </si>
-  <si>
-    <t>AML.T0044</t>
-  </si>
-  <si>
-    <t>AML.T0010.003</t>
-  </si>
-  <si>
-    <t>AML.T0043.000</t>
-  </si>
-  <si>
-    <t>AML.T0040</t>
-  </si>
-  <si>
-    <t>AML.T0047</t>
-  </si>
-  <si>
-    <t>AML.T0051.000</t>
-  </si>
-  <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
-    <t>AML.T0024.002</t>
-  </si>
-  <si>
-    <t>AML.T0051.001</t>
-  </si>
-  <si>
-    <t>AML.T0024.000</t>
-  </si>
-  <si>
-    <t>AML.T0024.001</t>
-  </si>
-  <si>
-    <t>AML.T0051</t>
-  </si>
-  <si>
-    <t>AML.T0005.001</t>
-  </si>
-  <si>
-    <t>AML.T0043.001</t>
-  </si>
-  <si>
-    <t>AML.T0029</t>
-  </si>
-  <si>
-    <t>AML.T0031</t>
-  </si>
-  <si>
-    <t>AML.T0015</t>
-  </si>
-  <si>
-    <t>AML.T0010.001</t>
-  </si>
-  <si>
-    <t>AML.T0048.004</t>
-  </si>
-  <si>
-    <t>AML.T0010.002</t>
-  </si>
-  <si>
-    <t>AML.T0025</t>
-  </si>
-  <si>
-    <t>AML.T0018.001</t>
-  </si>
-  <si>
-    <t>AML.T0018.000</t>
-  </si>
-  <si>
-    <t>AML.T0035</t>
-  </si>
-  <si>
-    <t>AML.T0007</t>
-  </si>
-  <si>
-    <t>AML.T0010</t>
-  </si>
-  <si>
-    <t>AML.T0056</t>
-  </si>
-  <si>
-    <t>AML.T0057</t>
-  </si>
-  <si>
-    <t>AML.T0054</t>
-  </si>
-  <si>
-    <t>AML.T0086</t>
-  </si>
-  <si>
-    <t>AML.T0002.000</t>
-  </si>
-  <si>
-    <t>AML.T0002.001</t>
-  </si>
-  <si>
-    <t>AML.T0002</t>
-  </si>
-  <si>
-    <t>AML.T0004</t>
-  </si>
-  <si>
-    <t>AML.T0000</t>
-  </si>
-  <si>
-    <t>AML.T0003</t>
-  </si>
-  <si>
-    <t>AML.T0080</t>
-  </si>
-  <si>
-    <t>AML.T0080.000</t>
-  </si>
-  <si>
-    <t>AML.T0014</t>
-  </si>
-  <si>
-    <t>AML.T0013</t>
-  </si>
-  <si>
-    <t>AML.T0082</t>
-  </si>
-  <si>
-    <t>AML.T0085.000</t>
-  </si>
-  <si>
-    <t>AML.T0034</t>
-  </si>
-  <si>
-    <t>AML.T0046</t>
-  </si>
-  <si>
-    <t>AML.T0041</t>
-  </si>
-  <si>
-    <t>AML.T0011</t>
-  </si>
-  <si>
     <t>AI Agent Tool Invocation</t>
   </si>
   <si>
@@ -755,313 +764,271 @@
     <t>Data from AI Services</t>
   </si>
   <si>
+    <t>Publish Poisoned Models</t>
+  </si>
+  <si>
+    <t>Full AI Model Access</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>White-Box Optimization</t>
+  </si>
+  <si>
+    <t>AI Model Inference API Access</t>
+  </si>
+  <si>
+    <t>AI-Enabled Product or Service</t>
+  </si>
+  <si>
+    <t>Extract AI Model</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Train Proxy via Replication</t>
+  </si>
+  <si>
+    <t>Black-Box Optimization</t>
+  </si>
+  <si>
+    <t>Denial of AI Service</t>
+  </si>
+  <si>
+    <t>Erode AI Model Integrity</t>
+  </si>
+  <si>
+    <t>Evade AI Model</t>
+  </si>
+  <si>
+    <t>AI Software</t>
+  </si>
+  <si>
+    <t>Unsafe AI Artifacts</t>
+  </si>
+  <si>
+    <t>AI Intellectual Property Theft</t>
+  </si>
+  <si>
+    <t>Exfiltration via Cyber Means</t>
+  </si>
+  <si>
+    <t>Exfiltration via AI Inference API</t>
+  </si>
+  <si>
+    <t>Discover AI Artifacts</t>
+  </si>
+  <si>
+    <t>AI Supply Chain Compromise</t>
+  </si>
+  <si>
+    <t>Extract LLM System Prompt</t>
+  </si>
+  <si>
+    <t>LLM Data Leakage</t>
+  </si>
+  <si>
+    <t>LLM Jailbreak</t>
+  </si>
+  <si>
+    <t>LLM Prompt Injection</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
     <t>Poison Training Data</t>
   </si>
   <si>
+    <t>Search Application Repositories</t>
+  </si>
+  <si>
+    <t>Search Open Technical Databases</t>
+  </si>
+  <si>
+    <t>Search Victim-Owned Websites</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Poison AI Model</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>RAG Credential Harvesting</t>
+  </si>
+  <si>
+    <t>RAG Databases</t>
+  </si>
+  <si>
+    <t>Exfiltration via AI Agent Tool Invocation</t>
+  </si>
+  <si>
+    <t>Cost Harvesting</t>
+  </si>
+  <si>
+    <t>Discover AI Model Family</t>
+  </si>
+  <si>
+    <t>Spamming AI System with Chaff Data</t>
+  </si>
+  <si>
+    <t>Physical Environment Access</t>
+  </si>
+  <si>
+    <t>User Execution</t>
+  </si>
+  <si>
+    <t>Modify AI Model Architecture</t>
+  </si>
+  <si>
     <t>Publish Poisoned Datasets</t>
   </si>
   <si>
-    <t>Publish Poisoned Models</t>
-  </si>
-  <si>
-    <t>Unsafe AI Artifacts</t>
-  </si>
-  <si>
-    <t>Full AI Model Access</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>White-Box Optimization</t>
-  </si>
-  <si>
-    <t>AI Model Inference API Access</t>
-  </si>
-  <si>
-    <t>AI-Enabled Product or Service</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>Exfiltration via AI Inference API</t>
-  </si>
-  <si>
-    <t>Extract AI Model</t>
-  </si>
-  <si>
-    <t>Indirect</t>
-  </si>
-  <si>
-    <t>Infer Training Data Membership</t>
-  </si>
-  <si>
-    <t>Invert AI Model</t>
-  </si>
-  <si>
-    <t>LLM Prompt Injection</t>
-  </si>
-  <si>
-    <t>Train Proxy via Replication</t>
-  </si>
-  <si>
-    <t>Black-Box Optimization</t>
-  </si>
-  <si>
-    <t>Denial of AI Service</t>
-  </si>
-  <si>
-    <t>Erode AI Model Integrity</t>
-  </si>
-  <si>
-    <t>Evade AI Model</t>
-  </si>
-  <si>
-    <t>AI Software</t>
-  </si>
-  <si>
-    <t>AI Intellectual Property Theft</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Exfiltration via Cyber Means</t>
-  </si>
-  <si>
-    <t>Modify AI Model Architecture</t>
-  </si>
-  <si>
-    <t>Poison AI Model</t>
-  </si>
-  <si>
-    <t>AI Artifact Collection</t>
-  </si>
-  <si>
-    <t>Discover AI Artifacts</t>
-  </si>
-  <si>
-    <t>AI Supply Chain Compromise</t>
-  </si>
-  <si>
-    <t>Extract LLM System Prompt</t>
-  </si>
-  <si>
-    <t>LLM Data Leakage</t>
-  </si>
-  <si>
-    <t>LLM Jailbreak</t>
-  </si>
-  <si>
-    <t>Exfiltration via AI Agent Tool Invocation</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Acquire Public AI Artifacts</t>
-  </si>
-  <si>
-    <t>Search Application Repositories</t>
-  </si>
-  <si>
-    <t>Search Open Technical Databases</t>
-  </si>
-  <si>
-    <t>Search Victim-Owned Websites</t>
-  </si>
-  <si>
-    <t>AI Agent Context Poisoning</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Discover AI Model Family</t>
-  </si>
-  <si>
-    <t>Discover AI Model Ontology</t>
-  </si>
-  <si>
-    <t>RAG Credential Harvesting</t>
-  </si>
-  <si>
-    <t>RAG Databases</t>
-  </si>
-  <si>
-    <t>Cost Harvesting</t>
-  </si>
-  <si>
-    <t>Spamming AI System with Chaff Data</t>
-  </si>
-  <si>
-    <t>Physical Environment Access</t>
-  </si>
-  <si>
-    <t>User Execution</t>
-  </si>
-  <si>
-    <t>attack-pattern--4a4c006f-9edb-4161-af0c-31ae36cfeb6e</t>
-  </si>
-  <si>
-    <t>attack-pattern--cb2ad666-315c-49e8-87f9-978ffcb1c696</t>
-  </si>
-  <si>
-    <t>attack-pattern--835d9bc1-2389-44e0-b4dd-87d11692833a</t>
-  </si>
-  <si>
-    <t>attack-pattern--c357897c-662c-4a41-883d-98bfb369ab30</t>
-  </si>
-  <si>
-    <t>attack-pattern--b0dbc5d2-4207-445a-9b08-6df360948fb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--6b9f7277-4207-4fa7-a8af-946715cade74</t>
-  </si>
-  <si>
-    <t>attack-pattern--eb12109e-5540-4de8-a3f2-0a3b85ebaf98</t>
-  </si>
-  <si>
-    <t>attack-pattern--94e4d142-dd64-464a-9675-e8a14aca8261</t>
-  </si>
-  <si>
-    <t>attack-pattern--68bda813-33bf-4843-9964-5c446c22c01e</t>
-  </si>
-  <si>
-    <t>attack-pattern--f57d4d58-f1ca-4924-becc-730e186ca0fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--8755a1fb-e2df-4538-bcf3-9d37d31cf0e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--78121d5a-c458-40dc-a83a-3e5771d5f966</t>
-  </si>
-  <si>
-    <t>attack-pattern--568bdae0-9c1e-4f17-9ad8-b1284fc343c2</t>
-  </si>
-  <si>
-    <t>attack-pattern--723710a2-5947-4211-a050-f79b4dc76144</t>
-  </si>
-  <si>
-    <t>attack-pattern--b882dc78-920e-4241-bf44-fdc95d1ab009</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a402de5-aa40-41f2-8e36-38e41ae962f7</t>
-  </si>
-  <si>
-    <t>attack-pattern--3ec5213b-94f3-4a03-a127-c7988dbf24d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--d4a80308-c6c1-487b-92f2-ca23374b0fad</t>
-  </si>
-  <si>
-    <t>attack-pattern--f34e16c9-f3a3-4895-91e1-c1349ac2424f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f3ca37b5-5658-4026-b992-e2bf9aa6edcb</t>
-  </si>
-  <si>
-    <t>attack-pattern--f8f6de56-8b84-4883-99d2-a6ab686ff802</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac97befe-574d-4624-9615-6ec5f3c15d7e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b11c16e-6de1-4308-941d-503450611f29</t>
-  </si>
-  <si>
-    <t>attack-pattern--65a96a5b-97fc-4c2a-b28d-ec431a7d6b16</t>
-  </si>
-  <si>
-    <t>attack-pattern--eaec44e1-048d-487a-8774-da706f6744d6</t>
-  </si>
-  <si>
-    <t>attack-pattern--30f1f6a3-f227-4293-a102-c4be62566f42</t>
-  </si>
-  <si>
-    <t>attack-pattern--948dd102-ecc7-4cf3-8331-e1e5abd54a66</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3f4ed27-3927-4af1-a9d0-a9f5a62e1b28</t>
-  </si>
-  <si>
-    <t>attack-pattern--4698eee5-b315-4030-be87-55ccb3e4de06</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5363aa6-628f-4326-a180-6390bc609aec</t>
-  </si>
-  <si>
-    <t>attack-pattern--2a2d2e69-55da-4212-809a-eb6ecde65f70</t>
-  </si>
-  <si>
-    <t>attack-pattern--4187ee08-0ae4-4b24-b648-c7e85c8805e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--0a4c52dc-1241-4d85-88af-e77919000c98</t>
-  </si>
-  <si>
-    <t>attack-pattern--14644c46-5768-4f18-a42d-2975aa3439bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--e19b38ca-6197-43d5-999f-6dd8bf79bf43</t>
-  </si>
-  <si>
-    <t>attack-pattern--15c00b06-ace3-46c1-9f37-5c882becfba3</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba0780ed-8721-4ed2-af10-7957816a2706</t>
-  </si>
-  <si>
-    <t>attack-pattern--7847b0ce-4e31-450c-b2f5-fe5d34d6ede4</t>
-  </si>
-  <si>
-    <t>attack-pattern--c9746330-554c-4359-86a1-f3553102e56a</t>
-  </si>
-  <si>
-    <t>attack-pattern--74b811fa-679a-4af8-90c0-0d8e29d59e16</t>
-  </si>
-  <si>
-    <t>attack-pattern--1d35b531-4802-4a44-8897-47fbff98f4dc</t>
-  </si>
-  <si>
-    <t>attack-pattern--87b94e0e-5d5d-438e-9603-083b2196e765</t>
-  </si>
-  <si>
-    <t>attack-pattern--fffa50b1-9bdb-4188-8734-10567904c15f</t>
-  </si>
-  <si>
-    <t>attack-pattern--12edcfea-e809-45ab-ba68-a678b828dc0e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b252a691-ee08-4ae8-981b-b3f004a32ee9</t>
-  </si>
-  <si>
-    <t>attack-pattern--753e6d26-e7b3-441b-909a-455119166eb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--242cd62a-715a-4482-b2fb-b628dd6c2bd2</t>
-  </si>
-  <si>
-    <t>attack-pattern--52283b39-3b57-4a79-afee-761cee49a4e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9b153778-a791-4e7d-b498-fd962a77624b</t>
-  </si>
-  <si>
-    <t>attack-pattern--6171704b-8ace-4d2e-8727-a4f0c5ca7b4a</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb56158c-34a8-4eb6-947e-d6831babd031</t>
-  </si>
-  <si>
-    <t>attack-pattern--18b30bd8-ffa5-41ac-aa92-eead8ee22ae5</t>
-  </si>
-  <si>
-    <t>attack-pattern--392a08c5-1a22-45b3-b85d-28011da21a0c</t>
+    <t>attack-pattern--b23b5475-a05e-5b4a-8e9f-8c758dd0cda8</t>
+  </si>
+  <si>
+    <t>attack-pattern--bfa79523-214f-57f5-a445-c8a563f141f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--536e5c26-d36d-583d-a441-bc259d170fab</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4c7f78e-4609-555c-a2eb-3d344dab3309</t>
+  </si>
+  <si>
+    <t>attack-pattern--5e652b34-b92f-5b43-afca-36f9cbf9d7c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a1c3b28-eeab-52d0-87cf-4ba0a7ff687a</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f8f898d-1e29-52a7-bf95-2d420313aee8</t>
+  </si>
+  <si>
+    <t>attack-pattern--5ac1f849-523e-51bf-a1e9-1a97ab91cc91</t>
+  </si>
+  <si>
+    <t>attack-pattern--a18245d0-2fb1-5f72-a069-5c176a0a11df</t>
+  </si>
+  <si>
+    <t>attack-pattern--3f567912-629a-5e0b-ab0c-0102977c2d6c</t>
+  </si>
+  <si>
+    <t>attack-pattern--59e47398-ebf9-5606-857a-94da5ee0079d</t>
+  </si>
+  <si>
+    <t>attack-pattern--298dc6c6-5683-5475-b724-2a2a3db3a7dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf1f989f-9b4e-5dae-aaf8-719e71b2fb8b</t>
+  </si>
+  <si>
+    <t>attack-pattern--c4bae5b7-482f-572f-b44b-6a829b186a2e</t>
+  </si>
+  <si>
+    <t>attack-pattern--030c4477-af33-5676-9723-1ecc6314b1ce</t>
+  </si>
+  <si>
+    <t>attack-pattern--d74153d6-ac3c-52fb-9847-e0a6f675cd93</t>
+  </si>
+  <si>
+    <t>attack-pattern--3bf297c5-2ab2-573a-aa4e-f20af3d2643c</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5cc5062-f672-510a-8a4f-a8d1aa7f5024</t>
+  </si>
+  <si>
+    <t>attack-pattern--73772ced-edba-578c-bacd-703e082a9c57</t>
+  </si>
+  <si>
+    <t>attack-pattern--f13dede7-12ee-5f0e-985a-4f801aecb681</t>
+  </si>
+  <si>
+    <t>attack-pattern--85fed2c6-e2df-595e-88bf-f356a17cec21</t>
+  </si>
+  <si>
+    <t>attack-pattern--0855cdf6-5b4f-5586-a658-942b7222ede7</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ea180c5-5df4-5815-8c78-a1cec1da6e18</t>
+  </si>
+  <si>
+    <t>attack-pattern--b8b16dac-3b95-59f7-8bf7-60e39b0c062f</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c8eca96-8d33-5fd4-a9c0-51db41128b89</t>
+  </si>
+  <si>
+    <t>attack-pattern--9bf148ad-b901-5aeb-a029-6c0a8ce0a564</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ff098e9-2864-579e-bebb-a0f1c92ec772</t>
+  </si>
+  <si>
+    <t>attack-pattern--bbffbb39-c270-5822-8786-7bbab1a43dc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf1a7a78-0509-59a6-a8a4-35d9e1e966a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f25f684-63f5-5dfa-a286-20dfbd6db4c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--d229d87c-9400-53f0-bca3-b9514fd9227f</t>
+  </si>
+  <si>
+    <t>attack-pattern--c02f812d-59cc-5366-b1aa-7eb05154b772</t>
+  </si>
+  <si>
+    <t>attack-pattern--deca63a5-2a52-54ea-abe5-2cd7089d46e4</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca5a090b-feaf-575d-98c6-61930fffc5b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--a1494aa9-35bb-52b4-bd73-15444dc04706</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e837ada-a07a-5891-b801-0c75c0ffbe80</t>
+  </si>
+  <si>
+    <t>attack-pattern--050087b9-3411-5fbf-ba6a-74c910c6ad86</t>
+  </si>
+  <si>
+    <t>attack-pattern--ba288685-9038-5a8d-99b2-ae738e39e825</t>
+  </si>
+  <si>
+    <t>attack-pattern--66188cfa-76df-546b-be79-aa06debc8d79</t>
+  </si>
+  <si>
+    <t>attack-pattern--7bbac64e-2b1d-5cb0-a442-bb7573b0a328</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b83b5ba-6855-592b-82a0-9bef7c6b0c7b</t>
+  </si>
+  <si>
+    <t>attack-pattern--b72ea3f4-fd80-5d95-bf47-abbfab0e813c</t>
+  </si>
+  <si>
+    <t>attack-pattern--065b0269-0d72-558c-a840-2012f0481f07</t>
+  </si>
+  <si>
+    <t>attack-pattern--aac7fa8d-c943-5fec-a01f-cd4d14184395</t>
+  </si>
+  <si>
+    <t>attack-pattern--04641d66-7ecd-5b83-a3da-938e11a81254</t>
+  </si>
+  <si>
+    <t>attack-pattern--c38896b2-974c-5ed5-adeb-c2477b311353</t>
   </si>
   <si>
     <t>technique</t>
@@ -1097,10 +1064,10 @@
     <t>Telemetry logging can help identify if sensitive model information has been sent to an attacker.</t>
   </si>
   <si>
+    <t>Telemetry logging can help identify if sensitive data has been exfiltrated.</t>
+  </si>
+  <si>
     <t>Telemetry logging can help identify if unsafe prompts have been submitted to the LLM.</t>
-  </si>
-  <si>
-    <t>Telemetry logging can help identify if sensitive data has been exfiltrated.</t>
   </si>
   <si>
     <t>Telemetry logging can help identify if a proxy training dataset has been exfiltrated.</t>
@@ -1138,11 +1105,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Access controls can prevent exfiltration.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Access controls can prevent tampering with ML artifacts and prevent unauthorized copying.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access controls can prevent exfiltration.
 </t>
   </si>
   <si>
@@ -1322,18 +1289,18 @@
     <t>Configuring AI agents with permissions that are inherited from the user can limit an adversary's ability to collect data from RAG Databases if the agent is compromised.</t>
   </si>
   <si>
+    <t xml:space="preserve">Use multiple different models to fool adversaries of which type of model is used and how the model used.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using multiple different models increases robustness to attack.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using multiple different models ensures minimal performance loss if security flaw is found in tool for one model or family.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Use multiple different models to fool adversaries of which type of model is used and how the model used.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using multiple different models increases robustness to attack.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using a variety of sensors can make it more difficult for an attacker to compromise and produce malicious results.
 </t>
   </si>
@@ -1372,376 +1339,256 @@
 </t>
   </si>
   <si>
-    <t>relationship--5d3e89f5-33f6-45a6-9f8d-066a628c9b0b</t>
-  </si>
-  <si>
-    <t>relationship--1c1678e3-c9c0-42a2-baf6-2f500d03250c</t>
-  </si>
-  <si>
-    <t>relationship--b3494523-f6a1-40df-9800-75d810026453</t>
-  </si>
-  <si>
-    <t>relationship--c6af94bb-8e4d-4a90-bd97-e28106dc520d</t>
-  </si>
-  <si>
-    <t>relationship--8b2557c6-629b-4683-a872-3bcfc1932b39</t>
-  </si>
-  <si>
-    <t>relationship--6b58e337-ae36-473f-be39-a52e669e008b</t>
-  </si>
-  <si>
-    <t>relationship--8fdb8269-7a7c-4b0c-9845-11aa84a6c026</t>
-  </si>
-  <si>
-    <t>relationship--4c7bb416-160d-4043-b80f-be46e6458f28</t>
-  </si>
-  <si>
-    <t>relationship--aa500bb7-e006-4b5d-82e5-b57878f123c7</t>
-  </si>
-  <si>
-    <t>relationship--2f484227-a886-4499-b09f-f41a74dcd221</t>
-  </si>
-  <si>
-    <t>relationship--9153ce07-44d7-4695-85e1-f1af10fcb3a1</t>
-  </si>
-  <si>
-    <t>relationship--fa927e7a-ec05-4bf4-8253-b32d074c6bb7</t>
-  </si>
-  <si>
-    <t>relationship--b9f800d6-f00d-4c07-8b03-a0433dfeeb05</t>
-  </si>
-  <si>
-    <t>relationship--1aa36080-cf8c-46ef-8256-37f516d69f50</t>
-  </si>
-  <si>
-    <t>relationship--c703f4a0-34f1-43a9-9289-9fc17eadecf2</t>
-  </si>
-  <si>
-    <t>relationship--3861380b-a1ca-40c6-8a29-8d40c38408bb</t>
-  </si>
-  <si>
-    <t>relationship--e9d7e0bc-96cd-4450-98fb-5805bfedd653</t>
-  </si>
-  <si>
-    <t>relationship--e89aed10-e060-431b-804a-15110a64c6ea</t>
-  </si>
-  <si>
-    <t>relationship--6bc38276-7a07-4068-bf2c-e7ccb3c2b6b0</t>
-  </si>
-  <si>
-    <t>relationship--18a294b8-d4c5-4a29-af20-89eeade457c7</t>
-  </si>
-  <si>
-    <t>relationship--ea609574-5204-4aa4-b92d-5ae3a1f48ad4</t>
-  </si>
-  <si>
-    <t>relationship--1e9e2484-1f24-49c3-a086-2d417247a78f</t>
-  </si>
-  <si>
-    <t>relationship--3512072c-a2ba-4ca9-86f4-b21b8f3edcc8</t>
-  </si>
-  <si>
-    <t>relationship--b2791d3e-b37f-4ad0-b9f2-f9fb2dab9587</t>
-  </si>
-  <si>
-    <t>relationship--87e4d516-0583-4b25-8a62-bffb7dd1e969</t>
-  </si>
-  <si>
-    <t>relationship--e5bafa11-7c0c-4af8-9fd2-834068c25305</t>
-  </si>
-  <si>
-    <t>relationship--d5a9c308-e2c0-4d03-8c2a-3bc6858e0739</t>
-  </si>
-  <si>
-    <t>relationship--7a952f43-05fc-4286-ad1c-d6e293489822</t>
-  </si>
-  <si>
-    <t>relationship--671d6bac-08cc-4b50-a1ce-f7d94236fd51</t>
-  </si>
-  <si>
-    <t>relationship--65d5cfb6-3cd2-4350-83dd-cbc5639df4db</t>
-  </si>
-  <si>
-    <t>relationship--7ba94341-a157-4101-a34b-47edc2e9a922</t>
-  </si>
-  <si>
-    <t>relationship--421d9aa1-6cb8-42aa-9aef-414fd43c50bf</t>
-  </si>
-  <si>
-    <t>relationship--78a64434-28da-4f30-83ee-c95798f47f78</t>
-  </si>
-  <si>
-    <t>relationship--5424eacd-bb68-4086-b556-6ae2153506f6</t>
-  </si>
-  <si>
-    <t>relationship--0afc1bcc-52f1-40f7-b6ed-caab8ee67de4</t>
-  </si>
-  <si>
-    <t>relationship--3821318a-fc9e-47fa-81f8-bdacdd95e704</t>
-  </si>
-  <si>
-    <t>relationship--8a88a753-c471-4fc2-8b1c-1956cb1f145c</t>
-  </si>
-  <si>
-    <t>relationship--5e632305-1784-44d8-84dd-c8798cb025ce</t>
-  </si>
-  <si>
-    <t>relationship--4ec914f3-2191-4eb6-bbb1-ff62b4ef6871</t>
-  </si>
-  <si>
-    <t>relationship--bb113462-8a52-4b8e-9c63-1697426af405</t>
-  </si>
-  <si>
-    <t>relationship--8f227f57-3baf-4032-a70e-2aa65c30a8f0</t>
-  </si>
-  <si>
-    <t>relationship--689a3f40-add6-40e4-8556-b14759def3eb</t>
-  </si>
-  <si>
-    <t>relationship--df295041-aa2d-4775-ab57-a2b79426ab69</t>
-  </si>
-  <si>
-    <t>relationship--6f281351-b0b6-4309-8ae8-97b4f66025ab</t>
-  </si>
-  <si>
-    <t>relationship--31f46c54-c027-492c-8bff-96b55ff9ac0d</t>
-  </si>
-  <si>
-    <t>relationship--ca55c7bd-cc82-4fd2-8c3b-cd02ce3209b3</t>
-  </si>
-  <si>
-    <t>relationship--e4558619-3d32-4893-9bd3-b87829c64ed7</t>
-  </si>
-  <si>
-    <t>relationship--7d9c57a1-dcfa-48d4-a79f-0ef441b3a90f</t>
-  </si>
-  <si>
-    <t>relationship--3997cf11-be05-4939-93eb-f25acd27bd77</t>
-  </si>
-  <si>
-    <t>relationship--497bbd27-1e82-493d-be4d-b9affc897da2</t>
-  </si>
-  <si>
-    <t>relationship--132b6296-0034-43c9-9b60-f6f8cd5ed306</t>
-  </si>
-  <si>
-    <t>relationship--2bd75f8b-d1c2-4231-b795-bac45506f760</t>
-  </si>
-  <si>
-    <t>relationship--edaa03c9-7094-4d0a-90e2-02b7043b2eb0</t>
-  </si>
-  <si>
-    <t>relationship--135743b6-d013-456b-b404-a9128f442dfd</t>
-  </si>
-  <si>
-    <t>relationship--158e1837-6d39-44bd-91fa-9e34fd642fef</t>
-  </si>
-  <si>
-    <t>relationship--78b9a654-d22f-40a3-933e-1f5b2dfbffc9</t>
-  </si>
-  <si>
-    <t>relationship--00a07810-faec-4f89-a428-88182ec510c8</t>
-  </si>
-  <si>
-    <t>relationship--3fdfef1f-bf05-4ef0-95cb-d3a3cf27ff50</t>
-  </si>
-  <si>
-    <t>relationship--0a5b5b8b-8a19-400e-9bca-778adbf562d2</t>
-  </si>
-  <si>
-    <t>relationship--ecab7913-9982-417b-b9d6-905dc7fae4bb</t>
-  </si>
-  <si>
-    <t>relationship--4150a020-23d4-44d5-b3af-6cd0b83ff56b</t>
-  </si>
-  <si>
-    <t>relationship--9acf1a85-2ce2-4ab3-a021-be20986e12ef</t>
-  </si>
-  <si>
-    <t>relationship--04f6fa48-3d0b-4211-bc9e-e06508ba83be</t>
-  </si>
-  <si>
-    <t>relationship--8c518bac-4483-48f6-8420-a470d3518513</t>
-  </si>
-  <si>
-    <t>relationship--6f146fc3-68aa-4e36-941d-f52c024cb7b3</t>
-  </si>
-  <si>
-    <t>relationship--aed24a96-6a62-42f1-82b7-5a14268c4e47</t>
-  </si>
-  <si>
-    <t>relationship--f136aeb0-c1ae-4a26-96a9-f502be3755fb</t>
-  </si>
-  <si>
-    <t>relationship--fc4aeffc-60c6-43ab-9e3c-8a6b4cbf13a6</t>
-  </si>
-  <si>
-    <t>relationship--62d1c87a-3ac4-413e-8e6c-4493e0c521d2</t>
-  </si>
-  <si>
-    <t>relationship--3e61fbc1-9276-43b7-af21-64b8e3ca7af5</t>
-  </si>
-  <si>
-    <t>relationship--2abe7aa5-93d2-4303-af11-e34f38ccb5f7</t>
-  </si>
-  <si>
-    <t>relationship--2844fd91-1afd-46f7-ab68-de29fd187625</t>
-  </si>
-  <si>
-    <t>relationship--af949986-fad9-49c1-b449-2e92cd87fe38</t>
-  </si>
-  <si>
-    <t>relationship--0ba63099-d5ba-47cc-b245-636d76da3239</t>
-  </si>
-  <si>
-    <t>relationship--69b2c26f-56c3-4c32-a56f-04a6dd3c7d68</t>
-  </si>
-  <si>
-    <t>relationship--467ab013-80af-4c87-9e11-41e6739d3dfa</t>
-  </si>
-  <si>
-    <t>relationship--085f0607-60ac-4ebd-b01f-7e234746fe7a</t>
-  </si>
-  <si>
-    <t>relationship--dbec32d1-3692-44e5-9c90-b6bcede29fb7</t>
-  </si>
-  <si>
-    <t>relationship--a2cb9b76-e071-48d9-ad0a-25714ae2cbea</t>
-  </si>
-  <si>
-    <t>relationship--ed16645d-03c2-4e51-b92a-52d1dd9032a0</t>
-  </si>
-  <si>
-    <t>relationship--b275c65d-3a56-4319-9363-f6deb3f1afff</t>
-  </si>
-  <si>
-    <t>relationship--57bdd52d-eeba-47c1-a582-ef71ec70d2df</t>
-  </si>
-  <si>
-    <t>relationship--5b4c0e46-5424-471c-9e56-af757938bf58</t>
-  </si>
-  <si>
-    <t>relationship--b20b2c53-a26a-4d52-a3d9-8bc9e6359e05</t>
-  </si>
-  <si>
-    <t>relationship--c1153e97-27b3-424d-bce8-815768064227</t>
-  </si>
-  <si>
-    <t>relationship--a35a2fe9-1622-4e61-867f-6b90b6751a41</t>
-  </si>
-  <si>
-    <t>relationship--eb91227b-3908-4f10-9013-f301b58fc1f8</t>
-  </si>
-  <si>
-    <t>relationship--8e0fe6f0-fb1c-42c2-a1c4-e0abde825470</t>
-  </si>
-  <si>
-    <t>relationship--6863c1eb-a082-4b7f-a557-cbdfa0f9f736</t>
-  </si>
-  <si>
-    <t>relationship--b7bb87c1-8d40-4011-9aa1-6fb236e1a76f</t>
-  </si>
-  <si>
-    <t>relationship--f3ba14ab-13c2-4a93-82fe-90e086052e8e</t>
-  </si>
-  <si>
-    <t>relationship--16c6a53f-e8d2-43dc-be6a-43884dad70e1</t>
-  </si>
-  <si>
-    <t>relationship--1a7ace27-2b4b-4aed-88e6-d2d2e6dc2217</t>
-  </si>
-  <si>
-    <t>relationship--67acbe15-6c36-4fbc-b46e-b4bdc3b6fd49</t>
-  </si>
-  <si>
-    <t>relationship--c1ee2286-a205-48a5-86f4-6d2563c634db</t>
-  </si>
-  <si>
-    <t>relationship--a405c796-fbc8-4ffe-9f36-eb38ce938f36</t>
-  </si>
-  <si>
-    <t>relationship--2b191e14-1b08-4f91-bb1b-5cb8d6a6d904</t>
-  </si>
-  <si>
-    <t>relationship--0dd146dc-dd1a-415b-9488-b5e588db452c</t>
-  </si>
-  <si>
-    <t>relationship--026404ec-febc-42cb-81e8-66dd7b58746f</t>
-  </si>
-  <si>
-    <t>relationship--757c5e79-1983-4ce0-bf20-0ff8229b3d2e</t>
-  </si>
-  <si>
-    <t>relationship--0856a21a-9899-4a4c-9a1c-bcc4428fa074</t>
-  </si>
-  <si>
-    <t>relationship--d0938347-6b88-4e77-a300-77e3bf6e1591</t>
-  </si>
-  <si>
-    <t>relationship--f1d9909a-e869-4eeb-90be-881e6d8bac40</t>
-  </si>
-  <si>
-    <t>relationship--9081ab0d-4d5b-42ee-8e4d-352633dd74a6</t>
-  </si>
-  <si>
-    <t>relationship--c2f6bdf8-4ec8-4a55-858d-0a3cb7c82cbf</t>
-  </si>
-  <si>
-    <t>relationship--e5b576ff-19dc-43dc-a8e3-d4ac14c09166</t>
-  </si>
-  <si>
-    <t>relationship--3a9be2fa-3525-4a71-9d87-4b5a2976cc89</t>
-  </si>
-  <si>
-    <t>relationship--33d9ff21-dc28-4588-9d62-1eea575f4aa0</t>
-  </si>
-  <si>
-    <t>relationship--4ad4b75d-6bac-4565-b46e-b5277da3f115</t>
-  </si>
-  <si>
-    <t>relationship--052ed218-801b-467b-84d5-6a9737d80df9</t>
-  </si>
-  <si>
-    <t>relationship--d69474ea-3258-43ab-bf2b-cacd6687b6e6</t>
-  </si>
-  <si>
-    <t>relationship--93c7ac63-0115-4ea6-afa3-7ccb8037017b</t>
-  </si>
-  <si>
-    <t>relationship--71ae08b0-038c-4e5d-b1b7-97d8f3ee7236</t>
-  </si>
-  <si>
-    <t>relationship--d73e5bd3-b4ba-4eee-99df-8a8657528bd6</t>
-  </si>
-  <si>
-    <t>relationship--64c86a64-4752-42a8-8fa1-472b35ca99ad</t>
-  </si>
-  <si>
-    <t>relationship--5ec5ede5-7fb7-45aa-ab2d-c1ea13b62811</t>
-  </si>
-  <si>
-    <t>relationship--1f48ef52-a533-4f8b-80f1-7650af3cade9</t>
-  </si>
-  <si>
-    <t>relationship--f3ea415d-2a57-4db2-9350-311a3f8cdbfc</t>
-  </si>
-  <si>
-    <t>relationship--1ca34111-bc50-41f4-b0ea-6adce4f32968</t>
-  </si>
-  <si>
-    <t>relationship--aa9c0a53-2f1c-4f88-9588-06372c213e55</t>
-  </si>
-  <si>
-    <t>relationship--4d1f5a09-cba2-447e-81bf-d66f256a7f6a</t>
-  </si>
-  <si>
-    <t>relationship--ccdb4dca-a64f-4fcf-adff-1ea7f5539616</t>
-  </si>
-  <si>
-    <t>relationship--3ae6749b-835a-4696-a592-296aeb07b11e</t>
-  </si>
-  <si>
-    <t>relationship--db3cca45-eb79-4f5e-a898-2d25331b086e</t>
+    <t>relationship--deef94ac-8697-595f-b314-f3fb5ee0ab08</t>
+  </si>
+  <si>
+    <t>relationship--cebf5ddc-1ad7-5feb-b3bc-0769b073f649</t>
+  </si>
+  <si>
+    <t>relationship--8203e300-dd16-5bb5-9148-eab3f3994dd4</t>
+  </si>
+  <si>
+    <t>relationship--8485a461-d41f-525e-ac67-8a2e28bf29be</t>
+  </si>
+  <si>
+    <t>relationship--7f994a8d-660c-5b92-92ef-0e348309d9cf</t>
+  </si>
+  <si>
+    <t>relationship--29039330-0b92-5b10-9d0e-fdee98bd8249</t>
+  </si>
+  <si>
+    <t>relationship--a3eee88d-79e3-5530-a9b9-97c6e5bcd5e8</t>
+  </si>
+  <si>
+    <t>relationship--0daa34ad-ffde-504b-993e-83afdf86dff0</t>
+  </si>
+  <si>
+    <t>relationship--1b647404-a62f-5a20-9837-8a62571ea7e0</t>
+  </si>
+  <si>
+    <t>relationship--10f21c7f-1235-5f96-9736-536622520f7d</t>
+  </si>
+  <si>
+    <t>relationship--afe194b0-a519-577a-869c-62715a64d03d</t>
+  </si>
+  <si>
+    <t>relationship--c9febb18-36a2-56a5-b4a6-5665b388e152</t>
+  </si>
+  <si>
+    <t>relationship--23378156-ed23-582a-bce7-27249a6c4ad2</t>
+  </si>
+  <si>
+    <t>relationship--d1960448-9ff5-5791-acce-42642b1639de</t>
+  </si>
+  <si>
+    <t>relationship--a91ec579-1c42-5a71-97e2-2d57e57c4442</t>
+  </si>
+  <si>
+    <t>relationship--b89eebe3-ffe8-5b3c-9673-38010be85095</t>
+  </si>
+  <si>
+    <t>relationship--1f8050bb-b4bc-57df-812b-b1d7a3312b96</t>
+  </si>
+  <si>
+    <t>relationship--f57596a7-e21a-5b93-a4cb-11dbab86082d</t>
+  </si>
+  <si>
+    <t>relationship--bcc613e5-99d1-5d47-8668-86b6a3aef026</t>
+  </si>
+  <si>
+    <t>relationship--e708ab68-3f52-5133-b075-3e624c1b6eb1</t>
+  </si>
+  <si>
+    <t>relationship--a962f358-55ef-53db-aff9-5d3e462d0f26</t>
+  </si>
+  <si>
+    <t>relationship--29bb3894-4c30-5f3f-a7ca-14d8c71e5755</t>
+  </si>
+  <si>
+    <t>relationship--2d974021-37c8-5a0b-8f02-629c4d93c9b5</t>
+  </si>
+  <si>
+    <t>relationship--7cf10954-8a64-565a-b579-c6bb469a6cf6</t>
+  </si>
+  <si>
+    <t>relationship--cea7faad-eb25-528d-bc11-ff80fcfa33f7</t>
+  </si>
+  <si>
+    <t>relationship--b244d413-87b5-5047-b11a-d108d4b3411c</t>
+  </si>
+  <si>
+    <t>relationship--2dfdc2d6-dc6d-5383-985a-bc27495ffe5d</t>
+  </si>
+  <si>
+    <t>relationship--a27a4596-ff5e-5c73-aeca-813962fde441</t>
+  </si>
+  <si>
+    <t>relationship--585f37cc-8e77-5439-af10-3fe5fc34316e</t>
+  </si>
+  <si>
+    <t>relationship--60e8b9d1-4407-58a6-aeed-9cf7b0cc260b</t>
+  </si>
+  <si>
+    <t>relationship--4665b9c9-016b-51d0-9b11-49b7ac23201f</t>
+  </si>
+  <si>
+    <t>relationship--199b5d99-82dc-5d56-8440-0f1f308ded6f</t>
+  </si>
+  <si>
+    <t>relationship--7425b4cd-6890-5c21-8a83-41f24306a9fa</t>
+  </si>
+  <si>
+    <t>relationship--497f2bd3-792a-5552-847e-937daff1a197</t>
+  </si>
+  <si>
+    <t>relationship--78cd7808-1e7b-5ec3-abbc-fe428d47842d</t>
+  </si>
+  <si>
+    <t>relationship--99e899c7-1378-509c-a6ca-985160b103ca</t>
+  </si>
+  <si>
+    <t>relationship--ef95dbff-c50a-5aee-a43c-526750d71e3c</t>
+  </si>
+  <si>
+    <t>relationship--cbd51db2-401a-5e51-84fe-b20612a64be8</t>
+  </si>
+  <si>
+    <t>relationship--738c0a81-4036-5d7e-9cca-28f7b3c1d3ff</t>
+  </si>
+  <si>
+    <t>relationship--4cea8617-5bcb-520d-9038-7ea63fe937a4</t>
+  </si>
+  <si>
+    <t>relationship--699c9f5e-c042-5903-a94f-2657b5d63950</t>
+  </si>
+  <si>
+    <t>relationship--a5e5fd8c-ec4e-5dbf-a8f8-68e5cbc8d196</t>
+  </si>
+  <si>
+    <t>relationship--422fae88-ffd4-513d-8c5f-f8a065afecfb</t>
+  </si>
+  <si>
+    <t>relationship--35bdb952-b978-5bcd-a6c5-2bda3e86f471</t>
+  </si>
+  <si>
+    <t>relationship--b87fef2f-29ef-53d4-a41f-6e3a2ce29a73</t>
+  </si>
+  <si>
+    <t>relationship--33622ede-7c97-54a8-b9d1-e92287147f57</t>
+  </si>
+  <si>
+    <t>relationship--0ceb5f22-a528-592a-a1d5-576b12049efe</t>
+  </si>
+  <si>
+    <t>relationship--faddd252-0365-55f0-84bb-a4633b74dec4</t>
+  </si>
+  <si>
+    <t>relationship--137c82fc-3dce-548e-a3b8-a83392c61add</t>
+  </si>
+  <si>
+    <t>relationship--210b65c2-da43-56e0-bb0e-7debb79df312</t>
+  </si>
+  <si>
+    <t>relationship--d4b63ef8-4ba5-5fa6-b121-0e18870a8ecd</t>
+  </si>
+  <si>
+    <t>relationship--126af3cf-7592-5796-97a9-878ef1d7a1ea</t>
+  </si>
+  <si>
+    <t>relationship--5a37e025-8e5e-5551-9f6b-4ec98b31ad63</t>
+  </si>
+  <si>
+    <t>relationship--2d8e31f6-e1ec-59eb-b53e-95be05040df9</t>
+  </si>
+  <si>
+    <t>relationship--4d78d192-5640-5d4b-9d51-20886e87c271</t>
+  </si>
+  <si>
+    <t>relationship--ccf1970e-3154-55dd-82e5-2a13a76cd806</t>
+  </si>
+  <si>
+    <t>relationship--e91b1008-619e-589b-8b1e-efbd36c4f871</t>
+  </si>
+  <si>
+    <t>relationship--07a9cdfe-bdfb-5199-bc84-c8956f67f2ad</t>
+  </si>
+  <si>
+    <t>relationship--44ed6e67-6d53-5b8a-9450-e8e90c957a6b</t>
+  </si>
+  <si>
+    <t>relationship--aecacedf-4a7e-5c2f-adab-d824298b455c</t>
+  </si>
+  <si>
+    <t>relationship--2443d58f-74cb-543f-8d13-e7bf86747f9b</t>
+  </si>
+  <si>
+    <t>relationship--64a2b7bb-f538-55a8-9105-c5e115b6a481</t>
+  </si>
+  <si>
+    <t>relationship--0d4b2f83-f773-57a8-975f-b185488fa00f</t>
+  </si>
+  <si>
+    <t>relationship--20237133-4bfc-53ba-9cff-64ce86ebcf86</t>
+  </si>
+  <si>
+    <t>relationship--987f1f22-b299-5fff-a78c-6bff50690df0</t>
+  </si>
+  <si>
+    <t>relationship--5e2d68b2-0cbb-5eb3-84e4-fac4da317937</t>
+  </si>
+  <si>
+    <t>relationship--e630f5d1-8121-50e8-ad27-f69d4e2618a7</t>
+  </si>
+  <si>
+    <t>relationship--529b8f8a-f5de-55b5-bb44-ae2e652462b2</t>
+  </si>
+  <si>
+    <t>relationship--fd75fccd-71d5-5ac4-b719-7ad6be4dccab</t>
+  </si>
+  <si>
+    <t>relationship--71473d68-9e9c-5338-94a2-84d010d5451a</t>
+  </si>
+  <si>
+    <t>relationship--7527957e-bd29-536d-a883-4a99d8fe061a</t>
+  </si>
+  <si>
+    <t>relationship--2be13968-4c42-57a7-afd2-09dad43ea9d6</t>
+  </si>
+  <si>
+    <t>relationship--63460b74-a8aa-5fa6-92c3-0b14cfc782e9</t>
+  </si>
+  <si>
+    <t>relationship--060fddca-b2d5-59d8-9d28-18b81dd54299</t>
+  </si>
+  <si>
+    <t>relationship--52012ec5-64c7-5805-994f-822b3f5f8b7f</t>
+  </si>
+  <si>
+    <t>relationship--7cb64b6f-c364-5c07-9595-4053b63110a3</t>
+  </si>
+  <si>
+    <t>relationship--a3c31743-c291-5276-9ee3-0662aa12375e</t>
+  </si>
+  <si>
+    <t>relationship--08e6be76-cea6-5041-a8bd-5a705c2663fe</t>
+  </si>
+  <si>
+    <t>relationship--3428f466-e4e4-5b4c-8bd1-89bc77bd72e5</t>
+  </si>
+  <si>
+    <t>relationship--a855f9be-ee50-5698-85b5-b914bb191338</t>
+  </si>
+  <si>
+    <t>relationship--e3b9eb25-bdf7-514a-8eeb-484eb33fc196</t>
+  </si>
+  <si>
+    <t>relationship--82fe042d-2970-5eac-a868-e426e91419d0</t>
+  </si>
+  <si>
+    <t>relationship--e1febe3a-80ec-5c19-bcb7-c5d27cccbb55</t>
+  </si>
+  <si>
+    <t>relationship--c438660b-91a4-5d2b-b0ae-3f02eff5b775</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2011,7 @@
         <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2184,10 +2031,10 @@
         <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2207,10 +2054,10 @@
         <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2230,10 +2077,10 @@
         <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2253,10 +2100,10 @@
         <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2276,10 +2123,10 @@
         <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2299,10 +2146,10 @@
         <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2322,10 +2169,10 @@
         <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2345,10 +2192,10 @@
         <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2368,10 +2215,10 @@
         <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2391,10 +2238,10 @@
         <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2414,10 +2261,10 @@
         <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2440,7 +2287,7 @@
         <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2460,10 +2307,10 @@
         <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2483,10 +2330,10 @@
         <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2506,10 +2353,10 @@
         <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2529,10 +2376,10 @@
         <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2555,7 +2402,7 @@
         <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2575,10 +2422,10 @@
         <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2598,10 +2445,10 @@
         <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2624,7 +2471,7 @@
         <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2647,7 +2494,7 @@
         <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2667,10 +2514,10 @@
         <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2690,10 +2537,10 @@
         <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2713,10 +2560,10 @@
         <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2739,7 +2586,7 @@
         <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2759,10 +2606,10 @@
         <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2782,10 +2629,10 @@
         <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2805,10 +2652,10 @@
         <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2828,10 +2675,10 @@
         <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2851,10 +2698,10 @@
         <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2874,10 +2721,10 @@
         <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2768,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,34 +2776,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2979,34 +2826,34 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L2" t="s">
         <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3020,34 +2867,34 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L3" t="s">
         <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3061,34 +2908,34 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L4" t="s">
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3102,280 +2949,280 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K6" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="K7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K9" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K10" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I11" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K11" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3389,34 +3236,34 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12" t="s">
         <v>340</v>
       </c>
-      <c r="J12" t="s">
-        <v>348</v>
-      </c>
       <c r="K12" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3430,4626 +3277,2986 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I13" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I14" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K14" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J15" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K15" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I16" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J16" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K16" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I17" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I18" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K19" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K20" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K21" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I23" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K23" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="I24" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K24" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>257</v>
       </c>
       <c r="H25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I25" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K25" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I26" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K26" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H27" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K27" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I28" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K28" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="L28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
         <v>259</v>
       </c>
       <c r="H29" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K29" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
         <v>260</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I30" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K30" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
         <v>261</v>
       </c>
       <c r="H31" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K31" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H32" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="I32" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K32" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I33" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
         <v>361</v>
       </c>
       <c r="K33" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K34" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I35" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J35" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K35" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s">
         <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I36" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L36" t="s">
         <v>168</v>
       </c>
       <c r="M36" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K39" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M39" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
         <v>265</v>
       </c>
       <c r="H40" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K40" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="I41" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H46" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K46" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="I47" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s">
         <v>168</v>
       </c>
       <c r="M48" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I49" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="L49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M49" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H50" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J50" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K50" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M50" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J51" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s">
         <v>168</v>
       </c>
       <c r="M52" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="I53" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J53" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s">
         <v>168</v>
       </c>
       <c r="M53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="I54" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
         <v>168</v>
       </c>
       <c r="M54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H55" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I55" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s">
         <v>168</v>
       </c>
       <c r="M55" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H56" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="I56" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="K56" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s">
         <v>168</v>
       </c>
       <c r="M56" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="H57" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="I57" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J57" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s">
         <v>168</v>
       </c>
       <c r="M57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I58" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J58" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M58" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G59" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J59" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K59" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H60" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="I60" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J60" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="K60" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M60" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F61" t="s">
         <v>204</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H61" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I61" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J61" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="K61" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M61" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G62" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I62" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J62" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H63" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="I63" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K63" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M63" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="H64" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J64" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L64" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M64" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G65" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I65" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J65" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K65" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="L65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M65" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H66" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I66" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J66" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K66" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G67" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H67" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="I67" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J67" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K67" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="L67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M67" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="G68" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="I68" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J68" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K68" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s">
         <v>168</v>
       </c>
       <c r="M68" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H69" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="I69" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J69" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="K69" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s">
         <v>168</v>
       </c>
       <c r="M69" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="H70" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="I70" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J70" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="K70" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="L70" t="s">
         <v>168</v>
       </c>
       <c r="M70" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F71" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="I71" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J71" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="K71" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="L71" t="s">
         <v>168</v>
       </c>
       <c r="M71" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H72" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I72" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J72" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K72" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s">
         <v>168</v>
       </c>
       <c r="M72" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H73" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I73" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J73" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K73" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M73" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J74" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="K74" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="L74" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M74" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I75" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J75" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="K75" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="L75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M75" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I76" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J76" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="K76" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M76" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G77" t="s">
         <v>279</v>
       </c>
       <c r="H77" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I77" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J77" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K77" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M77" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="H78" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="I78" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J78" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="K78" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L78" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M78" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="H79" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="I79" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J79" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="K79" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M79" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="H80" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="I80" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J80" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="K80" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M80" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I81" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J81" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="K81" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="L81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M81" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="G82" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="I82" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J82" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="K82" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="L82" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M82" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="H83" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="I83" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J83" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K83" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="L83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M83" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F84" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I84" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J84" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="K84" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="L84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M84" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H85" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I85" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J85" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="K85" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" t="s">
-        <v>179</v>
-      </c>
-      <c r="E86" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G86" t="s">
-        <v>281</v>
-      </c>
-      <c r="H86" t="s">
-        <v>334</v>
-      </c>
-      <c r="I86" t="s">
-        <v>340</v>
-      </c>
-      <c r="J86" t="s">
-        <v>394</v>
-      </c>
-      <c r="K86" t="s">
-        <v>509</v>
-      </c>
-      <c r="L86" t="s">
-        <v>168</v>
-      </c>
-      <c r="M86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" t="s">
-        <v>179</v>
-      </c>
-      <c r="E87" t="s">
-        <v>180</v>
-      </c>
-      <c r="F87" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" t="s">
-        <v>282</v>
-      </c>
-      <c r="H87" t="s">
-        <v>335</v>
-      </c>
-      <c r="I87" t="s">
-        <v>340</v>
-      </c>
-      <c r="J87" t="s">
-        <v>395</v>
-      </c>
-      <c r="K87" t="s">
-        <v>510</v>
-      </c>
-      <c r="L87" t="s">
-        <v>168</v>
-      </c>
-      <c r="M87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E88" t="s">
-        <v>180</v>
-      </c>
-      <c r="F88" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" t="s">
-        <v>234</v>
-      </c>
-      <c r="H88" t="s">
-        <v>287</v>
-      </c>
-      <c r="I88" t="s">
-        <v>340</v>
-      </c>
-      <c r="J88" t="s">
-        <v>396</v>
-      </c>
-      <c r="K88" t="s">
-        <v>511</v>
-      </c>
-      <c r="L88" t="s">
-        <v>168</v>
-      </c>
-      <c r="M88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" t="s">
-        <v>217</v>
-      </c>
-      <c r="G89" t="s">
-        <v>270</v>
-      </c>
-      <c r="H89" t="s">
-        <v>323</v>
-      </c>
-      <c r="I89" t="s">
-        <v>340</v>
-      </c>
-      <c r="J89" t="s">
-        <v>396</v>
-      </c>
-      <c r="K89" t="s">
-        <v>512</v>
-      </c>
-      <c r="L89" t="s">
-        <v>168</v>
-      </c>
-      <c r="M89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" t="s">
-        <v>179</v>
-      </c>
-      <c r="E90" t="s">
-        <v>180</v>
-      </c>
-      <c r="F90" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" t="s">
-        <v>240</v>
-      </c>
-      <c r="H90" t="s">
-        <v>293</v>
-      </c>
-      <c r="I90" t="s">
-        <v>340</v>
-      </c>
-      <c r="J90" t="s">
-        <v>397</v>
-      </c>
-      <c r="K90" t="s">
-        <v>513</v>
-      </c>
-      <c r="L90" t="s">
-        <v>168</v>
-      </c>
-      <c r="M90" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" t="s">
-        <v>180</v>
-      </c>
-      <c r="F91" t="s">
-        <v>201</v>
-      </c>
-      <c r="G91" t="s">
-        <v>254</v>
-      </c>
-      <c r="H91" t="s">
-        <v>307</v>
-      </c>
-      <c r="I91" t="s">
-        <v>340</v>
-      </c>
-      <c r="J91" t="s">
-        <v>398</v>
-      </c>
-      <c r="K91" t="s">
-        <v>514</v>
-      </c>
-      <c r="L91" t="s">
-        <v>168</v>
-      </c>
-      <c r="M91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" t="s">
-        <v>230</v>
-      </c>
-      <c r="G92" t="s">
-        <v>283</v>
-      </c>
-      <c r="H92" t="s">
-        <v>336</v>
-      </c>
-      <c r="I92" t="s">
-        <v>340</v>
-      </c>
-      <c r="J92" t="s">
-        <v>399</v>
-      </c>
-      <c r="K92" t="s">
-        <v>515</v>
-      </c>
-      <c r="L92" t="s">
-        <v>168</v>
-      </c>
-      <c r="M92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" t="s">
-        <v>63</v>
-      </c>
-      <c r="D93" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" t="s">
-        <v>180</v>
-      </c>
-      <c r="F93" t="s">
-        <v>202</v>
-      </c>
-      <c r="G93" t="s">
-        <v>255</v>
-      </c>
-      <c r="H93" t="s">
-        <v>308</v>
-      </c>
-      <c r="I93" t="s">
-        <v>340</v>
-      </c>
-      <c r="J93" t="s">
-        <v>400</v>
-      </c>
-      <c r="K93" t="s">
-        <v>516</v>
-      </c>
-      <c r="L93" t="s">
-        <v>168</v>
-      </c>
-      <c r="M93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" t="s">
-        <v>180</v>
-      </c>
-      <c r="F94" t="s">
-        <v>226</v>
-      </c>
-      <c r="G94" t="s">
-        <v>279</v>
-      </c>
-      <c r="H94" t="s">
-        <v>332</v>
-      </c>
-      <c r="I94" t="s">
-        <v>340</v>
-      </c>
-      <c r="J94" t="s">
-        <v>401</v>
-      </c>
-      <c r="K94" t="s">
-        <v>517</v>
-      </c>
-      <c r="L94" t="s">
-        <v>168</v>
-      </c>
-      <c r="M94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D95" t="s">
-        <v>179</v>
-      </c>
-      <c r="E95" t="s">
-        <v>180</v>
-      </c>
-      <c r="F95" t="s">
-        <v>227</v>
-      </c>
-      <c r="G95" t="s">
-        <v>280</v>
-      </c>
-      <c r="H95" t="s">
-        <v>333</v>
-      </c>
-      <c r="I95" t="s">
-        <v>340</v>
-      </c>
-      <c r="J95" t="s">
-        <v>401</v>
-      </c>
-      <c r="K95" t="s">
-        <v>518</v>
-      </c>
-      <c r="L95" t="s">
-        <v>168</v>
-      </c>
-      <c r="M95" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" t="s">
-        <v>179</v>
-      </c>
-      <c r="E96" t="s">
-        <v>180</v>
-      </c>
-      <c r="F96" t="s">
-        <v>194</v>
-      </c>
-      <c r="G96" t="s">
-        <v>247</v>
-      </c>
-      <c r="H96" t="s">
-        <v>300</v>
-      </c>
-      <c r="I96" t="s">
-        <v>340</v>
-      </c>
-      <c r="J96" t="s">
-        <v>402</v>
-      </c>
-      <c r="K96" t="s">
-        <v>519</v>
-      </c>
-      <c r="L96" t="s">
-        <v>168</v>
-      </c>
-      <c r="M96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" t="s">
-        <v>179</v>
-      </c>
-      <c r="E97" t="s">
-        <v>180</v>
-      </c>
-      <c r="F97" t="s">
-        <v>195</v>
-      </c>
-      <c r="G97" t="s">
-        <v>248</v>
-      </c>
-      <c r="H97" t="s">
-        <v>301</v>
-      </c>
-      <c r="I97" t="s">
-        <v>340</v>
-      </c>
-      <c r="J97" t="s">
-        <v>402</v>
-      </c>
-      <c r="K97" t="s">
-        <v>520</v>
-      </c>
-      <c r="L97" t="s">
-        <v>168</v>
-      </c>
-      <c r="M97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" t="s">
-        <v>179</v>
-      </c>
-      <c r="E98" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" t="s">
-        <v>197</v>
-      </c>
-      <c r="G98" t="s">
-        <v>250</v>
-      </c>
-      <c r="H98" t="s">
-        <v>303</v>
-      </c>
-      <c r="I98" t="s">
-        <v>340</v>
-      </c>
-      <c r="J98" t="s">
-        <v>402</v>
-      </c>
-      <c r="K98" t="s">
-        <v>521</v>
-      </c>
-      <c r="L98" t="s">
-        <v>168</v>
-      </c>
-      <c r="M98" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" t="s">
-        <v>179</v>
-      </c>
-      <c r="E99" t="s">
-        <v>180</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
-      </c>
-      <c r="G99" t="s">
-        <v>251</v>
-      </c>
-      <c r="H99" t="s">
-        <v>304</v>
-      </c>
-      <c r="I99" t="s">
-        <v>340</v>
-      </c>
-      <c r="J99" t="s">
-        <v>402</v>
-      </c>
-      <c r="K99" t="s">
-        <v>522</v>
-      </c>
-      <c r="L99" t="s">
-        <v>168</v>
-      </c>
-      <c r="M99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E100" t="s">
-        <v>180</v>
-      </c>
-      <c r="F100" t="s">
-        <v>231</v>
-      </c>
-      <c r="G100" t="s">
-        <v>284</v>
-      </c>
-      <c r="H100" t="s">
-        <v>337</v>
-      </c>
-      <c r="I100" t="s">
-        <v>340</v>
-      </c>
-      <c r="J100" t="s">
-        <v>403</v>
-      </c>
-      <c r="K100" t="s">
-        <v>523</v>
-      </c>
-      <c r="L100" t="s">
-        <v>168</v>
-      </c>
-      <c r="M100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" t="s">
-        <v>180</v>
-      </c>
-      <c r="F101" t="s">
-        <v>207</v>
-      </c>
-      <c r="G101" t="s">
-        <v>260</v>
-      </c>
-      <c r="H101" t="s">
-        <v>313</v>
-      </c>
-      <c r="I101" t="s">
-        <v>340</v>
-      </c>
-      <c r="J101" t="s">
-        <v>404</v>
-      </c>
-      <c r="K101" t="s">
-        <v>524</v>
-      </c>
-      <c r="L101" t="s">
-        <v>168</v>
-      </c>
-      <c r="M101" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E102" t="s">
-        <v>180</v>
-      </c>
-      <c r="F102" t="s">
-        <v>210</v>
-      </c>
-      <c r="G102" t="s">
-        <v>263</v>
-      </c>
-      <c r="H102" t="s">
-        <v>316</v>
-      </c>
-      <c r="I102" t="s">
-        <v>340</v>
-      </c>
-      <c r="J102" t="s">
-        <v>405</v>
-      </c>
-      <c r="K102" t="s">
-        <v>525</v>
-      </c>
-      <c r="L102" t="s">
-        <v>168</v>
-      </c>
-      <c r="M102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" t="s">
-        <v>180</v>
-      </c>
-      <c r="F103" t="s">
-        <v>184</v>
-      </c>
-      <c r="G103" t="s">
-        <v>237</v>
-      </c>
-      <c r="H103" t="s">
-        <v>290</v>
-      </c>
-      <c r="I103" t="s">
-        <v>340</v>
-      </c>
-      <c r="J103" t="s">
-        <v>406</v>
-      </c>
-      <c r="K103" t="s">
-        <v>526</v>
-      </c>
-      <c r="L103" t="s">
-        <v>168</v>
-      </c>
-      <c r="M103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" t="s">
-        <v>179</v>
-      </c>
-      <c r="E104" t="s">
-        <v>180</v>
-      </c>
-      <c r="F104" t="s">
-        <v>181</v>
-      </c>
-      <c r="G104" t="s">
-        <v>234</v>
-      </c>
-      <c r="H104" t="s">
-        <v>287</v>
-      </c>
-      <c r="I104" t="s">
-        <v>340</v>
-      </c>
-      <c r="J104" t="s">
-        <v>407</v>
-      </c>
-      <c r="K104" t="s">
-        <v>527</v>
-      </c>
-      <c r="L104" t="s">
-        <v>168</v>
-      </c>
-      <c r="M104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" t="s">
-        <v>179</v>
-      </c>
-      <c r="E105" t="s">
-        <v>180</v>
-      </c>
-      <c r="F105" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" t="s">
-        <v>235</v>
-      </c>
-      <c r="H105" t="s">
-        <v>288</v>
-      </c>
-      <c r="I105" t="s">
-        <v>340</v>
-      </c>
-      <c r="J105" t="s">
-        <v>408</v>
-      </c>
-      <c r="K105" t="s">
-        <v>528</v>
-      </c>
-      <c r="L105" t="s">
-        <v>168</v>
-      </c>
-      <c r="M105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" t="s">
-        <v>179</v>
-      </c>
-      <c r="E106" t="s">
-        <v>180</v>
-      </c>
-      <c r="F106" t="s">
-        <v>183</v>
-      </c>
-      <c r="G106" t="s">
-        <v>236</v>
-      </c>
-      <c r="H106" t="s">
-        <v>289</v>
-      </c>
-      <c r="I106" t="s">
-        <v>340</v>
-      </c>
-      <c r="J106" t="s">
-        <v>409</v>
-      </c>
-      <c r="K106" t="s">
-        <v>529</v>
-      </c>
-      <c r="L106" t="s">
-        <v>168</v>
-      </c>
-      <c r="M106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" t="s">
-        <v>180</v>
-      </c>
-      <c r="F107" t="s">
-        <v>217</v>
-      </c>
-      <c r="G107" t="s">
-        <v>270</v>
-      </c>
-      <c r="H107" t="s">
-        <v>323</v>
-      </c>
-      <c r="I107" t="s">
-        <v>340</v>
-      </c>
-      <c r="J107" t="s">
-        <v>407</v>
-      </c>
-      <c r="K107" t="s">
-        <v>530</v>
-      </c>
-      <c r="L107" t="s">
-        <v>168</v>
-      </c>
-      <c r="M107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" t="s">
-        <v>179</v>
-      </c>
-      <c r="E108" t="s">
-        <v>180</v>
-      </c>
-      <c r="F108" t="s">
-        <v>228</v>
-      </c>
-      <c r="G108" t="s">
-        <v>281</v>
-      </c>
-      <c r="H108" t="s">
-        <v>334</v>
-      </c>
-      <c r="I108" t="s">
-        <v>340</v>
-      </c>
-      <c r="J108" t="s">
-        <v>410</v>
-      </c>
-      <c r="K108" t="s">
-        <v>531</v>
-      </c>
-      <c r="L108" t="s">
-        <v>168</v>
-      </c>
-      <c r="M108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" t="s">
-        <v>179</v>
-      </c>
-      <c r="E109" t="s">
-        <v>180</v>
-      </c>
-      <c r="F109" t="s">
-        <v>229</v>
-      </c>
-      <c r="G109" t="s">
-        <v>282</v>
-      </c>
-      <c r="H109" t="s">
-        <v>335</v>
-      </c>
-      <c r="I109" t="s">
-        <v>340</v>
-      </c>
-      <c r="J109" t="s">
-        <v>411</v>
-      </c>
-      <c r="K109" t="s">
-        <v>532</v>
-      </c>
-      <c r="L109" t="s">
-        <v>168</v>
-      </c>
-      <c r="M109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" t="s">
-        <v>179</v>
-      </c>
-      <c r="E110" t="s">
-        <v>180</v>
-      </c>
-      <c r="F110" t="s">
-        <v>205</v>
-      </c>
-      <c r="G110" t="s">
-        <v>258</v>
-      </c>
-      <c r="H110" t="s">
-        <v>311</v>
-      </c>
-      <c r="I110" t="s">
-        <v>340</v>
-      </c>
-      <c r="J110" t="s">
-        <v>412</v>
-      </c>
-      <c r="K110" t="s">
-        <v>533</v>
-      </c>
-      <c r="L110" t="s">
-        <v>168</v>
-      </c>
-      <c r="M110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" t="s">
-        <v>180</v>
-      </c>
-      <c r="F111" t="s">
-        <v>226</v>
-      </c>
-      <c r="G111" t="s">
-        <v>279</v>
-      </c>
-      <c r="H111" t="s">
-        <v>332</v>
-      </c>
-      <c r="I111" t="s">
-        <v>340</v>
-      </c>
-      <c r="J111" t="s">
-        <v>413</v>
-      </c>
-      <c r="K111" t="s">
-        <v>534</v>
-      </c>
-      <c r="L111" t="s">
-        <v>168</v>
-      </c>
-      <c r="M111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" t="s">
-        <v>66</v>
-      </c>
-      <c r="D112" t="s">
-        <v>179</v>
-      </c>
-      <c r="E112" t="s">
-        <v>180</v>
-      </c>
-      <c r="F112" t="s">
-        <v>203</v>
-      </c>
-      <c r="G112" t="s">
-        <v>256</v>
-      </c>
-      <c r="H112" t="s">
-        <v>309</v>
-      </c>
-      <c r="I112" t="s">
-        <v>340</v>
-      </c>
-      <c r="J112" t="s">
-        <v>414</v>
-      </c>
-      <c r="K112" t="s">
-        <v>535</v>
-      </c>
-      <c r="L112" t="s">
-        <v>168</v>
-      </c>
-      <c r="M112" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" t="s">
-        <v>66</v>
-      </c>
-      <c r="D113" t="s">
-        <v>179</v>
-      </c>
-      <c r="E113" t="s">
-        <v>180</v>
-      </c>
-      <c r="F113" t="s">
-        <v>204</v>
-      </c>
-      <c r="G113" t="s">
-        <v>257</v>
-      </c>
-      <c r="H113" t="s">
-        <v>310</v>
-      </c>
-      <c r="I113" t="s">
-        <v>340</v>
-      </c>
-      <c r="J113" t="s">
-        <v>414</v>
-      </c>
-      <c r="K113" t="s">
-        <v>536</v>
-      </c>
-      <c r="L113" t="s">
-        <v>168</v>
-      </c>
-      <c r="M113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114" t="s">
-        <v>179</v>
-      </c>
-      <c r="E114" t="s">
-        <v>180</v>
-      </c>
-      <c r="F114" t="s">
-        <v>189</v>
-      </c>
-      <c r="G114" t="s">
-        <v>242</v>
-      </c>
-      <c r="H114" t="s">
-        <v>295</v>
-      </c>
-      <c r="I114" t="s">
-        <v>340</v>
-      </c>
-      <c r="J114" t="s">
-        <v>412</v>
-      </c>
-      <c r="K114" t="s">
-        <v>537</v>
-      </c>
-      <c r="L114" t="s">
-        <v>168</v>
-      </c>
-      <c r="M114" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" t="s">
-        <v>67</v>
-      </c>
-      <c r="D115" t="s">
-        <v>179</v>
-      </c>
-      <c r="E115" t="s">
-        <v>180</v>
-      </c>
-      <c r="F115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G115" t="s">
-        <v>257</v>
-      </c>
-      <c r="H115" t="s">
-        <v>310</v>
-      </c>
-      <c r="I115" t="s">
-        <v>340</v>
-      </c>
-      <c r="J115" t="s">
-        <v>415</v>
-      </c>
-      <c r="K115" t="s">
-        <v>538</v>
-      </c>
-      <c r="L115" t="s">
-        <v>168</v>
-      </c>
-      <c r="M115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-      <c r="C116" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" t="s">
-        <v>180</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
-      </c>
-      <c r="G116" t="s">
-        <v>285</v>
-      </c>
-      <c r="H116" t="s">
-        <v>338</v>
-      </c>
-      <c r="I116" t="s">
-        <v>340</v>
-      </c>
-      <c r="J116" t="s">
-        <v>416</v>
-      </c>
-      <c r="K116" t="s">
-        <v>539</v>
-      </c>
-      <c r="L116" t="s">
-        <v>168</v>
-      </c>
-      <c r="M116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" t="s">
-        <v>100</v>
-      </c>
-      <c r="C117" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" t="s">
-        <v>179</v>
-      </c>
-      <c r="E117" t="s">
-        <v>180</v>
-      </c>
-      <c r="F117" t="s">
-        <v>187</v>
-      </c>
-      <c r="G117" t="s">
-        <v>240</v>
-      </c>
-      <c r="H117" t="s">
-        <v>293</v>
-      </c>
-      <c r="I117" t="s">
-        <v>340</v>
-      </c>
-      <c r="J117" t="s">
-        <v>417</v>
-      </c>
-      <c r="K117" t="s">
-        <v>540</v>
-      </c>
-      <c r="L117" t="s">
-        <v>168</v>
-      </c>
-      <c r="M117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" t="s">
-        <v>100</v>
-      </c>
-      <c r="C118" t="s">
-        <v>68</v>
-      </c>
-      <c r="D118" t="s">
-        <v>179</v>
-      </c>
-      <c r="E118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F118" t="s">
-        <v>233</v>
-      </c>
-      <c r="G118" t="s">
-        <v>286</v>
-      </c>
-      <c r="H118" t="s">
-        <v>339</v>
-      </c>
-      <c r="I118" t="s">
-        <v>340</v>
-      </c>
-      <c r="J118" t="s">
-        <v>418</v>
-      </c>
-      <c r="K118" t="s">
-        <v>541</v>
-      </c>
-      <c r="L118" t="s">
-        <v>168</v>
-      </c>
-      <c r="M118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119" t="s">
-        <v>69</v>
-      </c>
-      <c r="D119" t="s">
-        <v>179</v>
-      </c>
-      <c r="E119" t="s">
-        <v>180</v>
-      </c>
-      <c r="F119" t="s">
-        <v>189</v>
-      </c>
-      <c r="G119" t="s">
-        <v>242</v>
-      </c>
-      <c r="H119" t="s">
-        <v>295</v>
-      </c>
-      <c r="I119" t="s">
-        <v>340</v>
-      </c>
-      <c r="J119" t="s">
-        <v>419</v>
-      </c>
-      <c r="K119" t="s">
-        <v>542</v>
-      </c>
-      <c r="L119" t="s">
-        <v>168</v>
-      </c>
-      <c r="M119" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C120" t="s">
-        <v>69</v>
-      </c>
-      <c r="D120" t="s">
-        <v>179</v>
-      </c>
-      <c r="E120" t="s">
-        <v>180</v>
-      </c>
-      <c r="F120" t="s">
-        <v>209</v>
-      </c>
-      <c r="G120" t="s">
-        <v>262</v>
-      </c>
-      <c r="H120" t="s">
-        <v>315</v>
-      </c>
-      <c r="I120" t="s">
-        <v>340</v>
-      </c>
-      <c r="J120" t="s">
-        <v>419</v>
-      </c>
-      <c r="K120" t="s">
-        <v>543</v>
-      </c>
-      <c r="L120" t="s">
-        <v>168</v>
-      </c>
-      <c r="M120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" t="s">
-        <v>101</v>
-      </c>
-      <c r="C121" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" t="s">
-        <v>180</v>
-      </c>
-      <c r="F121" t="s">
-        <v>210</v>
-      </c>
-      <c r="G121" t="s">
-        <v>263</v>
-      </c>
-      <c r="H121" t="s">
-        <v>316</v>
-      </c>
-      <c r="I121" t="s">
-        <v>340</v>
-      </c>
-      <c r="J121" t="s">
-        <v>420</v>
-      </c>
-      <c r="K121" t="s">
-        <v>544</v>
-      </c>
-      <c r="L121" t="s">
-        <v>168</v>
-      </c>
-      <c r="M121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B122" t="s">
-        <v>102</v>
-      </c>
-      <c r="C122" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" t="s">
-        <v>179</v>
-      </c>
-      <c r="E122" t="s">
-        <v>180</v>
-      </c>
-      <c r="F122" t="s">
-        <v>213</v>
-      </c>
-      <c r="G122" t="s">
-        <v>266</v>
-      </c>
-      <c r="H122" t="s">
-        <v>319</v>
-      </c>
-      <c r="I122" t="s">
-        <v>340</v>
-      </c>
-      <c r="J122" t="s">
-        <v>421</v>
-      </c>
-      <c r="K122" t="s">
-        <v>545</v>
-      </c>
-      <c r="L122" t="s">
-        <v>168</v>
-      </c>
-      <c r="M122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" t="s">
-        <v>179</v>
-      </c>
-      <c r="E123" t="s">
-        <v>180</v>
-      </c>
-      <c r="F123" t="s">
-        <v>185</v>
-      </c>
-      <c r="G123" t="s">
-        <v>238</v>
-      </c>
-      <c r="H123" t="s">
-        <v>291</v>
-      </c>
-      <c r="I123" t="s">
-        <v>340</v>
-      </c>
-      <c r="J123" t="s">
-        <v>422</v>
-      </c>
-      <c r="K123" t="s">
-        <v>546</v>
-      </c>
-      <c r="L123" t="s">
-        <v>168</v>
-      </c>
-      <c r="M123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" t="s">
-        <v>179</v>
-      </c>
-      <c r="E124" t="s">
-        <v>180</v>
-      </c>
-      <c r="F124" t="s">
-        <v>187</v>
-      </c>
-      <c r="G124" t="s">
-        <v>240</v>
-      </c>
-      <c r="H124" t="s">
-        <v>293</v>
-      </c>
-      <c r="I124" t="s">
-        <v>340</v>
-      </c>
-      <c r="J124" t="s">
-        <v>423</v>
-      </c>
-      <c r="K124" t="s">
-        <v>547</v>
-      </c>
-      <c r="L124" t="s">
-        <v>168</v>
-      </c>
-      <c r="M124" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" t="s">
-        <v>39</v>
-      </c>
-      <c r="B125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C125" t="s">
-        <v>71</v>
-      </c>
-      <c r="D125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" t="s">
-        <v>180</v>
-      </c>
-      <c r="F125" t="s">
-        <v>187</v>
-      </c>
-      <c r="G125" t="s">
-        <v>240</v>
-      </c>
-      <c r="H125" t="s">
-        <v>293</v>
-      </c>
-      <c r="I125" t="s">
-        <v>340</v>
-      </c>
-      <c r="J125" t="s">
-        <v>424</v>
-      </c>
-      <c r="K125" t="s">
-        <v>548</v>
-      </c>
-      <c r="L125" t="s">
-        <v>168</v>
-      </c>
-      <c r="M125" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
